--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\cabd\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7201EDE-8BCA-4B82-9486-FC55DC97C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2536B4C-918D-4DF5-B00E-65D3A7282121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2536B4C-918D-4DF5-B00E-65D3A7282121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59430DB9-C26B-446D-BF0B-1D93019DA287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$B$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>CODIGO</t>
   </si>
@@ -198,13 +221,49 @@
   </si>
   <si>
     <t>Minutos</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Gesto a Escanear</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "CABALLO" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "ESTRELLA" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "NORMAL" (segunda forma) según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto Correspondiente a la palabra "CUIDADO" según el lenguaje de señas colombiano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +398,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -521,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -636,6 +700,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -681,7 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,8 +768,18 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1013,24 +1102,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="5"/>
+    <col min="10" max="10" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,446 +1144,629 @@
       <c r="G1" s="2">
         <v>45685</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="I1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>2200833</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2/F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="e" cm="1">
+        <f t="array" ref="J2">_xlfn.IFS(I2=1,Sheet1!$A$1,I2=2,Sheet1!$A$2,I2=3,Sheet1!$A$3,I2=4,Sheet1!$A$4,I2=5,Sheet1!$A$5,I2=6,Sheet1!$A$6,I2=7,Sheet1!$A$7,I2=8,Sheet1!$A$8,I2="","")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2216295</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>60</v>
+      </c>
+      <c r="G3" s="5">
+        <v>59</v>
+      </c>
+      <c r="H3" s="6">
+        <f>G3/F3</f>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="str" cm="1">
+        <f t="array" ref="J3">_xlfn.IFS(I3=1,Sheet1!$A$1,I3=2,Sheet1!$A$2,I3=3,Sheet1!$A$3,I3=4,Sheet1!$A$4,I3=5,Sheet1!$A$5,I3=6,Sheet1!$A$6,I3=7,Sheet1!$A$7,I3=8,Sheet1!$A$8,I3="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2205127</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5">
+        <v>60</v>
+      </c>
+      <c r="G4" s="5">
+        <v>60</v>
+      </c>
+      <c r="H4" s="6">
+        <f>G4/F4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="str" cm="1">
+        <f t="array" ref="J4">_xlfn.IFS(I4=1,Sheet1!$A$1,I4=2,Sheet1!$A$2,I4=3,Sheet1!$A$3,I4=4,Sheet1!$A$4,I4=5,Sheet1!$A$5,I4=6,Sheet1!$A$6,I4=7,Sheet1!$A$7,I4=8,Sheet1!$A$8,I4="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2170311</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5">
+        <v>60</v>
+      </c>
+      <c r="G5" s="5">
+        <v>60</v>
+      </c>
+      <c r="H5" s="6">
+        <f>G5/F5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="str" cm="1">
+        <f t="array" ref="J5">_xlfn.IFS(I5=1,Sheet1!$A$1,I5=2,Sheet1!$A$2,I5=3,Sheet1!$A$3,I5=4,Sheet1!$A$4,I5=5,Sheet1!$A$5,I5=6,Sheet1!$A$6,I5=7,Sheet1!$A$7,I5=8,Sheet1!$A$8,I5="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2210177</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F6" s="5">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5">
         <v>58</v>
       </c>
-      <c r="H2" s="3">
-        <f>G2/F2</f>
+      <c r="H6" s="6">
+        <f>G6/F6</f>
         <v>0.96666666666666667</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2216295</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="str" cm="1">
+        <f t="array" ref="J6">_xlfn.IFS(I6=1,Sheet1!$A$1,I6=2,Sheet1!$A$2,I6=3,Sheet1!$A$3,I6=4,Sheet1!$A$4,I6=5,Sheet1!$A$5,I6=6,Sheet1!$A$6,I6=7,Sheet1!$A$7,I6=8,Sheet1!$A$8,I6="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2201757</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5">
+        <v>60</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <f>G7/F7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="str" cm="1">
+        <f t="array" ref="J7">_xlfn.IFS(I7=1,Sheet1!$A$1,I7=2,Sheet1!$A$2,I7=3,Sheet1!$A$3,I7=4,Sheet1!$A$4,I7=5,Sheet1!$A$5,I7=6,Sheet1!$A$6,I7=7,Sheet1!$A$7,I7=8,Sheet1!$A$8,I7="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2175459</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5">
+        <v>60</v>
+      </c>
+      <c r="H8" s="6">
+        <f>G8/F8</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7" t="str" cm="1">
+        <f t="array" ref="J8">_xlfn.IFS(I8=1,Sheet1!$A$1,I8=2,Sheet1!$A$2,I8=3,Sheet1!$A$3,I8=4,Sheet1!$A$4,I8=5,Sheet1!$A$5,I8=6,Sheet1!$A$6,I8=7,Sheet1!$A$7,I8=8,Sheet1!$A$8,I8="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2210005</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6">
+        <f>G9/F9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7" t="str" cm="1">
+        <f t="array" ref="J9">_xlfn.IFS(I9=1,Sheet1!$A$1,I9=2,Sheet1!$A$2,I9=3,Sheet1!$A$3,I9=4,Sheet1!$A$4,I9=5,Sheet1!$A$5,I9=6,Sheet1!$A$6,I9=7,Sheet1!$A$7,I9=8,Sheet1!$A$8,I9="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2211671</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <v>60</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F10" s="5">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5">
         <v>54</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H17" si="0">G3/F3</f>
+      <c r="H10" s="6">
+        <f>G10/F10</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2205127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" s="7" t="str" cm="1">
+        <f t="array" ref="J10">_xlfn.IFS(I10=1,Sheet1!$A$1,I10=2,Sheet1!$A$2,I10=3,Sheet1!$A$3,I10=4,Sheet1!$A$4,I10=5,Sheet1!$A$5,I10=6,Sheet1!$A$6,I10=7,Sheet1!$A$7,I10=8,Sheet1!$A$8,I10="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2210261</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5">
+        <v>60</v>
+      </c>
+      <c r="G11" s="5">
+        <v>60</v>
+      </c>
+      <c r="H11" s="6">
+        <f>G11/F11</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4</v>
+      </c>
+      <c r="J11" s="7" t="str" cm="1">
+        <f t="array" ref="J11">_xlfn.IFS(I11=1,Sheet1!$A$1,I11=2,Sheet1!$A$2,I11=3,Sheet1!$A$3,I11=4,Sheet1!$A$4,I11=5,Sheet1!$A$5,I11=6,Sheet1!$A$6,I11=7,Sheet1!$A$7,I11=8,Sheet1!$A$8,I11="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2200689</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1">
-        <v>59</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98333333333333328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2170311</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5">
+        <v>60</v>
+      </c>
+      <c r="G12" s="5">
+        <v>55</v>
+      </c>
+      <c r="H12" s="6">
+        <f>G12/F12</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7" t="str" cm="1">
+        <f t="array" ref="J12">_xlfn.IFS(I12=1,Sheet1!$A$1,I12=2,Sheet1!$A$2,I12=3,Sheet1!$A$3,I12=4,Sheet1!$A$4,I12=5,Sheet1!$A$5,I12=6,Sheet1!$A$6,I12=7,Sheet1!$A$7,I12=8,Sheet1!$A$8,I12="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2206464</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1">
-        <v>60</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2210177</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5">
+        <v>60</v>
+      </c>
+      <c r="G13" s="5">
+        <v>58</v>
+      </c>
+      <c r="H13" s="6">
+        <f>G13/F13</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7" t="str" cm="1">
+        <f t="array" ref="J13">_xlfn.IFS(I13=1,Sheet1!$A$1,I13=2,Sheet1!$A$2,I13=3,Sheet1!$A$3,I13=4,Sheet1!$A$4,I13=5,Sheet1!$A$5,I13=6,Sheet1!$A$6,I13=7,Sheet1!$A$7,I13=8,Sheet1!$A$8,I13="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2215280</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1">
-        <v>60</v>
-      </c>
-      <c r="G6" s="1">
-        <v>60</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2201757</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5">
+        <v>60</v>
+      </c>
+      <c r="G14" s="5">
+        <v>58</v>
+      </c>
+      <c r="H14" s="6">
+        <f>G14/F14</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="7" t="str" cm="1">
+        <f t="array" ref="J14">_xlfn.IFS(I14=1,Sheet1!$A$1,I14=2,Sheet1!$A$2,I14=3,Sheet1!$A$3,I14=4,Sheet1!$A$4,I14=5,Sheet1!$A$5,I14=6,Sheet1!$A$6,I14=7,Sheet1!$A$7,I14=8,Sheet1!$A$8,I14="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2210166</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1">
-        <v>60</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2175459</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1">
-        <v>60</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2210005</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1">
-        <v>58</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2211671</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1">
-        <v>58</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2210261</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1">
-        <v>60</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2200689</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1">
-        <v>60</v>
-      </c>
-      <c r="G12" s="1">
-        <v>60</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2206464</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1">
-        <v>60</v>
-      </c>
-      <c r="G13" s="1">
-        <v>60</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2215280</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1">
-        <v>60</v>
-      </c>
-      <c r="G14" s="1">
-        <v>60</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2210166</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1">
-        <v>55</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2211352</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="1">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F15" s="5">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5">
         <f>12+15+26</f>
         <v>53</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" si="0"/>
+      <c r="H15" s="6">
+        <f>G15/F15</f>
         <v>0.8833333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7" t="str" cm="1">
+        <f t="array" ref="J15">_xlfn.IFS(I15=1,Sheet1!$A$1,I15=2,Sheet1!$A$2,I15=3,Sheet1!$A$3,I15=4,Sheet1!$A$4,I15=5,Sheet1!$A$5,I15=6,Sheet1!$A$6,I15=7,Sheet1!$A$7,I15=8,Sheet1!$A$8,I15="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2211352</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5">
+        <v>60</v>
+      </c>
+      <c r="G16" s="5">
+        <v>60</v>
+      </c>
+      <c r="H16" s="6">
+        <f>G16/F16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7" t="str" cm="1">
+        <f t="array" ref="J16">_xlfn.IFS(I16=1,Sheet1!$A$1,I16=2,Sheet1!$A$2,I16=3,Sheet1!$A$3,I16=4,Sheet1!$A$4,I16=5,Sheet1!$A$5,I16=6,Sheet1!$A$6,I16=7,Sheet1!$A$7,I16=8,Sheet1!$A$8,I16="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>2210955</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1">
-        <v>40</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5">
+        <v>60</v>
+      </c>
+      <c r="G17" s="5">
+        <v>60</v>
+      </c>
+      <c r="H17" s="6">
+        <f>G17/F17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>6</v>
+      </c>
+      <c r="J17" s="7" t="str" cm="1">
+        <f t="array" ref="J17">_xlfn.IFS(I17=1,Sheet1!$A$1,I17=2,Sheet1!$A$2,I17=3,Sheet1!$A$3,I17=4,Sheet1!$A$4,I17=5,Sheet1!$A$5,I17=6,Sheet1!$A$6,I17=7,Sheet1!$A$7,I17=8,Sheet1!$A$8,I17="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="B1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J17">
+      <sortCondition ref="I1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795C03C6-1C15-4597-A434-FCEC3F52DA79}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59430DB9-C26B-446D-BF0B-1D93019DA287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$B$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$B$3:$T$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>CODIGO</t>
   </si>
@@ -220,9 +219,6 @@
     <t>santiago.carabali@uao.edu.co</t>
   </si>
   <si>
-    <t>Minutos</t>
-  </si>
-  <si>
     <t>Grupo</t>
   </si>
   <si>
@@ -257,12 +253,52 @@
   </si>
   <si>
     <t>Gesto Correspondiente a la palabra "CUIDADO" según el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Duración Reuniones:</t>
+  </si>
+  <si>
+    <t>Nota 1er Corte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea:1. Conceptos fundamentales (Semana 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea: Operaciones sobre piezas (Semana 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea: Operaciones básicas para Modelado de Superficies (Semana 3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea: Modelado avanzado y reparación de Superficies (Semana 4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea: Modelado a partir de datos de scanner (Semana 5) </t>
+  </si>
+  <si>
+    <t>Total Modulo 1 
+(70%)</t>
+  </si>
+  <si>
+    <t>Asistencia Promedio 1er Corte
+(30%)</t>
+  </si>
+  <si>
+    <t>ASISTENCIA</t>
+  </si>
+  <si>
+    <t>TAREAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,7 +440,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,8 +620,38 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -715,6 +781,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -760,71 +841,114 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1101,669 +1225,1343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="5"/>
-    <col min="10" max="10" width="44" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="44" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6.1828703699575271E-2</v>
+      </c>
+      <c r="H1" s="4">
+        <v>5.1782407404971309E-2</v>
+      </c>
+      <c r="I1" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J1" s="4">
+        <v>5.673611110978527E-2</v>
+      </c>
+      <c r="K1" s="4">
+        <v>5.1469907411956228E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="O2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="9">
+        <v>45685</v>
+      </c>
+      <c r="G3" s="9">
+        <v>45692</v>
+      </c>
+      <c r="H3" s="9">
+        <v>45699</v>
+      </c>
+      <c r="I3" s="9">
+        <v>45706</v>
+      </c>
+      <c r="J3" s="9">
+        <v>45713</v>
+      </c>
+      <c r="K3" s="9">
+        <v>45720</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="2">
-        <v>45685</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="N3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="O3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>2200833</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.62448521151385872</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.71904336171365091</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16">
+        <f>0.0503125/$J$1</f>
+        <v>0.88678090577347679</v>
+      </c>
+      <c r="K4" s="16">
+        <f>0.0374652778/$K$1</f>
+        <v>0.72790645415649191</v>
+      </c>
+      <c r="L4" s="18">
+        <f>AVERAGE(F4:K4)</f>
+        <v>0.8208137666373575</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O4" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="R4" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S4" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="T4" s="21">
+        <f>AVERAGE(O4:S4)</f>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="U4" s="22">
+        <f>T4*0.7+L4*5*0.3</f>
+        <v>3.5832206499560364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>2216295</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.60857356797981244</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.71881984802705978</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16">
+        <f>0.04931713/$J$1</f>
+        <v>0.86923705265189177</v>
+      </c>
+      <c r="K5" s="16">
+        <f>0.0337384259/$K$1</f>
+        <v>0.65549808803741338</v>
+      </c>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5:L19" si="0">AVERAGE(F5:K5)</f>
+        <v>0.79202142611602966</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4</v>
+      </c>
+      <c r="N5" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" s="20">
+        <v>5</v>
+      </c>
+      <c r="P5" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>5</v>
+      </c>
+      <c r="R5" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S5" s="20">
+        <v>5</v>
+      </c>
+      <c r="T5" s="21">
+        <f>AVERAGE(O5:S5)</f>
+        <v>4.58</v>
+      </c>
+      <c r="U5" s="22">
+        <f t="shared" ref="U5:U19" si="1">T5*0.7+L5*5*0.3</f>
+        <v>4.394032139174044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2205127</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.58779483338965188</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.60929816731074449</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <f>0.044756944/$J$1</f>
+        <v>0.78886168129138434</v>
+      </c>
+      <c r="K6" s="16">
+        <f>0.0319097222/$K$1</f>
+        <v>0.61996851761554772</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.76487608882344349</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O6" s="20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P6" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="R6" s="20">
+        <v>5</v>
+      </c>
+      <c r="S6" s="20">
+        <v>5</v>
+      </c>
+      <c r="T6" s="21">
+        <f>AVERAGE(O6:S6)</f>
+        <v>4.84</v>
+      </c>
+      <c r="U6" s="22">
+        <f t="shared" si="1"/>
+        <v>4.5353141332351647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>2170311</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16">
+        <f>0/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <f>0.0230902778/$K$1</f>
+        <v>0.44861704559111432</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.24143617426518571</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="R7" s="20">
+        <v>5</v>
+      </c>
+      <c r="S7" s="20">
+        <v>2</v>
+      </c>
+      <c r="T7" s="21">
+        <f>AVERAGE(O7:S7)</f>
+        <v>2.2600000000000002</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" si="1"/>
+        <v>1.9441542613977787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>2210177</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.69337326840732949</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.73983012964877437</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16">
+        <f>0.054386574/$J$1</f>
+        <v>0.95858833001016097</v>
+      </c>
+      <c r="K8" s="16">
+        <f>0.0379513889/$K$1</f>
+        <v>0.73735102331239211</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.85485712522977619</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O8" s="20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P8" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>5</v>
+      </c>
+      <c r="R8" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S8" s="20">
+        <v>3.6</v>
+      </c>
+      <c r="T8" s="21">
+        <f>AVERAGE(O8:S8)</f>
+        <v>4.24</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="1"/>
+        <v>4.2502856878446647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>2201757</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.67596405842163554</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16">
+        <f>0/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <f>0.0379513889/$K$1</f>
+        <v>0.73735102331239211</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.69222812084489893</v>
+      </c>
+      <c r="M9" s="8">
+        <v>6</v>
+      </c>
+      <c r="N9" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O9" s="20">
+        <v>4</v>
+      </c>
+      <c r="P9" s="20">
+        <v>3.6</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="21">
+        <f>AVERAGE(O9:S9)</f>
+        <v>1.52</v>
+      </c>
+      <c r="U9" s="22">
+        <f t="shared" si="1"/>
+        <v>2.102342181267348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>2175459</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5">
-        <v>60</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <f>G2/F2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="e" cm="1">
-        <f t="array" ref="J2">_xlfn.IFS(I2=1,Sheet1!$A$1,I2=2,Sheet1!$A$2,I2=3,Sheet1!$A$3,I2=4,Sheet1!$A$4,I2=5,Sheet1!$A$5,I2=6,Sheet1!$A$6,I2=7,Sheet1!$A$7,I2=8,Sheet1!$A$8,I2="","")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2216295</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16">
+        <f>0/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f>0/$K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19" t="e">
+        <f ca="1">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <v>0</v>
+      </c>
+      <c r="T10" s="21">
+        <f>AVERAGE(O10:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>2210005</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5">
-        <v>60</v>
-      </c>
-      <c r="G3" s="5">
-        <v>59</v>
-      </c>
-      <c r="H3" s="6">
-        <f>G3/F3</f>
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.64002246358209225</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.73245417967738757</v>
+      </c>
+      <c r="I11" s="17">
         <v>1</v>
       </c>
-      <c r="J3" s="7" t="str" cm="1">
-        <f t="array" ref="J3">_xlfn.IFS(I3=1,Sheet1!$A$1,I3=2,Sheet1!$A$2,I3=3,Sheet1!$A$3,I3=4,Sheet1!$A$4,I3=5,Sheet1!$A$5,I3=6,Sheet1!$A$6,I3=7,Sheet1!$A$7,I3=8,Sheet1!$A$8,I3="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2205127</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="J11" s="16">
+        <f>0.048715278/$J$1</f>
+        <v>0.8586291349037859</v>
+      </c>
+      <c r="K11" s="16">
+        <f>0.0339467593/$K$1</f>
+        <v>0.65954576192057257</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.80955303445841753</v>
+      </c>
+      <c r="M11" s="8">
+        <v>5</v>
+      </c>
+      <c r="N11" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O11" s="20">
+        <v>5</v>
+      </c>
+      <c r="P11" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="R11" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S11" s="20">
+        <v>5</v>
+      </c>
+      <c r="T11" s="21">
+        <f>AVERAGE(O11:S11)</f>
+        <v>4.38</v>
+      </c>
+      <c r="U11" s="22">
+        <f t="shared" si="1"/>
+        <v>4.2803295516876263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>2211671</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.5979034070853726</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.71099687082300078</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <f>0.050231481/$J$1</f>
+        <v>0.8853529087110199</v>
+      </c>
+      <c r="K12" s="16">
+        <f>0.0268865741/$K$1</f>
+        <v>0.52237463504265735</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.78054908138811963</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5</v>
+      </c>
+      <c r="N12" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O12" s="20">
+        <v>5</v>
+      </c>
+      <c r="P12" s="20">
+        <v>3.8</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="R12" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S12" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T12" s="21">
+        <f>AVERAGE(O12:S12)</f>
+        <v>4.24</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="1"/>
+        <v>4.138823622082179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>2210261</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="5">
-        <v>60</v>
-      </c>
-      <c r="G4" s="5">
-        <v>60</v>
-      </c>
-      <c r="H4" s="6">
-        <f>G4/F4</f>
+      <c r="F13" s="15">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="G13" s="16">
+        <v>0.65275177836225751</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
-      <c r="J4" s="7" t="str" cm="1">
-        <f t="array" ref="J4">_xlfn.IFS(I4=1,Sheet1!$A$1,I4=2,Sheet1!$A$2,I4=3,Sheet1!$A$3,I4=4,Sheet1!$A$4,I4=5,Sheet1!$A$5,I4=6,Sheet1!$A$6,I4=7,Sheet1!$A$7,I4=8,Sheet1!$A$8,I4="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2170311</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="J13" s="16">
+        <f>0.051053241/$J$1</f>
+        <v>0.89983680589618087</v>
+      </c>
+      <c r="K13" s="16">
+        <f>0.0312384259/$K$1</f>
+        <v>0.6069260169825651</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.81659470742939488</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O13" s="20">
+        <v>5</v>
+      </c>
+      <c r="P13" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="R13" s="20">
+        <v>5</v>
+      </c>
+      <c r="S13" s="20">
+        <v>5</v>
+      </c>
+      <c r="T13" s="21">
+        <f>AVERAGE(O13:S13)</f>
+        <v>4.84</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="1"/>
+        <v>4.612892061144092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>2200689</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.46593036325443599</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.62650871710347011</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16">
+        <f>0.018946759/$J$1</f>
+        <v>0.33394532387561288</v>
+      </c>
+      <c r="K14" s="16">
+        <f>0.0009027778/$K$1</f>
+        <v>1.7539914979335842E-2</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.57398738653547587</v>
+      </c>
+      <c r="M14" s="8">
+        <v>6</v>
+      </c>
+      <c r="N14" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O14" s="20">
+        <v>5</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <v>5</v>
+      </c>
+      <c r="T14" s="21">
+        <f>AVERAGE(O14:S14)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="1"/>
+        <v>2.2609810798032139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>2206464</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5">
-        <v>60</v>
-      </c>
-      <c r="G5" s="5">
-        <v>60</v>
-      </c>
-      <c r="H5" s="6">
-        <f>G5/F5</f>
+      <c r="F15" s="15">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
+      <c r="G15" s="16">
+        <v>0.67877199547434519</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.73938310241610217</v>
+      </c>
+      <c r="I15" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="7" t="str" cm="1">
-        <f t="array" ref="J5">_xlfn.IFS(I5=1,Sheet1!$A$1,I5=2,Sheet1!$A$2,I5=3,Sheet1!$A$3,I5=4,Sheet1!$A$4,I5=5,Sheet1!$A$5,I5=6,Sheet1!$A$6,I5=7,Sheet1!$A$7,I5=8,Sheet1!$A$8,I5="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2210177</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="J15" s="16">
+        <f>0.054386574/$J$1</f>
+        <v>0.95858833001016097</v>
+      </c>
+      <c r="K15" s="16">
+        <f>0.0365972222/$K$1</f>
+        <v>0.71104115084338837</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="0"/>
+        <v>0.84796409645733284</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O15" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="P15" s="20">
+        <v>3.9</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>5</v>
+      </c>
+      <c r="R15" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S15" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="T15" s="21">
+        <f>AVERAGE(O15:S15)</f>
+        <v>4</v>
+      </c>
+      <c r="U15" s="22">
+        <f t="shared" si="1"/>
+        <v>4.0719461446859988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>2215280</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.68494945713152144</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16">
+        <f>0.050578704/$J$1</f>
+        <v>0.89147287346024495</v>
+      </c>
+      <c r="K16" s="16">
+        <f>0.0334606481/$K$1</f>
+        <v>0.65010119082178952</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.82776286079148698</v>
+      </c>
+      <c r="M16" s="8">
+        <v>4</v>
+      </c>
+      <c r="N16" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O16" s="20">
+        <v>5</v>
+      </c>
+      <c r="P16" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="R16" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S16" s="20">
+        <v>5</v>
+      </c>
+      <c r="T16" s="21">
+        <f>AVERAGE(O16:S16)</f>
+        <v>4.32</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="1"/>
+        <v>4.2656442911872308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>2210166</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>60</v>
-      </c>
-      <c r="G6" s="5">
-        <v>58</v>
-      </c>
-      <c r="H6" s="6">
-        <f>G6/F6</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="E17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.65293897421284319</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.70183281192092528</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16">
+        <f>0.049803241/$J$1</f>
+        <v>0.87780498215025593</v>
+      </c>
+      <c r="K17" s="16">
+        <f>0.0357291667/$K$1</f>
+        <v>0.69417584947316768</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.80723654740397643</v>
+      </c>
+      <c r="M17" s="8">
+        <v>4</v>
+      </c>
+      <c r="N17" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O17" s="20">
+        <v>5</v>
+      </c>
+      <c r="P17" s="20">
+        <v>3.8</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>4</v>
+      </c>
+      <c r="R17" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S17" s="20">
+        <v>5</v>
+      </c>
+      <c r="T17" s="21">
+        <f>AVERAGE(O17:S17)</f>
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" si="1"/>
+        <v>4.1648548211059646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>2211352</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.66585548484359414</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="16">
+        <f>0.049791667/$J$1</f>
+        <v>0.87760098508782769</v>
+      </c>
+      <c r="K18" s="16">
+        <f>0.0328703704/$K$1</f>
+        <v>0.6386327866671927</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.80091270554455229</v>
+      </c>
+      <c r="M18" s="8">
+        <v>5</v>
+      </c>
+      <c r="N18" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O18" s="20">
+        <v>5</v>
+      </c>
+      <c r="P18" s="20">
+        <v>3.8</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>2.9</v>
+      </c>
+      <c r="R18" s="20">
+        <v>5</v>
+      </c>
+      <c r="S18" s="20">
         <v>2</v>
       </c>
-      <c r="J6" s="7" t="str" cm="1">
-        <f t="array" ref="J6">_xlfn.IFS(I6=1,Sheet1!$A$1,I6=2,Sheet1!$A$2,I6=3,Sheet1!$A$3,I6=4,Sheet1!$A$4,I6=5,Sheet1!$A$5,I6=6,Sheet1!$A$6,I6=7,Sheet1!$A$7,I6=8,Sheet1!$A$8,I6="","")</f>
-        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2201757</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="T18" s="21">
+        <f>AVERAGE(O18:S18)</f>
+        <v>3.7400000000000007</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="1"/>
+        <v>3.8193690583168287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>2210955</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="5">
-        <v>60</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <f>G7/F7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7" t="str" cm="1">
-        <f t="array" ref="J7">_xlfn.IFS(I7=1,Sheet1!$A$1,I7=2,Sheet1!$A$2,I7=3,Sheet1!$A$3,I7=4,Sheet1!$A$4,I7=5,Sheet1!$A$5,I7=6,Sheet1!$A$6,I7=7,Sheet1!$A$7,I7=8,Sheet1!$A$8,I7="","")</f>
-        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2175459</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5">
-        <v>60</v>
-      </c>
-      <c r="G8" s="5">
-        <v>60</v>
-      </c>
-      <c r="H8" s="6">
-        <f>G8/F8</f>
+      <c r="E19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.66248596035680685</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I19" s="17">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J19" s="16">
+        <f>0.053993056/$J$1</f>
+        <v>0.95165239463668183</v>
+      </c>
+      <c r="K19" s="16">
+        <f>0.0346412037/$K$1</f>
+        <v>0.67303800301674921</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.78231611133537848</v>
+      </c>
+      <c r="M19" s="8">
         <v>3</v>
       </c>
-      <c r="J8" s="7" t="str" cm="1">
-        <f t="array" ref="J8">_xlfn.IFS(I8=1,Sheet1!$A$1,I8=2,Sheet1!$A$2,I8=3,Sheet1!$A$3,I8=4,Sheet1!$A$4,I8=5,Sheet1!$A$5,I8=6,Sheet1!$A$6,I8=7,Sheet1!$A$7,I8=8,Sheet1!$A$8,I8="","")</f>
-        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2210005</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="5">
-        <v>60</v>
-      </c>
-      <c r="G9" s="5">
-        <v>40</v>
-      </c>
-      <c r="H9" s="6">
-        <f>G9/F9</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3</v>
-      </c>
-      <c r="J9" s="7" t="str" cm="1">
-        <f t="array" ref="J9">_xlfn.IFS(I9=1,Sheet1!$A$1,I9=2,Sheet1!$A$2,I9=3,Sheet1!$A$3,I9=4,Sheet1!$A$4,I9=5,Sheet1!$A$5,I9=6,Sheet1!$A$6,I9=7,Sheet1!$A$7,I9=8,Sheet1!$A$8,I9="","")</f>
-        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2211671</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5">
-        <v>60</v>
-      </c>
-      <c r="G10" s="5">
-        <v>54</v>
-      </c>
-      <c r="H10" s="6">
-        <f>G10/F10</f>
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4</v>
-      </c>
-      <c r="J10" s="7" t="str" cm="1">
-        <f t="array" ref="J10">_xlfn.IFS(I10=1,Sheet1!$A$1,I10=2,Sheet1!$A$2,I10=3,Sheet1!$A$3,I10=4,Sheet1!$A$4,I10=5,Sheet1!$A$5,I10=6,Sheet1!$A$6,I10=7,Sheet1!$A$7,I10=8,Sheet1!$A$8,I10="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2210261</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="5">
-        <v>60</v>
-      </c>
-      <c r="G11" s="5">
-        <v>60</v>
-      </c>
-      <c r="H11" s="6">
-        <f>G11/F11</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>4</v>
-      </c>
-      <c r="J11" s="7" t="str" cm="1">
-        <f t="array" ref="J11">_xlfn.IFS(I11=1,Sheet1!$A$1,I11=2,Sheet1!$A$2,I11=3,Sheet1!$A$3,I11=4,Sheet1!$A$4,I11=5,Sheet1!$A$5,I11=6,Sheet1!$A$6,I11=7,Sheet1!$A$7,I11=8,Sheet1!$A$8,I11="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2200689</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5">
-        <v>60</v>
-      </c>
-      <c r="G12" s="5">
-        <v>55</v>
-      </c>
-      <c r="H12" s="6">
-        <f>G12/F12</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I12" s="5">
-        <v>4</v>
-      </c>
-      <c r="J12" s="7" t="str" cm="1">
-        <f t="array" ref="J12">_xlfn.IFS(I12=1,Sheet1!$A$1,I12=2,Sheet1!$A$2,I12=3,Sheet1!$A$3,I12=4,Sheet1!$A$4,I12=5,Sheet1!$A$5,I12=6,Sheet1!$A$6,I12=7,Sheet1!$A$7,I12=8,Sheet1!$A$8,I12="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2206464</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5">
-        <v>60</v>
-      </c>
-      <c r="G13" s="5">
-        <v>58</v>
-      </c>
-      <c r="H13" s="6">
-        <f>G13/F13</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="I13" s="5">
-        <v>5</v>
-      </c>
-      <c r="J13" s="7" t="str" cm="1">
-        <f t="array" ref="J13">_xlfn.IFS(I13=1,Sheet1!$A$1,I13=2,Sheet1!$A$2,I13=3,Sheet1!$A$3,I13=4,Sheet1!$A$4,I13=5,Sheet1!$A$5,I13=6,Sheet1!$A$6,I13=7,Sheet1!$A$7,I13=8,Sheet1!$A$8,I13="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2215280</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5">
-        <v>60</v>
-      </c>
-      <c r="G14" s="5">
-        <v>58</v>
-      </c>
-      <c r="H14" s="6">
-        <f>G14/F14</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="7" t="str" cm="1">
-        <f t="array" ref="J14">_xlfn.IFS(I14=1,Sheet1!$A$1,I14=2,Sheet1!$A$2,I14=3,Sheet1!$A$3,I14=4,Sheet1!$A$4,I14=5,Sheet1!$A$5,I14=6,Sheet1!$A$6,I14=7,Sheet1!$A$7,I14=8,Sheet1!$A$8,I14="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>2210166</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="5">
-        <v>60</v>
-      </c>
-      <c r="G15" s="5">
-        <f>12+15+26</f>
-        <v>53</v>
-      </c>
-      <c r="H15" s="6">
-        <f>G15/F15</f>
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="7" t="str" cm="1">
-        <f t="array" ref="J15">_xlfn.IFS(I15=1,Sheet1!$A$1,I15=2,Sheet1!$A$2,I15=3,Sheet1!$A$3,I15=4,Sheet1!$A$4,I15=5,Sheet1!$A$5,I15=6,Sheet1!$A$6,I15=7,Sheet1!$A$7,I15=8,Sheet1!$A$8,I15="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>2211352</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="5">
-        <v>60</v>
-      </c>
-      <c r="G16" s="5">
-        <v>60</v>
-      </c>
-      <c r="H16" s="6">
-        <f>G16/F16</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>6</v>
-      </c>
-      <c r="J16" s="7" t="str" cm="1">
-        <f t="array" ref="J16">_xlfn.IFS(I16=1,Sheet1!$A$1,I16=2,Sheet1!$A$2,I16=3,Sheet1!$A$3,I16=4,Sheet1!$A$4,I16=5,Sheet1!$A$5,I16=6,Sheet1!$A$6,I16=7,Sheet1!$A$7,I16=8,Sheet1!$A$8,I16="","")</f>
-        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>2210955</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="5">
-        <v>60</v>
-      </c>
-      <c r="G17" s="5">
-        <v>60</v>
-      </c>
-      <c r="H17" s="6">
-        <f>G17/F17</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>6</v>
-      </c>
-      <c r="J17" s="7" t="str" cm="1">
-        <f t="array" ref="J17">_xlfn.IFS(I17=1,Sheet1!$A$1,I17=2,Sheet1!$A$2,I17=3,Sheet1!$A$3,I17=4,Sheet1!$A$4,I17=5,Sheet1!$A$5,I17=6,Sheet1!$A$6,I17=7,Sheet1!$A$7,I17=8,Sheet1!$A$8,I17="","")</f>
-        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      <c r="N19" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="N19" ca="1">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O19" s="20">
+        <v>5</v>
+      </c>
+      <c r="P19" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="R19" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S19" s="20">
+        <v>5</v>
+      </c>
+      <c r="T19" s="21">
+        <f>AVERAGE(O19:S19)</f>
+        <v>4.46</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" si="1"/>
+        <v>4.2954741670030678</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J17">
-      <sortCondition ref="I1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B3:T3"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:T2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J8" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795C03C6-1C15-4597-A434-FCEC3F52DA79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7721876-C1B5-4BE4-BBB7-8317B19468DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$B$3:$T$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$B$3:$U$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>CODIGO</t>
   </si>
@@ -288,18 +290,49 @@
   </si>
   <si>
     <t>TAREAS</t>
+  </si>
+  <si>
+    <t>Archivo DICOM para crear malla craneal</t>
+  </si>
+  <si>
+    <t>CRANEAL 01.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 02.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 03.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 04.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 05.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apellidos </t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t>11mar2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +472,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -651,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -796,8 +837,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -840,8 +892,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,13 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -881,16 +928,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -905,50 +952,74 @@
     <xf numFmtId="164" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1225,33 +1296,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="44" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="81.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -1270,1249 +1347,1370 @@
       <c r="K1" s="4">
         <v>5.1469907411956228E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F2" s="5" t="s">
+      <c r="W1" s="1">
+        <v>4.2106481480004732E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="O2" s="6" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="P2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+    </row>
+    <row r="3" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>45685</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>45692</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>45699</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>45706</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>45713</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <v>45720</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="W3" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2200833</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>0.62448521151385872</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>0.71904336171365091</v>
       </c>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
         <f>0.0503125/$J$1</f>
         <v>0.88678090577347679</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <f>0.0374652778/$K$1</f>
         <v>0.72790645415649191</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <f>AVERAGE(F4:K4)</f>
         <v>0.8208137666373575</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>2</v>
       </c>
-      <c r="N4" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O4" s="20">
+      <c r="N4" s="17" t="str" cm="1">
+        <f t="array" ref="N4">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P4" s="20">
+      <c r="Q4" s="18">
         <v>0</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="R4" s="18">
         <v>4.8</v>
       </c>
-      <c r="R4" s="20">
+      <c r="S4" s="18">
         <v>3.3</v>
       </c>
-      <c r="S4" s="20">
+      <c r="T4" s="18">
         <v>4.3</v>
       </c>
-      <c r="T4" s="21">
-        <f>AVERAGE(O4:S4)</f>
+      <c r="U4" s="19">
+        <f>AVERAGE(P4:T4)</f>
         <v>3.3600000000000003</v>
       </c>
-      <c r="U4" s="22">
-        <f>T4*0.7+L4*5*0.3</f>
+      <c r="V4" s="20">
+        <f>U4*0.7+L4*5*0.3</f>
         <v>3.5832206499560364</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="W4" s="28">
+        <v>0.41671247935178818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>2216295</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>0.9</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>0.60857356797981244</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>0.71881984802705978</v>
       </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
         <f>0.04931713/$J$1</f>
         <v>0.86923705265189177</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <f>0.0337384259/$K$1</f>
         <v>0.65549808803741338</v>
       </c>
-      <c r="L5" s="18">
-        <f t="shared" ref="L5:L19" si="0">AVERAGE(F5:K5)</f>
+      <c r="L5" s="16">
+        <f>AVERAGE(F5:K5)</f>
         <v>0.79202142611602966</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>4</v>
       </c>
-      <c r="N5" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" s="20">
-        <v>5</v>
-      </c>
-      <c r="P5" s="20">
+      <c r="N5" s="17" t="str" cm="1">
+        <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q5" s="20">
-        <v>5</v>
-      </c>
-      <c r="R5" s="20">
+      <c r="R5" s="18">
+        <v>5</v>
+      </c>
+      <c r="S5" s="18">
         <v>3.3</v>
       </c>
-      <c r="S5" s="20">
-        <v>5</v>
-      </c>
-      <c r="T5" s="21">
-        <f>AVERAGE(O5:S5)</f>
+      <c r="T5" s="18">
+        <v>5</v>
+      </c>
+      <c r="U5" s="19">
+        <f>AVERAGE(P5:T5)</f>
         <v>4.58</v>
       </c>
-      <c r="U5" s="22">
-        <f t="shared" ref="U5:U19" si="1">T5*0.7+L5*5*0.3</f>
+      <c r="V5" s="20">
+        <f t="shared" ref="V5:V19" si="0">U5*0.7+L5*5*0.3</f>
         <v>4.394032139174044</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="W5" s="28">
+        <v>0.9145134689971629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>2205127</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>0.98333333333333328</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>0.58779483338965188</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>0.60929816731074449</v>
       </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
         <f>0.044756944/$J$1</f>
         <v>0.78886168129138434</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <f>0.0319097222/$K$1</f>
         <v>0.61996851761554772</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
+        <f>AVERAGE(F6:K6)</f>
+        <v>0.76487608882344349</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="17" t="str" cm="1">
+        <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="R6" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="S6" s="18">
+        <v>5</v>
+      </c>
+      <c r="T6" s="18">
+        <v>5</v>
+      </c>
+      <c r="U6" s="19">
+        <f>AVERAGE(P6:T6)</f>
+        <v>4.84</v>
+      </c>
+      <c r="V6" s="20">
         <f t="shared" si="0"/>
-        <v>0.76487608882344349</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O6" s="20">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P6" s="20">
-        <v>4.8</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="R6" s="20">
-        <v>5</v>
-      </c>
-      <c r="S6" s="20">
-        <v>5</v>
-      </c>
-      <c r="T6" s="21">
-        <f>AVERAGE(O6:S6)</f>
-        <v>4.84</v>
-      </c>
-      <c r="U6" s="22">
-        <f t="shared" si="1"/>
         <v>4.5353141332351647</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="W6" s="28">
+        <v>0.92001099501332539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>2170311</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <f>0.0230902778/$K$1</f>
         <v>0.44861704559111432</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="16">
+        <f>AVERAGE(F7:K7)</f>
+        <v>0.24143617426518571</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2</v>
+      </c>
+      <c r="N7" s="17" t="str" cm="1">
+        <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="S7" s="18">
+        <v>5</v>
+      </c>
+      <c r="T7" s="18">
+        <v>2</v>
+      </c>
+      <c r="U7" s="19">
+        <f>AVERAGE(P7:T7)</f>
+        <v>2.2600000000000002</v>
+      </c>
+      <c r="V7" s="20">
         <f t="shared" si="0"/>
-        <v>0.24143617426518571</v>
-      </c>
-      <c r="M7" s="8">
-        <v>2</v>
-      </c>
-      <c r="N7" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>4.3</v>
-      </c>
-      <c r="R7" s="20">
-        <v>5</v>
-      </c>
-      <c r="S7" s="20">
-        <v>2</v>
-      </c>
-      <c r="T7" s="21">
-        <f>AVERAGE(O7:S7)</f>
-        <v>2.2600000000000002</v>
-      </c>
-      <c r="U7" s="22">
-        <f t="shared" si="1"/>
         <v>1.9441542613977787</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="W7" s="28">
+        <v>0.78944474988308111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>2210177</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
         <v>0.69337326840732949</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>0.73983012964877437</v>
       </c>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="16">
+        <f>AVERAGE(F8:K8)</f>
+        <v>0.85485712522977619</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+      <c r="N8" s="17" t="str" cm="1">
+        <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R8" s="18">
+        <v>5</v>
+      </c>
+      <c r="S8" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T8" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="U8" s="19">
+        <f>AVERAGE(P8:T8)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V8" s="20">
         <f t="shared" si="0"/>
-        <v>0.85485712522977619</v>
-      </c>
-      <c r="M8" s="8">
-        <v>3</v>
-      </c>
-      <c r="N8" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O8" s="20">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P8" s="20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>5</v>
-      </c>
-      <c r="R8" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="S8" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="T8" s="21">
-        <f>AVERAGE(O8:S8)</f>
-        <v>4.24</v>
-      </c>
-      <c r="U8" s="22">
-        <f t="shared" si="1"/>
         <v>4.2502856878446647</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="W8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>2201757</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
         <v>0.67596405842163554</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="16">
+        <f>AVERAGE(F9:K9)</f>
+        <v>0.69222812084489893</v>
+      </c>
+      <c r="M9" s="6">
+        <v>6</v>
+      </c>
+      <c r="N9" s="17" t="str" cm="1">
+        <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <f>AVERAGE(P9:T9)</f>
+        <v>1.52</v>
+      </c>
+      <c r="V9" s="20">
         <f t="shared" si="0"/>
-        <v>0.69222812084489893</v>
-      </c>
-      <c r="M9" s="8">
-        <v>6</v>
-      </c>
-      <c r="N9" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O9" s="20">
-        <v>4</v>
-      </c>
-      <c r="P9" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="Q9" s="20">
+        <v>2.102342181267348</v>
+      </c>
+      <c r="W9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2175459</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13">
         <v>0</v>
       </c>
-      <c r="R9" s="20">
+      <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="S9" s="20">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
-      <c r="T9" s="21">
-        <f>AVERAGE(O9:S9)</f>
-        <v>1.52</v>
-      </c>
-      <c r="U9" s="22">
-        <f t="shared" si="1"/>
-        <v>2.102342181267348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>2175459</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <f>0/$K$1</f>
         <v>0</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="16">
+        <f>AVERAGE(F10:K10)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17" t="e">
+        <f>_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <f>AVERAGE(P10:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="20">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M10" s="8">
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="W10" s="28">
         <v>0</v>
       </c>
-      <c r="N10" s="19" t="e">
-        <f ca="1">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>0</v>
-      </c>
-      <c r="R10" s="20">
-        <v>0</v>
-      </c>
-      <c r="S10" s="20">
-        <v>0</v>
-      </c>
-      <c r="T10" s="21">
-        <f>AVERAGE(O10:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
-        <f t="shared" si="1"/>
-        <v>0.24999999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>2210005</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>0.64002246358209225</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>0.73245417967738757</v>
       </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
         <f>0.048715278/$J$1</f>
         <v>0.8586291349037859</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <f>0.0339467593/$K$1</f>
         <v>0.65954576192057257</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="16">
+        <f>AVERAGE(F11:K11)</f>
+        <v>0.80955303445841753</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="17" t="str" cm="1">
+        <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R11" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="S11" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T11" s="18">
+        <v>5</v>
+      </c>
+      <c r="U11" s="19">
+        <f>AVERAGE(P11:T11)</f>
+        <v>4.38</v>
+      </c>
+      <c r="V11" s="20">
         <f t="shared" si="0"/>
-        <v>0.80955303445841753</v>
-      </c>
-      <c r="M11" s="8">
-        <v>5</v>
-      </c>
-      <c r="N11" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O11" s="20">
-        <v>5</v>
-      </c>
-      <c r="P11" s="20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="R11" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="S11" s="20">
-        <v>5</v>
-      </c>
-      <c r="T11" s="21">
-        <f>AVERAGE(O11:S11)</f>
-        <v>4.38</v>
-      </c>
-      <c r="U11" s="22">
-        <f t="shared" si="1"/>
         <v>4.2803295516876263</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="W11" s="28">
+        <v>0.13304013194119671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>2211671</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>0.5979034070853726</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>0.71099687082300078</v>
       </c>
-      <c r="I12" s="17">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
         <f>0.050231481/$J$1</f>
         <v>0.8853529087110199</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="14">
         <f>0.0268865741/$K$1</f>
         <v>0.52237463504265735</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="16">
+        <f>AVERAGE(F12:K12)</f>
+        <v>0.78054908138811963</v>
+      </c>
+      <c r="M12" s="6">
+        <v>5</v>
+      </c>
+      <c r="N12" s="17" t="str" cm="1">
+        <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="R12" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="S12" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T12" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U12" s="19">
+        <f>AVERAGE(P12:T12)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V12" s="20">
         <f t="shared" si="0"/>
-        <v>0.78054908138811963</v>
-      </c>
-      <c r="M12" s="8">
-        <v>5</v>
-      </c>
-      <c r="N12" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O12" s="20">
-        <v>5</v>
-      </c>
-      <c r="P12" s="20">
-        <v>3.8</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="R12" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="S12" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T12" s="21">
-        <f>AVERAGE(O12:S12)</f>
-        <v>4.24</v>
-      </c>
-      <c r="U12" s="22">
-        <f t="shared" si="1"/>
         <v>4.138823622082179</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="W12" s="28">
+        <v>0.874106651948934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>2210261</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
         <v>0.65275177836225751</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I13" s="17">
-        <v>1</v>
-      </c>
-      <c r="J13" s="16">
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
         <f>0.051053241/$J$1</f>
         <v>0.89983680589618087</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="14">
         <f>0.0312384259/$K$1</f>
         <v>0.6069260169825651</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="16">
+        <f>AVERAGE(F13:K13)</f>
+        <v>0.81659470742939488</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="17" t="str" cm="1">
+        <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R13" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="S13" s="18">
+        <v>5</v>
+      </c>
+      <c r="T13" s="18">
+        <v>5</v>
+      </c>
+      <c r="U13" s="19">
+        <f>AVERAGE(P13:T13)</f>
+        <v>4.84</v>
+      </c>
+      <c r="V13" s="20">
         <f t="shared" si="0"/>
-        <v>0.81659470742939488</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O13" s="20">
-        <v>5</v>
-      </c>
-      <c r="P13" s="20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>4.8</v>
-      </c>
-      <c r="R13" s="20">
-        <v>5</v>
-      </c>
-      <c r="S13" s="20">
-        <v>5</v>
-      </c>
-      <c r="T13" s="21">
-        <f>AVERAGE(O13:S13)</f>
-        <v>4.84</v>
-      </c>
-      <c r="U13" s="22">
-        <f t="shared" si="1"/>
         <v>4.612892061144092</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="W13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>2200689</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
         <v>0.46593036325443599</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>0.62650871710347011</v>
       </c>
-      <c r="I14" s="17">
-        <v>1</v>
-      </c>
-      <c r="J14" s="16">
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
         <f>0.018946759/$J$1</f>
         <v>0.33394532387561288</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <f>0.0009027778/$K$1</f>
         <v>1.7539914979335842E-2</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="16">
+        <f>AVERAGE(F14:K14)</f>
+        <v>0.57398738653547587</v>
+      </c>
+      <c r="M14" s="6">
+        <v>6</v>
+      </c>
+      <c r="N14" s="17" t="str" cm="1">
+        <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
+        <v>5</v>
+      </c>
+      <c r="U14" s="19">
+        <f>AVERAGE(P14:T14)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="20">
         <f t="shared" si="0"/>
-        <v>0.57398738653547587</v>
-      </c>
-      <c r="M14" s="8">
-        <v>6</v>
-      </c>
-      <c r="N14" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O14" s="20">
-        <v>5</v>
-      </c>
-      <c r="P14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>0</v>
-      </c>
-      <c r="R14" s="20">
-        <v>0</v>
-      </c>
-      <c r="S14" s="20">
-        <v>5</v>
-      </c>
-      <c r="T14" s="21">
-        <f>AVERAGE(O14:S14)</f>
-        <v>2</v>
-      </c>
-      <c r="U14" s="22">
-        <f t="shared" si="1"/>
         <v>2.2609810798032139</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="W14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>2206464</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
         <v>0.67877199547434519</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <v>0.73938310241610217</v>
       </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="16">
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="14">
         <f>0.0365972222/$K$1</f>
         <v>0.71104115084338837</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="16">
+        <f>AVERAGE(F15:K15)</f>
+        <v>0.84796409645733284</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="17" t="str" cm="1">
+        <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="R15" s="18">
+        <v>5</v>
+      </c>
+      <c r="S15" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T15" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="U15" s="19">
+        <f>AVERAGE(P15:T15)</f>
+        <v>4</v>
+      </c>
+      <c r="V15" s="20">
         <f t="shared" si="0"/>
-        <v>0.84796409645733284</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1</v>
-      </c>
-      <c r="N15" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O15" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="P15" s="20">
-        <v>3.9</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>5</v>
-      </c>
-      <c r="R15" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="S15" s="20">
-        <v>4.3</v>
-      </c>
-      <c r="T15" s="21">
-        <f>AVERAGE(O15:S15)</f>
-        <v>4</v>
-      </c>
-      <c r="U15" s="22">
-        <f t="shared" si="1"/>
         <v>4.0719461446859988</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="W15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>2215280</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
         <v>0.68494945713152144</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I16" s="17">
-        <v>1</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
         <f>0.050578704/$J$1</f>
         <v>0.89147287346024495</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <f>0.0334606481/$K$1</f>
         <v>0.65010119082178952</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="16">
+        <f>AVERAGE(F16:K16)</f>
+        <v>0.82776286079148698</v>
+      </c>
+      <c r="M16" s="6">
+        <v>4</v>
+      </c>
+      <c r="N16" s="17" t="str" cm="1">
+        <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>4</v>
+      </c>
+      <c r="R16" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="S16" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T16" s="18">
+        <v>5</v>
+      </c>
+      <c r="U16" s="19">
+        <f>AVERAGE(P16:T16)</f>
+        <v>4.32</v>
+      </c>
+      <c r="V16" s="20">
         <f t="shared" si="0"/>
-        <v>0.82776286079148698</v>
-      </c>
-      <c r="M16" s="8">
-        <v>4</v>
-      </c>
-      <c r="N16" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O16" s="20">
-        <v>5</v>
-      </c>
-      <c r="P16" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="20">
-        <v>4.3</v>
-      </c>
-      <c r="R16" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="S16" s="20">
-        <v>5</v>
-      </c>
-      <c r="T16" s="21">
-        <f>AVERAGE(O16:S16)</f>
-        <v>4.32</v>
-      </c>
-      <c r="U16" s="22">
-        <f t="shared" si="1"/>
         <v>4.2656442911872308</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="W16" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>2210166</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>0.65293897421284319</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <v>0.70183281192092528</v>
       </c>
-      <c r="I17" s="17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="16">
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
         <f>0.049803241/$J$1</f>
         <v>0.87780498215025593</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <f>0.0357291667/$K$1</f>
         <v>0.69417584947316768</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="16">
+        <f>AVERAGE(F17:K17)</f>
+        <v>0.80723654740397643</v>
+      </c>
+      <c r="M17" s="6">
+        <v>4</v>
+      </c>
+      <c r="N17" s="17" t="str" cm="1">
+        <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="R17" s="18">
+        <v>4</v>
+      </c>
+      <c r="S17" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T17" s="18">
+        <v>5</v>
+      </c>
+      <c r="U17" s="19">
+        <f>AVERAGE(P17:T17)</f>
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="V17" s="20">
         <f t="shared" si="0"/>
-        <v>0.80723654740397643</v>
-      </c>
-      <c r="M17" s="8">
-        <v>4</v>
-      </c>
-      <c r="N17" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O17" s="20">
-        <v>5</v>
-      </c>
-      <c r="P17" s="20">
-        <v>3.8</v>
-      </c>
-      <c r="Q17" s="20">
-        <v>4</v>
-      </c>
-      <c r="R17" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="S17" s="20">
-        <v>5</v>
-      </c>
-      <c r="T17" s="21">
-        <f>AVERAGE(O17:S17)</f>
-        <v>4.2200000000000006</v>
-      </c>
-      <c r="U17" s="22">
-        <f t="shared" si="1"/>
         <v>4.1648548211059646</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="W17" s="28">
+        <v>0.734469488684663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>2211352</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>0.8833333333333333</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>0.66585548484359414</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="J18" s="16">
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
         <f>0.049791667/$J$1</f>
         <v>0.87760098508782769</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="14">
         <f>0.0328703704/$K$1</f>
         <v>0.6386327866671927</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="16">
+        <f>AVERAGE(F18:K18)</f>
+        <v>0.80091270554455229</v>
+      </c>
+      <c r="M18" s="6">
+        <v>5</v>
+      </c>
+      <c r="N18" s="17" t="str" cm="1">
+        <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="R18" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="S18" s="18">
+        <v>5</v>
+      </c>
+      <c r="T18" s="18">
+        <v>2</v>
+      </c>
+      <c r="U18" s="19">
+        <f>AVERAGE(P18:T18)</f>
+        <v>3.7400000000000007</v>
+      </c>
+      <c r="V18" s="20">
         <f t="shared" si="0"/>
-        <v>0.80091270554455229</v>
-      </c>
-      <c r="M18" s="8">
-        <v>5</v>
-      </c>
-      <c r="N18" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O18" s="20">
-        <v>5</v>
-      </c>
-      <c r="P18" s="20">
-        <v>3.8</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>2.9</v>
-      </c>
-      <c r="R18" s="20">
-        <v>5</v>
-      </c>
-      <c r="S18" s="20">
-        <v>2</v>
-      </c>
-      <c r="T18" s="21">
-        <f>AVERAGE(O18:S18)</f>
-        <v>3.7400000000000007</v>
-      </c>
-      <c r="U18" s="22">
-        <f t="shared" si="1"/>
         <v>3.8193690583168287</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="W18" s="28">
+        <v>0.45959318321096959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>2210955</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="14">
         <v>0.66248596035680685</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="13">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="J19" s="16">
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
         <f>0.053993056/$J$1</f>
         <v>0.95165239463668183</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="14">
         <f>0.0346412037/$K$1</f>
         <v>0.67303800301674921</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="16">
+        <f>AVERAGE(F19:K19)</f>
+        <v>0.78231611133537848</v>
+      </c>
+      <c r="M19" s="6">
+        <v>3</v>
+      </c>
+      <c r="N19" s="17" t="str" cm="1">
+        <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="R19" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="S19" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T19" s="18">
+        <v>5</v>
+      </c>
+      <c r="U19" s="19">
+        <f>AVERAGE(P19:T19)</f>
+        <v>4.46</v>
+      </c>
+      <c r="V19" s="20">
         <f t="shared" si="0"/>
-        <v>0.78231611133537848</v>
-      </c>
-      <c r="M19" s="8">
-        <v>3</v>
-      </c>
-      <c r="N19" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="N19" ca="1">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O19" s="20">
-        <v>5</v>
-      </c>
-      <c r="P19" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>4.8</v>
-      </c>
-      <c r="R19" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="S19" s="20">
-        <v>5</v>
-      </c>
-      <c r="T19" s="21">
-        <f>AVERAGE(O19:S19)</f>
-        <v>4.46</v>
-      </c>
-      <c r="U19" s="22">
-        <f t="shared" si="1"/>
         <v>4.2954741670030678</v>
       </c>
+      <c r="W19" s="28">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:T3"/>
+  <autoFilter ref="B3:U3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:U19">
+      <sortCondition ref="B3"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="P2:U2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{AC885A0A-75FA-43C3-824E-B4B6DACFDCD6}"/>
+    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{BB47E4B9-3F36-418F-98A8-32497827D7CB}"/>
+    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{363B7BB5-59FD-4AE1-9594-D0595DB8BAF7}"/>
+    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{A05603FE-B1D0-480D-8886-0578F156FBFA}"/>
+    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{71B9652D-72EF-4277-98CF-53F417294C0F}"/>
+    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{1C6A1147-46FE-43A0-9610-3248D84B6E36}"/>
+    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{E24D24D8-6419-470D-81FB-57D6EFE37627}"/>
+    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{9483704E-0BAC-471D-817D-BE45A21FFD27}"/>
+    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{B3014E7A-70DC-4FC4-8FE4-10CEBB75E67E}"/>
+    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{1CC0C8EF-7961-4C34-9FFD-2B245F9CC3ED}"/>
+    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{6D87DB8B-2458-4586-BDC7-D1A76AB5D40B}"/>
+    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{78C60435-E289-4C65-8E77-F79A5905D4D7}"/>
+    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{05F848F4-E758-49F4-B461-AB053402EBF1}"/>
+    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{85BA9C0F-6E3D-4C26-A012-58A3F1EABC5D}"/>
+    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{E514BD92-98E2-40B5-9514-DD8C61A16DDE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="J8" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -2567,4 +2765,266 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F7F30E-9CF4-4295-8492-9D662F6D4E17}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{43889197-CFFD-4E0F-97ED-DE23FB2CE3BD}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{ABA6B699-E491-4630-AADC-DED373AD1740}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{72C742C7-AD4A-4289-A9CB-B292F5295A37}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{C9A47C70-02D3-4C5C-8681-229DA8890929}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{04E5B077-F058-4C9A-8D21-E7BB9F57B839}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{6D9386E0-D9ED-4C81-ADAF-897FFC3777E6}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{9D273852-0EBE-4407-A8B4-D7464F6B0FB3}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{2523E490-9E16-406C-BE77-0CC9E75EC959}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{2F6949EF-1019-40E7-9A83-7F4D237FC1D3}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{DA00B6F8-DAB4-4274-962D-EDDBC2A9CEA9}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{6A571B02-0E30-4E32-A023-4F1DFC945C35}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{6B062E28-FD68-41BD-87D4-B6262CE125EB}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{0803ADDA-063A-4531-A66B-8A4C056D76FA}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{77032BDA-7FEE-4A8B-8AA0-DEA6740DE554}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{2AC0C170-B375-459F-9D92-1515627A53F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7721876-C1B5-4BE4-BBB7-8317B19468DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22AAA6-8482-471E-9C4D-1FB693335BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$B$3:$U$3</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
   <si>
     <t>CODIGO</t>
   </si>
@@ -320,6 +321,198 @@
   </si>
   <si>
     <t>11mar2025</t>
+  </si>
+  <si>
+    <t>Cód</t>
+  </si>
+  <si>
+    <t>Órganos Asignados</t>
+  </si>
+  <si>
+    <t>Tejido óseo asignado</t>
+  </si>
+  <si>
+    <t>bazo</t>
+  </si>
+  <si>
+    <t>vesícula biliar</t>
+  </si>
+  <si>
+    <t>sacro</t>
+  </si>
+  <si>
+    <t>fémur izquierdo</t>
+  </si>
+  <si>
+    <t>Diente 11</t>
+  </si>
+  <si>
+    <t>Diente 37</t>
+  </si>
+  <si>
+    <t>Maxilar</t>
+  </si>
+  <si>
+    <t>riñón derecho</t>
+  </si>
+  <si>
+    <t>hígado</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>fémur derecho</t>
+  </si>
+  <si>
+    <t>Diente 12</t>
+  </si>
+  <si>
+    <t>Diente 35</t>
+  </si>
+  <si>
+    <t>Mandíbula</t>
+  </si>
+  <si>
+    <t>riñón izquierdo</t>
+  </si>
+  <si>
+    <t>esófago</t>
+  </si>
+  <si>
+    <t>estómago</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>Hueso Ilíaco izquierdo</t>
+  </si>
+  <si>
+    <t>Diente 13</t>
+  </si>
+  <si>
+    <t>Diente 34</t>
+  </si>
+  <si>
+    <t>intestino delgado</t>
+  </si>
+  <si>
+    <t>páncreas</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Hueso Ilíaco derecho</t>
+  </si>
+  <si>
+    <t>Diente 14</t>
+  </si>
+  <si>
+    <t>Diente 33</t>
+  </si>
+  <si>
+    <t>duodeno</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>costilla izquierda 6</t>
+  </si>
+  <si>
+    <t>Diente 15</t>
+  </si>
+  <si>
+    <t>Diente 32</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>costilla izquierda 7</t>
+  </si>
+  <si>
+    <t>Diente 16</t>
+  </si>
+  <si>
+    <t>Diente 31</t>
+  </si>
+  <si>
+    <t>vejiga urinaria</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>costilla izquierda 8</t>
+  </si>
+  <si>
+    <t>Diente 17</t>
+  </si>
+  <si>
+    <t>Diente 47</t>
+  </si>
+  <si>
+    <t>próstata</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>costilla izquierda 9</t>
+  </si>
+  <si>
+    <t>Diente 21</t>
+  </si>
+  <si>
+    <t>Diente 46</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>costilla izquierda 10</t>
+  </si>
+  <si>
+    <t>Diente 22</t>
+  </si>
+  <si>
+    <t>Diente 45</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>costilla izquierda 11</t>
+  </si>
+  <si>
+    <t>Diente 23</t>
+  </si>
+  <si>
+    <t>Diente 44</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>costilla izquierda 12</t>
+  </si>
+  <si>
+    <t>Diente 24</t>
+  </si>
+  <si>
+    <t>Diente 43</t>
+  </si>
+  <si>
+    <t>pulmón izquierdo</t>
+  </si>
+  <si>
+    <t>pulmón derecho</t>
   </si>
 </sst>
 </file>
@@ -330,9 +523,9 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +669,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -692,7 +892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -839,12 +1039,51 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -894,7 +1133,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,28 +1191,44 @@
     <xf numFmtId="164" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1297,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,15 +1564,15 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="81.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" hidden="1" customWidth="1"/>
@@ -1326,9 +1581,10 @@
     <col min="21" max="21" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -1350,27 +1606,33 @@
       <c r="W1" s="1">
         <v>4.2106481480004732E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F2" s="21" t="s">
+      <c r="X1">
+        <v>2.6678240741603076E-2</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>4.1145833332848269E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="P2" s="22" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="P2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-    </row>
-    <row r="3" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1675,7 @@
       <c r="N3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="25" t="s">
         <v>76</v>
       </c>
       <c r="P3" s="9" t="s">
@@ -1437,11 +1699,17 @@
       <c r="V3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="36" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="37">
+        <v>45734</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2200833</v>
       </c>
@@ -1478,7 +1746,7 @@
         <v>0.72790645415649191</v>
       </c>
       <c r="L4" s="16">
-        <f>AVERAGE(F4:K4)</f>
+        <f t="shared" ref="L4:L19" si="0">AVERAGE(F4:K4)</f>
         <v>0.8208137666373575</v>
       </c>
       <c r="M4" s="6">
@@ -1488,7 +1756,7 @@
         <f t="array" ref="N4">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
         <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="22" t="s">
         <v>78</v>
       </c>
       <c r="P4" s="18">
@@ -1507,18 +1775,24 @@
         <v>4.3</v>
       </c>
       <c r="U4" s="19">
-        <f>AVERAGE(P4:T4)</f>
+        <f t="shared" ref="U4:U19" si="1">AVERAGE(P4:T4)</f>
         <v>3.3600000000000003</v>
       </c>
       <c r="V4" s="20">
         <f>U4*0.7+L4*5*0.3</f>
         <v>3.5832206499560364</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="14">
         <v>0.41671247935178818</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="14">
+        <v>0.78264642075010771</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>0.48466947955898315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2216295</v>
       </c>
@@ -1555,7 +1829,7 @@
         <v>0.65549808803741338</v>
       </c>
       <c r="L5" s="16">
-        <f>AVERAGE(F5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0.79202142611602966</v>
       </c>
       <c r="M5" s="6">
@@ -1565,7 +1839,7 @@
         <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="21" t="s">
         <v>80</v>
       </c>
       <c r="P5" s="18">
@@ -1584,18 +1858,24 @@
         <v>5</v>
       </c>
       <c r="U5" s="19">
-        <f>AVERAGE(P5:T5)</f>
+        <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" ref="V5:V19" si="0">U5*0.7+L5*5*0.3</f>
+        <f t="shared" ref="V5:V19" si="2">U5*0.7+L5*5*0.3</f>
         <v>4.394032139174044</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="14">
         <v>0.9145134689971629</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="14">
+        <v>0.31496746201916759</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>0.80196905770117399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2205127</v>
       </c>
@@ -1632,7 +1912,7 @@
         <v>0.61996851761554772</v>
       </c>
       <c r="L6" s="16">
-        <f>AVERAGE(F6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0.76487608882344349</v>
       </c>
       <c r="M6" s="6">
@@ -1642,7 +1922,7 @@
         <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="21" t="s">
         <v>77</v>
       </c>
       <c r="P6" s="18">
@@ -1661,18 +1941,24 @@
         <v>5</v>
       </c>
       <c r="U6" s="19">
-        <f>AVERAGE(P6:T6)</f>
+        <f t="shared" si="1"/>
         <v>4.84</v>
       </c>
       <c r="V6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5353141332351647</v>
       </c>
-      <c r="W6" s="28">
+      <c r="W6" s="14">
         <v>0.92001099501332539</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="14">
+        <v>0.95835141006207936</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2170311</v>
       </c>
@@ -1709,7 +1995,7 @@
         <v>0.44861704559111432</v>
       </c>
       <c r="L7" s="16">
-        <f>AVERAGE(F7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0.24143617426518571</v>
       </c>
       <c r="M7" s="6">
@@ -1719,7 +2005,7 @@
         <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
         <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="21" t="s">
         <v>78</v>
       </c>
       <c r="P7" s="18">
@@ -1738,18 +2024,24 @@
         <v>2</v>
       </c>
       <c r="U7" s="19">
-        <f>AVERAGE(P7:T7)</f>
+        <f t="shared" si="1"/>
         <v>2.2600000000000002</v>
       </c>
       <c r="V7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9441542613977787</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="14">
         <v>0.78944474988308111</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0.29620253157125481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2210177</v>
       </c>
@@ -1786,7 +2078,7 @@
         <v>0.73735102331239211</v>
       </c>
       <c r="L8" s="16">
-        <f>AVERAGE(F8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0.85485712522977619</v>
       </c>
       <c r="M8" s="6">
@@ -1796,7 +2088,7 @@
         <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
         <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="21" t="s">
         <v>79</v>
       </c>
       <c r="P8" s="18">
@@ -1815,18 +2107,24 @@
         <v>3.6</v>
       </c>
       <c r="U8" s="19">
-        <f>AVERAGE(P8:T8)</f>
+        <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2502856878446647</v>
       </c>
-      <c r="W8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="14">
+        <v>1</v>
+      </c>
+      <c r="X8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2201757</v>
       </c>
@@ -1863,7 +2161,7 @@
         <v>0.73735102331239211</v>
       </c>
       <c r="L9" s="16">
-        <f>AVERAGE(F9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0.69222812084489893</v>
       </c>
       <c r="M9" s="6">
@@ -1873,7 +2171,7 @@
         <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
         <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="21" t="s">
         <v>77</v>
       </c>
       <c r="P9" s="18">
@@ -1892,18 +2190,24 @@
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <f>AVERAGE(P9:T9)</f>
+        <f t="shared" si="1"/>
         <v>1.52</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.102342181267348</v>
       </c>
-      <c r="W9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="14">
+        <v>1</v>
+      </c>
+      <c r="X9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2175459</v>
       </c>
@@ -1940,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f>AVERAGE(F10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="M10" s="6">
@@ -1950,7 +2254,7 @@
         <f>_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
         <v>#N/A</v>
       </c>
-      <c r="O10" s="26"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="18">
         <v>0</v>
       </c>
@@ -1967,18 +2271,24 @@
         <v>0</v>
       </c>
       <c r="U10" s="19">
-        <f>AVERAGE(P10:T10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.24999999999999997</v>
       </c>
-      <c r="W10" s="28">
+      <c r="W10" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2210005</v>
       </c>
@@ -2015,7 +2325,7 @@
         <v>0.65954576192057257</v>
       </c>
       <c r="L11" s="16">
-        <f>AVERAGE(F11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0.80955303445841753</v>
       </c>
       <c r="M11" s="6">
@@ -2025,7 +2335,7 @@
         <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="21" t="s">
         <v>81</v>
       </c>
       <c r="P11" s="18">
@@ -2044,18 +2354,24 @@
         <v>5</v>
       </c>
       <c r="U11" s="19">
-        <f>AVERAGE(P11:T11)</f>
+        <f t="shared" si="1"/>
         <v>4.38</v>
       </c>
       <c r="V11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2803295516876263</v>
       </c>
-      <c r="W11" s="28">
+      <c r="W11" s="14">
         <v>0.13304013194119671</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0.88973277078552115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2211671</v>
       </c>
@@ -2092,7 +2408,7 @@
         <v>0.52237463504265735</v>
       </c>
       <c r="L12" s="16">
-        <f>AVERAGE(F12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0.78054908138811963</v>
       </c>
       <c r="M12" s="6">
@@ -2102,7 +2418,7 @@
         <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="21" t="s">
         <v>81</v>
       </c>
       <c r="P12" s="18">
@@ -2121,18 +2437,24 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="U12" s="19">
-        <f>AVERAGE(P12:T12)</f>
+        <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
       <c r="V12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.138823622082179</v>
       </c>
-      <c r="W12" s="28">
+      <c r="W12" s="14">
         <v>0.874106651948934</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="14">
+        <v>0.78047722339159897</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0.93895921243070513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2210261</v>
       </c>
@@ -2169,7 +2491,7 @@
         <v>0.6069260169825651</v>
       </c>
       <c r="L13" s="16">
-        <f>AVERAGE(F13:K13)</f>
+        <f t="shared" si="0"/>
         <v>0.81659470742939488</v>
       </c>
       <c r="M13" s="6">
@@ -2179,7 +2501,7 @@
         <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="21" t="s">
         <v>77</v>
       </c>
       <c r="P13" s="18">
@@ -2198,18 +2520,24 @@
         <v>5</v>
       </c>
       <c r="U13" s="19">
-        <f>AVERAGE(P13:T13)</f>
+        <f t="shared" si="1"/>
         <v>4.84</v>
       </c>
       <c r="V13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.612892061144092</v>
       </c>
-      <c r="W13" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="14">
+        <v>1</v>
+      </c>
+      <c r="X13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2200689</v>
       </c>
@@ -2246,7 +2574,7 @@
         <v>1.7539914979335842E-2</v>
       </c>
       <c r="L14" s="16">
-        <f>AVERAGE(F14:K14)</f>
+        <f t="shared" si="0"/>
         <v>0.57398738653547587</v>
       </c>
       <c r="M14" s="6">
@@ -2256,7 +2584,7 @@
         <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
         <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="21" t="s">
         <v>77</v>
       </c>
       <c r="P14" s="18">
@@ -2275,18 +2603,24 @@
         <v>5</v>
       </c>
       <c r="U14" s="19">
-        <f>AVERAGE(P14:T14)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2609810798032139</v>
       </c>
-      <c r="W14" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0.3002169198176699</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2206464</v>
       </c>
@@ -2323,7 +2657,7 @@
         <v>0.71104115084338837</v>
       </c>
       <c r="L15" s="16">
-        <f>AVERAGE(F15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0.84796409645733284</v>
       </c>
       <c r="M15" s="6">
@@ -2333,7 +2667,7 @@
         <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="21" t="s">
         <v>77</v>
       </c>
       <c r="P15" s="18">
@@ -2352,18 +2686,24 @@
         <v>4.3</v>
       </c>
       <c r="U15" s="19">
-        <f>AVERAGE(P15:T15)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0719461446859988</v>
       </c>
-      <c r="W15" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="14">
+        <v>1</v>
+      </c>
+      <c r="X15" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2215280</v>
       </c>
@@ -2400,7 +2740,7 @@
         <v>0.65010119082178952</v>
       </c>
       <c r="L16" s="16">
-        <f>AVERAGE(F16:K16)</f>
+        <f t="shared" si="0"/>
         <v>0.82776286079148698</v>
       </c>
       <c r="M16" s="6">
@@ -2410,7 +2750,7 @@
         <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="21" t="s">
         <v>80</v>
       </c>
       <c r="P16" s="18">
@@ -2429,18 +2769,24 @@
         <v>5</v>
       </c>
       <c r="U16" s="19">
-        <f>AVERAGE(P16:T16)</f>
+        <f t="shared" si="1"/>
         <v>4.32</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2656442911872308</v>
       </c>
-      <c r="W16" s="28">
+      <c r="W16" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2210166</v>
       </c>
@@ -2477,7 +2823,7 @@
         <v>0.69417584947316768</v>
       </c>
       <c r="L17" s="16">
-        <f>AVERAGE(F17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0.80723654740397643</v>
       </c>
       <c r="M17" s="6">
@@ -2487,7 +2833,7 @@
         <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="21" t="s">
         <v>80</v>
       </c>
       <c r="P17" s="18">
@@ -2506,18 +2852,24 @@
         <v>5</v>
       </c>
       <c r="U17" s="19">
-        <f>AVERAGE(P17:T17)</f>
+        <f t="shared" si="1"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="V17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1648548211059646</v>
       </c>
-      <c r="W17" s="28">
+      <c r="W17" s="14">
         <v>0.734469488684663</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="14">
+        <v>0.60260303672111848</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>0.82447257383130579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2211352</v>
       </c>
@@ -2554,7 +2906,7 @@
         <v>0.6386327866671927</v>
       </c>
       <c r="L18" s="16">
-        <f>AVERAGE(F18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0.80091270554455229</v>
       </c>
       <c r="M18" s="6">
@@ -2564,7 +2916,7 @@
         <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="21" t="s">
         <v>81</v>
       </c>
       <c r="P18" s="18">
@@ -2583,18 +2935,24 @@
         <v>2</v>
       </c>
       <c r="U18" s="19">
-        <f>AVERAGE(P18:T18)</f>
+        <f t="shared" si="1"/>
         <v>3.7400000000000007</v>
       </c>
       <c r="V18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8193690583168287</v>
       </c>
-      <c r="W18" s="28">
+      <c r="W18" s="14">
         <v>0.45959318321096959</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="14">
+        <v>0.9657266810264632</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0.46638537263693858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2210955</v>
       </c>
@@ -2631,7 +2989,7 @@
         <v>0.67303800301674921</v>
       </c>
       <c r="L19" s="16">
-        <f>AVERAGE(F19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0.78231611133537848</v>
       </c>
       <c r="M19" s="6">
@@ -2641,7 +2999,7 @@
         <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
         <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="P19" s="18">
@@ -2660,14 +3018,20 @@
         <v>5</v>
       </c>
       <c r="U19" s="19">
-        <f>AVERAGE(P19:T19)</f>
+        <f t="shared" si="1"/>
         <v>4.46</v>
       </c>
       <c r="V19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2954741670030678</v>
       </c>
-      <c r="W19" s="28">
+      <c r="W19" s="14">
+        <v>1</v>
+      </c>
+      <c r="X19" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2772,7 +3136,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,16 +3148,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2807,7 +3171,7 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2821,7 +3185,7 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2835,7 +3199,7 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2849,7 +3213,7 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2863,7 +3227,7 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2877,7 +3241,7 @@
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2891,7 +3255,7 @@
       <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2905,7 +3269,7 @@
       <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2919,7 +3283,7 @@
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2933,7 +3297,7 @@
       <c r="C11" s="6">
         <v>4</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2947,7 +3311,7 @@
       <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2961,7 +3325,7 @@
       <c r="C13" s="6">
         <v>5</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2975,7 +3339,7 @@
       <c r="C14" s="6">
         <v>5</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2989,7 +3353,7 @@
       <c r="C15" s="6">
         <v>6</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3003,7 +3367,7 @@
       <c r="C16" s="6">
         <v>6</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3027,4 +3391,445 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432BA170-E1CF-4E00-9187-24FF71715962}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>2200833</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2216295</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2205127</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2170311</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2210177</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>2201757</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2210005</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>2211671</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2210261</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2200689</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>2206464</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2215280</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>2210166</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2211352</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>2210955</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22AAA6-8482-471E-9C4D-1FB693335BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="150">
   <si>
     <t>CODIGO</t>
   </si>
@@ -518,7 +517,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -892,7 +891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1078,6 +1077,24 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1133,7 +1150,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,17 +1219,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,59 +1246,60 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1551,14 +1576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+      <selection activeCell="E4" sqref="E4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -1614,23 +1639,23 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="P2" s="27" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="P2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1699,10 +1724,10 @@
       <c r="V3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="W3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="37">
+      <c r="X3" s="31">
         <v>45734</v>
       </c>
       <c r="Y3" s="7">
@@ -3036,8 +3061,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:U3" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:U19">
+  <autoFilter ref="B3:U3">
+    <sortState ref="B4:U19">
       <sortCondition ref="B3"/>
     </sortState>
   </autoFilter>
@@ -3046,35 +3071,35 @@
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{AC885A0A-75FA-43C3-824E-B4B6DACFDCD6}"/>
-    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{BB47E4B9-3F36-418F-98A8-32497827D7CB}"/>
-    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{363B7BB5-59FD-4AE1-9594-D0595DB8BAF7}"/>
-    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{A05603FE-B1D0-480D-8886-0578F156FBFA}"/>
-    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{71B9652D-72EF-4277-98CF-53F417294C0F}"/>
-    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{1C6A1147-46FE-43A0-9610-3248D84B6E36}"/>
-    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{E24D24D8-6419-470D-81FB-57D6EFE37627}"/>
-    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{9483704E-0BAC-471D-817D-BE45A21FFD27}"/>
-    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{B3014E7A-70DC-4FC4-8FE4-10CEBB75E67E}"/>
-    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{1CC0C8EF-7961-4C34-9FFD-2B245F9CC3ED}"/>
-    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{6D87DB8B-2458-4586-BDC7-D1A76AB5D40B}"/>
-    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{78C60435-E289-4C65-8E77-F79A5905D4D7}"/>
-    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{05F848F4-E758-49F4-B461-AB053402EBF1}"/>
-    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{85BA9C0F-6E3D-4C26-A012-58A3F1EABC5D}"/>
-    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{E514BD92-98E2-40B5-9514-DD8C61A16DDE}"/>
+    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -3132,14 +3157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F7F30E-9CF4-4295-8492-9D662F6D4E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -3373,40 +3398,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{43889197-CFFD-4E0F-97ED-DE23FB2CE3BD}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{ABA6B699-E491-4630-AADC-DED373AD1740}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{72C742C7-AD4A-4289-A9CB-B292F5295A37}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{C9A47C70-02D3-4C5C-8681-229DA8890929}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{04E5B077-F058-4C9A-8D21-E7BB9F57B839}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{6D9386E0-D9ED-4C81-ADAF-897FFC3777E6}"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{9D273852-0EBE-4407-A8B4-D7464F6B0FB3}"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{2523E490-9E16-406C-BE77-0CC9E75EC959}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{2F6949EF-1019-40E7-9A83-7F4D237FC1D3}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{DA00B6F8-DAB4-4274-962D-EDDBC2A9CEA9}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{6A571B02-0E30-4E32-A023-4F1DFC945C35}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{6B062E28-FD68-41BD-87D4-B6262CE125EB}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{0803ADDA-063A-4531-A66B-8A4C056D76FA}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{77032BDA-7FEE-4A8B-8AA0-DEA6740DE554}"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{2AC0C170-B375-459F-9D92-1515627A53F6}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432BA170-E1CF-4E00-9187-24FF71715962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -3414,33 +3439,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2200833</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="29" t="s">
@@ -3463,13 +3488,13 @@
       <c r="A3" s="12">
         <v>2216295</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="29" t="s">
@@ -3492,13 +3517,13 @@
       <c r="A4" s="12">
         <v>2205127</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E4" s="29" t="s">
@@ -3521,13 +3546,13 @@
       <c r="A5" s="12">
         <v>2170311</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="29" t="s">
@@ -3550,13 +3575,13 @@
       <c r="A6" s="12">
         <v>2210177</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>111</v>
       </c>
       <c r="E6" s="29" t="s">
@@ -3579,13 +3604,13 @@
       <c r="A7" s="12">
         <v>2201757</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>148</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -3608,13 +3633,13 @@
       <c r="A8" s="12">
         <v>2210005</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>149</v>
       </c>
       <c r="E8" s="29" t="s">
@@ -3637,13 +3662,13 @@
       <c r="A9" s="12">
         <v>2211671</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="29" t="s">
@@ -3666,13 +3691,13 @@
       <c r="A10" s="12">
         <v>2210261</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="29" t="s">
@@ -3695,28 +3720,28 @@
       <c r="A11" s="12">
         <v>2200689</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="29" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3724,28 +3749,28 @@
       <c r="A12" s="12">
         <v>2206464</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3753,77 +3778,117 @@
       <c r="A13" s="12">
         <v>2215280</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="E13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2210166</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="E14" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2211352</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="E15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2210955</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="E16" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22AAA6-8482-471E-9C4D-1FB693335BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4954AB50-F11C-48F1-B10A-FB7FAB4F6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="158">
   <si>
     <t>CODIGO</t>
   </si>
@@ -513,6 +513,30 @@
   </si>
   <si>
     <t>pulmón derecho</t>
+  </si>
+  <si>
+    <t>CTLiver</t>
+  </si>
+  <si>
+    <t>Segmentación automática y comparar con segmentación manual de 3 órganos</t>
+  </si>
+  <si>
+    <t>CTAbdomen</t>
+  </si>
+  <si>
+    <t>CTCardio</t>
+  </si>
+  <si>
+    <t>CTChest</t>
+  </si>
+  <si>
+    <t>CTA Abdomen (panoramix)</t>
+  </si>
+  <si>
+    <t>Segmentación automática y comparar con segmentación manual de 3 órganos o tejidos</t>
+  </si>
+  <si>
+    <t>Asignación</t>
   </si>
 </sst>
 </file>
@@ -892,7 +916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1087,6 +1111,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1133,7 +1238,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,11 +1301,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1208,11 +1323,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,14 +1332,41 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1552,19 +1689,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
@@ -1580,11 +1717,14 @@
     <col min="20" max="20" width="16" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1"/>
-    <col min="25" max="25" width="11.42578125" style="3"/>
+    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="79.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -1613,26 +1753,26 @@
         <v>4.1145833332848269E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F2" s="26" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="P2" s="27" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="P2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-    </row>
-    <row r="3" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+    </row>
+    <row r="3" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1815,7 @@
       <c r="N3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>76</v>
       </c>
       <c r="P3" s="9" t="s">
@@ -1699,420 +1839,436 @@
       <c r="V3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="W3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="37">
+      <c r="X3" s="31">
         <v>45734</v>
       </c>
       <c r="Y3" s="7">
         <v>45739</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2200833</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <f>0/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f>0/$K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <f>AVERAGE(F4:K4)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17" t="e">
+        <f>_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <f>AVERAGE(P4:T4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="20">
+        <f>U4*0.7+L4*5*0.3</f>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0.41671247935178818</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0.78264642075010771</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>0.48466947955898315</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2216295</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0.58779483338965188</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.60929816731074449</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1</v>
+      </c>
+      <c r="J5" s="39">
+        <f>0.044756944/$J$1</f>
+        <v>0.78886168129138434</v>
+      </c>
+      <c r="K5" s="39">
+        <f>0.0319097222/$K$1</f>
+        <v>0.61996851761554772</v>
+      </c>
+      <c r="L5" s="16">
+        <f>AVERAGE(F5:K5)</f>
+        <v>0.76487608882344349</v>
+      </c>
+      <c r="M5" s="41">
+        <v>1</v>
+      </c>
+      <c r="N5" s="42" t="str" cm="1">
+        <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="44">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="R5" s="44">
+        <v>4.5</v>
+      </c>
+      <c r="S5" s="44">
+        <v>5</v>
+      </c>
+      <c r="T5" s="44">
+        <v>5</v>
+      </c>
+      <c r="U5" s="44">
+        <f>AVERAGE(P5:T5)</f>
+        <v>4.84</v>
+      </c>
+      <c r="V5" s="44">
+        <f t="shared" ref="V5:V19" si="0">U5*0.7+L5*5*0.3</f>
+        <v>4.5353141332351647</v>
+      </c>
+      <c r="W5" s="39">
+        <v>0.9145134689971629</v>
+      </c>
+      <c r="X5" s="39">
+        <v>0.31496746201916759</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0.80196905770117399</v>
+      </c>
+      <c r="Z5" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA5" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2205127</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0.65275177836225751</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1</v>
+      </c>
+      <c r="J6" s="39">
+        <f>0.051053241/$J$1</f>
+        <v>0.89983680589618087</v>
+      </c>
+      <c r="K6" s="39">
+        <f>0.0312384259/$K$1</f>
+        <v>0.6069260169825651</v>
+      </c>
+      <c r="L6" s="16">
+        <f>AVERAGE(F6:K6)</f>
+        <v>0.81659470742939488</v>
+      </c>
+      <c r="M6" s="41">
+        <v>1</v>
+      </c>
+      <c r="N6" s="42" t="str" cm="1">
+        <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R6" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="S6" s="44">
+        <v>5</v>
+      </c>
+      <c r="T6" s="44">
+        <v>5</v>
+      </c>
+      <c r="U6" s="44">
+        <f>AVERAGE(P6:T6)</f>
+        <v>4.84</v>
+      </c>
+      <c r="V6" s="44">
+        <f t="shared" si="0"/>
+        <v>4.612892061144092</v>
+      </c>
+      <c r="W6" s="39">
+        <v>0.92001099501332539</v>
+      </c>
+      <c r="X6" s="39">
+        <v>0.95835141006207936</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="47"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>2170311</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0.67877199547434519</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.73938310241610217</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1</v>
+      </c>
+      <c r="J7" s="39">
+        <f>0.054386574/$J$1</f>
+        <v>0.95858833001016097</v>
+      </c>
+      <c r="K7" s="39">
+        <f>0.0365972222/$K$1</f>
+        <v>0.71104115084338837</v>
+      </c>
+      <c r="L7" s="16">
+        <f>AVERAGE(F7:K7)</f>
+        <v>0.84796409645733284</v>
+      </c>
+      <c r="M7" s="41">
+        <v>1</v>
+      </c>
+      <c r="N7" s="42" t="str" cm="1">
+        <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="R7" s="44">
+        <v>5</v>
+      </c>
+      <c r="S7" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="T7" s="44">
+        <v>4.3</v>
+      </c>
+      <c r="U7" s="44">
+        <f>AVERAGE(P7:T7)</f>
+        <v>4</v>
+      </c>
+      <c r="V7" s="44">
+        <f t="shared" si="0"/>
+        <v>4.0719461446859988</v>
+      </c>
+      <c r="W7" s="39">
+        <v>0.78944474988308111</v>
+      </c>
+      <c r="X7" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0.29620253157125481</v>
+      </c>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="47"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2210177</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F8" s="13">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G8" s="14">
         <v>0.62448521151385872</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H8" s="13">
         <v>0.71904336171365091</v>
       </c>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
         <f>0.0503125/$J$1</f>
         <v>0.88678090577347679</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K8" s="14">
         <f>0.0374652778/$K$1</f>
         <v>0.72790645415649191</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" ref="L4:L19" si="0">AVERAGE(F4:K4)</f>
+      <c r="L8" s="16">
+        <f>AVERAGE(F8:K8)</f>
         <v>0.8208137666373575</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M8" s="6">
         <v>2</v>
-      </c>
-      <c r="N4" s="17" t="str" cm="1">
-        <f t="array" ref="N4">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
-        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
-        <v>4.8</v>
-      </c>
-      <c r="S4" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T4" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="U4" s="19">
-        <f t="shared" ref="U4:U19" si="1">AVERAGE(P4:T4)</f>
-        <v>3.3600000000000003</v>
-      </c>
-      <c r="V4" s="20">
-        <f>U4*0.7+L4*5*0.3</f>
-        <v>3.5832206499560364</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0.41671247935178818</v>
-      </c>
-      <c r="X4" s="14">
-        <v>0.78264642075010771</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>0.48466947955898315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2216295</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0.60857356797981244</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0.71881984802705978</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14">
-        <f>0.04931713/$J$1</f>
-        <v>0.86923705265189177</v>
-      </c>
-      <c r="K5" s="14">
-        <f>0.0337384259/$K$1</f>
-        <v>0.65549808803741338</v>
-      </c>
-      <c r="L5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.79202142611602966</v>
-      </c>
-      <c r="M5" s="6">
-        <v>4</v>
-      </c>
-      <c r="N5" s="17" t="str" cm="1">
-        <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R5" s="18">
-        <v>5</v>
-      </c>
-      <c r="S5" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T5" s="18">
-        <v>5</v>
-      </c>
-      <c r="U5" s="19">
-        <f t="shared" si="1"/>
-        <v>4.58</v>
-      </c>
-      <c r="V5" s="20">
-        <f t="shared" ref="V5:V19" si="2">U5*0.7+L5*5*0.3</f>
-        <v>4.394032139174044</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0.9145134689971629</v>
-      </c>
-      <c r="X5" s="14">
-        <v>0.31496746201916759</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>0.80196905770117399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2205127</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.58779483338965188</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.60929816731074449</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14">
-        <f>0.044756944/$J$1</f>
-        <v>0.78886168129138434</v>
-      </c>
-      <c r="K6" s="14">
-        <f>0.0319097222/$K$1</f>
-        <v>0.61996851761554772</v>
-      </c>
-      <c r="L6" s="16">
-        <f t="shared" si="0"/>
-        <v>0.76487608882344349</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="17" t="str" cm="1">
-        <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="18">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>4.8</v>
-      </c>
-      <c r="R6" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="S6" s="18">
-        <v>5</v>
-      </c>
-      <c r="T6" s="18">
-        <v>5</v>
-      </c>
-      <c r="U6" s="19">
-        <f t="shared" si="1"/>
-        <v>4.84</v>
-      </c>
-      <c r="V6" s="20">
-        <f t="shared" si="2"/>
-        <v>4.5353141332351647</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0.92001099501332539</v>
-      </c>
-      <c r="X6" s="14">
-        <v>0.95835141006207936</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2170311</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
-        <f>0/$J$1</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <f>0.0230902778/$K$1</f>
-        <v>0.44861704559111432</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" si="0"/>
-        <v>0.24143617426518571</v>
-      </c>
-      <c r="M7" s="6">
-        <v>2</v>
-      </c>
-      <c r="N7" s="17" t="str" cm="1">
-        <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
-        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="S7" s="18">
-        <v>5</v>
-      </c>
-      <c r="T7" s="18">
-        <v>2</v>
-      </c>
-      <c r="U7" s="19">
-        <f t="shared" si="1"/>
-        <v>2.2600000000000002</v>
-      </c>
-      <c r="V7" s="20">
-        <f t="shared" si="2"/>
-        <v>1.9441542613977787</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0.78944474988308111</v>
-      </c>
-      <c r="X7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>0.29620253157125481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>2210177</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0.69337326840732949</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0.73983012964877437</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
-        <f>0.054386574/$J$1</f>
-        <v>0.95858833001016097</v>
-      </c>
-      <c r="K8" s="14">
-        <f>0.0379513889/$K$1</f>
-        <v>0.73735102331239211</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>0.85485712522977619</v>
-      </c>
-      <c r="M8" s="6">
-        <v>3</v>
       </c>
       <c r="N8" s="17" t="str" cm="1">
         <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
-        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>79</v>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="P8" s="18">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q8" s="18">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="R8" s="18">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="S8" s="18">
         <v>3.3</v>
       </c>
       <c r="T8" s="18">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="U8" s="19">
-        <f t="shared" si="1"/>
-        <v>4.24</v>
+        <f>AVERAGE(P8:T8)</f>
+        <v>3.3600000000000003</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2502856878446647</v>
+        <f t="shared" si="0"/>
+        <v>3.5832206499560364</v>
       </c>
       <c r="W8" s="14">
         <v>1</v>
@@ -2123,31 +2279,37 @@
       <c r="Y8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA8" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>2201757</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="14">
-        <v>0.67596405842163554</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.74005364333536561</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
       </c>
       <c r="I9" s="15">
         <v>1</v>
@@ -2157,873 +2319,911 @@
         <v>0</v>
       </c>
       <c r="K9" s="14">
+        <f>0.0230902778/$K$1</f>
+        <v>0.44861704559111432</v>
+      </c>
+      <c r="L9" s="16">
+        <f>AVERAGE(F9:K9)</f>
+        <v>0.24143617426518571</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2</v>
+      </c>
+      <c r="N9" s="17" t="str" cm="1">
+        <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="S9" s="18">
+        <v>5</v>
+      </c>
+      <c r="T9" s="18">
+        <v>2</v>
+      </c>
+      <c r="U9" s="19">
+        <f>AVERAGE(P9:T9)</f>
+        <v>2.2600000000000002</v>
+      </c>
+      <c r="V9" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9441542613977787</v>
+      </c>
+      <c r="W9" s="14">
+        <v>1</v>
+      </c>
+      <c r="X9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="49"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2175459</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0.69337326840732949</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.73983012964877437</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1</v>
+      </c>
+      <c r="J10" s="39">
+        <f>0.054386574/$J$1</f>
+        <v>0.95858833001016097</v>
+      </c>
+      <c r="K10" s="39">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L10" s="16">
+        <f>AVERAGE(F10:K10)</f>
+        <v>0.85485712522977619</v>
+      </c>
+      <c r="M10" s="41">
+        <v>3</v>
+      </c>
+      <c r="N10" s="42" t="str" cm="1">
+        <f t="array" ref="N10">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="44">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R10" s="44">
+        <v>5</v>
+      </c>
+      <c r="S10" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="T10" s="44">
+        <v>3.6</v>
+      </c>
+      <c r="U10" s="44">
+        <f>AVERAGE(P10:T10)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V10" s="44">
         <f t="shared" si="0"/>
-        <v>0.69222812084489893</v>
-      </c>
-      <c r="M9" s="6">
-        <v>6</v>
-      </c>
-      <c r="N9" s="17" t="str" cm="1">
-        <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
-        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="18">
+        <v>4.2502856878446647</v>
+      </c>
+      <c r="W10" s="39">
+        <v>0</v>
+      </c>
+      <c r="X10" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA10" s="46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>2210005</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0.66248596035680685</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1</v>
+      </c>
+      <c r="J11" s="39">
+        <f>0.053993056/$J$1</f>
+        <v>0.95165239463668183</v>
+      </c>
+      <c r="K11" s="39">
+        <f>0.0346412037/$K$1</f>
+        <v>0.67303800301674921</v>
+      </c>
+      <c r="L11" s="16">
+        <f>AVERAGE(F11:K11)</f>
+        <v>0.78231611133537848</v>
+      </c>
+      <c r="M11" s="41">
+        <v>3</v>
+      </c>
+      <c r="N11" s="42" t="str" cm="1">
+        <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>4.2</v>
+      </c>
+      <c r="R11" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="S11" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="T11" s="44">
+        <v>5</v>
+      </c>
+      <c r="U11" s="44">
+        <f>AVERAGE(P11:T11)</f>
+        <v>4.46</v>
+      </c>
+      <c r="V11" s="44">
+        <f t="shared" si="0"/>
+        <v>4.2954741670030678</v>
+      </c>
+      <c r="W11" s="39">
+        <v>0.13304013194119671</v>
+      </c>
+      <c r="X11" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0.88973277078552115</v>
+      </c>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="47"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>2211671</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.60857356797981244</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.71881984802705978</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
+        <f>0.04931713/$J$1</f>
+        <v>0.86923705265189177</v>
+      </c>
+      <c r="K12" s="14">
+        <f>0.0337384259/$K$1</f>
+        <v>0.65549808803741338</v>
+      </c>
+      <c r="L12" s="16">
+        <f>AVERAGE(F12:K12)</f>
+        <v>0.79202142611602966</v>
+      </c>
+      <c r="M12" s="6">
         <v>4</v>
       </c>
-      <c r="Q9" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="R9" s="18">
+      <c r="N12" s="17" t="str" cm="1">
+        <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R12" s="18">
+        <v>5</v>
+      </c>
+      <c r="S12" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T12" s="18">
+        <v>5</v>
+      </c>
+      <c r="U12" s="19">
+        <f>AVERAGE(P12:T12)</f>
+        <v>4.58</v>
+      </c>
+      <c r="V12" s="20">
+        <f t="shared" si="0"/>
+        <v>4.394032139174044</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0.874106651948934</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0.78047722339159897</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0.93895921243070513</v>
+      </c>
+      <c r="Z12" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA12" s="48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2210261</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.68494945713152144</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
+        <f>0.050578704/$J$1</f>
+        <v>0.89147287346024495</v>
+      </c>
+      <c r="K13" s="14">
+        <f>0.0334606481/$K$1</f>
+        <v>0.65010119082178952</v>
+      </c>
+      <c r="L13" s="16">
+        <f>AVERAGE(F13:K13)</f>
+        <v>0.82776286079148698</v>
+      </c>
+      <c r="M13" s="6">
+        <v>4</v>
+      </c>
+      <c r="N13" s="17" t="str" cm="1">
+        <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>4</v>
+      </c>
+      <c r="R13" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="S13" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T13" s="18">
+        <v>5</v>
+      </c>
+      <c r="U13" s="19">
+        <f>AVERAGE(P13:T13)</f>
+        <v>4.32</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="0"/>
+        <v>4.2656442911872308</v>
+      </c>
+      <c r="W13" s="14">
+        <v>1</v>
+      </c>
+      <c r="X13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="45"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>2200689</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.65293897421284319</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.70183281192092528</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <f>0.049803241/$J$1</f>
+        <v>0.87780498215025593</v>
+      </c>
+      <c r="K14" s="14">
+        <f>0.0357291667/$K$1</f>
+        <v>0.69417584947316768</v>
+      </c>
+      <c r="L14" s="16">
+        <f>AVERAGE(F14:K14)</f>
+        <v>0.80723654740397643</v>
+      </c>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="str" cm="1">
+        <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="R14" s="18">
+        <v>4</v>
+      </c>
+      <c r="S14" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T14" s="18">
+        <v>5</v>
+      </c>
+      <c r="U14" s="19">
+        <f>AVERAGE(P14:T14)</f>
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="V14" s="20">
+        <f t="shared" si="0"/>
+        <v>4.1648548211059646</v>
+      </c>
+      <c r="W14" s="14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0.3002169198176699</v>
+      </c>
+      <c r="Y14" s="13">
         <v>0</v>
       </c>
-      <c r="S9" s="18">
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="49"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2206464</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0.64002246358209225</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.73245417967738757</v>
+      </c>
+      <c r="I15" s="40">
+        <v>1</v>
+      </c>
+      <c r="J15" s="39">
+        <f>0.048715278/$J$1</f>
+        <v>0.8586291349037859</v>
+      </c>
+      <c r="K15" s="39">
+        <f>0.0339467593/$K$1</f>
+        <v>0.65954576192057257</v>
+      </c>
+      <c r="L15" s="16">
+        <f>AVERAGE(F15:K15)</f>
+        <v>0.80955303445841753</v>
+      </c>
+      <c r="M15" s="41">
+        <v>5</v>
+      </c>
+      <c r="N15" s="42" t="str" cm="1">
+        <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R15" s="44">
+        <v>4.5</v>
+      </c>
+      <c r="S15" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="T15" s="44">
+        <v>5</v>
+      </c>
+      <c r="U15" s="44">
+        <f>AVERAGE(P15:T15)</f>
+        <v>4.38</v>
+      </c>
+      <c r="V15" s="44">
+        <f t="shared" si="0"/>
+        <v>4.2803295516876263</v>
+      </c>
+      <c r="W15" s="39">
+        <v>1</v>
+      </c>
+      <c r="X15" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA15" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>2215280</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0.5979034070853726</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.71099687082300078</v>
+      </c>
+      <c r="I16" s="40">
+        <v>1</v>
+      </c>
+      <c r="J16" s="39">
+        <f>0.050231481/$J$1</f>
+        <v>0.8853529087110199</v>
+      </c>
+      <c r="K16" s="39">
+        <f>0.0268865741/$K$1</f>
+        <v>0.52237463504265735</v>
+      </c>
+      <c r="L16" s="16">
+        <f>AVERAGE(F16:K16)</f>
+        <v>0.78054908138811963</v>
+      </c>
+      <c r="M16" s="41">
+        <v>5</v>
+      </c>
+      <c r="N16" s="42" t="str" cm="1">
+        <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="R16" s="44">
+        <v>4.5</v>
+      </c>
+      <c r="S16" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="T16" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U16" s="44">
+        <f>AVERAGE(P16:T16)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V16" s="44">
+        <f t="shared" si="0"/>
+        <v>4.138823622082179</v>
+      </c>
+      <c r="W16" s="39">
         <v>0</v>
       </c>
-      <c r="T9" s="18">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <f t="shared" si="1"/>
-        <v>1.52</v>
-      </c>
-      <c r="V9" s="20">
-        <f t="shared" si="2"/>
-        <v>2.102342181267348</v>
-      </c>
-      <c r="W9" s="14">
-        <v>1</v>
-      </c>
-      <c r="X9" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>2175459</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="X16" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="50"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>2210166</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="E17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0.66585548484359414</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I17" s="40">
+        <v>1</v>
+      </c>
+      <c r="J17" s="39">
+        <f>0.049791667/$J$1</f>
+        <v>0.87760098508782769</v>
+      </c>
+      <c r="K17" s="39">
+        <f>0.0328703704/$K$1</f>
+        <v>0.6386327866671927</v>
+      </c>
+      <c r="L17" s="16">
+        <f>AVERAGE(F17:K17)</f>
+        <v>0.80091270554455229</v>
+      </c>
+      <c r="M17" s="41">
+        <v>5</v>
+      </c>
+      <c r="N17" s="42" t="str" cm="1">
+        <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="R17" s="44">
+        <v>2.9</v>
+      </c>
+      <c r="S17" s="44">
+        <v>5</v>
+      </c>
+      <c r="T17" s="44">
+        <v>2</v>
+      </c>
+      <c r="U17" s="44">
+        <f>AVERAGE(P17:T17)</f>
+        <v>3.7400000000000007</v>
+      </c>
+      <c r="V17" s="44">
+        <f t="shared" si="0"/>
+        <v>3.8193690583168287</v>
+      </c>
+      <c r="W17" s="39">
+        <v>0.734469488684663</v>
+      </c>
+      <c r="X17" s="39">
+        <v>0.60260303672111848</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>0.82447257383130579</v>
+      </c>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="50"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2211352</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.67596405842163554</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K10" s="14">
-        <f>0/$K$1</f>
+      <c r="K18" s="14">
+        <f>0.0379513889/$K$1</f>
+        <v>0.73735102331239211</v>
+      </c>
+      <c r="L18" s="16">
+        <f>AVERAGE(F18:K18)</f>
+        <v>0.69222812084489893</v>
+      </c>
+      <c r="M18" s="6">
+        <v>6</v>
+      </c>
+      <c r="N18" s="17" t="str" cm="1">
+        <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="R18" s="18">
         <v>0</v>
       </c>
-      <c r="L10" s="16">
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="19">
+        <f>AVERAGE(P18:T18)</f>
+        <v>1.52</v>
+      </c>
+      <c r="V18" s="20">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="17" t="e">
-        <f>_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18">
-        <v>0</v>
-      </c>
-      <c r="U10" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="20">
-        <f t="shared" si="2"/>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2210005</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>2.102342181267348</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0.45959318321096959</v>
+      </c>
+      <c r="X18" s="14">
+        <v>0.9657266810264632</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0.46638537263693858</v>
+      </c>
+      <c r="Z18" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA18" s="48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>2210955</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0.64002246358209225</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.73245417967738757</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14">
-        <f>0.048715278/$J$1</f>
-        <v>0.8586291349037859</v>
-      </c>
-      <c r="K11" s="14">
-        <f>0.0339467593/$K$1</f>
-        <v>0.65954576192057257</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>0.80955303445841753</v>
-      </c>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="17" t="str" cm="1">
-        <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R11" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="S11" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T11" s="18">
-        <v>5</v>
-      </c>
-      <c r="U11" s="19">
-        <f t="shared" si="1"/>
-        <v>4.38</v>
-      </c>
-      <c r="V11" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2803295516876263</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0.13304013194119671</v>
-      </c>
-      <c r="X11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>0.88973277078552115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>2211671</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.5979034070853726</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.71099687082300078</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="14">
-        <f>0.050231481/$J$1</f>
-        <v>0.8853529087110199</v>
-      </c>
-      <c r="K12" s="14">
-        <f>0.0268865741/$K$1</f>
-        <v>0.52237463504265735</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>0.78054908138811963</v>
-      </c>
-      <c r="M12" s="6">
-        <v>5</v>
-      </c>
-      <c r="N12" s="17" t="str" cm="1">
-        <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="R12" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="S12" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T12" s="18">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U12" s="19">
-        <f t="shared" si="1"/>
-        <v>4.24</v>
-      </c>
-      <c r="V12" s="20">
-        <f t="shared" si="2"/>
-        <v>4.138823622082179</v>
-      </c>
-      <c r="W12" s="14">
-        <v>0.874106651948934</v>
-      </c>
-      <c r="X12" s="14">
-        <v>0.78047722339159897</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>0.93895921243070513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>2210261</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.65275177836225751</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-      <c r="J13" s="14">
-        <f>0.051053241/$J$1</f>
-        <v>0.89983680589618087</v>
-      </c>
-      <c r="K13" s="14">
-        <f>0.0312384259/$K$1</f>
-        <v>0.6069260169825651</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>0.81659470742939488</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="17" t="str" cm="1">
-        <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R13" s="18">
-        <v>4.8</v>
-      </c>
-      <c r="S13" s="18">
-        <v>5</v>
-      </c>
-      <c r="T13" s="18">
-        <v>5</v>
-      </c>
-      <c r="U13" s="19">
-        <f t="shared" si="1"/>
-        <v>4.84</v>
-      </c>
-      <c r="V13" s="20">
-        <f t="shared" si="2"/>
-        <v>4.612892061144092</v>
-      </c>
-      <c r="W13" s="14">
-        <v>1</v>
-      </c>
-      <c r="X13" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>2200689</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
         <v>0.46593036325443599</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H19" s="13">
         <v>0.62650871710347011</v>
       </c>
-      <c r="I14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
         <f>0.018946759/$J$1</f>
         <v>0.33394532387561288</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K19" s="14">
         <f>0.0009027778/$K$1</f>
         <v>1.7539914979335842E-2</v>
       </c>
-      <c r="L14" s="16">
-        <f t="shared" si="0"/>
+      <c r="L19" s="16">
+        <f>AVERAGE(F19:K19)</f>
         <v>0.57398738653547587</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M19" s="6">
         <v>6</v>
-      </c>
-      <c r="N14" s="17" t="str" cm="1">
-        <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
-        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <v>0</v>
-      </c>
-      <c r="S14" s="18">
-        <v>0</v>
-      </c>
-      <c r="T14" s="18">
-        <v>5</v>
-      </c>
-      <c r="U14" s="19">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V14" s="20">
-        <f t="shared" si="2"/>
-        <v>2.2609810798032139</v>
-      </c>
-      <c r="W14" s="14">
-        <v>1</v>
-      </c>
-      <c r="X14" s="14">
-        <v>0.3002169198176699</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>2206464</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0.67877199547434519</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.73938310241610217</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14">
-        <f>0.054386574/$J$1</f>
-        <v>0.95858833001016097</v>
-      </c>
-      <c r="K15" s="14">
-        <f>0.0365972222/$K$1</f>
-        <v>0.71104115084338837</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="0"/>
-        <v>0.84796409645733284</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="17" t="str" cm="1">
-        <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>3.9</v>
-      </c>
-      <c r="R15" s="18">
-        <v>5</v>
-      </c>
-      <c r="S15" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T15" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="U15" s="19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="V15" s="20">
-        <f t="shared" si="2"/>
-        <v>4.0719461446859988</v>
-      </c>
-      <c r="W15" s="14">
-        <v>1</v>
-      </c>
-      <c r="X15" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>2215280</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.68494945713152144</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
-        <f>0.050578704/$J$1</f>
-        <v>0.89147287346024495</v>
-      </c>
-      <c r="K16" s="14">
-        <f>0.0334606481/$K$1</f>
-        <v>0.65010119082178952</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="0"/>
-        <v>0.82776286079148698</v>
-      </c>
-      <c r="M16" s="6">
-        <v>4</v>
-      </c>
-      <c r="N16" s="17" t="str" cm="1">
-        <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>4</v>
-      </c>
-      <c r="R16" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="S16" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T16" s="18">
-        <v>5</v>
-      </c>
-      <c r="U16" s="19">
-        <f t="shared" si="1"/>
-        <v>4.32</v>
-      </c>
-      <c r="V16" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2656442911872308</v>
-      </c>
-      <c r="W16" s="14">
-        <v>0</v>
-      </c>
-      <c r="X16" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>2210166</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0.65293897421284319</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0.70183281192092528</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="14">
-        <f>0.049803241/$J$1</f>
-        <v>0.87780498215025593</v>
-      </c>
-      <c r="K17" s="14">
-        <f>0.0357291667/$K$1</f>
-        <v>0.69417584947316768</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="0"/>
-        <v>0.80723654740397643</v>
-      </c>
-      <c r="M17" s="6">
-        <v>4</v>
-      </c>
-      <c r="N17" s="17" t="str" cm="1">
-        <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="R17" s="18">
-        <v>4</v>
-      </c>
-      <c r="S17" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T17" s="18">
-        <v>5</v>
-      </c>
-      <c r="U17" s="19">
-        <f t="shared" si="1"/>
-        <v>4.2200000000000006</v>
-      </c>
-      <c r="V17" s="20">
-        <f t="shared" si="2"/>
-        <v>4.1648548211059646</v>
-      </c>
-      <c r="W17" s="14">
-        <v>0.734469488684663</v>
-      </c>
-      <c r="X17" s="14">
-        <v>0.60260303672111848</v>
-      </c>
-      <c r="Y17" s="13">
-        <v>0.82447257383130579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>2211352</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0.66585548484359414</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14">
-        <f>0.049791667/$J$1</f>
-        <v>0.87760098508782769</v>
-      </c>
-      <c r="K18" s="14">
-        <f>0.0328703704/$K$1</f>
-        <v>0.6386327866671927</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="0"/>
-        <v>0.80091270554455229</v>
-      </c>
-      <c r="M18" s="6">
-        <v>5</v>
-      </c>
-      <c r="N18" s="17" t="str" cm="1">
-        <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="R18" s="18">
-        <v>2.9</v>
-      </c>
-      <c r="S18" s="18">
-        <v>5</v>
-      </c>
-      <c r="T18" s="18">
-        <v>2</v>
-      </c>
-      <c r="U18" s="19">
-        <f t="shared" si="1"/>
-        <v>3.7400000000000007</v>
-      </c>
-      <c r="V18" s="20">
-        <f t="shared" si="2"/>
-        <v>3.8193690583168287</v>
-      </c>
-      <c r="W18" s="14">
-        <v>0.45959318321096959</v>
-      </c>
-      <c r="X18" s="14">
-        <v>0.9657266810264632</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>0.46638537263693858</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>2210955</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0.66248596035680685</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I19" s="15">
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
-        <f>0.053993056/$J$1</f>
-        <v>0.95165239463668183</v>
-      </c>
-      <c r="K19" s="14">
-        <f>0.0346412037/$K$1</f>
-        <v>0.67303800301674921</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="0"/>
-        <v>0.78231611133537848</v>
-      </c>
-      <c r="M19" s="6">
-        <v>3</v>
       </c>
       <c r="N19" s="17" t="str" cm="1">
         <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
-        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P19" s="18">
         <v>5</v>
       </c>
       <c r="Q19" s="18">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="18">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S19" s="18">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T19" s="18">
         <v>5</v>
       </c>
       <c r="U19" s="19">
-        <f t="shared" si="1"/>
-        <v>4.46</v>
+        <f>AVERAGE(P19:T19)</f>
+        <v>2</v>
       </c>
       <c r="V19" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2954741670030678</v>
+        <f t="shared" si="0"/>
+        <v>2.2609810798032139</v>
       </c>
       <c r="W19" s="14">
         <v>1</v>
@@ -3034,11 +3234,13 @@
       <c r="Y19" s="13">
         <v>1</v>
       </c>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="51"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:U3" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:U19">
-      <sortCondition ref="B3"/>
+      <sortCondition ref="M3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -3046,21 +3248,21 @@
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{AC885A0A-75FA-43C3-824E-B4B6DACFDCD6}"/>
-    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{BB47E4B9-3F36-418F-98A8-32497827D7CB}"/>
-    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{363B7BB5-59FD-4AE1-9594-D0595DB8BAF7}"/>
-    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{A05603FE-B1D0-480D-8886-0578F156FBFA}"/>
-    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{71B9652D-72EF-4277-98CF-53F417294C0F}"/>
-    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{1C6A1147-46FE-43A0-9610-3248D84B6E36}"/>
-    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{E24D24D8-6419-470D-81FB-57D6EFE37627}"/>
-    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{9483704E-0BAC-471D-817D-BE45A21FFD27}"/>
-    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{B3014E7A-70DC-4FC4-8FE4-10CEBB75E67E}"/>
-    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{1CC0C8EF-7961-4C34-9FFD-2B245F9CC3ED}"/>
-    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{6D87DB8B-2458-4586-BDC7-D1A76AB5D40B}"/>
-    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{78C60435-E289-4C65-8E77-F79A5905D4D7}"/>
-    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{05F848F4-E758-49F4-B461-AB053402EBF1}"/>
-    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{85BA9C0F-6E3D-4C26-A012-58A3F1EABC5D}"/>
-    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{E514BD92-98E2-40B5-9514-DD8C61A16DDE}"/>
+    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{AC885A0A-75FA-43C3-824E-B4B6DACFDCD6}"/>
+    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{BB47E4B9-3F36-418F-98A8-32497827D7CB}"/>
+    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{363B7BB5-59FD-4AE1-9594-D0595DB8BAF7}"/>
+    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{A05603FE-B1D0-480D-8886-0578F156FBFA}"/>
+    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{71B9652D-72EF-4277-98CF-53F417294C0F}"/>
+    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{1C6A1147-46FE-43A0-9610-3248D84B6E36}"/>
+    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{E24D24D8-6419-470D-81FB-57D6EFE37627}"/>
+    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{9483704E-0BAC-471D-817D-BE45A21FFD27}"/>
+    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{B3014E7A-70DC-4FC4-8FE4-10CEBB75E67E}"/>
+    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{1CC0C8EF-7961-4C34-9FFD-2B245F9CC3ED}"/>
+    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{6D87DB8B-2458-4586-BDC7-D1A76AB5D40B}"/>
+    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{78C60435-E289-4C65-8E77-F79A5905D4D7}"/>
+    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{05F848F4-E758-49F4-B461-AB053402EBF1}"/>
+    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{85BA9C0F-6E3D-4C26-A012-58A3F1EABC5D}"/>
+    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{E514BD92-98E2-40B5-9514-DD8C61A16DDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3414,48 +3616,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2200833</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3463,28 +3665,28 @@
       <c r="A3" s="12">
         <v>2216295</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="26" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3492,28 +3694,28 @@
       <c r="A4" s="12">
         <v>2205127</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="26" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3521,28 +3723,28 @@
       <c r="A5" s="12">
         <v>2170311</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="26" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3550,28 +3752,28 @@
       <c r="A6" s="12">
         <v>2210177</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="26" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3579,28 +3781,28 @@
       <c r="A7" s="12">
         <v>2201757</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="26" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3608,28 +3810,28 @@
       <c r="A8" s="12">
         <v>2210005</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="26" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3637,28 +3839,28 @@
       <c r="A9" s="12">
         <v>2211671</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="26" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3666,28 +3868,28 @@
       <c r="A10" s="12">
         <v>2210261</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="26" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3695,28 +3897,28 @@
       <c r="A11" s="12">
         <v>2200689</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3724,28 +3926,28 @@
       <c r="A12" s="12">
         <v>2206464</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3753,13 +3955,13 @@
       <c r="A13" s="12">
         <v>2215280</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>126</v>
       </c>
       <c r="E13" s="5"/>
@@ -3772,13 +3974,13 @@
       <c r="A14" s="12">
         <v>2210166</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E14" s="5"/>
@@ -3791,13 +3993,13 @@
       <c r="A15" s="12">
         <v>2211352</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="5"/>
@@ -3810,13 +4012,13 @@
       <c r="A16" s="12">
         <v>2210955</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="5"/>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD3707F-3238-4571-A061-6EEC3697BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$B$3:$U$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AA$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -517,12 +518,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1150,7 +1152,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,51 +1257,57 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1576,14 +1584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E19"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -1607,9 +1615,10 @@
     <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" style="1"/>
     <col min="25" max="25" width="11.42578125" style="3"/>
+    <col min="26" max="26" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -1637,8 +1646,14 @@
       <c r="Y1" s="3">
         <v>4.1145833332848269E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="40">
+        <v>3.4999999996216502E-2</v>
+      </c>
+      <c r="AA1">
+        <v>3.1215277784212958E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F2" s="32" t="s">
         <v>74</v>
       </c>
@@ -1657,7 +1672,7 @@
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
     </row>
-    <row r="3" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1731,10 +1746,16 @@
         <v>45734</v>
       </c>
       <c r="Y3" s="7">
-        <v>45739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45741</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>45748</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2200833</v>
       </c>
@@ -1816,8 +1837,14 @@
       <c r="Y4" s="13">
         <v>0.48466947955898315</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="41">
+        <v>0.64256581383251687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2216295</v>
       </c>
@@ -1899,8 +1926,14 @@
       <c r="Y5" s="13">
         <v>0.80196905770117399</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2205127</v>
       </c>
@@ -1982,8 +2015,14 @@
       <c r="Y6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2170311</v>
       </c>
@@ -2065,8 +2104,14 @@
       <c r="Y7" s="13">
         <v>0.29620253157125481</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2210177</v>
       </c>
@@ -2148,8 +2193,14 @@
       <c r="Y8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2201757</v>
       </c>
@@ -2231,8 +2282,14 @@
       <c r="Y9" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="14">
+        <v>0.87863756623470268</v>
+      </c>
+      <c r="AA9" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2175459</v>
       </c>
@@ -2312,8 +2369,14 @@
       <c r="Y10" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2210005</v>
       </c>
@@ -2395,8 +2458,14 @@
       <c r="Y11" s="13">
         <v>0.88973277078552115</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="14">
+        <v>0.73346560870442812</v>
+      </c>
+      <c r="AA11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2211671</v>
       </c>
@@ -2478,8 +2547,14 @@
       <c r="Y12" s="13">
         <v>0.93895921243070513</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2210261</v>
       </c>
@@ -2561,8 +2636,14 @@
       <c r="Y13" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2200689</v>
       </c>
@@ -2644,8 +2725,14 @@
       <c r="Y14" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="14">
+        <v>0.53373015861507977</v>
+      </c>
+      <c r="AA14" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2206464</v>
       </c>
@@ -2727,8 +2814,14 @@
       <c r="Y15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2215280</v>
       </c>
@@ -2810,8 +2903,14 @@
       <c r="Y16" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2210166</v>
       </c>
@@ -2893,8 +2992,14 @@
       <c r="Y17" s="13">
         <v>0.82447257383130579</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2211352</v>
       </c>
@@ -2976,8 +3081,14 @@
       <c r="Y18" s="13">
         <v>0.46638537263693858</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2210955</v>
       </c>
@@ -3059,47 +3170,49 @@
       <c r="Y19" s="13">
         <v>1</v>
       </c>
+      <c r="Z19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="41">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:U3">
-    <sortState ref="B4:U19">
-      <sortCondition ref="B3"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A3:AA3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -3157,14 +3270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -3398,35 +3511,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" hidden="1" customWidth="1"/>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD3707F-3238-4571-A061-6EEC3697BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C5D3DE-A057-44BF-AB6A-40D6849165A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="160">
   <si>
     <t>CODIGO</t>
   </si>
@@ -513,6 +513,36 @@
   </si>
   <si>
     <t>pulmón derecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumor Cerebral </t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/darksteeldragon/brats2020-nifti-format-for-deepmedic</t>
+  </si>
+  <si>
+    <t>Pulmones</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/kmader/finding-lungs-in-ct-data/data</t>
+  </si>
+  <si>
+    <t>Corazón</t>
+  </si>
+  <si>
+    <t>riñones</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/junyussh/tcga-kirp</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/madhuri42/sdp-liver-segmentation</t>
+  </si>
+  <si>
+    <t>Tumor en  Hígado</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/khaledsayedaaaaa/3d-mri-brain-tumor-segmentation-u-net-acc-99/input</t>
   </si>
 </sst>
 </file>
@@ -893,7 +923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1106,6 +1136,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1152,7 +1224,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1215,9 +1287,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1232,6 +1301,12 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1257,12 +1332,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1585,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="E5" sqref="E5:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,14 +1674,14 @@
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="3" customWidth="1"/>
     <col min="14" max="14" width="81.28515625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" hidden="1" customWidth="1"/>
@@ -1612,13 +1690,16 @@
     <col min="19" max="19" width="15.42578125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="16" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1"/>
-    <col min="25" max="25" width="11.42578125" style="3"/>
-    <col min="26" max="26" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="83.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -1646,33 +1727,33 @@
       <c r="Y1" s="3">
         <v>4.1145833332848269E-2</v>
       </c>
-      <c r="Z1" s="40">
+      <c r="Z1" s="31">
         <v>3.4999999996216502E-2</v>
       </c>
       <c r="AA1">
         <v>3.1215277784212958E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F2" s="32" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="P2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="P2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-    </row>
-    <row r="3" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+    </row>
+    <row r="3" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1796,7 @@
       <c r="N3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>76</v>
       </c>
       <c r="P3" s="9" t="s">
@@ -1739,10 +1820,10 @@
       <c r="V3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="W3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3" s="30">
         <v>45734</v>
       </c>
       <c r="Y3" s="7">
@@ -1755,223 +1836,224 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
-        <v>2200833</v>
+        <v>2175459</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F4" s="13">
-        <v>0.96666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G4" s="14">
-        <v>0.62448521151385872</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0.71904336171365091</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
       </c>
       <c r="J4" s="14">
-        <f>0.0503125/$J$1</f>
-        <v>0.88678090577347679</v>
+        <f>0/$J$1</f>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
-        <f>0.0374652778/$K$1</f>
-        <v>0.72790645415649191</v>
+        <f>0/$K$1</f>
+        <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L19" si="0">AVERAGE(F4:K4)</f>
-        <v>0.8208137666373575</v>
+        <f>AVERAGE(F4:K4)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M4" s="6">
-        <v>2</v>
-      </c>
-      <c r="N4" s="17" t="str" cm="1">
-        <f t="array" ref="N4">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
-        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="17" t="e">
+        <f>_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O4" s="17"/>
       <c r="P4" s="18">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="18">
         <v>0</v>
       </c>
       <c r="R4" s="18">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S4" s="18">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="18">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="U4" s="19">
-        <f t="shared" ref="U4:U19" si="1">AVERAGE(P4:T4)</f>
-        <v>3.3600000000000003</v>
+        <f>AVERAGE(P4:T4)</f>
+        <v>0</v>
       </c>
       <c r="V4" s="20">
         <f>U4*0.7+L4*5*0.3</f>
-        <v>3.5832206499560364</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="W4" s="14">
-        <v>0.41671247935178818</v>
+        <v>0</v>
       </c>
       <c r="X4" s="14">
-        <v>0.78264642075010771</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="13">
-        <v>0.48466947955898315</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="14">
         <v>0</v>
       </c>
-      <c r="AA4" s="41">
-        <v>0.64256581383251687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>2216295</v>
+        <v>2205127</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="13">
-        <v>0.9</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="G5" s="14">
-        <v>0.60857356797981244</v>
+        <v>0.58779483338965188</v>
       </c>
       <c r="H5" s="13">
-        <v>0.71881984802705978</v>
+        <v>0.60929816731074449</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
       </c>
       <c r="J5" s="14">
-        <f>0.04931713/$J$1</f>
-        <v>0.86923705265189177</v>
+        <f>0.044756944/$J$1</f>
+        <v>0.78886168129138434</v>
       </c>
       <c r="K5" s="14">
-        <f>0.0337384259/$K$1</f>
-        <v>0.65549808803741338</v>
+        <f>0.0319097222/$K$1</f>
+        <v>0.61996851761554772</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.79202142611602966</v>
+        <f>AVERAGE(F5:K5)</f>
+        <v>0.76487608882344349</v>
       </c>
       <c r="M5" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="17" t="str" cm="1">
         <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P5" s="18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="R5" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="S5" s="18">
         <v>5</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R5" s="18">
-        <v>5</v>
-      </c>
-      <c r="S5" s="18">
-        <v>3.3</v>
       </c>
       <c r="T5" s="18">
         <v>5</v>
       </c>
       <c r="U5" s="19">
-        <f t="shared" si="1"/>
-        <v>4.58</v>
+        <f>AVERAGE(P5:T5)</f>
+        <v>4.84</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" ref="V5:V19" si="2">U5*0.7+L5*5*0.3</f>
-        <v>4.394032139174044</v>
+        <f>U5*0.7+L5*5*0.3</f>
+        <v>4.5353141332351647</v>
       </c>
       <c r="W5" s="14">
-        <v>0.9145134689971629</v>
+        <v>0.92001099501332539</v>
       </c>
       <c r="X5" s="14">
-        <v>0.31496746201916759</v>
+        <v>0.95835141006207936</v>
       </c>
       <c r="Y5" s="13">
-        <v>0.80196905770117399</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="14">
         <v>1</v>
       </c>
-      <c r="AA5" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA5" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2205127</v>
+        <v>2210261</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F6" s="13">
-        <v>0.98333333333333328</v>
+        <v>1</v>
       </c>
       <c r="G6" s="14">
-        <v>0.58779483338965188</v>
+        <v>0.65275177836225751</v>
       </c>
       <c r="H6" s="13">
-        <v>0.60929816731074449</v>
+        <v>0.74005364333536561</v>
       </c>
       <c r="I6" s="15">
         <v>1</v>
       </c>
       <c r="J6" s="14">
-        <f>0.044756944/$J$1</f>
-        <v>0.78886168129138434</v>
+        <f>0.051053241/$J$1</f>
+        <v>0.89983680589618087</v>
       </c>
       <c r="K6" s="14">
-        <f>0.0319097222/$K$1</f>
-        <v>0.61996851761554772</v>
+        <f>0.0312384259/$K$1</f>
+        <v>0.6069260169825651</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="0"/>
-        <v>0.76487608882344349</v>
+        <f>AVERAGE(F6:K6)</f>
+        <v>0.81659470742939488</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -1984,13 +2066,13 @@
         <v>77</v>
       </c>
       <c r="P6" s="18">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R6" s="18">
         <v>4.8</v>
-      </c>
-      <c r="R6" s="18">
-        <v>4.5</v>
       </c>
       <c r="S6" s="18">
         <v>5</v>
@@ -1999,18 +2081,18 @@
         <v>5</v>
       </c>
       <c r="U6" s="19">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(P6:T6)</f>
         <v>4.84</v>
       </c>
       <c r="V6" s="20">
-        <f t="shared" si="2"/>
-        <v>4.5353141332351647</v>
+        <f>U6*0.7+L6*5*0.3</f>
+        <v>4.612892061144092</v>
       </c>
       <c r="W6" s="14">
-        <v>0.92001099501332539</v>
+        <v>1</v>
       </c>
       <c r="X6" s="14">
-        <v>0.95835141006207936</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="13">
         <v>1</v>
@@ -2018,16 +2100,17 @@
       <c r="Z6" s="14">
         <v>1</v>
       </c>
-      <c r="AA6" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA6" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
-        <v>2170311</v>
+        <v>2206464</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>38</v>
@@ -2036,194 +2119,198 @@
         <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
+        <v>0.67877199547434519</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.73938310241610217</v>
       </c>
       <c r="I7" s="15">
         <v>1</v>
       </c>
       <c r="J7" s="14">
-        <f>0/$J$1</f>
-        <v>0</v>
+        <f>0.054386574/$J$1</f>
+        <v>0.95858833001016097</v>
       </c>
       <c r="K7" s="14">
-        <f>0.0230902778/$K$1</f>
-        <v>0.44861704559111432</v>
+        <f>0.0365972222/$K$1</f>
+        <v>0.71104115084338837</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
-        <v>0.24143617426518571</v>
+        <f>AVERAGE(F7:K7)</f>
+        <v>0.84796409645733284</v>
       </c>
       <c r="M7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="17" t="str" cm="1">
         <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
-        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P7" s="18">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" s="18">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="R7" s="18">
+        <v>5</v>
+      </c>
+      <c r="S7" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T7" s="18">
         <v>4.3</v>
       </c>
-      <c r="S7" s="18">
+      <c r="U7" s="19">
+        <f>AVERAGE(P7:T7)</f>
+        <v>4</v>
+      </c>
+      <c r="V7" s="20">
+        <f>U7*0.7+L7*5*0.3</f>
+        <v>4.0719461446859988</v>
+      </c>
+      <c r="W7" s="14">
+        <v>1</v>
+      </c>
+      <c r="X7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="43"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2200833</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="18">
-        <v>2</v>
-      </c>
-      <c r="U7" s="19">
-        <f t="shared" si="1"/>
-        <v>2.2600000000000002</v>
-      </c>
-      <c r="V7" s="20">
-        <f t="shared" si="2"/>
-        <v>1.9441542613977787</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0.78944474988308111</v>
-      </c>
-      <c r="X7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>0.29620253157125481</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>2210177</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F8" s="13">
-        <v>1</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G8" s="14">
-        <v>0.69337326840732949</v>
+        <v>0.62448521151385872</v>
       </c>
       <c r="H8" s="13">
-        <v>0.73983012964877437</v>
+        <v>0.71904336171365091</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
       </c>
       <c r="J8" s="14">
-        <f>0.054386574/$J$1</f>
-        <v>0.95858833001016097</v>
+        <f>0.0503125/$J$1</f>
+        <v>0.88678090577347679</v>
       </c>
       <c r="K8" s="14">
-        <f>0.0379513889/$K$1</f>
-        <v>0.73735102331239211</v>
+        <f>0.0374652778/$K$1</f>
+        <v>0.72790645415649191</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>0.85485712522977619</v>
+        <f>AVERAGE(F8:K8)</f>
+        <v>0.8208137666373575</v>
       </c>
       <c r="M8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" s="17" t="str" cm="1">
         <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
-        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>79</v>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="P8" s="18">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q8" s="18">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="R8" s="18">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="S8" s="18">
         <v>3.3</v>
       </c>
       <c r="T8" s="18">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="U8" s="19">
-        <f t="shared" si="1"/>
-        <v>4.24</v>
+        <f>AVERAGE(P8:T8)</f>
+        <v>3.3600000000000003</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2502856878446647</v>
+        <f>U8*0.7+L8*5*0.3</f>
+        <v>3.5832206499560364</v>
       </c>
       <c r="W8" s="14">
-        <v>1</v>
+        <v>0.41671247935178818</v>
       </c>
       <c r="X8" s="14">
-        <v>1</v>
+        <v>0.78264642075010771</v>
       </c>
       <c r="Y8" s="13">
-        <v>1</v>
+        <v>0.48466947955898315</v>
       </c>
       <c r="Z8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>0.64256581383251687</v>
+      </c>
+      <c r="AB8" s="42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>2201757</v>
+        <v>2170311</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="14">
-        <v>0.67596405842163554</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.74005364333536561</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
       </c>
       <c r="I9" s="15">
         <v>1</v>
@@ -2233,972 +2320,1012 @@
         <v>0</v>
       </c>
       <c r="K9" s="14">
+        <f>0.0230902778/$K$1</f>
+        <v>0.44861704559111432</v>
+      </c>
+      <c r="L9" s="16">
+        <f>AVERAGE(F9:K9)</f>
+        <v>0.24143617426518571</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2</v>
+      </c>
+      <c r="N9" s="17" t="str" cm="1">
+        <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="S9" s="18">
+        <v>5</v>
+      </c>
+      <c r="T9" s="18">
+        <v>2</v>
+      </c>
+      <c r="U9" s="19">
+        <f>AVERAGE(P9:T9)</f>
+        <v>2.2600000000000002</v>
+      </c>
+      <c r="V9" s="20">
+        <f>U9*0.7+L9*5*0.3</f>
+        <v>1.9441542613977787</v>
+      </c>
+      <c r="W9" s="14">
+        <v>0.78944474988308111</v>
+      </c>
+      <c r="X9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0.29620253157125481</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2210177</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.69337326840732949</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.73983012964877437</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <f>0.054386574/$J$1</f>
+        <v>0.95858833001016097</v>
+      </c>
+      <c r="K10" s="14">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L9" s="16">
-        <f t="shared" si="0"/>
-        <v>0.69222812084489893</v>
-      </c>
-      <c r="M9" s="6">
-        <v>6</v>
-      </c>
-      <c r="N9" s="17" t="str" cm="1">
-        <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
-        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="18">
+      <c r="L10" s="16">
+        <f>AVERAGE(F10:K10)</f>
+        <v>0.85485712522977619</v>
+      </c>
+      <c r="M10" s="6">
+        <v>3</v>
+      </c>
+      <c r="N10" s="17" t="str" cm="1">
+        <f t="array" ref="N10">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R10" s="18">
+        <v>5</v>
+      </c>
+      <c r="S10" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T10" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="U10" s="19">
+        <f>AVERAGE(P10:T10)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V10" s="20">
+        <f>U10*0.7+L10*5*0.3</f>
+        <v>4.2502856878446647</v>
+      </c>
+      <c r="W10" s="14">
+        <v>1</v>
+      </c>
+      <c r="X10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC10" s="43"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>2210955</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.66248596035680685</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <f>0.053993056/$J$1</f>
+        <v>0.95165239463668183</v>
+      </c>
+      <c r="K11" s="14">
+        <f>0.0346412037/$K$1</f>
+        <v>0.67303800301674921</v>
+      </c>
+      <c r="L11" s="16">
+        <f>AVERAGE(F11:K11)</f>
+        <v>0.78231611133537848</v>
+      </c>
+      <c r="M11" s="6">
+        <v>3</v>
+      </c>
+      <c r="N11" s="17" t="str" cm="1">
+        <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="R11" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="S11" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T11" s="18">
+        <v>5</v>
+      </c>
+      <c r="U11" s="19">
+        <f>AVERAGE(P11:T11)</f>
+        <v>4.46</v>
+      </c>
+      <c r="V11" s="20">
+        <f>U11*0.7+L11*5*0.3</f>
+        <v>4.2954741670030678</v>
+      </c>
+      <c r="W11" s="14">
+        <v>1</v>
+      </c>
+      <c r="X11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>2216295</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.60857356797981244</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.71881984802705978</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
+        <f>0.04931713/$J$1</f>
+        <v>0.86923705265189177</v>
+      </c>
+      <c r="K12" s="14">
+        <f>0.0337384259/$K$1</f>
+        <v>0.65549808803741338</v>
+      </c>
+      <c r="L12" s="16">
+        <f>AVERAGE(F12:K12)</f>
+        <v>0.79202142611602966</v>
+      </c>
+      <c r="M12" s="6">
         <v>4</v>
       </c>
-      <c r="Q9" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="R9" s="18">
+      <c r="N12" s="17" t="str" cm="1">
+        <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R12" s="18">
+        <v>5</v>
+      </c>
+      <c r="S12" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T12" s="18">
+        <v>5</v>
+      </c>
+      <c r="U12" s="19">
+        <f>AVERAGE(P12:T12)</f>
+        <v>4.58</v>
+      </c>
+      <c r="V12" s="20">
+        <f>U12*0.7+L12*5*0.3</f>
+        <v>4.394032139174044</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0.9145134689971629</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0.31496746201916759</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0.80196905770117399</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2215280</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.68494945713152144</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
+        <f>0.050578704/$J$1</f>
+        <v>0.89147287346024495</v>
+      </c>
+      <c r="K13" s="14">
+        <f>0.0334606481/$K$1</f>
+        <v>0.65010119082178952</v>
+      </c>
+      <c r="L13" s="16">
+        <f>AVERAGE(F13:K13)</f>
+        <v>0.82776286079148698</v>
+      </c>
+      <c r="M13" s="6">
+        <v>4</v>
+      </c>
+      <c r="N13" s="17" t="str" cm="1">
+        <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>4</v>
+      </c>
+      <c r="R13" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="S13" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T13" s="18">
+        <v>5</v>
+      </c>
+      <c r="U13" s="19">
+        <f>AVERAGE(P13:T13)</f>
+        <v>4.32</v>
+      </c>
+      <c r="V13" s="20">
+        <f>U13*0.7+L13*5*0.3</f>
+        <v>4.2656442911872308</v>
+      </c>
+      <c r="W13" s="14">
         <v>0</v>
       </c>
-      <c r="S9" s="18">
+      <c r="X13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>2210166</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.65293897421284319</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.70183281192092528</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <f>0.049803241/$J$1</f>
+        <v>0.87780498215025593</v>
+      </c>
+      <c r="K14" s="14">
+        <f>0.0357291667/$K$1</f>
+        <v>0.69417584947316768</v>
+      </c>
+      <c r="L14" s="16">
+        <f>AVERAGE(F14:K14)</f>
+        <v>0.80723654740397643</v>
+      </c>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="str" cm="1">
+        <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="R14" s="18">
+        <v>4</v>
+      </c>
+      <c r="S14" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T14" s="18">
+        <v>5</v>
+      </c>
+      <c r="U14" s="19">
+        <f>AVERAGE(P14:T14)</f>
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="V14" s="20">
+        <f>U14*0.7+L14*5*0.3</f>
+        <v>4.1648548211059646</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0.734469488684663</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0.60260303672111848</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0.82447257383130579</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="45"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2210005</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.64002246358209225</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.73245417967738757</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
+        <f>0.048715278/$J$1</f>
+        <v>0.8586291349037859</v>
+      </c>
+      <c r="K15" s="14">
+        <f>0.0339467593/$K$1</f>
+        <v>0.65954576192057257</v>
+      </c>
+      <c r="L15" s="16">
+        <f>AVERAGE(F15:K15)</f>
+        <v>0.80955303445841753</v>
+      </c>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="17" t="str" cm="1">
+        <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R15" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="S15" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T15" s="18">
+        <v>5</v>
+      </c>
+      <c r="U15" s="19">
+        <f>AVERAGE(P15:T15)</f>
+        <v>4.38</v>
+      </c>
+      <c r="V15" s="20">
+        <f>U15*0.7+L15*5*0.3</f>
+        <v>4.2803295516876263</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0.13304013194119671</v>
+      </c>
+      <c r="X15" s="14">
         <v>0</v>
       </c>
-      <c r="T9" s="18">
+      <c r="Y15" s="13">
+        <v>0.88973277078552115</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0.73346560870442812</v>
+      </c>
+      <c r="AA15" s="32">
         <v>0</v>
       </c>
-      <c r="U9" s="19">
-        <f t="shared" si="1"/>
-        <v>1.52</v>
-      </c>
-      <c r="V9" s="20">
-        <f t="shared" si="2"/>
-        <v>2.102342181267348</v>
-      </c>
-      <c r="W9" s="14">
-        <v>1</v>
-      </c>
-      <c r="X9" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>0.87863756623470268</v>
-      </c>
-      <c r="AA9" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>2175459</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="AB15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>2211671</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.5979034070853726</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.71099687082300078</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <f>0.050231481/$J$1</f>
+        <v>0.8853529087110199</v>
+      </c>
+      <c r="K16" s="14">
+        <f>0.0268865741/$K$1</f>
+        <v>0.52237463504265735</v>
+      </c>
+      <c r="L16" s="16">
+        <f>AVERAGE(F16:K16)</f>
+        <v>0.78054908138811963</v>
+      </c>
+      <c r="M16" s="6">
+        <v>5</v>
+      </c>
+      <c r="N16" s="17" t="str" cm="1">
+        <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="R16" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="S16" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T16" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U16" s="19">
+        <f>AVERAGE(P16:T16)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V16" s="20">
+        <f>U16*0.7+L16*5*0.3</f>
+        <v>4.138823622082179</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0.874106651948934</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0.78047722339159897</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0.93895921243070513</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="32">
         <v>0</v>
       </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="AB16" s="41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>2211352</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.66585548484359414</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
+        <f>0.049791667/$J$1</f>
+        <v>0.87760098508782769</v>
+      </c>
+      <c r="K17" s="14">
+        <f>0.0328703704/$K$1</f>
+        <v>0.6386327866671927</v>
+      </c>
+      <c r="L17" s="16">
+        <f>AVERAGE(F17:K17)</f>
+        <v>0.80091270554455229</v>
+      </c>
+      <c r="M17" s="6">
+        <v>5</v>
+      </c>
+      <c r="N17" s="17" t="str" cm="1">
+        <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="R17" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="S17" s="18">
+        <v>5</v>
+      </c>
+      <c r="T17" s="18">
+        <v>2</v>
+      </c>
+      <c r="U17" s="19">
+        <f>AVERAGE(P17:T17)</f>
+        <v>3.7400000000000007</v>
+      </c>
+      <c r="V17" s="20">
+        <f>U17*0.7+L17*5*0.3</f>
+        <v>3.8193690583168287</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0.45959318321096959</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0.9657266810264632</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>0.46638537263693858</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="45"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2201757</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.67596405842163554</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K10" s="14">
-        <f>0/$K$1</f>
+      <c r="K18" s="14">
+        <f>0.0379513889/$K$1</f>
+        <v>0.73735102331239211</v>
+      </c>
+      <c r="L18" s="16">
+        <f>AVERAGE(F18:K18)</f>
+        <v>0.69222812084489893</v>
+      </c>
+      <c r="M18" s="6">
+        <v>6</v>
+      </c>
+      <c r="N18" s="17" t="str" cm="1">
+        <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="R18" s="18">
         <v>0</v>
       </c>
-      <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="S18" s="18">
         <v>0</v>
       </c>
-      <c r="N10" s="17" t="e">
-        <f>_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="18">
+      <c r="T18" s="18">
         <v>0</v>
       </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18">
-        <v>0</v>
-      </c>
-      <c r="U10" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="20">
-        <f t="shared" si="2"/>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2210005</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="U18" s="19">
+        <f>AVERAGE(P18:T18)</f>
+        <v>1.52</v>
+      </c>
+      <c r="V18" s="20">
+        <f>U18*0.7+L18*5*0.3</f>
+        <v>2.102342181267348</v>
+      </c>
+      <c r="W18" s="14">
+        <v>1</v>
+      </c>
+      <c r="X18" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>0.87863756623470268</v>
+      </c>
+      <c r="AA18" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>2200689</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0.64002246358209225</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.73245417967738757</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14">
-        <f>0.048715278/$J$1</f>
-        <v>0.8586291349037859</v>
-      </c>
-      <c r="K11" s="14">
-        <f>0.0339467593/$K$1</f>
-        <v>0.65954576192057257</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>0.80955303445841753</v>
-      </c>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="17" t="str" cm="1">
-        <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R11" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="S11" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T11" s="18">
-        <v>5</v>
-      </c>
-      <c r="U11" s="19">
-        <f t="shared" si="1"/>
-        <v>4.38</v>
-      </c>
-      <c r="V11" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2803295516876263</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0.13304013194119671</v>
-      </c>
-      <c r="X11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>0.88973277078552115</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>0.73346560870442812</v>
-      </c>
-      <c r="AA11" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>2211671</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.5979034070853726</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.71099687082300078</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="14">
-        <f>0.050231481/$J$1</f>
-        <v>0.8853529087110199</v>
-      </c>
-      <c r="K12" s="14">
-        <f>0.0268865741/$K$1</f>
-        <v>0.52237463504265735</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>0.78054908138811963</v>
-      </c>
-      <c r="M12" s="6">
-        <v>5</v>
-      </c>
-      <c r="N12" s="17" t="str" cm="1">
-        <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="R12" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="S12" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T12" s="18">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U12" s="19">
-        <f t="shared" si="1"/>
-        <v>4.24</v>
-      </c>
-      <c r="V12" s="20">
-        <f t="shared" si="2"/>
-        <v>4.138823622082179</v>
-      </c>
-      <c r="W12" s="14">
-        <v>0.874106651948934</v>
-      </c>
-      <c r="X12" s="14">
-        <v>0.78047722339159897</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>0.93895921243070513</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>2210261</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.65275177836225751</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-      <c r="J13" s="14">
-        <f>0.051053241/$J$1</f>
-        <v>0.89983680589618087</v>
-      </c>
-      <c r="K13" s="14">
-        <f>0.0312384259/$K$1</f>
-        <v>0.6069260169825651</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>0.81659470742939488</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="17" t="str" cm="1">
-        <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R13" s="18">
-        <v>4.8</v>
-      </c>
-      <c r="S13" s="18">
-        <v>5</v>
-      </c>
-      <c r="T13" s="18">
-        <v>5</v>
-      </c>
-      <c r="U13" s="19">
-        <f t="shared" si="1"/>
-        <v>4.84</v>
-      </c>
-      <c r="V13" s="20">
-        <f t="shared" si="2"/>
-        <v>4.612892061144092</v>
-      </c>
-      <c r="W13" s="14">
-        <v>1</v>
-      </c>
-      <c r="X13" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>2200689</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
         <v>0.46593036325443599</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H19" s="13">
         <v>0.62650871710347011</v>
       </c>
-      <c r="I14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
         <f>0.018946759/$J$1</f>
         <v>0.33394532387561288</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K19" s="14">
         <f>0.0009027778/$K$1</f>
         <v>1.7539914979335842E-2</v>
       </c>
-      <c r="L14" s="16">
-        <f t="shared" si="0"/>
+      <c r="L19" s="16">
+        <f>AVERAGE(F19:K19)</f>
         <v>0.57398738653547587</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M19" s="6">
         <v>6</v>
-      </c>
-      <c r="N14" s="17" t="str" cm="1">
-        <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
-        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <v>0</v>
-      </c>
-      <c r="S14" s="18">
-        <v>0</v>
-      </c>
-      <c r="T14" s="18">
-        <v>5</v>
-      </c>
-      <c r="U14" s="19">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V14" s="20">
-        <f t="shared" si="2"/>
-        <v>2.2609810798032139</v>
-      </c>
-      <c r="W14" s="14">
-        <v>1</v>
-      </c>
-      <c r="X14" s="14">
-        <v>0.3002169198176699</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>0.53373015861507977</v>
-      </c>
-      <c r="AA14" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>2206464</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0.67877199547434519</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.73938310241610217</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14">
-        <f>0.054386574/$J$1</f>
-        <v>0.95858833001016097</v>
-      </c>
-      <c r="K15" s="14">
-        <f>0.0365972222/$K$1</f>
-        <v>0.71104115084338837</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="0"/>
-        <v>0.84796409645733284</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="17" t="str" cm="1">
-        <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>3.9</v>
-      </c>
-      <c r="R15" s="18">
-        <v>5</v>
-      </c>
-      <c r="S15" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T15" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="U15" s="19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="V15" s="20">
-        <f t="shared" si="2"/>
-        <v>4.0719461446859988</v>
-      </c>
-      <c r="W15" s="14">
-        <v>1</v>
-      </c>
-      <c r="X15" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>2215280</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.68494945713152144</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
-        <f>0.050578704/$J$1</f>
-        <v>0.89147287346024495</v>
-      </c>
-      <c r="K16" s="14">
-        <f>0.0334606481/$K$1</f>
-        <v>0.65010119082178952</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="0"/>
-        <v>0.82776286079148698</v>
-      </c>
-      <c r="M16" s="6">
-        <v>4</v>
-      </c>
-      <c r="N16" s="17" t="str" cm="1">
-        <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>4</v>
-      </c>
-      <c r="R16" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="S16" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T16" s="18">
-        <v>5</v>
-      </c>
-      <c r="U16" s="19">
-        <f t="shared" si="1"/>
-        <v>4.32</v>
-      </c>
-      <c r="V16" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2656442911872308</v>
-      </c>
-      <c r="W16" s="14">
-        <v>0</v>
-      </c>
-      <c r="X16" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>2210166</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0.65293897421284319</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0.70183281192092528</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="14">
-        <f>0.049803241/$J$1</f>
-        <v>0.87780498215025593</v>
-      </c>
-      <c r="K17" s="14">
-        <f>0.0357291667/$K$1</f>
-        <v>0.69417584947316768</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="0"/>
-        <v>0.80723654740397643</v>
-      </c>
-      <c r="M17" s="6">
-        <v>4</v>
-      </c>
-      <c r="N17" s="17" t="str" cm="1">
-        <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="R17" s="18">
-        <v>4</v>
-      </c>
-      <c r="S17" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="T17" s="18">
-        <v>5</v>
-      </c>
-      <c r="U17" s="19">
-        <f t="shared" si="1"/>
-        <v>4.2200000000000006</v>
-      </c>
-      <c r="V17" s="20">
-        <f t="shared" si="2"/>
-        <v>4.1648548211059646</v>
-      </c>
-      <c r="W17" s="14">
-        <v>0.734469488684663</v>
-      </c>
-      <c r="X17" s="14">
-        <v>0.60260303672111848</v>
-      </c>
-      <c r="Y17" s="13">
-        <v>0.82447257383130579</v>
-      </c>
-      <c r="Z17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>2211352</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0.66585548484359414</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14">
-        <f>0.049791667/$J$1</f>
-        <v>0.87760098508782769</v>
-      </c>
-      <c r="K18" s="14">
-        <f>0.0328703704/$K$1</f>
-        <v>0.6386327866671927</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="0"/>
-        <v>0.80091270554455229</v>
-      </c>
-      <c r="M18" s="6">
-        <v>5</v>
-      </c>
-      <c r="N18" s="17" t="str" cm="1">
-        <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="R18" s="18">
-        <v>2.9</v>
-      </c>
-      <c r="S18" s="18">
-        <v>5</v>
-      </c>
-      <c r="T18" s="18">
-        <v>2</v>
-      </c>
-      <c r="U18" s="19">
-        <f t="shared" si="1"/>
-        <v>3.7400000000000007</v>
-      </c>
-      <c r="V18" s="20">
-        <f t="shared" si="2"/>
-        <v>3.8193690583168287</v>
-      </c>
-      <c r="W18" s="14">
-        <v>0.45959318321096959</v>
-      </c>
-      <c r="X18" s="14">
-        <v>0.9657266810264632</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>0.46638537263693858</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>2210955</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0.66248596035680685</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I19" s="15">
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
-        <f>0.053993056/$J$1</f>
-        <v>0.95165239463668183</v>
-      </c>
-      <c r="K19" s="14">
-        <f>0.0346412037/$K$1</f>
-        <v>0.67303800301674921</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="0"/>
-        <v>0.78231611133537848</v>
-      </c>
-      <c r="M19" s="6">
-        <v>3</v>
       </c>
       <c r="N19" s="17" t="str" cm="1">
         <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
-        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P19" s="18">
         <v>5</v>
       </c>
       <c r="Q19" s="18">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="18">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S19" s="18">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T19" s="18">
         <v>5</v>
       </c>
       <c r="U19" s="19">
-        <f t="shared" si="1"/>
-        <v>4.46</v>
+        <f>AVERAGE(P19:T19)</f>
+        <v>2</v>
       </c>
       <c r="V19" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2954741670030678</v>
+        <f>U19*0.7+L19*5*0.3</f>
+        <v>2.2609810798032139</v>
       </c>
       <c r="W19" s="14">
         <v>1</v>
       </c>
       <c r="X19" s="14">
-        <v>1</v>
+        <v>0.3002169198176699</v>
       </c>
       <c r="Y19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="41">
-        <v>1</v>
+        <v>0.53373015861507977</v>
+      </c>
+      <c r="AA19" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="47" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AA3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AA19">
+      <sortCondition ref="M3"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AB11" r:id="rId16" xr:uid="{B9BCBC49-0961-4E6B-B957-0964207AB2FC}"/>
+    <hyperlink ref="AB9" r:id="rId17" xr:uid="{6179A3CE-9694-4E98-A9FD-7B192A414091}"/>
+    <hyperlink ref="AB13" r:id="rId18" xr:uid="{5DEECCB5-2B9C-4733-BC4F-98C8213B59FB}"/>
+    <hyperlink ref="AB19" r:id="rId19" xr:uid="{4782DE34-F2BF-4384-92DB-512B790D5A9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3542,9 +3669,7 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -3552,48 +3677,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2200833</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3601,28 +3726,28 @@
       <c r="A3" s="12">
         <v>2216295</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3630,28 +3755,28 @@
       <c r="A4" s="12">
         <v>2205127</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3659,28 +3784,28 @@
       <c r="A5" s="12">
         <v>2170311</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3688,28 +3813,28 @@
       <c r="A6" s="12">
         <v>2210177</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3717,28 +3842,28 @@
       <c r="A7" s="12">
         <v>2201757</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3746,28 +3871,28 @@
       <c r="A8" s="12">
         <v>2210005</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3775,28 +3900,28 @@
       <c r="A9" s="12">
         <v>2211671</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3804,28 +3929,28 @@
       <c r="A10" s="12">
         <v>2210261</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3833,28 +3958,28 @@
       <c r="A11" s="12">
         <v>2200689</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3862,28 +3987,28 @@
       <c r="A12" s="12">
         <v>2206464</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3891,28 +4016,28 @@
       <c r="A13" s="12">
         <v>2215280</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3920,28 +4045,28 @@
       <c r="A14" s="12">
         <v>2210166</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3949,28 +4074,28 @@
       <c r="A15" s="12">
         <v>2211352</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3978,28 +4103,28 @@
       <c r="A16" s="12">
         <v>2210955</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>102</v>
       </c>
     </row>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C5D3DE-A057-44BF-AB6A-40D6849165A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AA$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="161">
   <si>
     <t>CODIGO</t>
   </si>
@@ -543,12 +542,15 @@
   </si>
   <si>
     <t>https://www.kaggle.com/code/khaledsayedaaaaa/3d-mri-brain-tumor-segmentation-u-net-acc-99/input</t>
+  </si>
+  <si>
+    <t>Próstata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1308,6 +1310,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1332,60 +1343,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1662,14 +1664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -1735,23 +1737,23 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="P2" s="34" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="P2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1873,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f>AVERAGE(F4:K4)</f>
+        <f t="shared" ref="L4:L19" si="0">AVERAGE(F4:K4)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="M4" s="6">
@@ -1900,11 +1902,11 @@
         <v>0</v>
       </c>
       <c r="U4" s="19">
-        <f>AVERAGE(P4:T4)</f>
+        <f t="shared" ref="U4:U19" si="1">AVERAGE(P4:T4)</f>
         <v>0</v>
       </c>
       <c r="V4" s="20">
-        <f>U4*0.7+L4*5*0.3</f>
+        <f t="shared" ref="V4:V19" si="2">U4*0.7+L4*5*0.3</f>
         <v>0.24999999999999997</v>
       </c>
       <c r="W4" s="14">
@@ -1960,7 +1962,7 @@
         <v>0.61996851761554772</v>
       </c>
       <c r="L5" s="16">
-        <f>AVERAGE(F5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0.76487608882344349</v>
       </c>
       <c r="M5" s="6">
@@ -1989,11 +1991,11 @@
         <v>5</v>
       </c>
       <c r="U5" s="19">
-        <f>AVERAGE(P5:T5)</f>
+        <f t="shared" si="1"/>
         <v>4.84</v>
       </c>
       <c r="V5" s="20">
-        <f>U5*0.7+L5*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.5353141332351647</v>
       </c>
       <c r="W5" s="14">
@@ -2011,7 +2013,7 @@
       <c r="AA5" s="32">
         <v>1</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="34" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2052,7 +2054,7 @@
         <v>0.6069260169825651</v>
       </c>
       <c r="L6" s="16">
-        <f>AVERAGE(F6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0.81659470742939488</v>
       </c>
       <c r="M6" s="6">
@@ -2081,11 +2083,11 @@
         <v>5</v>
       </c>
       <c r="U6" s="19">
-        <f>AVERAGE(P6:T6)</f>
+        <f t="shared" si="1"/>
         <v>4.84</v>
       </c>
       <c r="V6" s="20">
-        <f>U6*0.7+L6*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.612892061144092</v>
       </c>
       <c r="W6" s="14">
@@ -2103,7 +2105,7 @@
       <c r="AA6" s="32">
         <v>1</v>
       </c>
-      <c r="AB6" s="43"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -2142,7 +2144,7 @@
         <v>0.71104115084338837</v>
       </c>
       <c r="L7" s="16">
-        <f>AVERAGE(F7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0.84796409645733284</v>
       </c>
       <c r="M7" s="6">
@@ -2171,11 +2173,11 @@
         <v>4.3</v>
       </c>
       <c r="U7" s="19">
-        <f>AVERAGE(P7:T7)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V7" s="20">
-        <f>U7*0.7+L7*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.0719461446859988</v>
       </c>
       <c r="W7" s="14">
@@ -2193,7 +2195,7 @@
       <c r="AA7" s="32">
         <v>1</v>
       </c>
-      <c r="AC7" s="43"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -2232,7 +2234,7 @@
         <v>0.72790645415649191</v>
       </c>
       <c r="L8" s="16">
-        <f>AVERAGE(F8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0.8208137666373575</v>
       </c>
       <c r="M8" s="6">
@@ -2242,7 +2244,7 @@
         <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
         <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="33" t="s">
         <v>78</v>
       </c>
       <c r="P8" s="18">
@@ -2261,11 +2263,11 @@
         <v>4.3</v>
       </c>
       <c r="U8" s="19">
-        <f>AVERAGE(P8:T8)</f>
+        <f t="shared" si="1"/>
         <v>3.3600000000000003</v>
       </c>
       <c r="V8" s="20">
-        <f>U8*0.7+L8*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.5832206499560364</v>
       </c>
       <c r="W8" s="14">
@@ -2283,7 +2285,7 @@
       <c r="AA8" s="32">
         <v>0.64256581383251687</v>
       </c>
-      <c r="AB8" s="42" t="s">
+      <c r="AB8" s="34" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2324,7 +2326,7 @@
         <v>0.44861704559111432</v>
       </c>
       <c r="L9" s="16">
-        <f>AVERAGE(F9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0.24143617426518571</v>
       </c>
       <c r="M9" s="6">
@@ -2353,11 +2355,11 @@
         <v>2</v>
       </c>
       <c r="U9" s="19">
-        <f>AVERAGE(P9:T9)</f>
+        <f t="shared" si="1"/>
         <v>2.2600000000000002</v>
       </c>
       <c r="V9" s="20">
-        <f>U9*0.7+L9*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>1.9441542613977787</v>
       </c>
       <c r="W9" s="14">
@@ -2416,7 +2418,7 @@
         <v>0.73735102331239211</v>
       </c>
       <c r="L10" s="16">
-        <f>AVERAGE(F10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0.85485712522977619</v>
       </c>
       <c r="M10" s="6">
@@ -2445,11 +2447,11 @@
         <v>3.6</v>
       </c>
       <c r="U10" s="19">
-        <f>AVERAGE(P10:T10)</f>
+        <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
       <c r="V10" s="20">
-        <f>U10*0.7+L10*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2502856878446647</v>
       </c>
       <c r="W10" s="14">
@@ -2467,10 +2469,10 @@
       <c r="AA10" s="32">
         <v>1</v>
       </c>
-      <c r="AB10" s="42" t="s">
+      <c r="AB10" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="AC10" s="43"/>
+      <c r="AC10" s="35"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
@@ -2509,7 +2511,7 @@
         <v>0.67303800301674921</v>
       </c>
       <c r="L11" s="16">
-        <f>AVERAGE(F11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0.78231611133537848</v>
       </c>
       <c r="M11" s="6">
@@ -2538,11 +2540,11 @@
         <v>5</v>
       </c>
       <c r="U11" s="19">
-        <f>AVERAGE(P11:T11)</f>
+        <f t="shared" si="1"/>
         <v>4.46</v>
       </c>
       <c r="V11" s="20">
-        <f>U11*0.7+L11*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2954741670030678</v>
       </c>
       <c r="W11" s="14">
@@ -2601,7 +2603,7 @@
         <v>0.65549808803741338</v>
       </c>
       <c r="L12" s="16">
-        <f>AVERAGE(F12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0.79202142611602966</v>
       </c>
       <c r="M12" s="6">
@@ -2630,11 +2632,11 @@
         <v>5</v>
       </c>
       <c r="U12" s="19">
-        <f>AVERAGE(P12:T12)</f>
+        <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
       <c r="V12" s="20">
-        <f>U12*0.7+L12*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.394032139174044</v>
       </c>
       <c r="W12" s="14">
@@ -2652,7 +2654,7 @@
       <c r="AA12" s="32">
         <v>1</v>
       </c>
-      <c r="AB12" s="42" t="s">
+      <c r="AB12" s="34" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2693,7 +2695,7 @@
         <v>0.65010119082178952</v>
       </c>
       <c r="L13" s="16">
-        <f>AVERAGE(F13:K13)</f>
+        <f t="shared" si="0"/>
         <v>0.82776286079148698</v>
       </c>
       <c r="M13" s="6">
@@ -2722,11 +2724,11 @@
         <v>5</v>
       </c>
       <c r="U13" s="19">
-        <f>AVERAGE(P13:T13)</f>
+        <f t="shared" si="1"/>
         <v>4.32</v>
       </c>
       <c r="V13" s="20">
-        <f>U13*0.7+L13*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2656442911872308</v>
       </c>
       <c r="W13" s="14">
@@ -2741,10 +2743,10 @@
       <c r="Z13" s="14">
         <v>1</v>
       </c>
-      <c r="AA13" s="44">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="41" t="s">
+      <c r="AA13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="33" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2785,7 +2787,7 @@
         <v>0.69417584947316768</v>
       </c>
       <c r="L14" s="16">
-        <f>AVERAGE(F14:K14)</f>
+        <f t="shared" si="0"/>
         <v>0.80723654740397643</v>
       </c>
       <c r="M14" s="6">
@@ -2814,11 +2816,11 @@
         <v>5</v>
       </c>
       <c r="U14" s="19">
-        <f>AVERAGE(P14:T14)</f>
+        <f t="shared" si="1"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="V14" s="20">
-        <f>U14*0.7+L14*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.1648548211059646</v>
       </c>
       <c r="W14" s="14">
@@ -2836,7 +2838,7 @@
       <c r="AA14" s="32">
         <v>1</v>
       </c>
-      <c r="AB14" s="45"/>
+      <c r="AB14" s="37"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -2875,7 +2877,7 @@
         <v>0.65954576192057257</v>
       </c>
       <c r="L15" s="16">
-        <f>AVERAGE(F15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0.80955303445841753</v>
       </c>
       <c r="M15" s="6">
@@ -2904,11 +2906,11 @@
         <v>5</v>
       </c>
       <c r="U15" s="19">
-        <f>AVERAGE(P15:T15)</f>
+        <f t="shared" si="1"/>
         <v>4.38</v>
       </c>
       <c r="V15" s="20">
-        <f>U15*0.7+L15*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2803295516876263</v>
       </c>
       <c r="W15" s="14">
@@ -2967,7 +2969,7 @@
         <v>0.52237463504265735</v>
       </c>
       <c r="L16" s="16">
-        <f>AVERAGE(F16:K16)</f>
+        <f t="shared" si="0"/>
         <v>0.78054908138811963</v>
       </c>
       <c r="M16" s="6">
@@ -2996,11 +2998,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="U16" s="19">
-        <f>AVERAGE(P16:T16)</f>
+        <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
       <c r="V16" s="20">
-        <f>U16*0.7+L16*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.138823622082179</v>
       </c>
       <c r="W16" s="14">
@@ -3018,7 +3020,7 @@
       <c r="AA16" s="32">
         <v>0</v>
       </c>
-      <c r="AB16" s="41" t="s">
+      <c r="AB16" s="33" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3059,7 +3061,7 @@
         <v>0.6386327866671927</v>
       </c>
       <c r="L17" s="16">
-        <f>AVERAGE(F17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0.80091270554455229</v>
       </c>
       <c r="M17" s="6">
@@ -3088,11 +3090,11 @@
         <v>2</v>
       </c>
       <c r="U17" s="19">
-        <f>AVERAGE(P17:T17)</f>
+        <f t="shared" si="1"/>
         <v>3.7400000000000007</v>
       </c>
       <c r="V17" s="20">
-        <f>U17*0.7+L17*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.8193690583168287</v>
       </c>
       <c r="W17" s="14">
@@ -3110,7 +3112,7 @@
       <c r="AA17" s="32">
         <v>1</v>
       </c>
-      <c r="AB17" s="45"/>
+      <c r="AB17" s="37"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -3149,7 +3151,7 @@
         <v>0.73735102331239211</v>
       </c>
       <c r="L18" s="16">
-        <f>AVERAGE(F18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0.69222812084489893</v>
       </c>
       <c r="M18" s="6">
@@ -3178,11 +3180,11 @@
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <f>AVERAGE(P18:T18)</f>
+        <f t="shared" si="1"/>
         <v>1.52</v>
       </c>
       <c r="V18" s="20">
-        <f>U18*0.7+L18*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>2.102342181267348</v>
       </c>
       <c r="W18" s="14">
@@ -3200,7 +3202,7 @@
       <c r="AA18" s="32">
         <v>1</v>
       </c>
-      <c r="AB18" s="46" t="s">
+      <c r="AB18" s="38" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3241,7 +3243,7 @@
         <v>1.7539914979335842E-2</v>
       </c>
       <c r="L19" s="16">
-        <f>AVERAGE(F19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0.57398738653547587</v>
       </c>
       <c r="M19" s="6">
@@ -3270,11 +3272,11 @@
         <v>5</v>
       </c>
       <c r="U19" s="19">
-        <f>AVERAGE(P19:T19)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V19" s="20">
-        <f>U19*0.7+L19*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>2.2609810798032139</v>
       </c>
       <c r="W19" s="14">
@@ -3292,13 +3294,13 @@
       <c r="AA19" s="32">
         <v>0</v>
       </c>
-      <c r="AB19" s="47" t="s">
+      <c r="AB19" s="39" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AA19">
+  <autoFilter ref="A3:AA3">
+    <sortState ref="A4:AA19">
       <sortCondition ref="M3"/>
     </sortState>
   </autoFilter>
@@ -3307,39 +3309,39 @@
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AB11" r:id="rId16" xr:uid="{B9BCBC49-0961-4E6B-B957-0964207AB2FC}"/>
-    <hyperlink ref="AB9" r:id="rId17" xr:uid="{6179A3CE-9694-4E98-A9FD-7B192A414091}"/>
-    <hyperlink ref="AB13" r:id="rId18" xr:uid="{5DEECCB5-2B9C-4733-BC4F-98C8213B59FB}"/>
-    <hyperlink ref="AB19" r:id="rId19" xr:uid="{4782DE34-F2BF-4384-92DB-512B790D5A9D}"/>
+    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="AB11" r:id="rId16"/>
+    <hyperlink ref="AB9" r:id="rId17"/>
+    <hyperlink ref="AB13" r:id="rId18"/>
+    <hyperlink ref="AB19" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -3397,14 +3399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -3638,35 +3640,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -3680,18 +3682,18 @@
       <c r="A1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -4104,7 +4106,7 @@
         <v>2210955</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>89</v>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E4980E-A741-4742-A284-77ECD0EF0700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AA$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="170">
   <si>
     <t>CODIGO</t>
   </si>
@@ -545,12 +546,39 @@
   </si>
   <si>
     <t>Próstata</t>
+  </si>
+  <si>
+    <t>Balance Knee OFM2 Instructions for use.pdf</t>
+  </si>
+  <si>
+    <t>Balance Knee om8 catalogue.pdf</t>
+  </si>
+  <si>
+    <t>balance_knee_om8.pdf</t>
+  </si>
+  <si>
+    <t>kh5/OH5.pdf</t>
+  </si>
+  <si>
+    <t>OH5 Knee Information Sheet.pdf</t>
+  </si>
+  <si>
+    <t>OHP3 Knee Instructions for use.pdf</t>
+  </si>
+  <si>
+    <t>OHP3 Knee Information Sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EfPF5ckkIU5Bgs7AFCOdV2EBtkZAvOe70ixX6X9quSUFGQ?e=O0VWi1</t>
+  </si>
+  <si>
+    <t>Rodilla asignada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -714,7 +742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,8 +952,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1180,6 +1214,287 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1226,7 +1541,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1238,16 +1553,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1265,12 +1576,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1301,9 +1606,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1317,7 +1619,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1343,51 +1645,176 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1664,25 +2091,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="3" customWidth="1"/>
     <col min="14" max="14" width="81.28515625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" hidden="1" customWidth="1"/>
@@ -1698,7 +2125,8 @@
     <col min="25" max="25" width="11.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="11.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="83.7109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="126.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -1729,1578 +2157,1620 @@
       <c r="Y1" s="3">
         <v>4.1145833332848269E-2</v>
       </c>
-      <c r="Z1" s="31">
+      <c r="Z1" s="26">
         <v>3.4999999996216502E-2</v>
       </c>
       <c r="AA1">
         <v>3.1215277784212958E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F2" s="40" t="s">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="P2" s="41" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="P2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-    </row>
-    <row r="3" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+    </row>
+    <row r="3" spans="1:29" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="87">
         <v>45685</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="87">
         <v>45692</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="87">
         <v>45699</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="87">
         <v>45706</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="87">
         <v>45713</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="87">
         <v>45720</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="30">
+      <c r="X3" s="6">
         <v>45734</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>45741</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="6">
         <v>45748</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="6">
         <v>45755</v>
       </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="50" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="52">
         <v>2175459</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="79">
         <v>0</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="80">
         <v>0</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="80">
         <v>0</v>
       </c>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="81">
+        <v>1</v>
+      </c>
+      <c r="J4" s="80">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="80">
         <f>0/$K$1</f>
         <v>0</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="82">
         <f t="shared" ref="L4:L19" si="0">AVERAGE(F4:K4)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="67">
         <v>0</v>
       </c>
-      <c r="N4" s="17" t="e">
+      <c r="N4" s="53" t="e">
         <f>_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
         <v>#N/A</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18">
+      <c r="O4" s="13"/>
+      <c r="P4" s="14">
         <v>0</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="14">
         <v>0</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="14">
         <v>0</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="14">
         <v>0</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="14">
         <v>0</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="15">
         <f t="shared" ref="U4:U19" si="1">AVERAGE(P4:T4)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="16">
         <f t="shared" ref="V4:V19" si="2">U4*0.7+L4*5*0.3</f>
         <v>0.24999999999999997</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="12">
         <v>0</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="11">
         <v>0</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="12">
         <v>0</v>
       </c>
-      <c r="AA4" s="32">
+      <c r="AA4" s="27">
         <v>0</v>
       </c>
+      <c r="AC4" s="51"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="52">
         <v>2205127</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="63">
         <v>0.98333333333333328</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="64">
         <v>0.58779483338965188</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="63">
         <v>0.60929816731074449</v>
       </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="65">
+        <v>1</v>
+      </c>
+      <c r="J5" s="64">
         <f>0.044756944/$J$1</f>
         <v>0.78886168129138434</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="64">
         <f>0.0319097222/$K$1</f>
         <v>0.61996851761554772</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="66">
         <f t="shared" si="0"/>
         <v>0.76487608882344349</v>
       </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="17" t="str" cm="1">
+      <c r="M5" s="67">
+        <v>1</v>
+      </c>
+      <c r="N5" s="53" t="str" cm="1">
         <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="14">
         <v>4.8</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="14">
         <v>4.5</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="14">
         <v>5</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="14">
         <v>5</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="15">
         <f t="shared" si="1"/>
         <v>4.84</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="16">
         <f t="shared" si="2"/>
         <v>4.5353141332351647</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="12">
         <v>0.92001099501332539</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="12">
         <v>0.95835141006207936</v>
       </c>
-      <c r="Y5" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="34" t="s">
+      <c r="Y5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="29" t="s">
         <v>154</v>
       </c>
+      <c r="AC5" s="44"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="52">
         <v>2210261</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="F6" s="55">
+        <v>1</v>
+      </c>
+      <c r="G6" s="56">
         <v>0.65275177836225751</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="55">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I6" s="15">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" s="57">
+        <v>1</v>
+      </c>
+      <c r="J6" s="56">
         <f>0.051053241/$J$1</f>
         <v>0.89983680589618087</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="56">
         <f>0.0312384259/$K$1</f>
         <v>0.6069260169825651</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="58">
         <f t="shared" si="0"/>
         <v>0.81659470742939488</v>
       </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="17" t="str" cm="1">
+      <c r="M6" s="69">
+        <v>1</v>
+      </c>
+      <c r="N6" s="53" t="str" cm="1">
         <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="14">
         <v>5</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="14">
         <v>4.8</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="14">
         <v>5</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="14">
         <v>5</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="15">
         <f t="shared" si="1"/>
         <v>4.84</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="16">
         <f t="shared" si="2"/>
         <v>4.612892061144092</v>
       </c>
-      <c r="W6" s="14">
-        <v>1</v>
-      </c>
-      <c r="X6" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="35"/>
+      <c r="W6" s="12">
+        <v>1</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="43" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="52">
         <v>2206464</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="74">
         <v>0.67877199547434519</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="73">
         <v>0.73938310241610217</v>
       </c>
-      <c r="I7" s="15">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" s="75">
+        <v>1</v>
+      </c>
+      <c r="J7" s="74">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="74">
         <f>0.0365972222/$K$1</f>
         <v>0.71104115084338837</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="76">
         <f t="shared" si="0"/>
         <v>0.84796409645733284</v>
       </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="17" t="str" cm="1">
+      <c r="M7" s="77">
+        <v>1</v>
+      </c>
+      <c r="N7" s="53" t="str" cm="1">
         <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="14">
         <v>3.5</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="14">
         <v>3.9</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="14">
         <v>5</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="14">
         <v>3.3</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="14">
         <v>4.3</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="16">
         <f t="shared" si="2"/>
         <v>4.0719461446859988</v>
       </c>
-      <c r="W7" s="14">
-        <v>1</v>
-      </c>
-      <c r="X7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="35"/>
+      <c r="W7" s="12">
+        <v>1</v>
+      </c>
+      <c r="X7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="44"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="52">
         <v>2200833</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="55">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="56">
         <v>0.62448521151385872</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="55">
         <v>0.71904336171365091</v>
       </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I8" s="57">
+        <v>1</v>
+      </c>
+      <c r="J8" s="56">
         <f>0.0503125/$J$1</f>
         <v>0.88678090577347679</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="56">
         <f>0.0374652778/$K$1</f>
         <v>0.72790645415649191</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="58">
         <f t="shared" si="0"/>
         <v>0.8208137666373575</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="69">
         <v>2</v>
       </c>
-      <c r="N8" s="17" t="str" cm="1">
+      <c r="N8" s="53" t="str" cm="1">
         <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
         <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="14">
         <v>0</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="14">
         <v>4.8</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="14">
         <v>3.3</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="14">
         <v>4.3</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="15">
         <f t="shared" si="1"/>
         <v>3.3600000000000003</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="16">
         <f t="shared" si="2"/>
         <v>3.5832206499560364</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="12">
         <v>0.41671247935178818</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="12">
         <v>0.78264642075010771</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="11">
         <v>0.48466947955898315</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="12">
         <v>0</v>
       </c>
-      <c r="AA8" s="32">
+      <c r="AA8" s="27">
         <v>0.64256581383251687</v>
       </c>
-      <c r="AB8" s="34" t="s">
+      <c r="AB8" s="29" t="s">
         <v>152</v>
       </c>
+      <c r="AC8" s="45" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="52">
         <v>2170311</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="55">
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="56">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="56">
         <v>0</v>
       </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="I9" s="57">
+        <v>1</v>
+      </c>
+      <c r="J9" s="56">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="56">
         <f>0.0230902778/$K$1</f>
         <v>0.44861704559111432</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="58">
         <f t="shared" si="0"/>
         <v>0.24143617426518571</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="69">
         <v>2</v>
       </c>
-      <c r="N9" s="17" t="str" cm="1">
+      <c r="N9" s="53" t="str" cm="1">
         <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
         <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="14">
         <v>0</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="14">
         <v>0</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="14">
         <v>4.3</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="14">
         <v>5</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="14">
         <v>2</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="15">
         <f t="shared" si="1"/>
         <v>2.2600000000000002</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="16">
         <f t="shared" si="2"/>
         <v>1.9441542613977787</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="12">
         <v>0.78944474988308111</v>
       </c>
-      <c r="X9" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="13">
+      <c r="X9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="11">
         <v>0.29620253157125481</v>
       </c>
-      <c r="Z9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="21" t="s">
+      <c r="Z9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="17" t="s">
         <v>153</v>
       </c>
+      <c r="AC9" s="43" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="52">
         <v>2210177</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="63">
+        <v>1</v>
+      </c>
+      <c r="G10" s="64">
         <v>0.69337326840732949</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="63">
         <v>0.73983012964877437</v>
       </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="I10" s="65">
+        <v>1</v>
+      </c>
+      <c r="J10" s="64">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="64">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="66">
         <f t="shared" si="0"/>
         <v>0.85485712522977619</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="67">
         <v>3</v>
       </c>
-      <c r="N10" s="17" t="str" cm="1">
+      <c r="N10" s="53" t="str" cm="1">
         <f t="array" ref="N10">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
         <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="14">
         <v>5</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="14">
         <v>3.3</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="14">
         <v>3.6</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="15">
         <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="16">
         <f t="shared" si="2"/>
         <v>4.2502856878446647</v>
       </c>
-      <c r="W10" s="14">
-        <v>1</v>
-      </c>
-      <c r="X10" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="34" t="s">
+      <c r="W10" s="12">
+        <v>1</v>
+      </c>
+      <c r="X10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="AC10" s="35"/>
+      <c r="AC10" s="45" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="52">
         <v>2210955</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="73">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="74">
         <v>0.66248596035680685</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="73">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="I11" s="75">
+        <v>1</v>
+      </c>
+      <c r="J11" s="74">
         <f>0.053993056/$J$1</f>
         <v>0.95165239463668183</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="74">
         <f>0.0346412037/$K$1</f>
         <v>0.67303800301674921</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="76">
         <f t="shared" si="0"/>
         <v>0.78231611133537848</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="77">
         <v>3</v>
       </c>
-      <c r="N11" s="17" t="str" cm="1">
+      <c r="N11" s="53" t="str" cm="1">
         <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
         <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="14">
         <v>5</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="14">
         <v>4.2</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="14">
         <v>4.8</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="14">
         <v>3.3</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="14">
         <v>5</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="15">
         <f t="shared" si="1"/>
         <v>4.46</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="16">
         <f t="shared" si="2"/>
         <v>4.2954741670030678</v>
       </c>
-      <c r="W11" s="14">
-        <v>1</v>
-      </c>
-      <c r="X11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="21" t="s">
+      <c r="W11" s="12">
+        <v>1</v>
+      </c>
+      <c r="X11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="17" t="s">
         <v>151</v>
       </c>
+      <c r="AC11" s="43" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="52">
         <v>2216295</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="55">
         <v>0.9</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="56">
         <v>0.60857356797981244</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="55">
         <v>0.71881984802705978</v>
       </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="I12" s="57">
+        <v>1</v>
+      </c>
+      <c r="J12" s="56">
         <f>0.04931713/$J$1</f>
         <v>0.86923705265189177</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="56">
         <f>0.0337384259/$K$1</f>
         <v>0.65549808803741338</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="58">
         <f t="shared" si="0"/>
         <v>0.79202142611602966</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="69">
         <v>4</v>
       </c>
-      <c r="N12" s="17" t="str" cm="1">
+      <c r="N12" s="53" t="str" cm="1">
         <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="14">
         <v>5</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="14">
         <v>5</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="14">
         <v>3.3</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="14">
         <v>5</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="15">
         <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="16">
         <f t="shared" si="2"/>
         <v>4.394032139174044</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="12">
         <v>0.9145134689971629</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="12">
         <v>0.31496746201916759</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="11">
         <v>0.80196905770117399</v>
       </c>
-      <c r="Z12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="34" t="s">
+      <c r="Z12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="29" t="s">
         <v>155</v>
       </c>
+      <c r="AC12" s="46" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="52">
         <v>2215280</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="F13" s="55">
+        <v>1</v>
+      </c>
+      <c r="G13" s="56">
         <v>0.68494945713152144</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="55">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="I13" s="57">
+        <v>1</v>
+      </c>
+      <c r="J13" s="56">
         <f>0.050578704/$J$1</f>
         <v>0.89147287346024495</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="56">
         <f>0.0334606481/$K$1</f>
         <v>0.65010119082178952</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="58">
         <f t="shared" si="0"/>
         <v>0.82776286079148698</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="69">
         <v>4</v>
       </c>
-      <c r="N13" s="17" t="str" cm="1">
+      <c r="N13" s="53" t="str" cm="1">
         <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="14">
         <v>5</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="14">
         <v>4</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="14">
         <v>4.3</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="14">
         <v>3.3</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="14">
         <v>5</v>
       </c>
-      <c r="U13" s="19">
+      <c r="U13" s="15">
         <f t="shared" si="1"/>
         <v>4.32</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="16">
         <f t="shared" si="2"/>
         <v>4.2656442911872308</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="12">
         <v>0</v>
       </c>
-      <c r="X13" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="36">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="33" t="s">
+      <c r="X13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="28" t="s">
         <v>156</v>
       </c>
+      <c r="AC13" s="47" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="52">
         <v>2210166</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="56">
         <v>0.65293897421284319</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="55">
         <v>0.70183281192092528</v>
       </c>
-      <c r="I14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14" s="57">
+        <v>1</v>
+      </c>
+      <c r="J14" s="56">
         <f>0.049803241/$J$1</f>
         <v>0.87780498215025593</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="56">
         <f>0.0357291667/$K$1</f>
         <v>0.69417584947316768</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="58">
         <f t="shared" si="0"/>
         <v>0.80723654740397643</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="69">
         <v>4</v>
       </c>
-      <c r="N14" s="17" t="str" cm="1">
+      <c r="N14" s="53" t="str" cm="1">
         <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="14">
         <v>5</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="14">
         <v>3.8</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="14">
         <v>4</v>
       </c>
-      <c r="S14" s="18">
+      <c r="S14" s="14">
         <v>3.3</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="14">
         <v>5</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U14" s="15">
         <f t="shared" si="1"/>
         <v>4.2200000000000006</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="16">
         <f t="shared" si="2"/>
         <v>4.1648548211059646</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="12">
         <v>0.734469488684663</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="12">
         <v>0.60260303672111848</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Y14" s="11">
         <v>0.82447257383130579</v>
       </c>
-      <c r="Z14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="37"/>
+      <c r="Z14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="48"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="52">
         <v>2210005</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="63">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="64">
         <v>0.64002246358209225</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="63">
         <v>0.73245417967738757</v>
       </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="I15" s="65">
+        <v>1</v>
+      </c>
+      <c r="J15" s="64">
         <f>0.048715278/$J$1</f>
         <v>0.8586291349037859</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="64">
         <f>0.0339467593/$K$1</f>
         <v>0.65954576192057257</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="66">
         <f t="shared" si="0"/>
         <v>0.80955303445841753</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="67">
         <v>5</v>
       </c>
-      <c r="N15" s="17" t="str" cm="1">
+      <c r="N15" s="53" t="str" cm="1">
         <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="14">
         <v>5</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="14">
         <v>4.5</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="14">
         <v>3.3</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="14">
         <v>5</v>
       </c>
-      <c r="U15" s="19">
+      <c r="U15" s="15">
         <f t="shared" si="1"/>
         <v>4.38</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="16">
         <f t="shared" si="2"/>
         <v>4.2803295516876263</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="12">
         <v>0.13304013194119671</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="12">
         <v>0</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Y15" s="11">
         <v>0.88973277078552115</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="Z15" s="12">
         <v>0.73346560870442812</v>
       </c>
-      <c r="AA15" s="32">
+      <c r="AA15" s="27">
         <v>0</v>
       </c>
       <c r="AB15" t="s">
         <v>158</v>
       </c>
+      <c r="AC15" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="52">
         <v>2211671</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="55">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="56">
         <v>0.5979034070853726</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="55">
         <v>0.71099687082300078</v>
       </c>
-      <c r="I16" s="15">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="I16" s="57">
+        <v>1</v>
+      </c>
+      <c r="J16" s="56">
         <f>0.050231481/$J$1</f>
         <v>0.8853529087110199</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="56">
         <f>0.0268865741/$K$1</f>
         <v>0.52237463504265735</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="58">
         <f t="shared" si="0"/>
         <v>0.78054908138811963</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="69">
         <v>5</v>
       </c>
-      <c r="N16" s="17" t="str" cm="1">
+      <c r="N16" s="53" t="str" cm="1">
         <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="14">
         <v>5</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="14">
         <v>3.8</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="14">
         <v>4.5</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="14">
         <v>3.3</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16" s="15">
         <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="16">
         <f t="shared" si="2"/>
         <v>4.138823622082179</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W16" s="12">
         <v>0.874106651948934</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16" s="12">
         <v>0.78047722339159897</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="11">
         <v>0.93895921243070513</v>
       </c>
-      <c r="Z16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="32">
+      <c r="Z16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="27">
         <v>0</v>
       </c>
-      <c r="AB16" s="33" t="s">
+      <c r="AB16" s="28" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="AC16" s="47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52">
         <v>2211352</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="73">
         <v>0.8833333333333333</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="74">
         <v>0.66585548484359414</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="73">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="I17" s="75">
+        <v>1</v>
+      </c>
+      <c r="J17" s="74">
         <f>0.049791667/$J$1</f>
         <v>0.87760098508782769</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="74">
         <f>0.0328703704/$K$1</f>
         <v>0.6386327866671927</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="76">
         <f t="shared" si="0"/>
         <v>0.80091270554455229</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="77">
         <v>5</v>
       </c>
-      <c r="N17" s="17" t="str" cm="1">
+      <c r="N17" s="53" t="str" cm="1">
         <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="14">
         <v>5</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="14">
         <v>3.8</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="14">
         <v>2.9</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="14">
         <v>5</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="14">
         <v>2</v>
       </c>
-      <c r="U17" s="19">
+      <c r="U17" s="15">
         <f t="shared" si="1"/>
         <v>3.7400000000000007</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="16">
         <f t="shared" si="2"/>
         <v>3.8193690583168287</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="12">
         <v>0.45959318321096959</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="12">
         <v>0.9657266810264632</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="Y17" s="11">
         <v>0.46638537263693858</v>
       </c>
-      <c r="Z17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="37"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="Z17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="52">
         <v>2201757</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="F18" s="63">
+        <v>1</v>
+      </c>
+      <c r="G18" s="64">
         <v>0.67596405842163554</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="63">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I18" s="15">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="I18" s="65">
+        <v>1</v>
+      </c>
+      <c r="J18" s="64">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="64">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="66">
         <f t="shared" si="0"/>
         <v>0.69222812084489893</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="67">
         <v>6</v>
       </c>
-      <c r="N18" s="17" t="str" cm="1">
+      <c r="N18" s="53" t="str" cm="1">
         <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
         <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="14">
         <v>4</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="14">
         <v>3.6</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="14">
         <v>0</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="14">
         <v>0</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="14">
         <v>0</v>
       </c>
-      <c r="U18" s="19">
+      <c r="U18" s="15">
         <f t="shared" si="1"/>
         <v>1.52</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="16">
         <f t="shared" si="2"/>
         <v>2.102342181267348</v>
       </c>
-      <c r="W18" s="14">
-        <v>1</v>
-      </c>
-      <c r="X18" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="14">
+      <c r="W18" s="12">
+        <v>1</v>
+      </c>
+      <c r="X18" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="12">
         <v>0.87863756623470268</v>
       </c>
-      <c r="AA18" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="38" t="s">
+      <c r="AA18" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="33" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="AC18" s="46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52">
         <v>2200689</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14">
+      <c r="F19" s="73">
+        <v>1</v>
+      </c>
+      <c r="G19" s="74">
         <v>0.46593036325443599</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="73">
         <v>0.62650871710347011</v>
       </c>
-      <c r="I19" s="15">
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="I19" s="75">
+        <v>1</v>
+      </c>
+      <c r="J19" s="74">
         <f>0.018946759/$J$1</f>
         <v>0.33394532387561288</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="74">
         <f>0.0009027778/$K$1</f>
         <v>1.7539914979335842E-2</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="76">
         <f t="shared" si="0"/>
         <v>0.57398738653547587</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="77">
         <v>6</v>
       </c>
-      <c r="N19" s="17" t="str" cm="1">
+      <c r="N19" s="53" t="str" cm="1">
         <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
         <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="14">
         <v>5</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="14">
         <v>0</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="14">
         <v>0</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="14">
         <v>0</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="14">
         <v>5</v>
       </c>
-      <c r="U19" s="19">
+      <c r="U19" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="16">
         <f t="shared" si="2"/>
         <v>2.2609810798032139</v>
       </c>
-      <c r="W19" s="14">
-        <v>1</v>
-      </c>
-      <c r="X19" s="14">
+      <c r="W19" s="12">
+        <v>1</v>
+      </c>
+      <c r="X19" s="12">
         <v>0.3002169198176699</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="Y19" s="11">
         <v>0</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z19" s="12">
         <v>0.53373015861507977</v>
       </c>
-      <c r="AA19" s="32">
+      <c r="AA19" s="27">
         <v>0</v>
       </c>
-      <c r="AB19" s="39" t="s">
+      <c r="AB19" s="34" t="s">
         <v>159</v>
       </c>
+      <c r="AC19" s="49" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA3">
-    <sortState ref="A4:AA19">
+  <autoFilter ref="A3:AA3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AA19">
       <sortCondition ref="M3"/>
     </sortState>
   </autoFilter>
@@ -3309,39 +3779,51 @@
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="AB11" r:id="rId16"/>
-    <hyperlink ref="AB9" r:id="rId17"/>
-    <hyperlink ref="AB13" r:id="rId18"/>
-    <hyperlink ref="AB19" r:id="rId19"/>
+    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AB11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AB9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AB13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AB19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AC6" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI" xr:uid="{B6D80B57-8E77-469C-9C42-EE2A4A0436B0}"/>
+    <hyperlink ref="AC8" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ" xr:uid="{5517BDE6-0EE9-450E-B686-DA9C1C36DD14}"/>
+    <hyperlink ref="AC9" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB" xr:uid="{C3C4C1FE-D555-4547-916D-7848604A501F}"/>
+    <hyperlink ref="AC10" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL" xr:uid="{861F5EDF-8C1C-4423-8441-68E881D1325A}"/>
+    <hyperlink ref="AC11" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI" xr:uid="{E3B3F341-B3B4-4CEF-8933-816ADC3F68DC}"/>
+    <hyperlink ref="AC12" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS" xr:uid="{A9C76F81-6A70-43F4-B1A2-751AB71788D6}"/>
+    <hyperlink ref="AC13" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq" xr:uid="{9C5439D4-A050-44FF-9C6A-1C2E99E2D264}"/>
+    <hyperlink ref="AC15" r:id="rId27" xr:uid="{73330191-FE35-44B1-9D09-C796D13D20DA}"/>
+    <hyperlink ref="AC16" r:id="rId28" xr:uid="{65E6E436-5A13-499B-BA24-6B48D48CC1A0}"/>
+    <hyperlink ref="AC17" r:id="rId29" xr:uid="{653535A2-5BA1-42DB-ACF1-710424785F5E}"/>
+    <hyperlink ref="AC18" r:id="rId30" xr:uid="{108E77A0-E67B-4966-8A2D-16CA7462B951}"/>
+    <hyperlink ref="AC19" r:id="rId31" xr:uid="{B0FBFF44-E4A7-4E04-825F-B14989E387D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -3399,14 +3881,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -3415,718 +3897,718 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>5</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>2200833</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2216295</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>2205127</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>2170311</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>2210177</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>2201757</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>2210005</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>2211671</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>2210261</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>2200689</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>2206464</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>2215280</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>2210166</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>2211352</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>2210955</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="24" t="s">
         <v>102</v>
       </c>
     </row>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E4980E-A741-4742-A284-77ECD0EF0700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
@@ -19,9 +18,9 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AA$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AD$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -578,7 +577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1541,7 +1540,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1576,9 +1575,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1621,30 +1617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="42" applyBorder="1"/>
@@ -1655,7 +1627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1770,51 +1741,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="42" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2091,25 +2102,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E19"/>
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="3" customWidth="1"/>
     <col min="14" max="14" width="81.28515625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" hidden="1" customWidth="1"/>
@@ -2119,17 +2130,18 @@
     <col min="19" max="19" width="15.42578125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="16" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="83.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="126.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="96" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="126.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -2157,76 +2169,79 @@
       <c r="Y1" s="3">
         <v>4.1145833332848269E-2</v>
       </c>
-      <c r="Z1" s="26">
+      <c r="Z1" s="25">
         <v>3.4999999996216502E-2</v>
       </c>
       <c r="AA1">
         <v>3.1215277784212958E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="35" t="s">
+      <c r="AC1">
+        <v>4.2997685188311201E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="P2" s="36" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="P2" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-    </row>
-    <row r="3" spans="1:29" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+    </row>
+    <row r="3" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="87">
+      <c r="F3" s="77">
         <v>45685</v>
       </c>
-      <c r="G3" s="87">
+      <c r="G3" s="77">
         <v>45692</v>
       </c>
-      <c r="H3" s="87">
+      <c r="H3" s="77">
         <v>45699</v>
       </c>
-      <c r="I3" s="87">
+      <c r="I3" s="77">
         <v>45706</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="77">
         <v>45713</v>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="77">
         <v>45720</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>76</v>
       </c>
       <c r="P3" s="7" t="s">
@@ -2250,7 +2265,7 @@
       <c r="V3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="24" t="s">
         <v>85</v>
       </c>
       <c r="X3" s="6">
@@ -2266,1512 +2281,1564 @@
         <v>45755</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="92">
+        <v>45776</v>
+      </c>
+      <c r="AD3" s="41" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52">
-        <v>2175459</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="78" t="s">
+    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
+        <v>2200833</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="79">
+      <c r="E4" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="69">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G4" s="70">
+        <v>0.62448521151385872</v>
+      </c>
+      <c r="H4" s="69">
+        <v>0.71904336171365091</v>
+      </c>
+      <c r="I4" s="71">
+        <v>1</v>
+      </c>
+      <c r="J4" s="70">
+        <f>0.0503125/$J$1</f>
+        <v>0.88678090577347679</v>
+      </c>
+      <c r="K4" s="70">
+        <f>0.0374652778/$K$1</f>
+        <v>0.72790645415649191</v>
+      </c>
+      <c r="L4" s="72">
+        <f>AVERAGE(F4:K4)</f>
+        <v>0.8208137666373575</v>
+      </c>
+      <c r="M4" s="57">
+        <v>2</v>
+      </c>
+      <c r="N4" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q4" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="80">
+      <c r="R4" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="S4" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T4" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="U4" s="14">
+        <f>AVERAGE(P4:T4)</f>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="V4" s="15">
+        <f>U4*0.7+L4*5*0.3</f>
+        <v>3.5832206499560364</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0.41671247935178818</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0.78264642075010771</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>0.48466947955898315</v>
+      </c>
+      <c r="Z4" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="80">
+      <c r="AA4" s="26">
+        <v>0.64256581383251687</v>
+      </c>
+      <c r="AB4" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4">
+        <v>0.57631224762559774</v>
+      </c>
+      <c r="AD4" s="96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <v>2216295</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0.60857356797981244</v>
+      </c>
+      <c r="H5" s="53">
+        <v>0.71881984802705978</v>
+      </c>
+      <c r="I5" s="55">
+        <v>1</v>
+      </c>
+      <c r="J5" s="54">
+        <f>0.04931713/$J$1</f>
+        <v>0.86923705265189177</v>
+      </c>
+      <c r="K5" s="54">
+        <f>0.0337384259/$K$1</f>
+        <v>0.65549808803741338</v>
+      </c>
+      <c r="L5" s="56">
+        <f>AVERAGE(F5:K5)</f>
+        <v>0.79202142611602966</v>
+      </c>
+      <c r="M5" s="57">
+        <v>4</v>
+      </c>
+      <c r="N5" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R5" s="13">
+        <v>5</v>
+      </c>
+      <c r="S5" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T5" s="13">
+        <v>5</v>
+      </c>
+      <c r="U5" s="14">
+        <f>AVERAGE(P5:T5)</f>
+        <v>4.58</v>
+      </c>
+      <c r="V5" s="15">
+        <f>U5*0.7+L5*5*0.3</f>
+        <v>4.394032139174044</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0.9145134689971629</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0.31496746201916759</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0.80196905770117399</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC5" s="88">
+        <v>1.0823687751934423</v>
+      </c>
+      <c r="AD5" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
+        <v>2205127</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0.58779483338965188</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0.60929816731074449</v>
+      </c>
+      <c r="I6" s="47">
+        <v>1</v>
+      </c>
+      <c r="J6" s="46">
+        <f>0.044756944/$J$1</f>
+        <v>0.78886168129138434</v>
+      </c>
+      <c r="K6" s="46">
+        <f>0.0319097222/$K$1</f>
+        <v>0.61996851761554772</v>
+      </c>
+      <c r="L6" s="48">
+        <f>AVERAGE(F6:K6)</f>
+        <v>0.76487608882344349</v>
+      </c>
+      <c r="M6" s="59">
+        <v>1</v>
+      </c>
+      <c r="N6" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="R6" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="S6" s="13">
+        <v>5</v>
+      </c>
+      <c r="T6" s="13">
+        <v>5</v>
+      </c>
+      <c r="U6" s="14">
+        <f>AVERAGE(P6:T6)</f>
+        <v>4.84</v>
+      </c>
+      <c r="V6" s="15">
+        <f>U6*0.7+L6*5*0.3</f>
+        <v>4.5353141332351647</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0.92001099501332539</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0.95835141006207936</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC6">
+        <v>1.1830417227085015</v>
+      </c>
+      <c r="AD6" s="35"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
+        <v>2170311</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="63">
         <v>0</v>
       </c>
-      <c r="I4" s="81">
-        <v>1</v>
-      </c>
-      <c r="J4" s="80">
+      <c r="G7" s="64">
+        <v>0</v>
+      </c>
+      <c r="H7" s="64">
+        <v>0</v>
+      </c>
+      <c r="I7" s="65">
+        <v>1</v>
+      </c>
+      <c r="J7" s="64">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K7" s="64">
+        <f>0.0230902778/$K$1</f>
+        <v>0.44861704559111432</v>
+      </c>
+      <c r="L7" s="66">
+        <f>AVERAGE(F7:K7)</f>
+        <v>0.24143617426518571</v>
+      </c>
+      <c r="M7" s="67">
+        <v>2</v>
+      </c>
+      <c r="N7" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="S7" s="13">
+        <v>5</v>
+      </c>
+      <c r="T7" s="13">
+        <v>2</v>
+      </c>
+      <c r="U7" s="14">
+        <f>AVERAGE(P7:T7)</f>
+        <v>2.2600000000000002</v>
+      </c>
+      <c r="V7" s="15">
+        <f>U7*0.7+L7*5*0.3</f>
+        <v>1.9441542613977787</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0.78944474988308111</v>
+      </c>
+      <c r="X7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0.29620253157125481</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC7" s="28">
+        <v>1.0522207268030783</v>
+      </c>
+      <c r="AD7" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <v>2210177</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.69337326840732949</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0.73983012964877437</v>
+      </c>
+      <c r="I8" s="47">
+        <v>1</v>
+      </c>
+      <c r="J8" s="46">
+        <f>0.054386574/$J$1</f>
+        <v>0.95858833001016097</v>
+      </c>
+      <c r="K8" s="46">
+        <f>0.0379513889/$K$1</f>
+        <v>0.73735102331239211</v>
+      </c>
+      <c r="L8" s="48">
+        <f>AVERAGE(F8:K8)</f>
+        <v>0.85485712522977619</v>
+      </c>
+      <c r="M8" s="59">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R8" s="13">
+        <v>5</v>
+      </c>
+      <c r="S8" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T8" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="U8" s="14">
+        <f>AVERAGE(P8:T8)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V8" s="15">
+        <f>U8*0.7+L8*5*0.3</f>
+        <v>4.2502856878446647</v>
+      </c>
+      <c r="W8" s="12">
+        <v>1</v>
+      </c>
+      <c r="X8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>1.1830417227085015</v>
+      </c>
+      <c r="AD8" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
+        <v>2201757</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.67596405842163554</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I9" s="47">
+        <v>1</v>
+      </c>
+      <c r="J9" s="46">
+        <f>0/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="46">
+        <f>0.0379513889/$K$1</f>
+        <v>0.73735102331239211</v>
+      </c>
+      <c r="L9" s="48">
+        <f>AVERAGE(F9:K9)</f>
+        <v>0.69222812084489893</v>
+      </c>
+      <c r="M9" s="59">
+        <v>6</v>
+      </c>
+      <c r="N9" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <f>AVERAGE(P9:T9)</f>
+        <v>1.52</v>
+      </c>
+      <c r="V9" s="15">
+        <f>U9*0.7+L9*5*0.3</f>
+        <v>2.102342181267348</v>
+      </c>
+      <c r="W9" s="12">
+        <v>1</v>
+      </c>
+      <c r="X9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0.87863756623470268</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC9" s="28">
+        <v>1.0880215342454835</v>
+      </c>
+      <c r="AD9" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>2175459</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="53">
+        <v>0</v>
+      </c>
+      <c r="G10" s="54">
+        <v>0</v>
+      </c>
+      <c r="H10" s="54">
+        <v>0</v>
+      </c>
+      <c r="I10" s="55">
+        <v>1</v>
+      </c>
+      <c r="J10" s="54">
+        <f>0/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="54">
         <f>0/$K$1</f>
         <v>0</v>
       </c>
-      <c r="L4" s="82">
-        <f t="shared" ref="L4:L19" si="0">AVERAGE(F4:K4)</f>
+      <c r="L10" s="56">
+        <f>AVERAGE(F10:K10)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M10" s="57">
         <v>0</v>
       </c>
-      <c r="N4" s="53" t="e">
-        <f>_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14">
+      <c r="N10" s="43" t="e">
+        <f ca="1">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O10" s="93"/>
+      <c r="P10" s="13">
         <v>0</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q10" s="13">
         <v>0</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R10" s="13">
         <v>0</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S10" s="13">
         <v>0</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T10" s="13">
         <v>0</v>
       </c>
-      <c r="U4" s="15">
-        <f t="shared" ref="U4:U19" si="1">AVERAGE(P4:T4)</f>
+      <c r="U10" s="14">
+        <f>AVERAGE(P10:T10)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="16">
-        <f t="shared" ref="V4:V19" si="2">U4*0.7+L4*5*0.3</f>
+      <c r="V10" s="15">
+        <f>U10*0.7+L10*5*0.3</f>
         <v>0.24999999999999997</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W10" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X10" s="12">
         <v>0</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y10" s="11">
         <v>0</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z10" s="12">
         <v>0</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AA10" s="26">
         <v>0</v>
       </c>
-      <c r="AC4" s="51"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
-        <v>2205127</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="62" t="s">
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="99">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="97"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>2210005</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="63">
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="G5" s="64">
-        <v>0.58779483338965188</v>
-      </c>
-      <c r="H5" s="63">
-        <v>0.60929816731074449</v>
-      </c>
-      <c r="I5" s="65">
-        <v>1</v>
-      </c>
-      <c r="J5" s="64">
-        <f>0.044756944/$J$1</f>
-        <v>0.78886168129138434</v>
-      </c>
-      <c r="K5" s="64">
-        <f>0.0319097222/$K$1</f>
-        <v>0.61996851761554772</v>
-      </c>
-      <c r="L5" s="66">
-        <f t="shared" si="0"/>
-        <v>0.76487608882344349</v>
-      </c>
-      <c r="M5" s="67">
-        <v>1</v>
-      </c>
-      <c r="N5" s="53" t="str" cm="1">
-        <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="R5" s="14">
+      <c r="E11" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="63">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G11" s="64">
+        <v>0.64002246358209225</v>
+      </c>
+      <c r="H11" s="63">
+        <v>0.73245417967738757</v>
+      </c>
+      <c r="I11" s="65">
+        <v>1</v>
+      </c>
+      <c r="J11" s="64">
+        <f>0.048715278/$J$1</f>
+        <v>0.8586291349037859</v>
+      </c>
+      <c r="K11" s="64">
+        <f>0.0339467593/$K$1</f>
+        <v>0.65954576192057257</v>
+      </c>
+      <c r="L11" s="66">
+        <f>AVERAGE(F11:K11)</f>
+        <v>0.80955303445841753</v>
+      </c>
+      <c r="M11" s="67">
+        <v>5</v>
+      </c>
+      <c r="N11" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R11" s="13">
         <v>4.5</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S11" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T11" s="13">
         <v>5</v>
       </c>
-      <c r="T5" s="14">
+      <c r="U11" s="14">
+        <f>AVERAGE(P11:T11)</f>
+        <v>4.38</v>
+      </c>
+      <c r="V11" s="15">
+        <f>U11*0.7+L11*5*0.3</f>
+        <v>4.2803295516876263</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0.13304013194119671</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>0.88973277078552115</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0.73346560870442812</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>1.0934051143998</v>
+      </c>
+      <c r="AD11" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42">
+        <v>2211671</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.5979034070853726</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0.71099687082300078</v>
+      </c>
+      <c r="I12" s="47">
+        <v>1</v>
+      </c>
+      <c r="J12" s="46">
+        <f>0.050231481/$J$1</f>
+        <v>0.8853529087110199</v>
+      </c>
+      <c r="K12" s="46">
+        <f>0.0268865741/$K$1</f>
+        <v>0.52237463504265735</v>
+      </c>
+      <c r="L12" s="48">
+        <f>AVERAGE(F12:K12)</f>
+        <v>0.78054908138811963</v>
+      </c>
+      <c r="M12" s="59">
         <v>5</v>
       </c>
-      <c r="U5" s="15">
-        <f t="shared" si="1"/>
-        <v>4.84</v>
-      </c>
-      <c r="V5" s="16">
-        <f t="shared" si="2"/>
-        <v>4.5353141332351647</v>
-      </c>
-      <c r="W5" s="12">
-        <v>0.92001099501332539</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0.95835141006207936</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC5" s="44"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="N12" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="R12" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="S12" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T12" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U12" s="14">
+        <f>AVERAGE(P12:T12)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V12" s="15">
+        <f>U12*0.7+L12*5*0.3</f>
+        <v>4.138823622082179</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0.874106651948934</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0.78047722339159897</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0.93895921243070513</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC12" s="88">
+        <v>0.26298788697633846</v>
+      </c>
+      <c r="AD12" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
         <v>2210261</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="55">
-        <v>1</v>
-      </c>
-      <c r="G6" s="56">
+      <c r="F13" s="45">
+        <v>1</v>
+      </c>
+      <c r="G13" s="46">
         <v>0.65275177836225751</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H13" s="45">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I6" s="57">
-        <v>1</v>
-      </c>
-      <c r="J6" s="56">
+      <c r="I13" s="47">
+        <v>1</v>
+      </c>
+      <c r="J13" s="46">
         <f>0.051053241/$J$1</f>
         <v>0.89983680589618087</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K13" s="46">
         <f>0.0312384259/$K$1</f>
         <v>0.6069260169825651</v>
       </c>
-      <c r="L6" s="58">
-        <f t="shared" si="0"/>
+      <c r="L13" s="48">
+        <f>AVERAGE(F13:K13)</f>
         <v>0.81659470742939488</v>
       </c>
-      <c r="M6" s="69">
-        <v>1</v>
-      </c>
-      <c r="N6" s="53" t="str" cm="1">
-        <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O6" s="17" t="s">
+      <c r="M13" s="59">
+        <v>1</v>
+      </c>
+      <c r="N13" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P13" s="13">
         <v>5</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q13" s="13">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R13" s="13">
         <v>4.8</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S13" s="13">
         <v>5</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T13" s="13">
         <v>5</v>
       </c>
-      <c r="U6" s="15">
-        <f t="shared" si="1"/>
+      <c r="U13" s="14">
+        <f>AVERAGE(P13:T13)</f>
         <v>4.84</v>
       </c>
-      <c r="V6" s="16">
-        <f t="shared" si="2"/>
+      <c r="V13" s="15">
+        <f>U13*0.7+L13*5*0.3</f>
         <v>4.612892061144092</v>
       </c>
-      <c r="W6" s="12">
-        <v>1</v>
-      </c>
-      <c r="X6" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="43" t="s">
+      <c r="W13" s="12">
+        <v>1</v>
+      </c>
+      <c r="X13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="27">
+        <v>1.1830417227085015</v>
+      </c>
+      <c r="AD13" s="38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52">
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
+        <v>2200689</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="45">
+        <v>1</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.46593036325443599</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0.62650871710347011</v>
+      </c>
+      <c r="I14" s="47">
+        <v>1</v>
+      </c>
+      <c r="J14" s="46">
+        <f>0.018946759/$J$1</f>
+        <v>0.33394532387561288</v>
+      </c>
+      <c r="K14" s="46">
+        <f>0.0009027778/$K$1</f>
+        <v>1.7539914979335842E-2</v>
+      </c>
+      <c r="L14" s="48">
+        <f>AVERAGE(F14:K14)</f>
+        <v>0.57398738653547587</v>
+      </c>
+      <c r="M14" s="59">
+        <v>6</v>
+      </c>
+      <c r="N14" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>5</v>
+      </c>
+      <c r="U14" s="14">
+        <f>AVERAGE(P14:T14)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="15">
+        <f>U14*0.7+L14*5*0.3</f>
+        <v>2.2609810798032139</v>
+      </c>
+      <c r="W14" s="12">
+        <v>1</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0.3002169198176699</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>0.53373015861507977</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC14" s="89">
+        <v>0.74751009409613423</v>
+      </c>
+      <c r="AD14" s="40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
         <v>2206464</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E15" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="73">
-        <v>1</v>
-      </c>
-      <c r="G7" s="74">
+      <c r="F15" s="53">
+        <v>1</v>
+      </c>
+      <c r="G15" s="54">
         <v>0.67877199547434519</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H15" s="53">
         <v>0.73938310241610217</v>
       </c>
-      <c r="I7" s="75">
-        <v>1</v>
-      </c>
-      <c r="J7" s="74">
+      <c r="I15" s="55">
+        <v>1</v>
+      </c>
+      <c r="J15" s="54">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K15" s="54">
         <f>0.0365972222/$K$1</f>
         <v>0.71104115084338837</v>
       </c>
-      <c r="L7" s="76">
-        <f t="shared" si="0"/>
+      <c r="L15" s="56">
+        <f>AVERAGE(F15:K15)</f>
         <v>0.84796409645733284</v>
       </c>
-      <c r="M7" s="77">
-        <v>1</v>
-      </c>
-      <c r="N7" s="53" t="str" cm="1">
-        <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
-        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O7" s="17" t="s">
+      <c r="M15" s="57">
+        <v>1</v>
+      </c>
+      <c r="N15" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P15" s="13">
         <v>3.5</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q15" s="13">
         <v>3.9</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R15" s="13">
         <v>5</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S15" s="13">
         <v>3.3</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T15" s="13">
         <v>4.3</v>
       </c>
-      <c r="U7" s="15">
-        <f t="shared" si="1"/>
+      <c r="U15" s="14">
+        <f>AVERAGE(P15:T15)</f>
         <v>4</v>
       </c>
-      <c r="V7" s="16">
-        <f t="shared" si="2"/>
+      <c r="V15" s="15">
+        <f>U15*0.7+L15*5*0.3</f>
         <v>4.0719461446859988</v>
       </c>
-      <c r="W7" s="12">
-        <v>1</v>
-      </c>
-      <c r="X7" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="27">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="44"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
-        <v>2200833</v>
-      </c>
-      <c r="B8" s="68" t="s">
+      <c r="W15" s="12">
+        <v>1</v>
+      </c>
+      <c r="X15" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1.1397039030838965</v>
+      </c>
+      <c r="AD15" s="98"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="42">
+        <v>2215280</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="45">
+        <v>1</v>
+      </c>
+      <c r="G16" s="46">
+        <v>0.68494945713152144</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I16" s="47">
+        <v>1</v>
+      </c>
+      <c r="J16" s="46">
+        <f>0.050578704/$J$1</f>
+        <v>0.89147287346024495</v>
+      </c>
+      <c r="K16" s="46">
+        <f>0.0334606481/$K$1</f>
+        <v>0.65010119082178952</v>
+      </c>
+      <c r="L16" s="48">
+        <f>AVERAGE(F16:K16)</f>
+        <v>0.82776286079148698</v>
+      </c>
+      <c r="M16" s="59">
+        <v>4</v>
+      </c>
+      <c r="N16" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="54" t="s">
+      <c r="Q16" s="13">
+        <v>4</v>
+      </c>
+      <c r="R16" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="S16" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T16" s="13">
+        <v>5</v>
+      </c>
+      <c r="U16" s="14">
+        <f>AVERAGE(P16:T16)</f>
+        <v>4.32</v>
+      </c>
+      <c r="V16" s="15">
+        <f>U16*0.7+L16*5*0.3</f>
+        <v>4.2656442911872308</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC16" s="27">
+        <v>1.1305518168384801</v>
+      </c>
+      <c r="AD16" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>2210166</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="55">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G8" s="56">
-        <v>0.62448521151385872</v>
-      </c>
-      <c r="H8" s="55">
-        <v>0.71904336171365091</v>
-      </c>
-      <c r="I8" s="57">
-        <v>1</v>
-      </c>
-      <c r="J8" s="56">
-        <f>0.0503125/$J$1</f>
-        <v>0.88678090577347679</v>
-      </c>
-      <c r="K8" s="56">
-        <f>0.0374652778/$K$1</f>
-        <v>0.72790645415649191</v>
-      </c>
-      <c r="L8" s="58">
-        <f t="shared" si="0"/>
-        <v>0.8208137666373575</v>
-      </c>
-      <c r="M8" s="69">
+      <c r="E17" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="63">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G17" s="64">
+        <v>0.65293897421284319</v>
+      </c>
+      <c r="H17" s="63">
+        <v>0.70183281192092528</v>
+      </c>
+      <c r="I17" s="65">
+        <v>1</v>
+      </c>
+      <c r="J17" s="64">
+        <f>0.049803241/$J$1</f>
+        <v>0.87780498215025593</v>
+      </c>
+      <c r="K17" s="64">
+        <f>0.0357291667/$K$1</f>
+        <v>0.69417584947316768</v>
+      </c>
+      <c r="L17" s="66">
+        <f>AVERAGE(F17:K17)</f>
+        <v>0.80723654740397643</v>
+      </c>
+      <c r="M17" s="67">
+        <v>4</v>
+      </c>
+      <c r="N17" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="R17" s="13">
+        <v>4</v>
+      </c>
+      <c r="S17" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T17" s="13">
+        <v>5</v>
+      </c>
+      <c r="U17" s="14">
+        <f>AVERAGE(P17:T17)</f>
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="V17" s="15">
+        <f>U17*0.7+L17*5*0.3</f>
+        <v>4.1648548211059646</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0.734469488684663</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0.60260303672111848</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0.82447257383130579</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="89">
+        <v>1.0960969043923496</v>
+      </c>
+      <c r="AD17" s="39"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42">
+        <v>2211352</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="53">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0.66585548484359414</v>
+      </c>
+      <c r="H18" s="53">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I18" s="55">
+        <v>1</v>
+      </c>
+      <c r="J18" s="54">
+        <f>0.049791667/$J$1</f>
+        <v>0.87760098508782769</v>
+      </c>
+      <c r="K18" s="54">
+        <f>0.0328703704/$K$1</f>
+        <v>0.6386327866671927</v>
+      </c>
+      <c r="L18" s="56">
+        <f>AVERAGE(F18:K18)</f>
+        <v>0.80091270554455229</v>
+      </c>
+      <c r="M18" s="57">
+        <v>5</v>
+      </c>
+      <c r="N18" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="R18" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="S18" s="13">
+        <v>5</v>
+      </c>
+      <c r="T18" s="13">
         <v>2</v>
       </c>
-      <c r="N8" s="53" t="str" cm="1">
-        <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
-        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
-      <c r="R8" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="S8" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="T8" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="U8" s="15">
-        <f t="shared" si="1"/>
-        <v>3.3600000000000003</v>
-      </c>
-      <c r="V8" s="16">
-        <f t="shared" si="2"/>
-        <v>3.5832206499560364</v>
-      </c>
-      <c r="W8" s="12">
-        <v>0.41671247935178818</v>
-      </c>
-      <c r="X8" s="12">
-        <v>0.78264642075010771</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0.48466947955898315</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="27">
-        <v>0.64256581383251687</v>
-      </c>
-      <c r="AB8" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC8" s="45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52">
-        <v>2170311</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="54" t="s">
+      <c r="U18" s="14">
+        <f>AVERAGE(P18:T18)</f>
+        <v>3.7400000000000007</v>
+      </c>
+      <c r="V18" s="15">
+        <f>U18*0.7+L18*5*0.3</f>
+        <v>3.8193690583168287</v>
+      </c>
+      <c r="W18" s="12">
+        <v>0.45959318321096959</v>
+      </c>
+      <c r="X18" s="12">
+        <v>0.9657266810264632</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>0.46638537263693858</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="90">
+        <v>1.0751009420781845</v>
+      </c>
+      <c r="AD18" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
+        <v>2210955</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="55">
-        <v>0</v>
-      </c>
-      <c r="G9" s="56">
-        <v>0</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0</v>
-      </c>
-      <c r="I9" s="57">
-        <v>1</v>
-      </c>
-      <c r="J9" s="56">
-        <f>0/$J$1</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="56">
-        <f>0.0230902778/$K$1</f>
-        <v>0.44861704559111432</v>
-      </c>
-      <c r="L9" s="58">
-        <f t="shared" si="0"/>
-        <v>0.24143617426518571</v>
-      </c>
-      <c r="M9" s="69">
-        <v>2</v>
-      </c>
-      <c r="N9" s="53" t="str" cm="1">
-        <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
-        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>0</v>
-      </c>
-      <c r="R9" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="S9" s="14">
-        <v>5</v>
-      </c>
-      <c r="T9" s="14">
-        <v>2</v>
-      </c>
-      <c r="U9" s="15">
-        <f t="shared" si="1"/>
-        <v>2.2600000000000002</v>
-      </c>
-      <c r="V9" s="16">
-        <f t="shared" si="2"/>
-        <v>1.9441542613977787</v>
-      </c>
-      <c r="W9" s="12">
-        <v>0.78944474988308111</v>
-      </c>
-      <c r="X9" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0.29620253157125481</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC9" s="43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
-        <v>2210177</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="63">
-        <v>1</v>
-      </c>
-      <c r="G10" s="64">
-        <v>0.69337326840732949</v>
-      </c>
-      <c r="H10" s="63">
-        <v>0.73983012964877437</v>
-      </c>
-      <c r="I10" s="65">
-        <v>1</v>
-      </c>
-      <c r="J10" s="64">
-        <f>0.054386574/$J$1</f>
-        <v>0.95858833001016097</v>
-      </c>
-      <c r="K10" s="64">
-        <f>0.0379513889/$K$1</f>
-        <v>0.73735102331239211</v>
-      </c>
-      <c r="L10" s="66">
-        <f t="shared" si="0"/>
-        <v>0.85485712522977619</v>
-      </c>
-      <c r="M10" s="67">
-        <v>3</v>
-      </c>
-      <c r="N10" s="53" t="str" cm="1">
-        <f t="array" ref="N10">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
-        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R10" s="14">
-        <v>5</v>
-      </c>
-      <c r="S10" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="T10" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="U10" s="15">
-        <f t="shared" si="1"/>
-        <v>4.24</v>
-      </c>
-      <c r="V10" s="16">
-        <f t="shared" si="2"/>
-        <v>4.2502856878446647</v>
-      </c>
-      <c r="W10" s="12">
-        <v>1</v>
-      </c>
-      <c r="X10" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC10" s="45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52">
-        <v>2210955</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="72" t="s">
+      <c r="E19" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F19" s="63">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G19" s="64">
         <v>0.66248596035680685</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H19" s="63">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I11" s="75">
-        <v>1</v>
-      </c>
-      <c r="J11" s="74">
+      <c r="I19" s="65">
+        <v>1</v>
+      </c>
+      <c r="J19" s="64">
         <f>0.053993056/$J$1</f>
         <v>0.95165239463668183</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K19" s="64">
         <f>0.0346412037/$K$1</f>
         <v>0.67303800301674921</v>
       </c>
-      <c r="L11" s="76">
-        <f t="shared" si="0"/>
+      <c r="L19" s="66">
+        <f>AVERAGE(F19:K19)</f>
         <v>0.78231611133537848</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M19" s="67">
         <v>3</v>
       </c>
-      <c r="N11" s="53" t="str" cm="1">
-        <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
-        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O11" s="17" t="s">
+      <c r="N19" s="43" t="e" cm="1">
+        <f t="array" aca="1" ref="N19" ca="1">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P19" s="13">
         <v>5</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q19" s="13">
         <v>4.2</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R19" s="13">
         <v>4.8</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S19" s="13">
         <v>3.3</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T19" s="13">
         <v>5</v>
       </c>
-      <c r="U11" s="15">
-        <f t="shared" si="1"/>
+      <c r="U19" s="14">
+        <f>AVERAGE(P19:T19)</f>
         <v>4.46</v>
       </c>
-      <c r="V11" s="16">
-        <f t="shared" si="2"/>
+      <c r="V19" s="15">
+        <f>U19*0.7+L19*5*0.3</f>
         <v>4.2954741670030678</v>
       </c>
-      <c r="W11" s="12">
-        <v>1</v>
-      </c>
-      <c r="X11" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="17" t="s">
+      <c r="W19" s="12">
+        <v>1</v>
+      </c>
+      <c r="X19" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="AC11" s="43" t="s">
+      <c r="AC19" s="91">
+        <v>1.1830417227085015</v>
+      </c>
+      <c r="AD19" s="40" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
-        <v>2216295</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="56">
-        <v>0.60857356797981244</v>
-      </c>
-      <c r="H12" s="55">
-        <v>0.71881984802705978</v>
-      </c>
-      <c r="I12" s="57">
-        <v>1</v>
-      </c>
-      <c r="J12" s="56">
-        <f>0.04931713/$J$1</f>
-        <v>0.86923705265189177</v>
-      </c>
-      <c r="K12" s="56">
-        <f>0.0337384259/$K$1</f>
-        <v>0.65549808803741338</v>
-      </c>
-      <c r="L12" s="58">
-        <f t="shared" si="0"/>
-        <v>0.79202142611602966</v>
-      </c>
-      <c r="M12" s="69">
-        <v>4</v>
-      </c>
-      <c r="N12" s="53" t="str" cm="1">
-        <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R12" s="14">
-        <v>5</v>
-      </c>
-      <c r="S12" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="T12" s="14">
-        <v>5</v>
-      </c>
-      <c r="U12" s="15">
-        <f t="shared" si="1"/>
-        <v>4.58</v>
-      </c>
-      <c r="V12" s="16">
-        <f t="shared" si="2"/>
-        <v>4.394032139174044</v>
-      </c>
-      <c r="W12" s="12">
-        <v>0.9145134689971629</v>
-      </c>
-      <c r="X12" s="12">
-        <v>0.31496746201916759</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>0.80196905770117399</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC12" s="46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
-        <v>2215280</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="55">
-        <v>1</v>
-      </c>
-      <c r="G13" s="56">
-        <v>0.68494945713152144</v>
-      </c>
-      <c r="H13" s="55">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I13" s="57">
-        <v>1</v>
-      </c>
-      <c r="J13" s="56">
-        <f>0.050578704/$J$1</f>
-        <v>0.89147287346024495</v>
-      </c>
-      <c r="K13" s="56">
-        <f>0.0334606481/$K$1</f>
-        <v>0.65010119082178952</v>
-      </c>
-      <c r="L13" s="58">
-        <f t="shared" si="0"/>
-        <v>0.82776286079148698</v>
-      </c>
-      <c r="M13" s="69">
-        <v>4</v>
-      </c>
-      <c r="N13" s="53" t="str" cm="1">
-        <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>4</v>
-      </c>
-      <c r="R13" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="S13" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="T13" s="14">
-        <v>5</v>
-      </c>
-      <c r="U13" s="15">
-        <f t="shared" si="1"/>
-        <v>4.32</v>
-      </c>
-      <c r="V13" s="16">
-        <f t="shared" si="2"/>
-        <v>4.2656442911872308</v>
-      </c>
-      <c r="W13" s="12">
-        <v>0</v>
-      </c>
-      <c r="X13" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC13" s="47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52">
-        <v>2210166</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="55">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G14" s="56">
-        <v>0.65293897421284319</v>
-      </c>
-      <c r="H14" s="55">
-        <v>0.70183281192092528</v>
-      </c>
-      <c r="I14" s="57">
-        <v>1</v>
-      </c>
-      <c r="J14" s="56">
-        <f>0.049803241/$J$1</f>
-        <v>0.87780498215025593</v>
-      </c>
-      <c r="K14" s="56">
-        <f>0.0357291667/$K$1</f>
-        <v>0.69417584947316768</v>
-      </c>
-      <c r="L14" s="58">
-        <f t="shared" si="0"/>
-        <v>0.80723654740397643</v>
-      </c>
-      <c r="M14" s="69">
-        <v>4</v>
-      </c>
-      <c r="N14" s="53" t="str" cm="1">
-        <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
-        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="R14" s="14">
-        <v>4</v>
-      </c>
-      <c r="S14" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="T14" s="14">
-        <v>5</v>
-      </c>
-      <c r="U14" s="15">
-        <f t="shared" si="1"/>
-        <v>4.2200000000000006</v>
-      </c>
-      <c r="V14" s="16">
-        <f t="shared" si="2"/>
-        <v>4.1648548211059646</v>
-      </c>
-      <c r="W14" s="12">
-        <v>0.734469488684663</v>
-      </c>
-      <c r="X14" s="12">
-        <v>0.60260303672111848</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>0.82447257383130579</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="48"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
-        <v>2210005</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="63">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G15" s="64">
-        <v>0.64002246358209225</v>
-      </c>
-      <c r="H15" s="63">
-        <v>0.73245417967738757</v>
-      </c>
-      <c r="I15" s="65">
-        <v>1</v>
-      </c>
-      <c r="J15" s="64">
-        <f>0.048715278/$J$1</f>
-        <v>0.8586291349037859</v>
-      </c>
-      <c r="K15" s="64">
-        <f>0.0339467593/$K$1</f>
-        <v>0.65954576192057257</v>
-      </c>
-      <c r="L15" s="66">
-        <f t="shared" si="0"/>
-        <v>0.80955303445841753</v>
-      </c>
-      <c r="M15" s="67">
-        <v>5</v>
-      </c>
-      <c r="N15" s="53" t="str" cm="1">
-        <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R15" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="S15" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="T15" s="14">
-        <v>5</v>
-      </c>
-      <c r="U15" s="15">
-        <f t="shared" si="1"/>
-        <v>4.38</v>
-      </c>
-      <c r="V15" s="16">
-        <f t="shared" si="2"/>
-        <v>4.2803295516876263</v>
-      </c>
-      <c r="W15" s="12">
-        <v>0.13304013194119671</v>
-      </c>
-      <c r="X15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>0.88973277078552115</v>
-      </c>
-      <c r="Z15" s="12">
-        <v>0.73346560870442812</v>
-      </c>
-      <c r="AA15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC15" s="46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
-        <v>2211671</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="55">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G16" s="56">
-        <v>0.5979034070853726</v>
-      </c>
-      <c r="H16" s="55">
-        <v>0.71099687082300078</v>
-      </c>
-      <c r="I16" s="57">
-        <v>1</v>
-      </c>
-      <c r="J16" s="56">
-        <f>0.050231481/$J$1</f>
-        <v>0.8853529087110199</v>
-      </c>
-      <c r="K16" s="56">
-        <f>0.0268865741/$K$1</f>
-        <v>0.52237463504265735</v>
-      </c>
-      <c r="L16" s="58">
-        <f t="shared" si="0"/>
-        <v>0.78054908138811963</v>
-      </c>
-      <c r="M16" s="69">
-        <v>5</v>
-      </c>
-      <c r="N16" s="53" t="str" cm="1">
-        <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="R16" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="S16" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="T16" s="14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U16" s="15">
-        <f t="shared" si="1"/>
-        <v>4.24</v>
-      </c>
-      <c r="V16" s="16">
-        <f t="shared" si="2"/>
-        <v>4.138823622082179</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0.874106651948934</v>
-      </c>
-      <c r="X16" s="12">
-        <v>0.78047722339159897</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>0.93895921243070513</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC16" s="47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52">
-        <v>2211352</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="73">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="G17" s="74">
-        <v>0.66585548484359414</v>
-      </c>
-      <c r="H17" s="73">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I17" s="75">
-        <v>1</v>
-      </c>
-      <c r="J17" s="74">
-        <f>0.049791667/$J$1</f>
-        <v>0.87760098508782769</v>
-      </c>
-      <c r="K17" s="74">
-        <f>0.0328703704/$K$1</f>
-        <v>0.6386327866671927</v>
-      </c>
-      <c r="L17" s="76">
-        <f t="shared" si="0"/>
-        <v>0.80091270554455229</v>
-      </c>
-      <c r="M17" s="77">
-        <v>5</v>
-      </c>
-      <c r="N17" s="53" t="str" cm="1">
-        <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
-        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="R17" s="14">
-        <v>2.9</v>
-      </c>
-      <c r="S17" s="14">
-        <v>5</v>
-      </c>
-      <c r="T17" s="14">
-        <v>2</v>
-      </c>
-      <c r="U17" s="15">
-        <f t="shared" si="1"/>
-        <v>3.7400000000000007</v>
-      </c>
-      <c r="V17" s="16">
-        <f t="shared" si="2"/>
-        <v>3.8193690583168287</v>
-      </c>
-      <c r="W17" s="12">
-        <v>0.45959318321096959</v>
-      </c>
-      <c r="X17" s="12">
-        <v>0.9657266810264632</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>0.46638537263693858</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
-        <v>2201757</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="63">
-        <v>1</v>
-      </c>
-      <c r="G18" s="64">
-        <v>0.67596405842163554</v>
-      </c>
-      <c r="H18" s="63">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I18" s="65">
-        <v>1</v>
-      </c>
-      <c r="J18" s="64">
-        <f>0/$J$1</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="64">
-        <f>0.0379513889/$K$1</f>
-        <v>0.73735102331239211</v>
-      </c>
-      <c r="L18" s="66">
-        <f t="shared" si="0"/>
-        <v>0.69222812084489893</v>
-      </c>
-      <c r="M18" s="67">
-        <v>6</v>
-      </c>
-      <c r="N18" s="53" t="str" cm="1">
-        <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
-        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="R18" s="14">
-        <v>0</v>
-      </c>
-      <c r="S18" s="14">
-        <v>0</v>
-      </c>
-      <c r="T18" s="14">
-        <v>0</v>
-      </c>
-      <c r="U18" s="15">
-        <f t="shared" si="1"/>
-        <v>1.52</v>
-      </c>
-      <c r="V18" s="16">
-        <f t="shared" si="2"/>
-        <v>2.102342181267348</v>
-      </c>
-      <c r="W18" s="12">
-        <v>1</v>
-      </c>
-      <c r="X18" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>0.87863756623470268</v>
-      </c>
-      <c r="AA18" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC18" s="46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52">
-        <v>2200689</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="73">
-        <v>1</v>
-      </c>
-      <c r="G19" s="74">
-        <v>0.46593036325443599</v>
-      </c>
-      <c r="H19" s="73">
-        <v>0.62650871710347011</v>
-      </c>
-      <c r="I19" s="75">
-        <v>1</v>
-      </c>
-      <c r="J19" s="74">
-        <f>0.018946759/$J$1</f>
-        <v>0.33394532387561288</v>
-      </c>
-      <c r="K19" s="74">
-        <f>0.0009027778/$K$1</f>
-        <v>1.7539914979335842E-2</v>
-      </c>
-      <c r="L19" s="76">
-        <f t="shared" si="0"/>
-        <v>0.57398738653547587</v>
-      </c>
-      <c r="M19" s="77">
-        <v>6</v>
-      </c>
-      <c r="N19" s="53" t="str" cm="1">
-        <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
-        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0</v>
-      </c>
-      <c r="R19" s="14">
-        <v>0</v>
-      </c>
-      <c r="S19" s="14">
-        <v>0</v>
-      </c>
-      <c r="T19" s="14">
-        <v>5</v>
-      </c>
-      <c r="U19" s="15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V19" s="16">
-        <f t="shared" si="2"/>
-        <v>2.2609810798032139</v>
-      </c>
-      <c r="W19" s="12">
-        <v>1</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0.3002169198176699</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>0.53373015861507977</v>
-      </c>
-      <c r="AA19" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC19" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:AA3" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AA19">
-      <sortCondition ref="M3"/>
+  <autoFilter ref="A3:AD3">
+    <sortState ref="A4:AE19">
+      <sortCondition ref="B3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -3779,51 +3846,51 @@
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AB11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AB9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AB13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AB19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AC6" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI" xr:uid="{B6D80B57-8E77-469C-9C42-EE2A4A0436B0}"/>
-    <hyperlink ref="AC8" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ" xr:uid="{5517BDE6-0EE9-450E-B686-DA9C1C36DD14}"/>
-    <hyperlink ref="AC9" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB" xr:uid="{C3C4C1FE-D555-4547-916D-7848604A501F}"/>
-    <hyperlink ref="AC10" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL" xr:uid="{861F5EDF-8C1C-4423-8441-68E881D1325A}"/>
-    <hyperlink ref="AC11" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI" xr:uid="{E3B3F341-B3B4-4CEF-8933-816ADC3F68DC}"/>
-    <hyperlink ref="AC12" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS" xr:uid="{A9C76F81-6A70-43F4-B1A2-751AB71788D6}"/>
-    <hyperlink ref="AC13" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq" xr:uid="{9C5439D4-A050-44FF-9C6A-1C2E99E2D264}"/>
-    <hyperlink ref="AC15" r:id="rId27" xr:uid="{73330191-FE35-44B1-9D09-C796D13D20DA}"/>
-    <hyperlink ref="AC16" r:id="rId28" xr:uid="{65E6E436-5A13-499B-BA24-6B48D48CC1A0}"/>
-    <hyperlink ref="AC17" r:id="rId29" xr:uid="{653535A2-5BA1-42DB-ACF1-710424785F5E}"/>
-    <hyperlink ref="AC18" r:id="rId30" xr:uid="{108E77A0-E67B-4966-8A2D-16CA7462B951}"/>
-    <hyperlink ref="AC19" r:id="rId31" xr:uid="{B0FBFF44-E4A7-4E04-825F-B14989E387D1}"/>
+    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="AB19" r:id="rId16"/>
+    <hyperlink ref="AB7" r:id="rId17"/>
+    <hyperlink ref="AB16" r:id="rId18"/>
+    <hyperlink ref="AB14" r:id="rId19"/>
+    <hyperlink ref="AD13" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI"/>
+    <hyperlink ref="AD4" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ"/>
+    <hyperlink ref="AD7" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB"/>
+    <hyperlink ref="AD8" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL"/>
+    <hyperlink ref="AD19" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI"/>
+    <hyperlink ref="AD5" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS"/>
+    <hyperlink ref="AD16" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq"/>
+    <hyperlink ref="AD11" r:id="rId27"/>
+    <hyperlink ref="AD12" r:id="rId28"/>
+    <hyperlink ref="AD18" r:id="rId29"/>
+    <hyperlink ref="AD9" r:id="rId30"/>
+    <hyperlink ref="AD14" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -3881,14 +3948,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -3897,16 +3964,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3920,7 +3987,7 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3934,7 +4001,7 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3948,7 +4015,7 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3962,7 +4029,7 @@
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3976,7 +4043,7 @@
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3990,7 +4057,7 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4004,7 +4071,7 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4018,7 +4085,7 @@
       <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
       <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4046,7 +4113,7 @@
       <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4060,7 +4127,7 @@
       <c r="C12" s="5">
         <v>5</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4074,7 +4141,7 @@
       <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4088,7 +4155,7 @@
       <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4102,7 +4169,7 @@
       <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4116,41 +4183,41 @@
       <c r="C16" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="16.85546875" customWidth="1"/>
@@ -4161,48 +4228,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>2200833</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4210,28 +4277,28 @@
       <c r="A3" s="10">
         <v>2216295</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4239,28 +4306,28 @@
       <c r="A4" s="10">
         <v>2205127</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4268,28 +4335,28 @@
       <c r="A5" s="10">
         <v>2170311</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4297,28 +4364,28 @@
       <c r="A6" s="10">
         <v>2210177</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4326,28 +4393,28 @@
       <c r="A7" s="10">
         <v>2201757</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4355,28 +4422,28 @@
       <c r="A8" s="10">
         <v>2210005</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4384,28 +4451,28 @@
       <c r="A9" s="10">
         <v>2211671</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4413,28 +4480,28 @@
       <c r="A10" s="10">
         <v>2210261</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4442,28 +4509,28 @@
       <c r="A11" s="10">
         <v>2200689</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4471,28 +4538,28 @@
       <c r="A12" s="10">
         <v>2206464</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4500,28 +4567,28 @@
       <c r="A13" s="10">
         <v>2215280</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4529,28 +4596,28 @@
       <c r="A14" s="10">
         <v>2210166</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4558,28 +4625,28 @@
       <c r="A15" s="10">
         <v>2211352</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4587,28 +4654,28 @@
       <c r="A16" s="10">
         <v>2210955</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="23" t="s">
         <v>102</v>
       </c>
     </row>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED4610-1C14-45B5-8B0C-903C1B8EC45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,9 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AD$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AH$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="183">
   <si>
     <t>CODIGO</t>
   </si>
@@ -572,12 +573,51 @@
   </si>
   <si>
     <t>Rodilla asignada</t>
+  </si>
+  <si>
+    <t>Flexiones de pecho</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-Rgd00zD3tWI/VDPBz-1venI/AAAAAAAAA1I/ySwJrIp-BWc/s1600/pushup.jpg</t>
+  </si>
+  <si>
+    <t>https://www.sportlife.es/uploads/static/sportlife/upload/images/paragrapharticle/16311/paragrapharticle-16386-5a574dbbbb14e.jpg</t>
+  </si>
+  <si>
+    <t>Plancha lateral con levantamiento de pierna</t>
+  </si>
+  <si>
+    <t>sentadillas con pesas</t>
+  </si>
+  <si>
+    <t>Abdominales tijera</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LS2WgqLb_Kk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4Nqt4bCqSMw</t>
+  </si>
+  <si>
+    <t>https://www.popsugar.com/fitness/how-to-do-plank-with-side-step-46730290</t>
+  </si>
+  <si>
+    <t>Plancha con codos doblados y abducción de pierna</t>
+  </si>
+  <si>
+    <t>Plancha abdominal isométrica de codos y pies con elevación 1 pierna</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rWOnKDfAKHo</t>
+  </si>
+  <si>
+    <t>Gesto Asignado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -585,7 +625,7 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +778,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -958,7 +1006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1214,26 +1262,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1492,6 +1520,63 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1540,7 +1625,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1617,21 +1702,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1648,184 +1865,81 @@
     <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="42" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2102,20 +2216,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
@@ -2137,11 +2251,13 @@
     <col min="26" max="26" width="12.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="12.85546875" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="96" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="126.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="126.5703125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -2179,66 +2295,66 @@
         <v>4.2997685188311201E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="80" t="s">
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="P2" s="81" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="P2" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-    </row>
-    <row r="3" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+    </row>
+    <row r="3" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="71">
         <v>45685</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="71">
         <v>45692</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="71">
         <v>45699</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="71">
         <v>45706</v>
       </c>
-      <c r="J3" s="77">
+      <c r="J3" s="71">
         <v>45713</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="71">
         <v>45720</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="N3" s="68" t="s">
         <v>54</v>
       </c>
       <c r="O3" s="19" t="s">
@@ -2281,192 +2397,206 @@
         <v>45755</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="92">
+      <c r="AC3" s="75">
         <v>45776</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="75">
+        <v>45783</v>
+      </c>
+      <c r="AE3" s="75">
+        <v>45790</v>
+      </c>
+      <c r="AF3" s="75">
+        <v>45797</v>
+      </c>
+      <c r="AG3" s="75">
+        <v>45802</v>
+      </c>
+      <c r="AH3" s="35" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
-        <v>2200833</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="68" t="s">
+      <c r="AI3" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
+        <v>2175459</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="69">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G4" s="70">
-        <v>0.62448521151385872</v>
-      </c>
-      <c r="H4" s="69">
-        <v>0.71904336171365091</v>
-      </c>
-      <c r="I4" s="71">
-        <v>1</v>
-      </c>
-      <c r="J4" s="70">
-        <f>0.0503125/$J$1</f>
-        <v>0.88678090577347679</v>
-      </c>
-      <c r="K4" s="70">
-        <f>0.0374652778/$K$1</f>
-        <v>0.72790645415649191</v>
-      </c>
-      <c r="L4" s="72">
+      <c r="E4" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="63">
+        <v>0</v>
+      </c>
+      <c r="G4" s="64">
+        <v>0</v>
+      </c>
+      <c r="H4" s="64">
+        <v>0</v>
+      </c>
+      <c r="I4" s="65">
+        <v>1</v>
+      </c>
+      <c r="J4" s="64">
+        <f>0/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="64">
+        <f>0/$K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="66">
         <f>AVERAGE(F4:K4)</f>
-        <v>0.8208137666373575</v>
-      </c>
-      <c r="M4" s="57">
-        <v>2</v>
-      </c>
-      <c r="N4" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>78</v>
-      </c>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M4" s="51">
+        <v>0</v>
+      </c>
+      <c r="N4" s="37" t="e">
+        <f>_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O4" s="91"/>
       <c r="P4" s="13">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="13">
         <v>0</v>
       </c>
       <c r="R4" s="13">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S4" s="13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="13">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14">
         <f>AVERAGE(P4:T4)</f>
-        <v>3.3600000000000003</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15">
         <f>U4*0.7+L4*5*0.3</f>
-        <v>3.5832206499560364</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="W4" s="12">
-        <v>0.41671247935178818</v>
+        <v>0</v>
       </c>
       <c r="X4" s="12">
-        <v>0.78264642075010771</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="11">
-        <v>0.48466947955898315</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="12">
         <v>0</v>
       </c>
       <c r="AA4" s="26">
-        <v>0.64256581383251687</v>
-      </c>
-      <c r="AB4" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC4">
-        <v>0.57631224762559774</v>
-      </c>
-      <c r="AD4" s="96" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
-        <v>2216295</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="G5" s="54">
-        <v>0.60857356797981244</v>
-      </c>
-      <c r="H5" s="53">
-        <v>0.71881984802705978</v>
-      </c>
-      <c r="I5" s="55">
-        <v>1</v>
-      </c>
-      <c r="J5" s="54">
-        <f>0.04931713/$J$1</f>
-        <v>0.86923705265189177</v>
-      </c>
-      <c r="K5" s="54">
-        <f>0.0337384259/$K$1</f>
-        <v>0.65549808803741338</v>
-      </c>
-      <c r="L5" s="56">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="101"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>2205127</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="G5" s="48">
+        <v>0.58779483338965188</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0.60929816731074449</v>
+      </c>
+      <c r="I5" s="49">
+        <v>1</v>
+      </c>
+      <c r="J5" s="48">
+        <f>0.044756944/$J$1</f>
+        <v>0.78886168129138434</v>
+      </c>
+      <c r="K5" s="48">
+        <f>0.0319097222/$K$1</f>
+        <v>0.61996851761554772</v>
+      </c>
+      <c r="L5" s="50">
         <f>AVERAGE(F5:K5)</f>
-        <v>0.79202142611602966</v>
-      </c>
-      <c r="M5" s="57">
-        <v>4</v>
-      </c>
-      <c r="N5" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
-        <v>#NAME?</v>
+        <v>0.76487608882344349</v>
+      </c>
+      <c r="M5" s="51">
+        <v>1</v>
+      </c>
+      <c r="N5" s="37" t="str" cm="1">
+        <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P5" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="R5" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="S5" s="13">
         <v>5</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R5" s="13">
-        <v>5</v>
-      </c>
-      <c r="S5" s="13">
-        <v>3.3</v>
       </c>
       <c r="T5" s="13">
         <v>5</v>
       </c>
       <c r="U5" s="14">
         <f>AVERAGE(P5:T5)</f>
-        <v>4.58</v>
+        <v>4.84</v>
       </c>
       <c r="V5" s="15">
         <f>U5*0.7+L5*5*0.3</f>
-        <v>4.394032139174044</v>
+        <v>4.5353141332351647</v>
       </c>
       <c r="W5" s="12">
-        <v>0.9145134689971629</v>
+        <v>0.92001099501332539</v>
       </c>
       <c r="X5" s="12">
-        <v>0.31496746201916759</v>
+        <v>0.95835141006207936</v>
       </c>
       <c r="Y5" s="11">
-        <v>0.80196905770117399</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -2475,73 +2605,74 @@
         <v>1</v>
       </c>
       <c r="AB5" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC5" s="88">
-        <v>1.0823687751934423</v>
-      </c>
-      <c r="AD5" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
-        <v>2205127</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC5">
+        <v>1.1830417227085015</v>
+      </c>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
+        <v>2210261</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="45">
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="G6" s="46">
-        <v>0.58779483338965188</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0.60929816731074449</v>
-      </c>
-      <c r="I6" s="47">
-        <v>1</v>
-      </c>
-      <c r="J6" s="46">
-        <f>0.044756944/$J$1</f>
-        <v>0.78886168129138434</v>
-      </c>
-      <c r="K6" s="46">
-        <f>0.0319097222/$K$1</f>
-        <v>0.61996851761554772</v>
-      </c>
-      <c r="L6" s="48">
+      <c r="E6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="39">
+        <v>1</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0.65275177836225751</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I6" s="41">
+        <v>1</v>
+      </c>
+      <c r="J6" s="40">
+        <f>0.051053241/$J$1</f>
+        <v>0.89983680589618087</v>
+      </c>
+      <c r="K6" s="40">
+        <f>0.0312384259/$K$1</f>
+        <v>0.6069260169825651</v>
+      </c>
+      <c r="L6" s="42">
         <f>AVERAGE(F6:K6)</f>
-        <v>0.76487608882344349</v>
-      </c>
-      <c r="M6" s="59">
-        <v>1</v>
-      </c>
-      <c r="N6" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
-        <v>#NAME?</v>
+        <v>0.81659470742939488</v>
+      </c>
+      <c r="M6" s="53">
+        <v>1</v>
+      </c>
+      <c r="N6" s="37" t="str" cm="1">
+        <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>77</v>
       </c>
       <c r="P6" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R6" s="13">
         <v>4.8</v>
-      </c>
-      <c r="R6" s="13">
-        <v>4.5</v>
       </c>
       <c r="S6" s="13">
         <v>5</v>
@@ -2555,13 +2686,13 @@
       </c>
       <c r="V6" s="15">
         <f>U6*0.7+L6*5*0.3</f>
-        <v>4.5353141332351647</v>
+        <v>4.612892061144092</v>
       </c>
       <c r="W6" s="12">
-        <v>0.92001099501332539</v>
+        <v>1</v>
       </c>
       <c r="X6" s="12">
-        <v>0.95835141006207936</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="11">
         <v>1</v>
@@ -2572,1273 +2703,1369 @@
       <c r="AA6" s="26">
         <v>1</v>
       </c>
-      <c r="AB6" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC6">
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="27">
         <v>1.1830417227085015</v>
       </c>
-      <c r="AD6" s="35"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI6" s="103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36">
+        <v>2206464</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="58">
+        <v>0.67877199547434519</v>
+      </c>
+      <c r="H7" s="57">
+        <v>0.73938310241610217</v>
+      </c>
+      <c r="I7" s="59">
+        <v>1</v>
+      </c>
+      <c r="J7" s="58">
+        <f>0.054386574/$J$1</f>
+        <v>0.95858833001016097</v>
+      </c>
+      <c r="K7" s="58">
+        <f>0.0365972222/$K$1</f>
+        <v>0.71104115084338837</v>
+      </c>
+      <c r="L7" s="60">
+        <f>AVERAGE(F7:K7)</f>
+        <v>0.84796409645733284</v>
+      </c>
+      <c r="M7" s="61">
+        <v>1</v>
+      </c>
+      <c r="N7" s="37" t="str" cm="1">
+        <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="R7" s="13">
+        <v>5</v>
+      </c>
+      <c r="S7" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T7" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="U7" s="14">
+        <f>AVERAGE(P7:T7)</f>
+        <v>4</v>
+      </c>
+      <c r="V7" s="15">
+        <f>U7*0.7+L7*5*0.3</f>
+        <v>4.0719461446859988</v>
+      </c>
+      <c r="W7" s="12">
+        <v>1</v>
+      </c>
+      <c r="X7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="76">
+        <v>1.1397039030838965</v>
+      </c>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="104"/>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>2200833</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="87">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0.62448521151385872</v>
+      </c>
+      <c r="H8" s="87">
+        <v>0.71904336171365091</v>
+      </c>
+      <c r="I8" s="89">
+        <v>1</v>
+      </c>
+      <c r="J8" s="88">
+        <f>0.0503125/$J$1</f>
+        <v>0.88678090577347679</v>
+      </c>
+      <c r="K8" s="88">
+        <f>0.0374652778/$K$1</f>
+        <v>0.72790645415649191</v>
+      </c>
+      <c r="L8" s="90">
+        <f>AVERAGE(F8:K8)</f>
+        <v>0.8208137666373575</v>
+      </c>
+      <c r="M8" s="53">
+        <v>2</v>
+      </c>
+      <c r="N8" s="37" t="str" cm="1">
+        <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="S8" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T8" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="U8" s="14">
+        <f>AVERAGE(P8:T8)</f>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="V8" s="15">
+        <f>U8*0.7+L8*5*0.3</f>
+        <v>3.5832206499560364</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0.41671247935178818</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0.78264642075010771</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0.48466947955898315</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>0.64256581383251687</v>
+      </c>
+      <c r="AB8" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC8">
+        <v>0.57631224762559774</v>
+      </c>
+      <c r="AH8" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI8" s="102" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36">
         <v>2170311</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E9" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F9" s="87">
         <v>0</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G9" s="88">
         <v>0</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H9" s="88">
         <v>0</v>
       </c>
-      <c r="I7" s="65">
-        <v>1</v>
-      </c>
-      <c r="J7" s="64">
+      <c r="I9" s="89">
+        <v>1</v>
+      </c>
+      <c r="J9" s="88">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K9" s="88">
         <f>0.0230902778/$K$1</f>
         <v>0.44861704559111432</v>
       </c>
-      <c r="L7" s="66">
-        <f>AVERAGE(F7:K7)</f>
+      <c r="L9" s="90">
+        <f>AVERAGE(F9:K9)</f>
         <v>0.24143617426518571</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M9" s="53">
         <v>2</v>
       </c>
-      <c r="N7" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" s="16" t="s">
+      <c r="N9" s="37" t="str" cm="1">
+        <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P9" s="13">
         <v>0</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q9" s="13">
         <v>0</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R9" s="13">
         <v>4.3</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S9" s="13">
         <v>5</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T9" s="13">
         <v>2</v>
       </c>
-      <c r="U7" s="14">
-        <f>AVERAGE(P7:T7)</f>
+      <c r="U9" s="14">
+        <f>AVERAGE(P9:T9)</f>
         <v>2.2600000000000002</v>
       </c>
-      <c r="V7" s="15">
-        <f>U7*0.7+L7*5*0.3</f>
+      <c r="V9" s="15">
+        <f>U9*0.7+L9*5*0.3</f>
         <v>1.9441542613977787</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W9" s="12">
         <v>0.78944474988308111</v>
       </c>
-      <c r="X7" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="11">
+      <c r="X9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="11">
         <v>0.29620253157125481</v>
       </c>
-      <c r="Z7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="16" t="s">
+      <c r="Z9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="AC7" s="28">
+      <c r="AC9" s="28">
         <v>1.0522207268030783</v>
       </c>
-      <c r="AD7" s="34" t="s">
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="27" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="AI9" s="103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
         <v>2210177</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="45">
-        <v>1</v>
-      </c>
-      <c r="G8" s="46">
+      <c r="F10" s="47">
+        <v>1</v>
+      </c>
+      <c r="G10" s="48">
         <v>0.69337326840732949</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H10" s="47">
         <v>0.73983012964877437</v>
       </c>
-      <c r="I8" s="47">
-        <v>1</v>
-      </c>
-      <c r="J8" s="46">
+      <c r="I10" s="49">
+        <v>1</v>
+      </c>
+      <c r="J10" s="48">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K10" s="48">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L8" s="48">
-        <f>AVERAGE(F8:K8)</f>
+      <c r="L10" s="50">
+        <f>AVERAGE(F10:K10)</f>
         <v>0.85485712522977619</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M10" s="51">
         <v>3</v>
       </c>
-      <c r="N8" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O8" s="16" t="s">
+      <c r="N10" s="37" t="str" cm="1">
+        <f t="array" ref="N10">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P10" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q10" s="13">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R10" s="13">
         <v>5</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S10" s="13">
         <v>3.3</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T10" s="13">
         <v>3.6</v>
       </c>
-      <c r="U8" s="14">
-        <f>AVERAGE(P8:T8)</f>
+      <c r="U10" s="14">
+        <f>AVERAGE(P10:T10)</f>
         <v>4.24</v>
       </c>
-      <c r="V8" s="15">
-        <f>U8*0.7+L8*5*0.3</f>
+      <c r="V10" s="15">
+        <f>U10*0.7+L10*5*0.3</f>
         <v>4.2502856878446647</v>
       </c>
-      <c r="W8" s="12">
-        <v>1</v>
-      </c>
-      <c r="X8" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="28" t="s">
+      <c r="W10" s="12">
+        <v>1</v>
+      </c>
+      <c r="X10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC10" s="16">
         <v>1.1830417227085015</v>
       </c>
-      <c r="AD8" s="36" t="s">
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="77" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="AI10" s="105" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36">
+        <v>2210955</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" s="58">
+        <v>0.66248596035680685</v>
+      </c>
+      <c r="H11" s="57">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I11" s="59">
+        <v>1</v>
+      </c>
+      <c r="J11" s="58">
+        <f>0.053993056/$J$1</f>
+        <v>0.95165239463668183</v>
+      </c>
+      <c r="K11" s="58">
+        <f>0.0346412037/$K$1</f>
+        <v>0.67303800301674921</v>
+      </c>
+      <c r="L11" s="60">
+        <f>AVERAGE(F11:K11)</f>
+        <v>0.78231611133537848</v>
+      </c>
+      <c r="M11" s="61">
+        <v>3</v>
+      </c>
+      <c r="N11" s="37" t="str" cm="1">
+        <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="R11" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="S11" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T11" s="13">
+        <v>5</v>
+      </c>
+      <c r="U11" s="14">
+        <f>AVERAGE(P11:T11)</f>
+        <v>4.46</v>
+      </c>
+      <c r="V11" s="15">
+        <f>U11*0.7+L11*5*0.3</f>
+        <v>4.2954741670030678</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1</v>
+      </c>
+      <c r="X11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC11" s="27">
+        <v>1.1830417227085015</v>
+      </c>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI11" s="103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>2216295</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="88">
+        <v>0.60857356797981244</v>
+      </c>
+      <c r="H12" s="87">
+        <v>0.71881984802705978</v>
+      </c>
+      <c r="I12" s="89">
+        <v>1</v>
+      </c>
+      <c r="J12" s="88">
+        <f>0.04931713/$J$1</f>
+        <v>0.86923705265189177</v>
+      </c>
+      <c r="K12" s="88">
+        <f>0.0337384259/$K$1</f>
+        <v>0.65549808803741338</v>
+      </c>
+      <c r="L12" s="90">
+        <f>AVERAGE(F12:K12)</f>
+        <v>0.79202142611602966</v>
+      </c>
+      <c r="M12" s="53">
+        <v>4</v>
+      </c>
+      <c r="N12" s="37" t="str" cm="1">
+        <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R12" s="13">
+        <v>5</v>
+      </c>
+      <c r="S12" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T12" s="13">
+        <v>5</v>
+      </c>
+      <c r="U12" s="14">
+        <f>AVERAGE(P12:T12)</f>
+        <v>4.58</v>
+      </c>
+      <c r="V12" s="15">
+        <f>U12*0.7+L12*5*0.3</f>
+        <v>4.394032139174044</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0.9145134689971629</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0.31496746201916759</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0.80196905770117399</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>1.0823687751934423</v>
+      </c>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI12" s="105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>2215280</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="39">
+        <v>1</v>
+      </c>
+      <c r="G13" s="40">
+        <v>0.68494945713152144</v>
+      </c>
+      <c r="H13" s="39">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I13" s="41">
+        <v>1</v>
+      </c>
+      <c r="J13" s="40">
+        <f>0.050578704/$J$1</f>
+        <v>0.89147287346024495</v>
+      </c>
+      <c r="K13" s="40">
+        <f>0.0334606481/$K$1</f>
+        <v>0.65010119082178952</v>
+      </c>
+      <c r="L13" s="42">
+        <f>AVERAGE(F13:K13)</f>
+        <v>0.82776286079148698</v>
+      </c>
+      <c r="M13" s="53">
+        <v>4</v>
+      </c>
+      <c r="N13" s="37" t="str" cm="1">
+        <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>4</v>
+      </c>
+      <c r="R13" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="S13" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T13" s="13">
+        <v>5</v>
+      </c>
+      <c r="U13" s="14">
+        <f>AVERAGE(P13:T13)</f>
+        <v>4.32</v>
+      </c>
+      <c r="V13" s="15">
+        <f>U13*0.7+L13*5*0.3</f>
+        <v>4.2656442911872308</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>1.1305518168384801</v>
+      </c>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI13" s="103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
+        <v>2210166</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G14" s="88">
+        <v>0.65293897421284319</v>
+      </c>
+      <c r="H14" s="87">
+        <v>0.70183281192092528</v>
+      </c>
+      <c r="I14" s="89">
+        <v>1</v>
+      </c>
+      <c r="J14" s="88">
+        <f>0.049803241/$J$1</f>
+        <v>0.87780498215025593</v>
+      </c>
+      <c r="K14" s="88">
+        <f>0.0357291667/$K$1</f>
+        <v>0.69417584947316768</v>
+      </c>
+      <c r="L14" s="90">
+        <f>AVERAGE(F14:K14)</f>
+        <v>0.80723654740397643</v>
+      </c>
+      <c r="M14" s="53">
+        <v>4</v>
+      </c>
+      <c r="N14" s="37" t="str" cm="1">
+        <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="R14" s="13">
+        <v>4</v>
+      </c>
+      <c r="S14" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T14" s="13">
+        <v>5</v>
+      </c>
+      <c r="U14" s="14">
+        <f>AVERAGE(P14:T14)</f>
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="V14" s="15">
+        <f>U14*0.7+L14*5*0.3</f>
+        <v>4.1648548211059646</v>
+      </c>
+      <c r="W14" s="12">
+        <v>0.734469488684663</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0.60260303672111848</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>0.82447257383130579</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="74">
+        <v>1.0960969043923496</v>
+      </c>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="34"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>2210005</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G15" s="48">
+        <v>0.64002246358209225</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0.73245417967738757</v>
+      </c>
+      <c r="I15" s="49">
+        <v>1</v>
+      </c>
+      <c r="J15" s="48">
+        <f>0.048715278/$J$1</f>
+        <v>0.8586291349037859</v>
+      </c>
+      <c r="K15" s="48">
+        <f>0.0339467593/$K$1</f>
+        <v>0.65954576192057257</v>
+      </c>
+      <c r="L15" s="50">
+        <f>AVERAGE(F15:K15)</f>
+        <v>0.80955303445841753</v>
+      </c>
+      <c r="M15" s="51">
+        <v>5</v>
+      </c>
+      <c r="N15" s="37" t="str" cm="1">
+        <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R15" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="S15" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T15" s="13">
+        <v>5</v>
+      </c>
+      <c r="U15" s="14">
+        <f>AVERAGE(P15:T15)</f>
+        <v>4.38</v>
+      </c>
+      <c r="V15" s="15">
+        <f>U15*0.7+L15*5*0.3</f>
+        <v>4.2803295516876263</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0.13304013194119671</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0.88973277078552115</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0.73346560870442812</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>1.0934051143998</v>
+      </c>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI15" s="106" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>2211671</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0.5979034070853726</v>
+      </c>
+      <c r="H16" s="39">
+        <v>0.71099687082300078</v>
+      </c>
+      <c r="I16" s="41">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40">
+        <f>0.050231481/$J$1</f>
+        <v>0.8853529087110199</v>
+      </c>
+      <c r="K16" s="40">
+        <f>0.0268865741/$K$1</f>
+        <v>0.52237463504265735</v>
+      </c>
+      <c r="L16" s="42">
+        <f>AVERAGE(F16:K16)</f>
+        <v>0.78054908138811963</v>
+      </c>
+      <c r="M16" s="53">
+        <v>5</v>
+      </c>
+      <c r="N16" s="37" t="str" cm="1">
+        <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="R16" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="S16" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="T16" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U16" s="14">
+        <f>AVERAGE(P16:T16)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V16" s="15">
+        <f>U16*0.7+L16*5*0.3</f>
+        <v>4.138823622082179</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0.874106651948934</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0.78047722339159897</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>0.93895921243070513</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC16" s="29">
+        <v>0.26298788697633846</v>
+      </c>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI16" s="103" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36">
+        <v>2211352</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.66585548484359414</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I17" s="59">
+        <v>1</v>
+      </c>
+      <c r="J17" s="58">
+        <f>0.049791667/$J$1</f>
+        <v>0.87760098508782769</v>
+      </c>
+      <c r="K17" s="58">
+        <f>0.0328703704/$K$1</f>
+        <v>0.6386327866671927</v>
+      </c>
+      <c r="L17" s="60">
+        <f>AVERAGE(F17:K17)</f>
+        <v>0.80091270554455229</v>
+      </c>
+      <c r="M17" s="61">
+        <v>5</v>
+      </c>
+      <c r="N17" s="37" t="str" cm="1">
+        <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="R17" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="S17" s="13">
+        <v>5</v>
+      </c>
+      <c r="T17" s="13">
+        <v>2</v>
+      </c>
+      <c r="U17" s="14">
+        <f>AVERAGE(P17:T17)</f>
+        <v>3.7400000000000007</v>
+      </c>
+      <c r="V17" s="15">
+        <f>U17*0.7+L17*5*0.3</f>
+        <v>3.8193690583168287</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0.45959318321096959</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0.9657266810264632</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0.46638537263693858</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="74">
+        <v>1.0751009420781845</v>
+      </c>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI17" s="106"/>
+    </row>
+    <row r="18" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
         <v>2201757</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D18" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="45">
-        <v>1</v>
-      </c>
-      <c r="G9" s="46">
+      <c r="F18" s="47">
+        <v>1</v>
+      </c>
+      <c r="G18" s="48">
         <v>0.67596405842163554</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H18" s="47">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I9" s="47">
-        <v>1</v>
-      </c>
-      <c r="J9" s="46">
+      <c r="I18" s="49">
+        <v>1</v>
+      </c>
+      <c r="J18" s="48">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K18" s="48">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L9" s="48">
-        <f>AVERAGE(F9:K9)</f>
+      <c r="L18" s="50">
+        <f>AVERAGE(F18:K18)</f>
         <v>0.69222812084489893</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M18" s="51">
         <v>6</v>
       </c>
-      <c r="N9" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O9" s="16" t="s">
+      <c r="N18" s="37" t="str" cm="1">
+        <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P18" s="13">
         <v>4</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q18" s="13">
         <v>3.6</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R18" s="13">
         <v>0</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S18" s="13">
         <v>0</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T18" s="13">
         <v>0</v>
       </c>
-      <c r="U9" s="14">
-        <f>AVERAGE(P9:T9)</f>
+      <c r="U18" s="14">
+        <f>AVERAGE(P18:T18)</f>
         <v>1.52</v>
       </c>
-      <c r="V9" s="15">
-        <f>U9*0.7+L9*5*0.3</f>
+      <c r="V18" s="15">
+        <f>U18*0.7+L18*5*0.3</f>
         <v>2.102342181267348</v>
       </c>
-      <c r="W9" s="12">
-        <v>1</v>
-      </c>
-      <c r="X9" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="12">
+      <c r="W18" s="12">
+        <v>1</v>
+      </c>
+      <c r="X18" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="12">
         <v>0.87863756623470268</v>
       </c>
-      <c r="AA9" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="90" t="s">
+      <c r="AA18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="AC9" s="28">
+      <c r="AC18" s="93">
         <v>1.0880215342454835</v>
       </c>
-      <c r="AD9" s="34" t="s">
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="99" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
-        <v>2175459</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="52" t="s">
+      <c r="AI18" s="96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>2200689</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="53">
-        <v>0</v>
-      </c>
-      <c r="G10" s="54">
-        <v>0</v>
-      </c>
-      <c r="H10" s="54">
-        <v>0</v>
-      </c>
-      <c r="I10" s="55">
-        <v>1</v>
-      </c>
-      <c r="J10" s="54">
-        <f>0/$J$1</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="54">
-        <f>0/$K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="56">
-        <f>AVERAGE(F10:K10)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M10" s="57">
-        <v>0</v>
-      </c>
-      <c r="N10" s="43" t="e">
-        <f ca="1">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O10" s="93"/>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0</v>
-      </c>
-      <c r="S10" s="13">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="14">
-        <f>AVERAGE(P10:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
-        <f>U10*0.7+L10*5*0.3</f>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="W10" s="12">
-        <v>0</v>
-      </c>
-      <c r="X10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="99">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="97"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
-        <v>2210005</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="63">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G11" s="64">
-        <v>0.64002246358209225</v>
-      </c>
-      <c r="H11" s="63">
-        <v>0.73245417967738757</v>
-      </c>
-      <c r="I11" s="65">
-        <v>1</v>
-      </c>
-      <c r="J11" s="64">
-        <f>0.048715278/$J$1</f>
-        <v>0.8586291349037859</v>
-      </c>
-      <c r="K11" s="64">
-        <f>0.0339467593/$K$1</f>
-        <v>0.65954576192057257</v>
-      </c>
-      <c r="L11" s="66">
-        <f>AVERAGE(F11:K11)</f>
-        <v>0.80955303445841753</v>
-      </c>
-      <c r="M11" s="67">
-        <v>5</v>
-      </c>
-      <c r="N11" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R11" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="S11" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="T11" s="13">
-        <v>5</v>
-      </c>
-      <c r="U11" s="14">
-        <f>AVERAGE(P11:T11)</f>
-        <v>4.38</v>
-      </c>
-      <c r="V11" s="15">
-        <f>U11*0.7+L11*5*0.3</f>
-        <v>4.2803295516876263</v>
-      </c>
-      <c r="W11" s="12">
-        <v>0.13304013194119671</v>
-      </c>
-      <c r="X11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0.88973277078552115</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>0.73346560870442812</v>
-      </c>
-      <c r="AA11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC11" s="16">
-        <v>1.0934051143998</v>
-      </c>
-      <c r="AD11" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
-        <v>2211671</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="45">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G12" s="46">
-        <v>0.5979034070853726</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0.71099687082300078</v>
-      </c>
-      <c r="I12" s="47">
-        <v>1</v>
-      </c>
-      <c r="J12" s="46">
-        <f>0.050231481/$J$1</f>
-        <v>0.8853529087110199</v>
-      </c>
-      <c r="K12" s="46">
-        <f>0.0268865741/$K$1</f>
-        <v>0.52237463504265735</v>
-      </c>
-      <c r="L12" s="48">
-        <f>AVERAGE(F12:K12)</f>
-        <v>0.78054908138811963</v>
-      </c>
-      <c r="M12" s="59">
-        <v>5</v>
-      </c>
-      <c r="N12" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>3.8</v>
-      </c>
-      <c r="R12" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="S12" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="T12" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U12" s="14">
-        <f>AVERAGE(P12:T12)</f>
-        <v>4.24</v>
-      </c>
-      <c r="V12" s="15">
-        <f>U12*0.7+L12*5*0.3</f>
-        <v>4.138823622082179</v>
-      </c>
-      <c r="W12" s="12">
-        <v>0.874106651948934</v>
-      </c>
-      <c r="X12" s="12">
-        <v>0.78047722339159897</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>0.93895921243070513</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC12" s="88">
-        <v>0.26298788697633846</v>
-      </c>
-      <c r="AD12" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>2210261</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="45">
-        <v>1</v>
-      </c>
-      <c r="G13" s="46">
-        <v>0.65275177836225751</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I13" s="47">
-        <v>1</v>
-      </c>
-      <c r="J13" s="46">
-        <f>0.051053241/$J$1</f>
-        <v>0.89983680589618087</v>
-      </c>
-      <c r="K13" s="46">
-        <f>0.0312384259/$K$1</f>
-        <v>0.6069260169825651</v>
-      </c>
-      <c r="L13" s="48">
-        <f>AVERAGE(F13:K13)</f>
-        <v>0.81659470742939488</v>
-      </c>
-      <c r="M13" s="59">
-        <v>1</v>
-      </c>
-      <c r="N13" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R13" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="S13" s="13">
-        <v>5</v>
-      </c>
-      <c r="T13" s="13">
-        <v>5</v>
-      </c>
-      <c r="U13" s="14">
-        <f>AVERAGE(P13:T13)</f>
-        <v>4.84</v>
-      </c>
-      <c r="V13" s="15">
-        <f>U13*0.7+L13*5*0.3</f>
-        <v>4.612892061144092</v>
-      </c>
-      <c r="W13" s="12">
-        <v>1</v>
-      </c>
-      <c r="X13" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="27">
-        <v>1.1830417227085015</v>
-      </c>
-      <c r="AD13" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
-        <v>2200689</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="E19" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="45">
-        <v>1</v>
-      </c>
-      <c r="G14" s="46">
+      <c r="F19" s="57">
+        <v>1</v>
+      </c>
+      <c r="G19" s="58">
         <v>0.46593036325443599</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H19" s="57">
         <v>0.62650871710347011</v>
       </c>
-      <c r="I14" s="47">
-        <v>1</v>
-      </c>
-      <c r="J14" s="46">
+      <c r="I19" s="59">
+        <v>1</v>
+      </c>
+      <c r="J19" s="58">
         <f>0.018946759/$J$1</f>
         <v>0.33394532387561288</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K19" s="58">
         <f>0.0009027778/$K$1</f>
         <v>1.7539914979335842E-2</v>
       </c>
-      <c r="L14" s="48">
-        <f>AVERAGE(F14:K14)</f>
+      <c r="L19" s="60">
+        <f>AVERAGE(F19:K19)</f>
         <v>0.57398738653547587</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M19" s="61">
         <v>6</v>
       </c>
-      <c r="N14" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O14" s="16" t="s">
+      <c r="N19" s="37" t="str" cm="1">
+        <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13">
-        <v>0</v>
-      </c>
-      <c r="S14" s="13">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13">
-        <v>5</v>
-      </c>
-      <c r="U14" s="14">
-        <f>AVERAGE(P14:T14)</f>
-        <v>2</v>
-      </c>
-      <c r="V14" s="15">
-        <f>U14*0.7+L14*5*0.3</f>
-        <v>2.2609810798032139</v>
-      </c>
-      <c r="W14" s="12">
-        <v>1</v>
-      </c>
-      <c r="X14" s="12">
-        <v>0.3002169198176699</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>0.53373015861507977</v>
-      </c>
-      <c r="AA14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC14" s="89">
-        <v>0.74751009409613423</v>
-      </c>
-      <c r="AD14" s="40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
-        <v>2206464</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="53">
-        <v>1</v>
-      </c>
-      <c r="G15" s="54">
-        <v>0.67877199547434519</v>
-      </c>
-      <c r="H15" s="53">
-        <v>0.73938310241610217</v>
-      </c>
-      <c r="I15" s="55">
-        <v>1</v>
-      </c>
-      <c r="J15" s="54">
-        <f>0.054386574/$J$1</f>
-        <v>0.95858833001016097</v>
-      </c>
-      <c r="K15" s="54">
-        <f>0.0365972222/$K$1</f>
-        <v>0.71104115084338837</v>
-      </c>
-      <c r="L15" s="56">
-        <f>AVERAGE(F15:K15)</f>
-        <v>0.84796409645733284</v>
-      </c>
-      <c r="M15" s="57">
-        <v>1</v>
-      </c>
-      <c r="N15" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="R15" s="13">
-        <v>5</v>
-      </c>
-      <c r="S15" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="T15" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="U15" s="14">
-        <f>AVERAGE(P15:T15)</f>
-        <v>4</v>
-      </c>
-      <c r="V15" s="15">
-        <f>U15*0.7+L15*5*0.3</f>
-        <v>4.0719461446859988</v>
-      </c>
-      <c r="W15" s="12">
-        <v>1</v>
-      </c>
-      <c r="X15" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>1.1397039030838965</v>
-      </c>
-      <c r="AD15" s="98"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
-        <v>2215280</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="45">
-        <v>1</v>
-      </c>
-      <c r="G16" s="46">
-        <v>0.68494945713152144</v>
-      </c>
-      <c r="H16" s="45">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I16" s="47">
-        <v>1</v>
-      </c>
-      <c r="J16" s="46">
-        <f>0.050578704/$J$1</f>
-        <v>0.89147287346024495</v>
-      </c>
-      <c r="K16" s="46">
-        <f>0.0334606481/$K$1</f>
-        <v>0.65010119082178952</v>
-      </c>
-      <c r="L16" s="48">
-        <f>AVERAGE(F16:K16)</f>
-        <v>0.82776286079148698</v>
-      </c>
-      <c r="M16" s="59">
-        <v>4</v>
-      </c>
-      <c r="N16" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>4</v>
-      </c>
-      <c r="R16" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="S16" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="T16" s="13">
-        <v>5</v>
-      </c>
-      <c r="U16" s="14">
-        <f>AVERAGE(P16:T16)</f>
-        <v>4.32</v>
-      </c>
-      <c r="V16" s="15">
-        <f>U16*0.7+L16*5*0.3</f>
-        <v>4.2656442911872308</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0</v>
-      </c>
-      <c r="X16" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC16" s="27">
-        <v>1.1305518168384801</v>
-      </c>
-      <c r="AD16" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
-        <v>2210166</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="63">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G17" s="64">
-        <v>0.65293897421284319</v>
-      </c>
-      <c r="H17" s="63">
-        <v>0.70183281192092528</v>
-      </c>
-      <c r="I17" s="65">
-        <v>1</v>
-      </c>
-      <c r="J17" s="64">
-        <f>0.049803241/$J$1</f>
-        <v>0.87780498215025593</v>
-      </c>
-      <c r="K17" s="64">
-        <f>0.0357291667/$K$1</f>
-        <v>0.69417584947316768</v>
-      </c>
-      <c r="L17" s="66">
-        <f>AVERAGE(F17:K17)</f>
-        <v>0.80723654740397643</v>
-      </c>
-      <c r="M17" s="67">
-        <v>4</v>
-      </c>
-      <c r="N17" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>3.8</v>
-      </c>
-      <c r="R17" s="13">
-        <v>4</v>
-      </c>
-      <c r="S17" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="T17" s="13">
-        <v>5</v>
-      </c>
-      <c r="U17" s="14">
-        <f>AVERAGE(P17:T17)</f>
-        <v>4.2200000000000006</v>
-      </c>
-      <c r="V17" s="15">
-        <f>U17*0.7+L17*5*0.3</f>
-        <v>4.1648548211059646</v>
-      </c>
-      <c r="W17" s="12">
-        <v>0.734469488684663</v>
-      </c>
-      <c r="X17" s="12">
-        <v>0.60260303672111848</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>0.82447257383130579</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="89">
-        <v>1.0960969043923496</v>
-      </c>
-      <c r="AD17" s="39"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
-        <v>2211352</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="53">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="G18" s="54">
-        <v>0.66585548484359414</v>
-      </c>
-      <c r="H18" s="53">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I18" s="55">
-        <v>1</v>
-      </c>
-      <c r="J18" s="54">
-        <f>0.049791667/$J$1</f>
-        <v>0.87760098508782769</v>
-      </c>
-      <c r="K18" s="54">
-        <f>0.0328703704/$K$1</f>
-        <v>0.6386327866671927</v>
-      </c>
-      <c r="L18" s="56">
-        <f>AVERAGE(F18:K18)</f>
-        <v>0.80091270554455229</v>
-      </c>
-      <c r="M18" s="57">
-        <v>5</v>
-      </c>
-      <c r="N18" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>3.8</v>
-      </c>
-      <c r="R18" s="13">
-        <v>2.9</v>
-      </c>
-      <c r="S18" s="13">
-        <v>5</v>
-      </c>
-      <c r="T18" s="13">
-        <v>2</v>
-      </c>
-      <c r="U18" s="14">
-        <f>AVERAGE(P18:T18)</f>
-        <v>3.7400000000000007</v>
-      </c>
-      <c r="V18" s="15">
-        <f>U18*0.7+L18*5*0.3</f>
-        <v>3.8193690583168287</v>
-      </c>
-      <c r="W18" s="12">
-        <v>0.45959318321096959</v>
-      </c>
-      <c r="X18" s="12">
-        <v>0.9657266810264632</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>0.46638537263693858</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="90">
-        <v>1.0751009420781845</v>
-      </c>
-      <c r="AD18" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
-        <v>2210955</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="63">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G19" s="64">
-        <v>0.66248596035680685</v>
-      </c>
-      <c r="H19" s="63">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I19" s="65">
-        <v>1</v>
-      </c>
-      <c r="J19" s="64">
-        <f>0.053993056/$J$1</f>
-        <v>0.95165239463668183</v>
-      </c>
-      <c r="K19" s="64">
-        <f>0.0346412037/$K$1</f>
-        <v>0.67303800301674921</v>
-      </c>
-      <c r="L19" s="66">
-        <f>AVERAGE(F19:K19)</f>
-        <v>0.78231611133537848</v>
-      </c>
-      <c r="M19" s="67">
-        <v>3</v>
-      </c>
-      <c r="N19" s="43" t="e" cm="1">
-        <f t="array" aca="1" ref="N19" ca="1">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="P19" s="13">
         <v>5</v>
       </c>
       <c r="Q19" s="13">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S19" s="13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T19" s="13">
         <v>5</v>
       </c>
       <c r="U19" s="14">
         <f>AVERAGE(P19:T19)</f>
-        <v>4.46</v>
+        <v>2</v>
       </c>
       <c r="V19" s="15">
         <f>U19*0.7+L19*5*0.3</f>
-        <v>4.2954741670030678</v>
+        <v>2.2609810798032139</v>
       </c>
       <c r="W19" s="12">
         <v>1</v>
       </c>
       <c r="X19" s="12">
-        <v>1</v>
+        <v>0.3002169198176699</v>
       </c>
       <c r="Y19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="12">
-        <v>1</v>
+        <v>0.53373015861507977</v>
       </c>
       <c r="AA19" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC19" s="91">
-        <v>1.1830417227085015</v>
-      </c>
-      <c r="AD19" s="40" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="AC19" s="74">
+        <v>0.74751009409613423</v>
+      </c>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI19" s="97" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AD3">
-    <sortState ref="A4:AE19">
-      <sortCondition ref="B3"/>
+  <autoFilter ref="A3:AH3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AH19">
+      <sortCondition ref="M3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -3846,51 +4073,56 @@
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="AB19" r:id="rId16"/>
-    <hyperlink ref="AB7" r:id="rId17"/>
-    <hyperlink ref="AB16" r:id="rId18"/>
-    <hyperlink ref="AB14" r:id="rId19"/>
-    <hyperlink ref="AD13" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI"/>
-    <hyperlink ref="AD4" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ"/>
-    <hyperlink ref="AD7" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB"/>
-    <hyperlink ref="AD8" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL"/>
-    <hyperlink ref="AD19" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI"/>
-    <hyperlink ref="AD5" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS"/>
-    <hyperlink ref="AD16" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq"/>
-    <hyperlink ref="AD11" r:id="rId27"/>
-    <hyperlink ref="AD12" r:id="rId28"/>
-    <hyperlink ref="AD18" r:id="rId29"/>
-    <hyperlink ref="AD9" r:id="rId30"/>
-    <hyperlink ref="AD14" r:id="rId31"/>
+    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AB11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AB9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AB13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AB19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AH6" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AH8" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AH9" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AH10" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AH11" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AH12" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AH13" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AH15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AH16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AH17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AH18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AH19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AI9" r:id="rId32" xr:uid="{6896AEE3-CCAE-441E-8338-DB2A13611660}"/>
+    <hyperlink ref="AI11" r:id="rId33" xr:uid="{01A008F1-0242-4024-87E3-9A8B540C2CCC}"/>
+    <hyperlink ref="AI13" r:id="rId34" xr:uid="{19AA5552-F4CD-483E-91F6-DA84173E5E6D}"/>
+    <hyperlink ref="AI6" r:id="rId35" xr:uid="{A7BD598F-E973-4BB4-94EC-791694976E3C}"/>
+    <hyperlink ref="AI19" r:id="rId36" xr:uid="{12CB22FB-B9C5-4547-B12D-F78701EB6012}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -3948,14 +4180,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -4189,35 +4421,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="16.85546875" customWidth="1"/>
@@ -4231,18 +4463,18 @@
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10">

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED4610-1C14-45B5-8B0C-903C1B8EC45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7193B765-357F-440F-8E0E-5683B1E67DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="189">
   <si>
     <t>CODIGO</t>
   </si>
@@ -612,6 +612,24 @@
   </si>
   <si>
     <t>Gesto Asignado</t>
+  </si>
+  <si>
+    <t>A [fs]</t>
+  </si>
+  <si>
+    <t>B [years]</t>
+  </si>
+  <si>
+    <t>C [load]</t>
+  </si>
+  <si>
+    <t>D [years]</t>
+  </si>
+  <si>
+    <t>E [fs]</t>
+  </si>
+  <si>
+    <t>F [load]</t>
   </si>
 </sst>
 </file>
@@ -625,7 +643,7 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,6 +805,13 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1006,7 +1031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1277,43 +1302,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1567,16 +1555,144 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1625,7 +1741,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,14 +1818,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1727,105 +1842,113 @@
     <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1850,51 +1973,83 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2217,24 +2372,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="3" customWidth="1"/>
     <col min="14" max="14" width="81.28515625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" hidden="1" customWidth="1"/>
@@ -2254,10 +2411,10 @@
     <col min="29" max="30" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="31" max="33" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="126.5703125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="34.28515625" customWidth="1"/>
+    <col min="35" max="35" width="34.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -2295,66 +2452,66 @@
         <v>4.2997685188311201E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="78" t="s">
+    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="P2" s="79" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="P2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-    </row>
-    <row r="3" spans="1:35" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+    </row>
+    <row r="3" spans="1:41" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="70">
         <v>45685</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="70">
         <v>45692</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="70">
         <v>45699</v>
       </c>
-      <c r="I3" s="71">
+      <c r="I3" s="70">
         <v>45706</v>
       </c>
-      <c r="J3" s="71">
+      <c r="J3" s="70">
         <v>45713</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="70">
         <v>45720</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="67" t="s">
         <v>54</v>
       </c>
       <c r="O3" s="19" t="s">
@@ -2397,76 +2554,76 @@
         <v>45755</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="75">
+      <c r="AC3" s="74">
         <v>45776</v>
       </c>
-      <c r="AD3" s="75">
+      <c r="AD3" s="74">
         <v>45783</v>
       </c>
-      <c r="AE3" s="75">
+      <c r="AE3" s="74">
         <v>45790</v>
       </c>
-      <c r="AF3" s="75">
+      <c r="AF3" s="74">
         <v>45797</v>
       </c>
-      <c r="AG3" s="75">
+      <c r="AG3" s="74">
         <v>45802</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AH3" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+    <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35">
         <v>2175459</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="62">
         <v>0</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>0</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <v>0</v>
       </c>
-      <c r="I4" s="65">
-        <v>1</v>
-      </c>
-      <c r="J4" s="64">
+      <c r="I4" s="64">
+        <v>1</v>
+      </c>
+      <c r="J4" s="63">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="63">
         <f>0/$K$1</f>
         <v>0</v>
       </c>
-      <c r="L4" s="66">
-        <f>AVERAGE(F4:K4)</f>
+      <c r="L4" s="65">
+        <f t="shared" ref="L4:L19" si="0">AVERAGE(F4:K4)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="50">
         <v>0</v>
       </c>
-      <c r="N4" s="37" t="e">
+      <c r="N4" s="36" t="e">
         <f>_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
         <v>#N/A</v>
       </c>
-      <c r="O4" s="91"/>
+      <c r="O4" s="77"/>
       <c r="P4" s="13">
         <v>0</v>
       </c>
@@ -2483,11 +2640,11 @@
         <v>0</v>
       </c>
       <c r="U4" s="14">
-        <f>AVERAGE(P4:T4)</f>
+        <f t="shared" ref="U4:U19" si="1">AVERAGE(P4:T4)</f>
         <v>0</v>
       </c>
       <c r="V4" s="15">
-        <f>U4*0.7+L4*5*0.3</f>
+        <f t="shared" ref="V4:V19" si="2">U4*0.7+L4*5*0.3</f>
         <v>0.24999999999999997</v>
       </c>
       <c r="W4" s="12">
@@ -2505,7 +2662,6 @@
       <c r="AA4" s="26">
         <v>0</v>
       </c>
-      <c r="AB4" s="92"/>
       <c r="AC4" s="29">
         <v>0</v>
       </c>
@@ -2513,53 +2669,71 @@
       <c r="AE4" s="29"/>
       <c r="AF4" s="29"/>
       <c r="AG4" s="29"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="101"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK4" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL4" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM4" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN4" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO4" s="105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
         <v>2205127</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>0.98333333333333328</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="47">
         <v>0.58779483338965188</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="46">
         <v>0.60929816731074449</v>
       </c>
-      <c r="I5" s="49">
-        <v>1</v>
-      </c>
-      <c r="J5" s="48">
+      <c r="I5" s="48">
+        <v>1</v>
+      </c>
+      <c r="J5" s="47">
         <f>0.044756944/$J$1</f>
         <v>0.78886168129138434</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="47">
         <f>0.0319097222/$K$1</f>
         <v>0.61996851761554772</v>
       </c>
-      <c r="L5" s="50">
-        <f>AVERAGE(F5:K5)</f>
+      <c r="L5" s="49">
+        <f t="shared" si="0"/>
         <v>0.76487608882344349</v>
       </c>
-      <c r="M5" s="51">
-        <v>1</v>
-      </c>
-      <c r="N5" s="37" t="str" cm="1">
+      <c r="M5" s="50">
+        <v>1</v>
+      </c>
+      <c r="N5" s="36" t="str" cm="1">
         <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
@@ -2582,11 +2756,11 @@
         <v>5</v>
       </c>
       <c r="U5" s="14">
-        <f>AVERAGE(P5:T5)</f>
+        <f t="shared" si="1"/>
         <v>4.84</v>
       </c>
       <c r="V5" s="15">
-        <f>U5*0.7+L5*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.5353141332351647</v>
       </c>
       <c r="W5" s="12">
@@ -2610,55 +2784,73 @@
       <c r="AC5">
         <v>1.1830417227085015</v>
       </c>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="102" t="s">
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="97" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="AJ5" s="106">
+        <v>2.1</v>
+      </c>
+      <c r="AK5" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="91">
+        <v>1200</v>
+      </c>
+      <c r="AM5" s="91">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="91">
+        <v>1.97</v>
+      </c>
+      <c r="AO5" s="107">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35">
         <v>2210261</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="39">
-        <v>1</v>
-      </c>
-      <c r="G6" s="40">
+      <c r="F6" s="38">
+        <v>1</v>
+      </c>
+      <c r="G6" s="39">
         <v>0.65275177836225751</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I6" s="41">
-        <v>1</v>
-      </c>
-      <c r="J6" s="40">
+      <c r="I6" s="40">
+        <v>1</v>
+      </c>
+      <c r="J6" s="39">
         <f>0.051053241/$J$1</f>
         <v>0.89983680589618087</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="39">
         <f>0.0312384259/$K$1</f>
         <v>0.6069260169825651</v>
       </c>
-      <c r="L6" s="42">
-        <f>AVERAGE(F6:K6)</f>
+      <c r="L6" s="41">
+        <f t="shared" si="0"/>
         <v>0.81659470742939488</v>
       </c>
-      <c r="M6" s="53">
-        <v>1</v>
-      </c>
-      <c r="N6" s="37" t="str" cm="1">
+      <c r="M6" s="52">
+        <v>1</v>
+      </c>
+      <c r="N6" s="36" t="str" cm="1">
         <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
@@ -2681,11 +2873,11 @@
         <v>5</v>
       </c>
       <c r="U6" s="14">
-        <f>AVERAGE(P6:T6)</f>
+        <f t="shared" si="1"/>
         <v>4.84</v>
       </c>
       <c r="V6" s="15">
-        <f>U6*0.7+L6*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.612892061144092</v>
       </c>
       <c r="W6" s="12">
@@ -2714,54 +2906,60 @@
       <c r="AH6" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="AI6" s="103" t="s">
+      <c r="AI6" s="94" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="AJ6" s="108"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="109"/>
+    </row>
+    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35">
         <v>2206464</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="57">
-        <v>1</v>
-      </c>
-      <c r="G7" s="58">
+      <c r="F7" s="56">
+        <v>1</v>
+      </c>
+      <c r="G7" s="57">
         <v>0.67877199547434519</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="56">
         <v>0.73938310241610217</v>
       </c>
-      <c r="I7" s="59">
-        <v>1</v>
-      </c>
-      <c r="J7" s="58">
+      <c r="I7" s="58">
+        <v>1</v>
+      </c>
+      <c r="J7" s="57">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="57">
         <f>0.0365972222/$K$1</f>
         <v>0.71104115084338837</v>
       </c>
-      <c r="L7" s="60">
-        <f>AVERAGE(F7:K7)</f>
+      <c r="L7" s="59">
+        <f t="shared" si="0"/>
         <v>0.84796409645733284</v>
       </c>
-      <c r="M7" s="61">
-        <v>1</v>
-      </c>
-      <c r="N7" s="37" t="str" cm="1">
+      <c r="M7" s="60">
+        <v>1</v>
+      </c>
+      <c r="N7" s="36" t="str" cm="1">
         <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
         <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
       </c>
@@ -2784,11 +2982,11 @@
         <v>4.3</v>
       </c>
       <c r="U7" s="14">
-        <f>AVERAGE(P7:T7)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V7" s="15">
-        <f>U7*0.7+L7*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.0719461446859988</v>
       </c>
       <c r="W7" s="12">
@@ -2806,60 +3004,62 @@
       <c r="AA7" s="26">
         <v>1</v>
       </c>
-      <c r="AC7" s="76">
+      <c r="AC7" s="75">
         <v>1.1397039030838965</v>
       </c>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="104"/>
-    </row>
-    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="110"/>
+    </row>
+    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35">
         <v>2200833</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="38">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="39">
         <v>0.62448521151385872</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="38">
         <v>0.71904336171365091</v>
       </c>
-      <c r="I8" s="89">
-        <v>1</v>
-      </c>
-      <c r="J8" s="88">
+      <c r="I8" s="40">
+        <v>1</v>
+      </c>
+      <c r="J8" s="39">
         <f>0.0503125/$J$1</f>
         <v>0.88678090577347679</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="39">
         <f>0.0374652778/$K$1</f>
         <v>0.72790645415649191</v>
       </c>
-      <c r="L8" s="90">
-        <f>AVERAGE(F8:K8)</f>
+      <c r="L8" s="41">
+        <f t="shared" si="0"/>
         <v>0.8208137666373575</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="52">
         <v>2</v>
       </c>
-      <c r="N8" s="37" t="str" cm="1">
+      <c r="N8" s="36" t="str" cm="1">
         <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
         <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
       </c>
@@ -2882,11 +3082,11 @@
         <v>4.3</v>
       </c>
       <c r="U8" s="14">
-        <f>AVERAGE(P8:T8)</f>
+        <f t="shared" si="1"/>
         <v>3.3600000000000003</v>
       </c>
       <c r="V8" s="15">
-        <f>U8*0.7+L8*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.5832206499560364</v>
       </c>
       <c r="W8" s="12">
@@ -2910,57 +3110,75 @@
       <c r="AC8">
         <v>0.57631224762559774</v>
       </c>
-      <c r="AH8" s="77" t="s">
+      <c r="AH8" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="AI8" s="102" t="s">
+      <c r="AI8" s="97" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+      <c r="AJ8" s="106">
+        <v>1.9</v>
+      </c>
+      <c r="AK8" s="91">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="91">
+        <v>1350</v>
+      </c>
+      <c r="AM8" s="91">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="91">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AO8" s="107">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35">
         <v>2170311</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="38">
         <v>0</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="39">
         <v>0</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="39">
         <v>0</v>
       </c>
-      <c r="I9" s="89">
-        <v>1</v>
-      </c>
-      <c r="J9" s="88">
+      <c r="I9" s="40">
+        <v>1</v>
+      </c>
+      <c r="J9" s="39">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K9" s="88">
+      <c r="K9" s="39">
         <f>0.0230902778/$K$1</f>
         <v>0.44861704559111432</v>
       </c>
-      <c r="L9" s="90">
-        <f>AVERAGE(F9:K9)</f>
+      <c r="L9" s="41">
+        <f t="shared" si="0"/>
         <v>0.24143617426518571</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="52">
         <v>2</v>
       </c>
-      <c r="N9" s="37" t="str" cm="1">
+      <c r="N9" s="36" t="str" cm="1">
         <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
         <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
       </c>
@@ -2983,11 +3201,11 @@
         <v>2</v>
       </c>
       <c r="U9" s="14">
-        <f>AVERAGE(P9:T9)</f>
+        <f t="shared" si="1"/>
         <v>2.2600000000000002</v>
       </c>
       <c r="V9" s="15">
-        <f>U9*0.7+L9*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>1.9441542613977787</v>
       </c>
       <c r="W9" s="12">
@@ -3011,61 +3229,67 @@
       <c r="AC9" s="28">
         <v>1.0522207268030783</v>
       </c>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
       <c r="AH9" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AI9" s="103" t="s">
+      <c r="AI9" s="94" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="AJ9" s="108"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="109"/>
+    </row>
+    <row r="10" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
         <v>2210177</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="47">
-        <v>1</v>
-      </c>
-      <c r="G10" s="48">
+      <c r="F10" s="46">
+        <v>1</v>
+      </c>
+      <c r="G10" s="47">
         <v>0.69337326840732949</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <v>0.73983012964877437</v>
       </c>
-      <c r="I10" s="49">
-        <v>1</v>
-      </c>
-      <c r="J10" s="48">
+      <c r="I10" s="48">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="47">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L10" s="50">
-        <f>AVERAGE(F10:K10)</f>
+      <c r="L10" s="49">
+        <f t="shared" si="0"/>
         <v>0.85485712522977619</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="50">
         <v>3</v>
       </c>
-      <c r="N10" s="37" t="str" cm="1">
+      <c r="N10" s="36" t="str" cm="1">
         <f t="array" ref="N10">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
         <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
       </c>
@@ -3088,11 +3312,11 @@
         <v>3.6</v>
       </c>
       <c r="U10" s="14">
-        <f>AVERAGE(P10:T10)</f>
+        <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
       <c r="V10" s="15">
-        <f>U10*0.7+L10*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2502856878446647</v>
       </c>
       <c r="W10" s="12">
@@ -3120,57 +3344,75 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
-      <c r="AH10" s="77" t="s">
+      <c r="AH10" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="AI10" s="105" t="s">
+      <c r="AI10" s="99" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="AJ10" s="106">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AK10" s="91">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="91">
+        <v>1000</v>
+      </c>
+      <c r="AM10" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="91">
+        <v>2.35</v>
+      </c>
+      <c r="AO10" s="107">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
         <v>2210955</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="56">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="57">
         <v>0.66248596035680685</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I11" s="59">
-        <v>1</v>
-      </c>
-      <c r="J11" s="58">
+      <c r="I11" s="58">
+        <v>1</v>
+      </c>
+      <c r="J11" s="57">
         <f>0.053993056/$J$1</f>
         <v>0.95165239463668183</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="57">
         <f>0.0346412037/$K$1</f>
         <v>0.67303800301674921</v>
       </c>
-      <c r="L11" s="60">
-        <f>AVERAGE(F11:K11)</f>
+      <c r="L11" s="59">
+        <f t="shared" si="0"/>
         <v>0.78231611133537848</v>
       </c>
-      <c r="M11" s="61">
+      <c r="M11" s="60">
         <v>3</v>
       </c>
-      <c r="N11" s="37" t="str" cm="1">
+      <c r="N11" s="36" t="str" cm="1">
         <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
         <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
       </c>
@@ -3193,11 +3435,11 @@
         <v>5</v>
       </c>
       <c r="U11" s="14">
-        <f>AVERAGE(P11:T11)</f>
+        <f t="shared" si="1"/>
         <v>4.46</v>
       </c>
       <c r="V11" s="15">
-        <f>U11*0.7+L11*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2954741670030678</v>
       </c>
       <c r="W11" s="12">
@@ -3228,54 +3470,60 @@
       <c r="AH11" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="AI11" s="103" t="s">
+      <c r="AI11" s="94" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="110"/>
+    </row>
+    <row r="12" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>2216295</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="38">
         <v>0.9</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="39">
         <v>0.60857356797981244</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="38">
         <v>0.71881984802705978</v>
       </c>
-      <c r="I12" s="89">
-        <v>1</v>
-      </c>
-      <c r="J12" s="88">
+      <c r="I12" s="40">
+        <v>1</v>
+      </c>
+      <c r="J12" s="39">
         <f>0.04931713/$J$1</f>
         <v>0.86923705265189177</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="39">
         <f>0.0337384259/$K$1</f>
         <v>0.65549808803741338</v>
       </c>
-      <c r="L12" s="90">
-        <f>AVERAGE(F12:K12)</f>
+      <c r="L12" s="41">
+        <f t="shared" si="0"/>
         <v>0.79202142611602966</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="52">
         <v>4</v>
       </c>
-      <c r="N12" s="37" t="str" cm="1">
+      <c r="N12" s="36" t="str" cm="1">
         <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
@@ -3298,11 +3546,11 @@
         <v>5</v>
       </c>
       <c r="U12" s="14">
-        <f>AVERAGE(P12:T12)</f>
+        <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
       <c r="V12" s="15">
-        <f>U12*0.7+L12*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.394032139174044</v>
       </c>
       <c r="W12" s="12">
@@ -3330,57 +3578,75 @@
       <c r="AE12" s="29"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="29"/>
-      <c r="AH12" s="99" t="s">
+      <c r="AH12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="AI12" s="105" t="s">
+      <c r="AI12" s="99" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="AJ12" s="106">
+        <v>2.7</v>
+      </c>
+      <c r="AK12" s="91">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="91">
+        <v>1120</v>
+      </c>
+      <c r="AM12" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="91">
+        <v>1.98</v>
+      </c>
+      <c r="AO12" s="107">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>2215280</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="39">
-        <v>1</v>
-      </c>
-      <c r="G13" s="40">
+      <c r="F13" s="38">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39">
         <v>0.68494945713152144</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="38">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I13" s="41">
-        <v>1</v>
-      </c>
-      <c r="J13" s="40">
+      <c r="I13" s="40">
+        <v>1</v>
+      </c>
+      <c r="J13" s="39">
         <f>0.050578704/$J$1</f>
         <v>0.89147287346024495</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="39">
         <f>0.0334606481/$K$1</f>
         <v>0.65010119082178952</v>
       </c>
-      <c r="L13" s="42">
-        <f>AVERAGE(F13:K13)</f>
+      <c r="L13" s="41">
+        <f t="shared" si="0"/>
         <v>0.82776286079148698</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="52">
         <v>4</v>
       </c>
-      <c r="N13" s="37" t="str" cm="1">
+      <c r="N13" s="36" t="str" cm="1">
         <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
@@ -3403,11 +3669,11 @@
         <v>5</v>
       </c>
       <c r="U13" s="14">
-        <f>AVERAGE(P13:T13)</f>
+        <f t="shared" si="1"/>
         <v>4.32</v>
       </c>
       <c r="V13" s="15">
-        <f>U13*0.7+L13*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2656442911872308</v>
       </c>
       <c r="W13" s="12">
@@ -3435,57 +3701,63 @@
       <c r="AE13" s="27"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
-      <c r="AH13" s="94" t="s">
+      <c r="AH13" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="AI13" s="103" t="s">
+      <c r="AI13" s="94" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="109"/>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35">
         <v>2210166</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="38">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="39">
         <v>0.65293897421284319</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="38">
         <v>0.70183281192092528</v>
       </c>
-      <c r="I14" s="89">
-        <v>1</v>
-      </c>
-      <c r="J14" s="88">
+      <c r="I14" s="40">
+        <v>1</v>
+      </c>
+      <c r="J14" s="39">
         <f>0.049803241/$J$1</f>
         <v>0.87780498215025593</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="39">
         <f>0.0357291667/$K$1</f>
         <v>0.69417584947316768</v>
       </c>
-      <c r="L14" s="90">
-        <f>AVERAGE(F14:K14)</f>
+      <c r="L14" s="41">
+        <f t="shared" si="0"/>
         <v>0.80723654740397643</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="52">
         <v>4</v>
       </c>
-      <c r="N14" s="37" t="str" cm="1">
+      <c r="N14" s="36" t="str" cm="1">
         <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
         <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
       </c>
@@ -3508,11 +3780,11 @@
         <v>5</v>
       </c>
       <c r="U14" s="14">
-        <f>AVERAGE(P14:T14)</f>
+        <f t="shared" si="1"/>
         <v>4.2200000000000006</v>
       </c>
       <c r="V14" s="15">
-        <f>U14*0.7+L14*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.1648548211059646</v>
       </c>
       <c r="W14" s="12">
@@ -3531,60 +3803,66 @@
         <v>1</v>
       </c>
       <c r="AB14" s="31"/>
-      <c r="AC14" s="74">
+      <c r="AC14" s="73">
         <v>1.0960969043923496</v>
       </c>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="34"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="110"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>2210005</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="46">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="47">
         <v>0.64002246358209225</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="46">
         <v>0.73245417967738757</v>
       </c>
-      <c r="I15" s="49">
-        <v>1</v>
-      </c>
-      <c r="J15" s="48">
+      <c r="I15" s="48">
+        <v>1</v>
+      </c>
+      <c r="J15" s="47">
         <f>0.048715278/$J$1</f>
         <v>0.8586291349037859</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="47">
         <f>0.0339467593/$K$1</f>
         <v>0.65954576192057257</v>
       </c>
-      <c r="L15" s="50">
-        <f>AVERAGE(F15:K15)</f>
+      <c r="L15" s="49">
+        <f t="shared" si="0"/>
         <v>0.80955303445841753</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="50">
         <v>5</v>
       </c>
-      <c r="N15" s="37" t="str" cm="1">
+      <c r="N15" s="36" t="str" cm="1">
         <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
@@ -3607,11 +3885,11 @@
         <v>5</v>
       </c>
       <c r="U15" s="14">
-        <f>AVERAGE(P15:T15)</f>
+        <f t="shared" si="1"/>
         <v>4.38</v>
       </c>
       <c r="V15" s="15">
-        <f>U15*0.7+L15*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2803295516876263</v>
       </c>
       <c r="W15" s="12">
@@ -3639,57 +3917,63 @@
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="16"/>
-      <c r="AH15" s="99" t="s">
+      <c r="AH15" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="AI15" s="106" t="s">
+      <c r="AI15" s="100" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="112"/>
+      <c r="AL15" s="112"/>
+      <c r="AM15" s="112"/>
+      <c r="AN15" s="112"/>
+      <c r="AO15" s="113"/>
+    </row>
+    <row r="16" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
         <v>2211671</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <v>0.5979034070853726</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="38">
         <v>0.71099687082300078</v>
       </c>
-      <c r="I16" s="41">
-        <v>1</v>
-      </c>
-      <c r="J16" s="40">
+      <c r="I16" s="40">
+        <v>1</v>
+      </c>
+      <c r="J16" s="39">
         <f>0.050231481/$J$1</f>
         <v>0.8853529087110199</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="39">
         <f>0.0268865741/$K$1</f>
         <v>0.52237463504265735</v>
       </c>
-      <c r="L16" s="42">
-        <f>AVERAGE(F16:K16)</f>
+      <c r="L16" s="41">
+        <f t="shared" si="0"/>
         <v>0.78054908138811963</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="52">
         <v>5</v>
       </c>
-      <c r="N16" s="37" t="str" cm="1">
+      <c r="N16" s="36" t="str" cm="1">
         <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
@@ -3712,11 +3996,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="U16" s="14">
-        <f>AVERAGE(P16:T16)</f>
+        <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
       <c r="V16" s="15">
-        <f>U16*0.7+L16*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.138823622082179</v>
       </c>
       <c r="W16" s="12">
@@ -3744,57 +4028,75 @@
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
       <c r="AG16" s="29"/>
-      <c r="AH16" s="94" t="s">
+      <c r="AH16" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="AI16" s="103" t="s">
+      <c r="AI16" s="94" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+      <c r="AJ16" s="111">
+        <v>1.8</v>
+      </c>
+      <c r="AK16" s="112">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="112">
+        <v>1000</v>
+      </c>
+      <c r="AM16" s="112">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="112">
+        <v>2.15</v>
+      </c>
+      <c r="AO16" s="113">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35">
         <v>2211352</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="56">
         <v>0.8833333333333333</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="57">
         <v>0.66585548484359414</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="56">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I17" s="59">
-        <v>1</v>
-      </c>
-      <c r="J17" s="58">
+      <c r="I17" s="58">
+        <v>1</v>
+      </c>
+      <c r="J17" s="57">
         <f>0.049791667/$J$1</f>
         <v>0.87760098508782769</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="57">
         <f>0.0328703704/$K$1</f>
         <v>0.6386327866671927</v>
       </c>
-      <c r="L17" s="60">
-        <f>AVERAGE(F17:K17)</f>
+      <c r="L17" s="59">
+        <f t="shared" si="0"/>
         <v>0.80091270554455229</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17" s="60">
         <v>5</v>
       </c>
-      <c r="N17" s="37" t="str" cm="1">
+      <c r="N17" s="36" t="str" cm="1">
         <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
         <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
       </c>
@@ -3817,11 +4119,11 @@
         <v>2</v>
       </c>
       <c r="U17" s="14">
-        <f>AVERAGE(P17:T17)</f>
+        <f t="shared" si="1"/>
         <v>3.7400000000000007</v>
       </c>
       <c r="V17" s="15">
-        <f>U17*0.7+L17*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.8193690583168287</v>
       </c>
       <c r="W17" s="12">
@@ -3840,62 +4142,68 @@
         <v>1</v>
       </c>
       <c r="AB17" s="31"/>
-      <c r="AC17" s="74">
+      <c r="AC17" s="73">
         <v>1.0751009420781845</v>
       </c>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="100" t="s">
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="AI17" s="106"/>
-    </row>
-    <row r="18" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="110"/>
+    </row>
+    <row r="18" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>2201757</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="47">
-        <v>1</v>
-      </c>
-      <c r="G18" s="48">
+      <c r="F18" s="46">
+        <v>1</v>
+      </c>
+      <c r="G18" s="47">
         <v>0.67596405842163554</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="46">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I18" s="49">
-        <v>1</v>
-      </c>
-      <c r="J18" s="48">
+      <c r="I18" s="48">
+        <v>1</v>
+      </c>
+      <c r="J18" s="47">
         <f>0/$J$1</f>
         <v>0</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="47">
         <f>0.0379513889/$K$1</f>
         <v>0.73735102331239211</v>
       </c>
-      <c r="L18" s="50">
-        <f>AVERAGE(F18:K18)</f>
+      <c r="L18" s="49">
+        <f t="shared" si="0"/>
         <v>0.69222812084489893</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="50">
         <v>6</v>
       </c>
-      <c r="N18" s="37" t="str" cm="1">
+      <c r="N18" s="36" t="str" cm="1">
         <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
         <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
@@ -3918,11 +4226,11 @@
         <v>0</v>
       </c>
       <c r="U18" s="14">
-        <f>AVERAGE(P18:T18)</f>
+        <f t="shared" si="1"/>
         <v>1.52</v>
       </c>
       <c r="V18" s="15">
-        <f>U18*0.7+L18*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>2.102342181267348</v>
       </c>
       <c r="W18" s="12">
@@ -3943,64 +4251,82 @@
       <c r="AB18" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="AC18" s="93">
+      <c r="AC18" s="29">
         <v>1.0880215342454835</v>
       </c>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="99" t="s">
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="AI18" s="96" t="s">
+      <c r="AI18" s="101" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="AJ18" s="114">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="112">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="112">
+        <v>1250</v>
+      </c>
+      <c r="AM18" s="112">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="112">
+        <v>1.2</v>
+      </c>
+      <c r="AO18" s="113">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
         <v>2200689</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="57">
-        <v>1</v>
-      </c>
-      <c r="G19" s="58">
+      <c r="F19" s="56">
+        <v>1</v>
+      </c>
+      <c r="G19" s="57">
         <v>0.46593036325443599</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="56">
         <v>0.62650871710347011</v>
       </c>
-      <c r="I19" s="59">
-        <v>1</v>
-      </c>
-      <c r="J19" s="58">
+      <c r="I19" s="58">
+        <v>1</v>
+      </c>
+      <c r="J19" s="57">
         <f>0.018946759/$J$1</f>
         <v>0.33394532387561288</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="57">
         <f>0.0009027778/$K$1</f>
         <v>1.7539914979335842E-2</v>
       </c>
-      <c r="L19" s="60">
-        <f>AVERAGE(F19:K19)</f>
+      <c r="L19" s="59">
+        <f t="shared" si="0"/>
         <v>0.57398738653547587</v>
       </c>
-      <c r="M19" s="61">
+      <c r="M19" s="60">
         <v>6</v>
       </c>
-      <c r="N19" s="37" t="str" cm="1">
+      <c r="N19" s="36" t="str" cm="1">
         <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
         <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
       </c>
@@ -4023,11 +4349,11 @@
         <v>5</v>
       </c>
       <c r="U19" s="14">
-        <f>AVERAGE(P19:T19)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V19" s="15">
-        <f>U19*0.7+L19*5*0.3</f>
+        <f t="shared" si="2"/>
         <v>2.2609810798032139</v>
       </c>
       <c r="W19" s="12">
@@ -4048,19 +4374,25 @@
       <c r="AB19" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" s="74">
+      <c r="AC19" s="73">
         <v>0.74751009409613423</v>
       </c>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="100" t="s">
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="AI19" s="97" t="s">
+      <c r="AI19" s="102" t="s">
         <v>181</v>
       </c>
+      <c r="AJ19" s="115"/>
+      <c r="AK19" s="116"/>
+      <c r="AL19" s="116"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="116"/>
+      <c r="AO19" s="117"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AH3" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -4463,18 +4795,18 @@
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10">

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7193B765-357F-440F-8E0E-5683B1E67DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8AAFA2-5747-4038-84D7-2CD2CC98417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AH$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$AP$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
   <si>
     <t>CODIGO</t>
   </si>
@@ -630,6 +630,27 @@
   </si>
   <si>
     <t>F [load]</t>
+  </si>
+  <si>
+    <t>Andador Ortopédico para adulto</t>
+  </si>
+  <si>
+    <t>Grúa para traslado de pacientes</t>
+  </si>
+  <si>
+    <t>Tutor para fracturas (tibia)</t>
+  </si>
+  <si>
+    <t>Silla de ruedas deportiva</t>
+  </si>
+  <si>
+    <t>placa y clavo para fractura de cuello fémur</t>
+  </si>
+  <si>
+    <t>placa para fracturas clavícula</t>
+  </si>
+  <si>
+    <t>Tarea Optimización</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1610,19 +1631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1634,37 +1642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1685,14 +1662,53 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1741,7 +1757,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1949,34 +1965,10 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2011,8 +2003,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2020,36 +2021,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2372,12 +2388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5:E19"/>
+      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,13 +2401,13 @@
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="3" customWidth="1"/>
     <col min="14" max="14" width="81.28515625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" hidden="1" customWidth="1"/>
@@ -2412,9 +2428,11 @@
     <col min="31" max="33" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="126.5703125" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="34.28515625" hidden="1" customWidth="1"/>
+    <col min="36" max="41" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -2452,26 +2470,26 @@
         <v>4.2997685188311201E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="83" t="s">
+    <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="P2" s="84" t="s">
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="P2" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-    </row>
-    <row r="3" spans="1:41" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+    </row>
+    <row r="3" spans="1:42" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
@@ -2575,8 +2593,11 @@
       <c r="AI3" s="34" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP3" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>2175459</v>
       </c>
@@ -2670,27 +2691,28 @@
       <c r="AF4" s="29"/>
       <c r="AG4" s="29"/>
       <c r="AH4" s="80"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="103" t="s">
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="AK4" s="104" t="s">
+      <c r="AK4" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="AL4" s="104" t="s">
+      <c r="AL4" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="AM4" s="104" t="s">
+      <c r="AM4" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="AN4" s="104" t="s">
+      <c r="AN4" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="AO4" s="105" t="s">
+      <c r="AO4" s="96" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP4" s="114"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>2205127</v>
       </c>
@@ -2785,29 +2807,32 @@
         <v>1.1830417227085015</v>
       </c>
       <c r="AH5" s="29"/>
-      <c r="AI5" s="97" t="s">
+      <c r="AI5" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="AJ5" s="106">
+      <c r="AJ5" s="97">
         <v>2.1</v>
       </c>
-      <c r="AK5" s="91">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="91">
+      <c r="AK5" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="83">
         <v>1200</v>
       </c>
-      <c r="AM5" s="91">
+      <c r="AM5" s="83">
         <v>3</v>
       </c>
-      <c r="AN5" s="91">
+      <c r="AN5" s="83">
         <v>1.97</v>
       </c>
-      <c r="AO5" s="107">
+      <c r="AO5" s="83">
         <v>2500</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP5" s="116" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>2210261</v>
       </c>
@@ -2906,17 +2931,18 @@
       <c r="AH6" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="AI6" s="94" t="s">
+      <c r="AI6" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="AJ6" s="108"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="109"/>
-    </row>
-    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="117"/>
+    </row>
+    <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>2206464</v>
       </c>
@@ -3008,15 +3034,16 @@
         <v>1.1397039030838965</v>
       </c>
       <c r="AH7" s="29"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="110"/>
-    </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="85"/>
+      <c r="AN7" s="85"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="117"/>
+    </row>
+    <row r="8" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>2200833</v>
       </c>
@@ -3113,29 +3140,32 @@
       <c r="AH8" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="AI8" s="97" t="s">
+      <c r="AI8" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="AJ8" s="106">
+      <c r="AJ8" s="97">
         <v>1.9</v>
       </c>
-      <c r="AK8" s="91">
+      <c r="AK8" s="83">
         <v>2</v>
       </c>
-      <c r="AL8" s="91">
+      <c r="AL8" s="83">
         <v>1350</v>
       </c>
-      <c r="AM8" s="91">
+      <c r="AM8" s="83">
         <v>2</v>
       </c>
-      <c r="AN8" s="91">
+      <c r="AN8" s="83">
         <v>2.1800000000000002</v>
       </c>
-      <c r="AO8" s="107">
+      <c r="AO8" s="83">
         <v>3000</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP8" s="118" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>2170311</v>
       </c>
@@ -3236,17 +3266,18 @@
       <c r="AH9" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AI9" s="94" t="s">
+      <c r="AI9" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="109"/>
-    </row>
-    <row r="10" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="115"/>
+      <c r="AP9" s="117"/>
+    </row>
+    <row r="10" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>2210177</v>
       </c>
@@ -3347,29 +3378,32 @@
       <c r="AH10" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="AI10" s="99" t="s">
+      <c r="AI10" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="AJ10" s="106">
+      <c r="AJ10" s="97">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AK10" s="91">
+      <c r="AK10" s="83">
         <v>3</v>
       </c>
-      <c r="AL10" s="91">
+      <c r="AL10" s="83">
         <v>1000</v>
       </c>
-      <c r="AM10" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="91">
+      <c r="AM10" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="83">
         <v>2.35</v>
       </c>
-      <c r="AO10" s="107">
+      <c r="AO10" s="83">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP10" s="118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>2210955</v>
       </c>
@@ -3470,17 +3504,18 @@
       <c r="AH11" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="AI11" s="94" t="s">
+      <c r="AI11" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="110"/>
-    </row>
-    <row r="12" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="117"/>
+    </row>
+    <row r="12" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>2216295</v>
       </c>
@@ -3581,29 +3616,32 @@
       <c r="AH12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="AI12" s="99" t="s">
+      <c r="AI12" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="AJ12" s="106">
+      <c r="AJ12" s="97">
         <v>2.7</v>
       </c>
-      <c r="AK12" s="91">
+      <c r="AK12" s="83">
         <v>3</v>
       </c>
-      <c r="AL12" s="91">
+      <c r="AL12" s="83">
         <v>1120</v>
       </c>
-      <c r="AM12" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="91">
+      <c r="AM12" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="83">
         <v>1.98</v>
       </c>
-      <c r="AO12" s="107">
+      <c r="AO12" s="83">
         <v>2200</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="AP12" s="118" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>2215280</v>
       </c>
@@ -3704,17 +3742,18 @@
       <c r="AH13" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="AI13" s="94" t="s">
+      <c r="AI13" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="109"/>
-    </row>
-    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="117"/>
+    </row>
+    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>2210166</v>
       </c>
@@ -3812,14 +3851,15 @@
       <c r="AG14" s="73"/>
       <c r="AH14" s="79"/>
       <c r="AI14" s="79"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="110"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="85"/>
+      <c r="AN14" s="85"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="117"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>2210005</v>
       </c>
@@ -3920,17 +3960,18 @@
       <c r="AH15" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="AI15" s="100" t="s">
+      <c r="AI15" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="AJ15" s="111"/>
-      <c r="AK15" s="112"/>
-      <c r="AL15" s="112"/>
-      <c r="AM15" s="112"/>
-      <c r="AN15" s="112"/>
-      <c r="AO15" s="113"/>
-    </row>
-    <row r="16" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="111"/>
+      <c r="AP15" s="112"/>
+    </row>
+    <row r="16" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>2211671</v>
       </c>
@@ -4031,29 +4072,32 @@
       <c r="AH16" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="AI16" s="94" t="s">
+      <c r="AI16" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="AJ16" s="111">
+      <c r="AJ16" s="99">
         <v>1.8</v>
       </c>
-      <c r="AK16" s="112">
+      <c r="AK16" s="3">
         <v>2</v>
       </c>
-      <c r="AL16" s="112">
+      <c r="AL16" s="3">
         <v>1000</v>
       </c>
-      <c r="AM16" s="112">
+      <c r="AM16" s="3">
         <v>2</v>
       </c>
-      <c r="AN16" s="112">
+      <c r="AN16" s="3">
         <v>2.15</v>
       </c>
-      <c r="AO16" s="113">
+      <c r="AO16" s="111">
         <v>1980</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP16" s="113" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>2211352</v>
       </c>
@@ -4152,15 +4196,16 @@
       <c r="AH17" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="AI17" s="100"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="110"/>
-    </row>
-    <row r="18" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="85"/>
+      <c r="AN17" s="85"/>
+      <c r="AO17" s="85"/>
+      <c r="AP17" s="114"/>
+    </row>
+    <row r="18" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>2201757</v>
       </c>
@@ -4261,29 +4306,32 @@
       <c r="AH18" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="AI18" s="101" t="s">
+      <c r="AI18" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="AJ18" s="114">
+      <c r="AJ18" s="100">
         <v>2</v>
       </c>
-      <c r="AK18" s="112">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="112">
+      <c r="AK18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="3">
         <v>1250</v>
       </c>
-      <c r="AM18" s="112">
+      <c r="AM18" s="3">
         <v>3</v>
       </c>
-      <c r="AN18" s="112">
+      <c r="AN18" s="3">
         <v>1.2</v>
       </c>
-      <c r="AO18" s="113">
+      <c r="AO18" s="111">
         <v>2120</v>
       </c>
-    </row>
-    <row r="19" spans="1:41" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP18" s="119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>2200689</v>
       </c>
@@ -4384,22 +4432,19 @@
       <c r="AH19" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="AI19" s="102" t="s">
+      <c r="AI19" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="AJ19" s="115"/>
-      <c r="AK19" s="116"/>
-      <c r="AL19" s="116"/>
-      <c r="AM19" s="116"/>
-      <c r="AN19" s="116"/>
-      <c r="AO19" s="117"/>
+      <c r="AJ19" s="101"/>
+      <c r="AK19" s="102"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="102"/>
+      <c r="AO19" s="102"/>
+      <c r="AP19" s="114"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AH3" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AH19">
-      <sortCondition ref="M3"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A3:AP3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="P2:U2"/>
@@ -4795,18 +4840,18 @@
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10">

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8AAFA2-5747-4038-84D7-2CD2CC98417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -656,7 +655,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -664,7 +663,7 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2021,30 +2020,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2066,51 +2041,75 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2387,16 +2386,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
+      <selection pane="topRight" activeCell="AP5" sqref="AP5:AP19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -2432,7 +2431,7 @@
     <col min="42" max="42" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="E1" t="s">
         <v>65</v>
       </c>
@@ -2470,26 +2469,26 @@
         <v>4.2997685188311201E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="103" t="s">
+    <row r="2" spans="1:42" ht="15.75" thickBot="1">
+      <c r="F2" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="P2" s="104" t="s">
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="P2" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-    </row>
-    <row r="3" spans="1:42" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+    </row>
+    <row r="3" spans="1:42" ht="90.75" thickBot="1">
       <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15.75" thickBot="1">
       <c r="A4" s="35">
         <v>2175459</v>
       </c>
@@ -2710,9 +2709,9 @@
       <c r="AO4" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="AP4" s="114"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP4" s="106"/>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="35">
         <v>2205127</v>
       </c>
@@ -2828,11 +2827,11 @@
       <c r="AO5" s="83">
         <v>2500</v>
       </c>
-      <c r="AP5" s="116" t="s">
+      <c r="AP5" s="108" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="60.75" thickBot="1">
       <c r="A6" s="35">
         <v>2210261</v>
       </c>
@@ -2939,10 +2938,10 @@
       <c r="AL6" s="84"/>
       <c r="AM6" s="84"/>
       <c r="AN6" s="84"/>
-      <c r="AO6" s="115"/>
-      <c r="AP6" s="117"/>
-    </row>
-    <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="109"/>
+    </row>
+    <row r="7" spans="1:42" ht="15.75" thickBot="1">
       <c r="A7" s="35">
         <v>2206464</v>
       </c>
@@ -3041,9 +3040,9 @@
       <c r="AM7" s="85"/>
       <c r="AN7" s="85"/>
       <c r="AO7" s="85"/>
-      <c r="AP7" s="117"/>
-    </row>
-    <row r="8" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP7" s="109"/>
+    </row>
+    <row r="8" spans="1:42" ht="15.75" thickBot="1">
       <c r="A8" s="35">
         <v>2200833</v>
       </c>
@@ -3161,11 +3160,11 @@
       <c r="AO8" s="83">
         <v>3000</v>
       </c>
-      <c r="AP8" s="118" t="s">
+      <c r="AP8" s="110" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="60.75" thickBot="1">
       <c r="A9" s="35">
         <v>2170311</v>
       </c>
@@ -3274,10 +3273,10 @@
       <c r="AL9" s="84"/>
       <c r="AM9" s="84"/>
       <c r="AN9" s="84"/>
-      <c r="AO9" s="115"/>
-      <c r="AP9" s="117"/>
-    </row>
-    <row r="10" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="109"/>
+    </row>
+    <row r="10" spans="1:42" ht="30">
       <c r="A10" s="35">
         <v>2210177</v>
       </c>
@@ -3399,11 +3398,11 @@
       <c r="AO10" s="83">
         <v>2000</v>
       </c>
-      <c r="AP10" s="118" t="s">
+      <c r="AP10" s="110" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="30.75" thickBot="1">
       <c r="A11" s="35">
         <v>2210955</v>
       </c>
@@ -3513,9 +3512,9 @@
       <c r="AM11" s="85"/>
       <c r="AN11" s="85"/>
       <c r="AO11" s="85"/>
-      <c r="AP11" s="117"/>
-    </row>
-    <row r="12" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AP11" s="109"/>
+    </row>
+    <row r="12" spans="1:42" ht="30">
       <c r="A12" s="35">
         <v>2216295</v>
       </c>
@@ -3637,11 +3636,11 @@
       <c r="AO12" s="83">
         <v>2200</v>
       </c>
-      <c r="AP12" s="118" t="s">
+      <c r="AP12" s="110" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="45">
       <c r="A13" s="35">
         <v>2215280</v>
       </c>
@@ -3750,10 +3749,10 @@
       <c r="AL13" s="84"/>
       <c r="AM13" s="84"/>
       <c r="AN13" s="84"/>
-      <c r="AO13" s="115"/>
-      <c r="AP13" s="117"/>
-    </row>
-    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="109"/>
+    </row>
+    <row r="14" spans="1:42" ht="15.75" thickBot="1">
       <c r="A14" s="35">
         <v>2210166</v>
       </c>
@@ -3857,9 +3856,9 @@
       <c r="AM14" s="85"/>
       <c r="AN14" s="85"/>
       <c r="AO14" s="85"/>
-      <c r="AP14" s="117"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP14" s="109"/>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="35">
         <v>2210005</v>
       </c>
@@ -3968,10 +3967,10 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="112"/>
-    </row>
-    <row r="16" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AO15" s="103"/>
+      <c r="AP15" s="104"/>
+    </row>
+    <row r="16" spans="1:42" ht="30">
       <c r="A16" s="35">
         <v>2211671</v>
       </c>
@@ -4090,14 +4089,14 @@
       <c r="AN16" s="3">
         <v>2.15</v>
       </c>
-      <c r="AO16" s="111">
+      <c r="AO16" s="103">
         <v>1980</v>
       </c>
-      <c r="AP16" s="113" t="s">
+      <c r="AP16" s="105" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="15.75" thickBot="1">
       <c r="A17" s="35">
         <v>2211352</v>
       </c>
@@ -4203,9 +4202,9 @@
       <c r="AM17" s="85"/>
       <c r="AN17" s="85"/>
       <c r="AO17" s="85"/>
-      <c r="AP17" s="114"/>
-    </row>
-    <row r="18" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AP17" s="106"/>
+    </row>
+    <row r="18" spans="1:42" ht="30">
       <c r="A18" s="35">
         <v>2201757</v>
       </c>
@@ -4324,14 +4323,14 @@
       <c r="AN18" s="3">
         <v>1.2</v>
       </c>
-      <c r="AO18" s="111">
+      <c r="AO18" s="103">
         <v>2120</v>
       </c>
-      <c r="AP18" s="119" t="s">
+      <c r="AP18" s="111" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="30.75" thickBot="1">
       <c r="A19" s="35">
         <v>2200689</v>
       </c>
@@ -4441,112 +4440,112 @@
       <c r="AM19" s="102"/>
       <c r="AN19" s="102"/>
       <c r="AO19" s="102"/>
-      <c r="AP19" s="114"/>
+      <c r="AP19" s="106"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AP3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AP3"/>
   <mergeCells count="2">
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AB11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AB9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AB13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AB19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AH6" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AH8" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AH9" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AH10" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AH11" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AH12" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AH13" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AH15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AH16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AH17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AH18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AH19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AI9" r:id="rId32" xr:uid="{6896AEE3-CCAE-441E-8338-DB2A13611660}"/>
-    <hyperlink ref="AI11" r:id="rId33" xr:uid="{01A008F1-0242-4024-87E3-9A8B540C2CCC}"/>
-    <hyperlink ref="AI13" r:id="rId34" xr:uid="{19AA5552-F4CD-483E-91F6-DA84173E5E6D}"/>
-    <hyperlink ref="AI6" r:id="rId35" xr:uid="{A7BD598F-E973-4BB4-94EC-791694976E3C}"/>
-    <hyperlink ref="AI19" r:id="rId36" xr:uid="{12CB22FB-B9C5-4547-B12D-F78701EB6012}"/>
+    <hyperlink ref="O5" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O6" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O7" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="O9" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="O10" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="O11" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="O12" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O13" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O14" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="O15" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O16" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O17" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="O18" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="O19" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="AB11" r:id="rId16"/>
+    <hyperlink ref="AB9" r:id="rId17"/>
+    <hyperlink ref="AB13" r:id="rId18"/>
+    <hyperlink ref="AB19" r:id="rId19"/>
+    <hyperlink ref="AH6" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI"/>
+    <hyperlink ref="AH8" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ"/>
+    <hyperlink ref="AH9" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB"/>
+    <hyperlink ref="AH10" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL"/>
+    <hyperlink ref="AH11" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI"/>
+    <hyperlink ref="AH12" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS"/>
+    <hyperlink ref="AH13" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq"/>
+    <hyperlink ref="AH15" r:id="rId27"/>
+    <hyperlink ref="AH16" r:id="rId28"/>
+    <hyperlink ref="AH17" r:id="rId29"/>
+    <hyperlink ref="AH18" r:id="rId30"/>
+    <hyperlink ref="AH19" r:id="rId31"/>
+    <hyperlink ref="AI9" r:id="rId32"/>
+    <hyperlink ref="AI11" r:id="rId33"/>
+    <hyperlink ref="AI13" r:id="rId34"/>
+    <hyperlink ref="AI6" r:id="rId35"/>
+    <hyperlink ref="AI19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -4557,14 +4556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -4572,7 +4571,7 @@
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
         <v>82</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
         <v>51</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
         <v>45</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -4798,35 +4797,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="16.85546875" customWidth="1"/>
@@ -4836,24 +4835,24 @@
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="10">
         <v>2200833</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="10">
         <v>2216295</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="10">
         <v>2205127</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="10">
         <v>2170311</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10">
         <v>2210177</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10">
         <v>2201757</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10">
         <v>2210005</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="10">
         <v>2211671</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="10">
         <v>2210261</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="10">
         <v>2200689</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="10">
         <v>2206464</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="10">
         <v>2215280</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10">
         <v>2210166</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10">
         <v>2211352</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10">
         <v>2210955</v>
       </c>

--- a/academics/CABD/2025-1/CABD 2025-1.xlsx
+++ b/academics/CABD/2025-1/CABD 2025-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F603D5E7-B3CA-437D-BB17-FA73252D94BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$3:$BF$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="215">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -698,12 +699,21 @@
   </si>
   <si>
     <t>Definitiva (Promedio 1er, 2o, 3er corte)</t>
+  </si>
+  <si>
+    <t>SO 1,2</t>
+  </si>
+  <si>
+    <t>SO 3,4</t>
+  </si>
+  <si>
+    <t>SO 2,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -711,7 +721,7 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,6 +860,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -887,7 +898,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,6 +1117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1386,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1415,24 +1432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1443,12 +1442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
@@ -1526,9 +1519,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1546,6 +1536,36 @@
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1567,7 +1587,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1868,47 +1888,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="BD19" sqref="BD19"/>
+      <selection pane="topRight" activeCell="AZ4" sqref="AZ4:AZ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="29.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="17" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="14" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="2" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" style="17" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="17" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="17" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="17" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="16" style="2" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" style="17" customWidth="1"/>
     <col min="22" max="22" width="13.140625" style="17" customWidth="1"/>
     <col min="23" max="23" width="15" style="2" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="14.42578125" style="17" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="14.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="27" max="34" width="12.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="12.85546875" style="17" customWidth="1"/>
+    <col min="27" max="29" width="12.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="30" max="35" width="12.85546875" style="17" customWidth="1"/>
     <col min="36" max="36" width="89.42578125" style="17" hidden="1" customWidth="1"/>
     <col min="37" max="38" width="9.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="39" max="41" width="14.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="14.7109375" style="17" customWidth="1"/>
+    <col min="39" max="42" width="14.7109375" style="17" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="125.7109375" style="17" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="34.28515625" style="17" hidden="1" customWidth="1"/>
     <col min="45" max="50" width="11.42578125" style="17" hidden="1" customWidth="1"/>
@@ -1916,24 +1935,27 @@
     <col min="52" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="29.25" customHeight="1">
+    <row r="1" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="21">
         <v>6.1828703699575271E-2</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="21">
         <v>5.1782407404971309E-2</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="21">
         <v>6.25E-2</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="21">
         <v>5.673611110978527E-2</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1" s="21">
         <v>5.1469907411956228E-2</v>
+      </c>
+      <c r="T1" s="63" t="s">
+        <v>212</v>
       </c>
       <c r="W1" s="2">
         <v>4.2106481480004732E-2</v>
@@ -1944,7 +1966,7 @@
       <c r="Y1" s="2">
         <v>4.1145833332848269E-2</v>
       </c>
-      <c r="Z1" s="28">
+      <c r="Z1" s="22">
         <v>3.4999999996216502E-2</v>
       </c>
       <c r="AA1" s="17">
@@ -1953,50 +1975,56 @@
       <c r="AK1" s="17">
         <v>4.2997685188311201E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" ht="29.25" customHeight="1">
-      <c r="F2" s="29" t="s">
+      <c r="AZ1" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC1" s="63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="P2" s="30" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="P2" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="W2" s="29" t="s">
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="W2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="56" t="s">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AZ2" s="56" t="s">
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AZ2" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-    </row>
-    <row r="3" spans="1:58" ht="118.5" customHeight="1">
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+    </row>
+    <row r="3" spans="1:58" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>195</v>
       </c>
@@ -2030,7 +2058,7 @@
       <c r="K3" s="4">
         <v>45720</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="48" t="s">
         <v>72</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -2060,7 +2088,7 @@
       <c r="U3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="45" t="s">
         <v>65</v>
       </c>
       <c r="W3" s="16" t="s">
@@ -2078,28 +2106,28 @@
       <c r="AA3" s="4">
         <v>45755</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AB3" s="19">
         <v>45769</v>
       </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AC3" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AD3" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AE3" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AF3" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AG3" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="AH3" s="40" t="s">
+      <c r="AH3" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="AI3" s="42" t="s">
+      <c r="AI3" s="34" t="s">
         <v>202</v>
       </c>
       <c r="AJ3" s="3"/>
@@ -2118,7 +2146,7 @@
       <c r="AO3" s="4">
         <v>45804</v>
       </c>
-      <c r="AP3" s="38" t="s">
+      <c r="AP3" s="30" t="s">
         <v>203</v>
       </c>
       <c r="AQ3" s="3" t="s">
@@ -2136,561 +2164,541 @@
       <c r="AY3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AZ3" s="55" t="s">
+      <c r="AZ3" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="BA3" s="55" t="s">
+      <c r="BA3" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="BB3" s="55" t="s">
+      <c r="BB3" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="BC3" s="55" t="s">
+      <c r="BC3" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="BD3" s="40" t="s">
+      <c r="BD3" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="BE3" s="42" t="s">
+      <c r="BE3" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="BF3" s="37" t="s">
+      <c r="BF3" s="29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="29.25" customHeight="1">
+    <row r="4" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>2200833</v>
+        <v>2175459</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F4" s="8">
-        <v>0.96666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
-        <v>0.62448521151385872</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>0.71904336171365091</v>
-      </c>
-      <c r="I4" s="58">
+        <v>0</v>
+      </c>
+      <c r="I4" s="49">
         <v>1</v>
       </c>
       <c r="J4" s="8">
-        <f>0.0503125/$J$1</f>
-        <v>0.88678090577347679</v>
+        <f>0/$J$1</f>
+        <v>0</v>
       </c>
       <c r="K4" s="8">
-        <f>0.0374652778/$K$1</f>
-        <v>0.72790645415649191</v>
-      </c>
-      <c r="L4" s="45">
+        <f>0/$K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="37">
         <f>AVERAGE(F4:K4)</f>
-        <v>0.8208137666373575</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18" t="e">
+        <f>_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24">
+        <v>0</v>
+      </c>
+      <c r="S4" s="24">
+        <v>0</v>
+      </c>
+      <c r="T4" s="24">
+        <v>0</v>
+      </c>
+      <c r="U4" s="25">
+        <f>AVERAGE(P4:T4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="26">
+        <f>U4*0.7+L4*5*0.3</f>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="37">
+        <f>AVERAGE(L4,AC4,AK4)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT4" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU4" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV4" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AW4" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX4" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="36">
+        <f>AVERAGE(AZ4:BC4)</f>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="26">
+        <f>AP4*5*0.3+BD4*0.7</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BF4" s="46">
+        <f>AVERAGE(V4,AI4,BE4)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2201757</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.67596405842163554</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I5" s="49">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <f>0/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f>0.0379513889/$K$1</f>
+        <v>0.73735102331239211</v>
+      </c>
+      <c r="L5" s="37">
+        <f>AVERAGE(F5:K5)</f>
+        <v>0.69222812084489893</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6</v>
+      </c>
+      <c r="N5" s="18" t="str" cm="1">
+        <f t="array" ref="N5">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="24">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="R5" s="24">
+        <v>0</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0</v>
+      </c>
+      <c r="T5" s="24">
+        <v>0</v>
+      </c>
+      <c r="U5" s="25">
+        <f>AVERAGE(P5:T5)</f>
+        <v>1.52</v>
+      </c>
+      <c r="V5" s="26">
+        <f>U5*0.7+L5*5*0.3</f>
+        <v>2.102342181267348</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0.87863756623470268</v>
+      </c>
+      <c r="AA5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>0.98</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="AG5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="33">
+        <v>1.9</v>
+      </c>
+      <c r="AI5" s="35">
+        <v>2.8</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK5" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="37">
+        <f>AVERAGE(L5,AC5,AK5)</f>
+        <v>0.89074270694829971</v>
+      </c>
+      <c r="AQ5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR5" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS5" s="24">
         <v>2</v>
       </c>
-      <c r="N4" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">_xlfn.IFS(M4=1,Sheet1!$A$1,M4=2,Sheet1!$A$2,M4=3,Sheet1!$A$3,M4=4,Sheet1!$A$4,M4=5,Sheet1!$A$5,M4=6,Sheet1!$A$6,M4=7,Sheet1!$A$7,M4=8,Sheet1!$A$8,M4="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="32">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>0</v>
-      </c>
-      <c r="R4" s="32">
-        <v>4.8</v>
-      </c>
-      <c r="S4" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="T4" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="U4" s="33">
-        <f>AVERAGE(P4:T4)</f>
-        <v>3.3600000000000003</v>
-      </c>
-      <c r="V4" s="34">
-        <f>U4*0.7+L4*5*0.3</f>
-        <v>3.5832206499560364</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0.41671247935178818</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0.78264642075010771</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0.48466947955898315</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="59">
-        <v>0.64256581383251687</v>
-      </c>
-      <c r="AB4" s="35">
-        <v>0.374</v>
-      </c>
-      <c r="AC4" s="39">
-        <v>0.45</v>
-      </c>
-      <c r="AD4" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="36">
-        <v>1.8</v>
-      </c>
-      <c r="AG4" s="36">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AH4" s="41">
-        <v>2.7</v>
-      </c>
-      <c r="AI4" s="43">
-        <v>2.6</v>
-      </c>
-      <c r="AJ4" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK4" s="60">
-        <v>0.57631224762559774</v>
-      </c>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="45">
-        <f>AVERAGE(L4,AC4,AK4)</f>
-        <v>0.61570867142098507</v>
-      </c>
-      <c r="AQ4" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR4" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS4" s="47">
-        <v>1.9</v>
-      </c>
-      <c r="AT4" s="47">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="47">
-        <v>1350</v>
-      </c>
-      <c r="AV4" s="47">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="47">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="AX4" s="47">
-        <v>3000</v>
-      </c>
-      <c r="AY4" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ4" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="BA4" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="BC4" s="32">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BD4" s="44">
-        <f>AVERAGE(AZ4:BC4)</f>
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="BE4" s="34">
-        <f>AP4*5*0.3+BD4*0.7</f>
-        <v>1.5010630071314774</v>
-      </c>
-      <c r="BF4" s="54">
-        <f>AVERAGE(V4,AI4,BE4)</f>
-        <v>2.5614278856958381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" ht="29.25" customHeight="1">
-      <c r="A5" s="7">
-        <v>2216295</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.60857356797981244</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.71881984802705978</v>
-      </c>
-      <c r="I5" s="58">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <f>0.04931713/$J$1</f>
-        <v>0.86923705265189177</v>
-      </c>
-      <c r="K5" s="8">
-        <f>0.0337384259/$K$1</f>
-        <v>0.65549808803741338</v>
-      </c>
-      <c r="L5" s="45">
-        <f>AVERAGE(F5:K5)</f>
-        <v>0.79202142611602966</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4</v>
-      </c>
-      <c r="N5" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">_xlfn.IFS(M5=1,Sheet1!$A$1,M5=2,Sheet1!$A$2,M5=3,Sheet1!$A$3,M5=4,Sheet1!$A$4,M5=5,Sheet1!$A$5,M5=6,Sheet1!$A$6,M5=7,Sheet1!$A$7,M5=8,Sheet1!$A$8,M5="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="32">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R5" s="32">
-        <v>5</v>
-      </c>
-      <c r="S5" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="T5" s="32">
-        <v>5</v>
-      </c>
-      <c r="U5" s="33">
-        <f>AVERAGE(P5:T5)</f>
-        <v>4.58</v>
-      </c>
-      <c r="V5" s="34">
-        <f>U5*0.7+L5*5*0.3</f>
-        <v>4.394032139174044</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0.9145134689971629</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0.31496746201916759</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>0.80196905770117399</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="35">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AC5" s="39">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="AD5" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="36">
-        <v>4.7</v>
-      </c>
-      <c r="AF5" s="36">
+      <c r="AT5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>1250</v>
+      </c>
+      <c r="AV5" s="3">
         <v>3</v>
       </c>
-      <c r="AG5" s="36">
-        <v>4.3</v>
-      </c>
-      <c r="AH5" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="AI5" s="43">
-        <v>4.2</v>
-      </c>
-      <c r="AJ5" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK5" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="45">
-        <f>AVERAGE(L5,AC5,AK5)</f>
-        <v>0.87534047537200987</v>
-      </c>
-      <c r="AQ5" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR5" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS5" s="47">
-        <v>2.7</v>
-      </c>
-      <c r="AT5" s="47">
-        <v>3</v>
-      </c>
-      <c r="AU5" s="47">
-        <v>1120</v>
-      </c>
-      <c r="AV5" s="47">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="47">
-        <v>1.98</v>
-      </c>
-      <c r="AX5" s="47">
-        <v>2200</v>
-      </c>
-      <c r="AY5" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ5" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="BA5" s="32">
-        <v>3.8</v>
-      </c>
-      <c r="BB5" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="BC5" s="32">
-        <v>2.5</v>
-      </c>
-      <c r="BD5" s="44">
+      <c r="AW5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>2120</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ5" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="BA5" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="36">
         <f>AVERAGE(AZ5:BC5)</f>
-        <v>3.4749999999999996</v>
-      </c>
-      <c r="BE5" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="BE5" s="26">
         <f>AP5*5*0.3+BD5*0.7</f>
-        <v>3.7455107130580148</v>
-      </c>
-      <c r="BF5" s="54">
+        <v>1.4061140604224496</v>
+      </c>
+      <c r="BF5" s="46">
         <f>AVERAGE(V5,AI5,BE5)</f>
-        <v>4.1131809507440193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" ht="29.25" customHeight="1">
+        <v>2.1028187472299327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>2205127</v>
+        <v>2200689</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F6" s="8">
-        <v>0.98333333333333328</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>0.58779483338965188</v>
+        <v>0.46593036325443599</v>
       </c>
       <c r="H6" s="8">
-        <v>0.60929816731074449</v>
-      </c>
-      <c r="I6" s="58">
+        <v>0.62650871710347011</v>
+      </c>
+      <c r="I6" s="49">
         <v>1</v>
       </c>
       <c r="J6" s="8">
-        <f>0.044756944/$J$1</f>
-        <v>0.78886168129138434</v>
+        <f>0.018946759/$J$1</f>
+        <v>0.33394532387561288</v>
       </c>
       <c r="K6" s="8">
-        <f>0.0319097222/$K$1</f>
-        <v>0.61996851761554772</v>
-      </c>
-      <c r="L6" s="45">
+        <f>0.0009027778/$K$1</f>
+        <v>1.7539914979335842E-2</v>
+      </c>
+      <c r="L6" s="37">
         <f>AVERAGE(F6:K6)</f>
-        <v>0.76487608882344349</v>
+        <v>0.57398738653547587</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="18" t="str" cm="1">
+        <f t="array" ref="N6">_xlfn.IFS(M6=1,Sheet1!$A$1,M6=2,Sheet1!$A$2,M6=3,Sheet1!$A$3,M6=4,Sheet1!$A$4,M6=5,Sheet1!$A$5,M6=6,Sheet1!$A$6,M6=7,Sheet1!$A$7,M6=8,Sheet1!$A$8,M6="","")</f>
+        <v>Gesto Correspondiente a la palabra "OVEJA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="32">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>4.8</v>
-      </c>
-      <c r="R6" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="S6" s="32">
+      <c r="P6" s="24">
         <v>5</v>
       </c>
-      <c r="T6" s="32">
+      <c r="Q6" s="24">
+        <v>0</v>
+      </c>
+      <c r="R6" s="24">
+        <v>0</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0</v>
+      </c>
+      <c r="T6" s="24">
         <v>5</v>
       </c>
-      <c r="U6" s="33">
+      <c r="U6" s="25">
         <f>AVERAGE(P6:T6)</f>
-        <v>4.84</v>
-      </c>
-      <c r="V6" s="34">
+        <v>2</v>
+      </c>
+      <c r="V6" s="26">
         <f>U6*0.7+L6*5*0.3</f>
-        <v>4.5353141332351647</v>
+        <v>2.2609810798032139</v>
       </c>
       <c r="W6" s="8">
-        <v>0.92001099501332539</v>
+        <v>1</v>
       </c>
       <c r="X6" s="8">
-        <v>0.95835141006207936</v>
+        <v>0.3002169198176699</v>
       </c>
       <c r="Y6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="39">
-        <v>0.98</v>
-      </c>
-      <c r="AD6" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="36">
-        <v>3.5</v>
-      </c>
-      <c r="AF6" s="36">
-        <v>3.2</v>
-      </c>
-      <c r="AG6" s="36">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH6" s="41">
-        <v>2.8</v>
-      </c>
-      <c r="AI6" s="43">
-        <v>3.4</v>
-      </c>
-      <c r="AJ6" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK6" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="45">
+        <v>0.53373015861507977</v>
+      </c>
+      <c r="AA6" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="31">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="AI6" s="35">
+        <v>1.6</v>
+      </c>
+      <c r="AJ6" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK6" s="51">
+        <v>0.74751009409613423</v>
+      </c>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="37">
         <f>AVERAGE(L6,AC6,AK6)</f>
-        <v>0.91495869627448112</v>
-      </c>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS6" s="47">
-        <v>2.1</v>
-      </c>
-      <c r="AT6" s="47">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="47">
-        <v>1200</v>
-      </c>
-      <c r="AV6" s="47">
-        <v>3</v>
-      </c>
-      <c r="AW6" s="47">
-        <v>1.97</v>
-      </c>
-      <c r="AX6" s="47">
-        <v>2500</v>
-      </c>
-      <c r="AY6" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ6" s="32">
-        <v>1.3</v>
-      </c>
-      <c r="BA6" s="32">
-        <v>3.1</v>
-      </c>
-      <c r="BB6" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="BC6" s="32">
-        <v>3</v>
-      </c>
-      <c r="BD6" s="44">
+        <v>0.59783249354387002</v>
+      </c>
+      <c r="AQ6" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR6" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ6" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="BA6" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="24">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="36">
         <f>AVERAGE(AZ6:BC6)</f>
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="BE6" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="BE6" s="26">
         <f>AP6*5*0.3+BD6*0.7</f>
-        <v>3.4199380444117216</v>
-      </c>
-      <c r="BF6" s="54">
+        <v>1.3167487403158051</v>
+      </c>
+      <c r="BF6" s="46">
         <f>AVERAGE(V6,AI6,BE6)</f>
-        <v>3.7850840592156287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" ht="29.25" customHeight="1">
+        <v>1.7259099400396731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2170311</v>
       </c>
@@ -2715,7 +2723,7 @@
       <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="49">
         <v>1</v>
       </c>
       <c r="J7" s="8">
@@ -2726,40 +2734,40 @@
         <f>0.0230902778/$K$1</f>
         <v>0.44861704559111432</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="37">
         <f>AVERAGE(F7:K7)</f>
         <v>0.24143617426518571</v>
       </c>
       <c r="M7" s="3">
         <v>2</v>
       </c>
-      <c r="N7" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" s="31" t="s">
+      <c r="N7" s="18" t="str" cm="1">
+        <f t="array" ref="N7">_xlfn.IFS(M7=1,Sheet1!$A$1,M7=2,Sheet1!$A$2,M7=3,Sheet1!$A$3,M7=4,Sheet1!$A$4,M7=5,Sheet1!$A$5,M7=6,Sheet1!$A$6,M7=7,Sheet1!$A$7,M7=8,Sheet1!$A$8,M7="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>0</v>
-      </c>
-      <c r="R7" s="32">
+      <c r="P7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>0</v>
+      </c>
+      <c r="R7" s="24">
         <v>4.3</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7" s="24">
         <v>5</v>
       </c>
-      <c r="T7" s="32">
+      <c r="T7" s="24">
         <v>2</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="25">
         <f>AVERAGE(P7:T7)</f>
         <v>2.2600000000000002</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="26">
         <f>U7*0.7+L7*5*0.3</f>
         <v>1.9441542613977787</v>
       </c>
@@ -2775,1311 +2783,1297 @@
       <c r="Z7" s="8">
         <v>1</v>
       </c>
-      <c r="AA7" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="39">
+      <c r="AA7" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="31">
         <v>0.84799999999999998</v>
       </c>
-      <c r="AD7" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="36">
+      <c r="AD7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="28">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AH7" s="41">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="43">
+      <c r="AH7" s="33">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="35">
         <v>2</v>
       </c>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AK7" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="45">
+      <c r="AK7" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="37">
         <f>AVERAGE(L7,AC7,AK7)</f>
         <v>0.69647872475506178</v>
       </c>
-      <c r="AQ7" s="31" t="s">
+      <c r="AQ7" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="AR7" s="50" t="s">
+      <c r="AR7" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="47"/>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="47"/>
-      <c r="AY7" s="47" t="s">
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="AZ7" s="32">
+      <c r="AZ7" s="24">
         <v>0.8</v>
       </c>
-      <c r="BA7" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="32">
+      <c r="BA7" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="24">
         <v>0.3</v>
       </c>
-      <c r="BC7" s="32">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="44">
+      <c r="BC7" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="36">
         <f>AVERAGE(AZ7:BC7)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="BE7" s="34">
+      <c r="BE7" s="26">
         <f>AP7*5*0.3+BD7*0.7</f>
         <v>1.2372180871325926</v>
       </c>
-      <c r="BF7" s="54">
+      <c r="BF7" s="46">
         <f>AVERAGE(V7,AI7,BE7)</f>
         <v>1.7271241161767905</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="29.25" customHeight="1">
+    <row r="8" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>2210177</v>
+        <v>2200833</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G8" s="8">
-        <v>0.69337326840732949</v>
+        <v>0.62448521151385872</v>
       </c>
       <c r="H8" s="8">
-        <v>0.73983012964877437</v>
-      </c>
-      <c r="I8" s="58">
+        <v>0.71904336171365091</v>
+      </c>
+      <c r="I8" s="49">
         <v>1</v>
       </c>
       <c r="J8" s="8">
+        <f>0.0503125/$J$1</f>
+        <v>0.88678090577347679</v>
+      </c>
+      <c r="K8" s="8">
+        <f>0.0374652778/$K$1</f>
+        <v>0.72790645415649191</v>
+      </c>
+      <c r="L8" s="37">
+        <f>AVERAGE(F8:K8)</f>
+        <v>0.8208137666373575</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="18" t="str" cm="1">
+        <f t="array" ref="N8">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
+        <v>Gesto Correspondiente a la palabra "COMPLETO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0</v>
+      </c>
+      <c r="R8" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="S8" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="T8" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="U8" s="25">
+        <f>AVERAGE(P8:T8)</f>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="V8" s="26">
+        <f>U8*0.7+L8*5*0.3</f>
+        <v>3.5832206499560364</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0.41671247935178818</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.78264642075010771</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0.48466947955898315</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="50">
+        <v>0.64256581383251687</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>0.374</v>
+      </c>
+      <c r="AC8" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="AG8" s="28">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH8" s="33">
+        <v>2.7</v>
+      </c>
+      <c r="AI8" s="35">
+        <v>2.6</v>
+      </c>
+      <c r="AJ8" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK8" s="51">
+        <v>0.57631224762559774</v>
+      </c>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="37">
+        <f>AVERAGE(L8,AC8,AK8)</f>
+        <v>0.61570867142098507</v>
+      </c>
+      <c r="AQ8" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR8" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS8" s="39">
+        <v>1.9</v>
+      </c>
+      <c r="AT8" s="39">
+        <v>2</v>
+      </c>
+      <c r="AU8" s="39">
+        <v>1350</v>
+      </c>
+      <c r="AV8" s="39">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="39">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AX8" s="39">
+        <v>3000</v>
+      </c>
+      <c r="AY8" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ8" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="BA8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="BC8" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD8" s="36">
+        <f>AVERAGE(AZ8:BC8)</f>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="BE8" s="26">
+        <f>AP8*5*0.3+BD8*0.7</f>
+        <v>1.5010630071314774</v>
+      </c>
+      <c r="BF8" s="46">
+        <f>AVERAGE(V8,AI8,BE8)</f>
+        <v>2.5614278856958381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2206464</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.67877199547434519</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.73938310241610217</v>
+      </c>
+      <c r="I9" s="49">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
         <f>0.054386574/$J$1</f>
         <v>0.95858833001016097</v>
       </c>
-      <c r="K8" s="8">
-        <f>0.0379513889/$K$1</f>
-        <v>0.73735102331239211</v>
-      </c>
-      <c r="L8" s="45">
-        <f>AVERAGE(F8:K8)</f>
-        <v>0.85485712522977619</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="K9" s="8">
+        <f>0.0365972222/$K$1</f>
+        <v>0.71104115084338837</v>
+      </c>
+      <c r="L9" s="37">
+        <f>AVERAGE(F9:K9)</f>
+        <v>0.84796409645733284</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="18" t="str" cm="1">
+        <f t="array" ref="N9">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="R9" s="24">
+        <v>5</v>
+      </c>
+      <c r="S9" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="T9" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="U9" s="25">
+        <f>AVERAGE(P9:T9)</f>
+        <v>4</v>
+      </c>
+      <c r="V9" s="26">
+        <f>U9*0.7+L9*5*0.3</f>
+        <v>4.0719461446859988</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="28">
+        <v>3.1</v>
+      </c>
+      <c r="AF9" s="28">
+        <v>2.8</v>
+      </c>
+      <c r="AG9" s="28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH9" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="AI9" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="37">
+        <f>AVERAGE(L9,AC9,AK9)</f>
+        <v>0.94932136548577761</v>
+      </c>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ9" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="BA9" s="24">
+        <v>3.1</v>
+      </c>
+      <c r="BB9" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="BC9" s="24">
         <v>3</v>
       </c>
-      <c r="N8" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">_xlfn.IFS(M8=1,Sheet1!$A$1,M8=2,Sheet1!$A$2,M8=3,Sheet1!$A$3,M8=4,Sheet1!$A$4,M8=5,Sheet1!$A$5,M8=6,Sheet1!$A$6,M8=7,Sheet1!$A$7,M8=8,Sheet1!$A$8,M8="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="32">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R8" s="32">
-        <v>5</v>
-      </c>
-      <c r="S8" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="T8" s="32">
-        <v>3.6</v>
-      </c>
-      <c r="U8" s="33">
-        <f>AVERAGE(P8:T8)</f>
-        <v>4.24</v>
-      </c>
-      <c r="V8" s="34">
-        <f>U8*0.7+L8*5*0.3</f>
-        <v>4.2502856878446647</v>
-      </c>
-      <c r="W8" s="8">
-        <v>1</v>
-      </c>
-      <c r="X8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="36">
-        <v>3.9</v>
-      </c>
-      <c r="AF8" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="AG8" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="AH8" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="AI8" s="43">
-        <v>4.2</v>
-      </c>
-      <c r="AJ8" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK8" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="45">
-        <f>AVERAGE(L8,AC8,AK8)</f>
-        <v>0.95161904174325873</v>
-      </c>
-      <c r="AQ8" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR8" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS8" s="47">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AT8" s="47">
-        <v>3</v>
-      </c>
-      <c r="AU8" s="47">
-        <v>1000</v>
-      </c>
-      <c r="AV8" s="47">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="47">
-        <v>2.35</v>
-      </c>
-      <c r="AX8" s="47">
-        <v>2000</v>
-      </c>
-      <c r="AY8" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ8" s="32">
-        <v>2.9</v>
-      </c>
-      <c r="BA8" s="32">
-        <v>1.3</v>
-      </c>
-      <c r="BB8" s="32">
-        <v>2.5</v>
-      </c>
-      <c r="BC8" s="32">
-        <v>3</v>
-      </c>
-      <c r="BD8" s="44">
-        <f>AVERAGE(AZ8:BC8)</f>
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="BE8" s="34">
-        <f>AP8*5*0.3+BD8*0.7</f>
-        <v>3.1249285626148877</v>
-      </c>
-      <c r="BF8" s="54">
-        <f>AVERAGE(V8,AI8,BE8)</f>
-        <v>3.8584047501531842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" ht="29.25" customHeight="1">
-      <c r="A9" s="7">
-        <v>2201757</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.67596405842163554</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I9" s="58">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <f>0/$J$1</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <f>0.0379513889/$K$1</f>
-        <v>0.73735102331239211</v>
-      </c>
-      <c r="L9" s="45">
-        <f>AVERAGE(F9:K9)</f>
-        <v>0.69222812084489893</v>
-      </c>
-      <c r="M9" s="3">
-        <v>6</v>
-      </c>
-      <c r="N9" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">_xlfn.IFS(M9=1,Sheet1!$A$1,M9=2,Sheet1!$A$2,M9=3,Sheet1!$A$3,M9=4,Sheet1!$A$4,M9=5,Sheet1!$A$5,M9=6,Sheet1!$A$6,M9=7,Sheet1!$A$7,M9=8,Sheet1!$A$8,M9="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="32">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>3.6</v>
-      </c>
-      <c r="R9" s="32">
-        <v>0</v>
-      </c>
-      <c r="S9" s="32">
-        <v>0</v>
-      </c>
-      <c r="T9" s="32">
-        <v>0</v>
-      </c>
-      <c r="U9" s="33">
-        <f>AVERAGE(P9:T9)</f>
-        <v>1.52</v>
-      </c>
-      <c r="V9" s="34">
-        <f>U9*0.7+L9*5*0.3</f>
-        <v>2.102342181267348</v>
-      </c>
-      <c r="W9" s="8">
-        <v>1</v>
-      </c>
-      <c r="X9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0.87863756623470268</v>
-      </c>
-      <c r="AA9" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="39">
-        <v>0.98</v>
-      </c>
-      <c r="AD9" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="36">
-        <v>2.4</v>
-      </c>
-      <c r="AG9" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="41">
-        <v>1.9</v>
-      </c>
-      <c r="AI9" s="43">
-        <v>2.8</v>
-      </c>
-      <c r="AJ9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK9" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="45">
-        <f>AVERAGE(L9,AC9,AK9)</f>
-        <v>0.89074270694829971</v>
-      </c>
-      <c r="AQ9" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR9" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS9" s="32">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>1250</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>3</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>2120</v>
-      </c>
-      <c r="AY9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ9" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="BA9" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="32">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="32">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="44">
+      <c r="BD9" s="36">
         <f>AVERAGE(AZ9:BC9)</f>
-        <v>0.1</v>
-      </c>
-      <c r="BE9" s="34">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="BE9" s="26">
         <f>AP9*5*0.3+BD9*0.7</f>
-        <v>1.4061140604224496</v>
-      </c>
-      <c r="BF9" s="54">
+        <v>3.4714820482286664</v>
+      </c>
+      <c r="BF9" s="46">
         <f>AVERAGE(V9,AI9,BE9)</f>
-        <v>2.1028187472299327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58" ht="29.25" customHeight="1">
+        <v>3.9144760643048877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>2175459</v>
+        <v>2205127</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>0.58779483338965188</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="58">
+        <v>0.60929816731074449</v>
+      </c>
+      <c r="I10" s="49">
         <v>1</v>
       </c>
       <c r="J10" s="8">
-        <f>0/$J$1</f>
-        <v>0</v>
+        <f>0.044756944/$J$1</f>
+        <v>0.78886168129138434</v>
       </c>
       <c r="K10" s="8">
-        <f>0/$K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="45">
+        <f>0.0319097222/$K$1</f>
+        <v>0.61996851761554772</v>
+      </c>
+      <c r="L10" s="37">
         <f>AVERAGE(F10:K10)</f>
-        <v>0.16666666666666666</v>
+        <v>0.76487608882344349</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18" t="e">
-        <f ca="1">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="32">
-        <v>0</v>
-      </c>
-      <c r="R10" s="32">
-        <v>0</v>
-      </c>
-      <c r="S10" s="32">
-        <v>0</v>
-      </c>
-      <c r="T10" s="32">
-        <v>0</v>
-      </c>
-      <c r="U10" s="33">
+        <v>1</v>
+      </c>
+      <c r="N10" s="18" t="str" cm="1">
+        <f t="array" ref="N10">_xlfn.IFS(M10=1,Sheet1!$A$1,M10=2,Sheet1!$A$2,M10=3,Sheet1!$A$3,M10=4,Sheet1!$A$4,M10=5,Sheet1!$A$5,M10=6,Sheet1!$A$6,M10=7,Sheet1!$A$7,M10=8,Sheet1!$A$8,M10="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="R10" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="S10" s="24">
+        <v>5</v>
+      </c>
+      <c r="T10" s="24">
+        <v>5</v>
+      </c>
+      <c r="U10" s="25">
         <f>AVERAGE(P10:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="34">
+        <v>4.84</v>
+      </c>
+      <c r="V10" s="26">
         <f>U10*0.7+L10*5*0.3</f>
-        <v>0.24999999999999997</v>
+        <v>4.5353141332351647</v>
       </c>
       <c r="W10" s="8">
-        <v>0</v>
+        <v>0.92001099501332539</v>
       </c>
       <c r="X10" s="8">
-        <v>0</v>
+        <v>0.95835141006207936</v>
       </c>
       <c r="Y10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="43">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="61">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="31">
+        <v>0.98</v>
+      </c>
+      <c r="AD10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="AF10" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="AG10" s="28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH10" s="33">
+        <v>2.8</v>
+      </c>
+      <c r="AI10" s="35">
+        <v>3.4</v>
+      </c>
+      <c r="AJ10" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK10" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="37">
         <f>AVERAGE(L10,AC10,AK10)</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT10" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU10" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV10" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW10" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX10" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="32">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="32">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="32">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="44">
+        <v>0.91495869627448112</v>
+      </c>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS10" s="39">
+        <v>2.1</v>
+      </c>
+      <c r="AT10" s="39">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="39">
+        <v>1200</v>
+      </c>
+      <c r="AV10" s="39">
+        <v>3</v>
+      </c>
+      <c r="AW10" s="39">
+        <v>1.97</v>
+      </c>
+      <c r="AX10" s="39">
+        <v>2500</v>
+      </c>
+      <c r="AY10" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ10" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="BA10" s="24">
+        <v>3.1</v>
+      </c>
+      <c r="BB10" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="BC10" s="24">
+        <v>3</v>
+      </c>
+      <c r="BD10" s="36">
         <f>AVERAGE(AZ10:BC10)</f>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="34">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="BE10" s="26">
         <f>AP10*5*0.3+BD10*0.7</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="BF10" s="54">
+        <v>3.4199380444117216</v>
+      </c>
+      <c r="BF10" s="46">
         <f>AVERAGE(V10,AI10,BE10)</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58" ht="29.25" customHeight="1">
+        <v>3.7850840592156287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>2210005</v>
+        <v>2210261</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.65275177836225751</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I11" s="49">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <f>0.051053241/$J$1</f>
+        <v>0.89983680589618087</v>
+      </c>
+      <c r="K11" s="8">
+        <f>0.0312384259/$K$1</f>
+        <v>0.6069260169825651</v>
+      </c>
+      <c r="L11" s="37">
+        <f>AVERAGE(F11:K11)</f>
+        <v>0.81659470742939488</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="18" t="str" cm="1">
+        <f t="array" ref="N11">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
+        <v>Gesto Correspondiente a la palabra "CORTO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R11" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="S11" s="24">
+        <v>5</v>
+      </c>
+      <c r="T11" s="24">
+        <v>5</v>
+      </c>
+      <c r="U11" s="25">
+        <f>AVERAGE(P11:T11)</f>
+        <v>4.84</v>
+      </c>
+      <c r="V11" s="26">
+        <f>U11*0.7+L11*5*0.3</f>
+        <v>4.612892061144092</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="28">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE11" s="28">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="28">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH11" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="AI11" s="35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="37">
+        <f>AVERAGE(L11,AC11,AK11)</f>
+        <v>0.93886490247646492</v>
+      </c>
+      <c r="AQ11" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR11" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ11" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="BA11" s="24">
+        <v>3.1</v>
+      </c>
+      <c r="BB11" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="BC11" s="24">
+        <v>3</v>
+      </c>
+      <c r="BD11" s="36">
+        <f>AVERAGE(AZ11:BC11)</f>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="BE11" s="26">
+        <f>AP11*5*0.3+BD11*0.7</f>
+        <v>3.4557973537146971</v>
+      </c>
+      <c r="BF11" s="46">
+        <f>AVERAGE(V11,AI11,BE11)</f>
+        <v>4.1562298049529298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>2211352</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.66585548484359414</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I12" s="49">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <f>0.049791667/$J$1</f>
+        <v>0.87760098508782769</v>
+      </c>
+      <c r="K12" s="8">
+        <f>0.0328703704/$K$1</f>
+        <v>0.6386327866671927</v>
+      </c>
+      <c r="L12" s="37">
+        <f>AVERAGE(F12:K12)</f>
+        <v>0.80091270554455229</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5</v>
+      </c>
+      <c r="N12" s="18" t="str" cm="1">
+        <f t="array" ref="N12">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="R12" s="24">
+        <v>2.9</v>
+      </c>
+      <c r="S12" s="24">
+        <v>5</v>
+      </c>
+      <c r="T12" s="24">
+        <v>2</v>
+      </c>
+      <c r="U12" s="25">
+        <f>AVERAGE(P12:T12)</f>
+        <v>3.7400000000000007</v>
+      </c>
+      <c r="V12" s="26">
+        <f>U12*0.7+L12*5*0.3</f>
+        <v>3.8193690583168287</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0.45959318321096959</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0.9657266810264632</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0.46638537263693858</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="27">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AC12" s="31">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AD12" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="28">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AG12" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="AH12" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="AI12" s="35">
+        <v>3.4</v>
+      </c>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="37">
+        <f>AVERAGE(L12,AC12,AK12)</f>
+        <v>0.85663756851485073</v>
+      </c>
+      <c r="AQ12" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ12" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="BA12" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="BB12" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="BC12" s="24">
+        <v>2</v>
+      </c>
+      <c r="BD12" s="36">
+        <f>AVERAGE(AZ12:BC12)</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="BE12" s="26">
+        <f>AP12*5*0.3+BD12*0.7</f>
+        <v>2.8774563527722758</v>
+      </c>
+      <c r="BF12" s="46">
+        <f>AVERAGE(V12,AI12,BE12)</f>
+        <v>3.3656084703630351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2211671</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.5979034070853726</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.71099687082300078</v>
+      </c>
+      <c r="I13" s="49">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <f>0.050231481/$J$1</f>
+        <v>0.8853529087110199</v>
+      </c>
+      <c r="K13" s="8">
+        <f>0.0268865741/$K$1</f>
+        <v>0.52237463504265735</v>
+      </c>
+      <c r="L13" s="37">
+        <f>AVERAGE(F13:K13)</f>
+        <v>0.78054908138811963</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5</v>
+      </c>
+      <c r="N13" s="18" t="str" cm="1">
+        <f t="array" ref="N13">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="R13" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="S13" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="T13" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U13" s="25">
+        <f>AVERAGE(P13:T13)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V13" s="26">
+        <f>U13*0.7+L13*5*0.3</f>
+        <v>4.138823622082179</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0.874106651948934</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0.78047722339159897</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0.93895921243070513</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="27">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="AC13" s="31">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="AD13" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="AF13" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="AH13" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AI13" s="35">
+        <v>3.2</v>
+      </c>
+      <c r="AJ13" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK13" s="52">
+        <v>0.26298788697633846</v>
+      </c>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="37">
+        <f>AVERAGE(L13,AC13,AK13)</f>
+        <v>0.57251232278815267</v>
+      </c>
+      <c r="AQ13" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR13" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>1980</v>
+      </c>
+      <c r="AY13" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ13" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="BA13" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="BB13" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="BC13" s="24">
+        <v>2</v>
+      </c>
+      <c r="BD13" s="36">
+        <f>AVERAGE(AZ13:BC13)</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="BE13" s="26">
+        <f>AP13*5*0.3+BD13*0.7</f>
+        <v>2.4512684841822288</v>
+      </c>
+      <c r="BF13" s="46">
+        <f>AVERAGE(V13,AI13,BE13)</f>
+        <v>3.2633640354214695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>2210005</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F14" s="8">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G14" s="8">
         <v>0.64002246358209225</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H14" s="8">
         <v>0.73245417967738757</v>
       </c>
-      <c r="I11" s="58">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="I14" s="49">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
         <f>0.048715278/$J$1</f>
         <v>0.8586291349037859</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K14" s="8">
         <f>0.0339467593/$K$1</f>
         <v>0.65954576192057257</v>
       </c>
-      <c r="L11" s="45">
-        <f>AVERAGE(F11:K11)</f>
+      <c r="L14" s="37">
+        <f>AVERAGE(F14:K14)</f>
         <v>0.80955303445841753</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M14" s="3">
         <v>5</v>
       </c>
-      <c r="N11" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">_xlfn.IFS(M11=1,Sheet1!$A$1,M11=2,Sheet1!$A$2,M11=3,Sheet1!$A$3,M11=4,Sheet1!$A$4,M11=5,Sheet1!$A$5,M11=6,Sheet1!$A$6,M11=7,Sheet1!$A$7,M11=8,Sheet1!$A$8,M11="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O11" s="31" t="s">
+      <c r="N14" s="18" t="str" cm="1">
+        <f t="array" ref="N14">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
+        <v>Gesto Correspondiente a la palabra "TORTUGA" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O14" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P14" s="24">
         <v>5</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q14" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R14" s="24">
         <v>4.5</v>
       </c>
-      <c r="S11" s="32">
+      <c r="S14" s="24">
         <v>3.3</v>
       </c>
-      <c r="T11" s="32">
+      <c r="T14" s="24">
         <v>5</v>
       </c>
-      <c r="U11" s="33">
-        <f>AVERAGE(P11:T11)</f>
+      <c r="U14" s="25">
+        <f>AVERAGE(P14:T14)</f>
         <v>4.38</v>
       </c>
-      <c r="V11" s="34">
-        <f>U11*0.7+L11*5*0.3</f>
+      <c r="V14" s="26">
+        <f>U14*0.7+L14*5*0.3</f>
         <v>4.2803295516876263</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W14" s="8">
         <v>0.13304013194119671</v>
       </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
         <v>0.88973277078552115</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z14" s="8">
         <v>0.73346560870442812</v>
       </c>
-      <c r="AA11" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="35">
+      <c r="AA14" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="27">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AC11" s="39">
+      <c r="AC14" s="31">
         <v>0.45100000000000001</v>
       </c>
-      <c r="AD11" s="36">
+      <c r="AD14" s="28">
         <v>5</v>
       </c>
-      <c r="AE11" s="36">
+      <c r="AE14" s="28">
         <v>3.9</v>
       </c>
-      <c r="AF11" s="36">
+      <c r="AF14" s="28">
         <v>3</v>
       </c>
-      <c r="AG11" s="36">
+      <c r="AG14" s="28">
         <v>3.5</v>
       </c>
-      <c r="AH11" s="41">
+      <c r="AH14" s="33">
         <v>3.9</v>
       </c>
-      <c r="AI11" s="43">
+      <c r="AI14" s="35">
         <v>3.4</v>
       </c>
-      <c r="AJ11" s="7" t="s">
+      <c r="AJ14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AK11" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="45">
-        <f>AVERAGE(L11,AC11,AK11)</f>
+      <c r="AK14" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="37">
+        <f>AVERAGE(L14,AC14,AK14)</f>
         <v>0.75351767815280579</v>
       </c>
-      <c r="AQ11" s="31" t="s">
+      <c r="AQ14" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AR14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="18" t="s">
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="AZ11" s="32">
+      <c r="AZ14" s="24">
         <v>2.1</v>
       </c>
-      <c r="BA11" s="32">
+      <c r="BA14" s="24">
         <v>3.5</v>
       </c>
-      <c r="BB11" s="32">
+      <c r="BB14" s="24">
         <v>1.5</v>
       </c>
-      <c r="BC11" s="32">
+      <c r="BC14" s="24">
         <v>2</v>
       </c>
-      <c r="BD11" s="44">
-        <f>AVERAGE(AZ11:BC11)</f>
+      <c r="BD14" s="36">
+        <f>AVERAGE(AZ14:BC14)</f>
         <v>2.2749999999999999</v>
       </c>
-      <c r="BE11" s="34">
-        <f>AP11*5*0.3+BD11*0.7</f>
+      <c r="BE14" s="26">
+        <f>AP14*5*0.3+BD14*0.7</f>
         <v>2.7227765172292084</v>
       </c>
-      <c r="BF11" s="54">
-        <f>AVERAGE(V11,AI11,BE11)</f>
+      <c r="BF14" s="46">
+        <f>AVERAGE(V14,AI14,BE14)</f>
         <v>3.4677020229722779</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="29.25" customHeight="1">
-      <c r="A12" s="7">
-        <v>2211671</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.5979034070853726</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0.71099687082300078</v>
-      </c>
-      <c r="I12" s="58">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8">
-        <f>0.050231481/$J$1</f>
-        <v>0.8853529087110199</v>
-      </c>
-      <c r="K12" s="8">
-        <f>0.0268865741/$K$1</f>
-        <v>0.52237463504265735</v>
-      </c>
-      <c r="L12" s="45">
-        <f>AVERAGE(F12:K12)</f>
-        <v>0.78054908138811963</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5</v>
-      </c>
-      <c r="N12" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">_xlfn.IFS(M12=1,Sheet1!$A$1,M12=2,Sheet1!$A$2,M12=3,Sheet1!$A$3,M12=4,Sheet1!$A$4,M12=5,Sheet1!$A$5,M12=6,Sheet1!$A$6,M12=7,Sheet1!$A$7,M12=8,Sheet1!$A$8,M12="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="32">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>3.8</v>
-      </c>
-      <c r="R12" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="S12" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="T12" s="32">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U12" s="33">
-        <f>AVERAGE(P12:T12)</f>
-        <v>4.24</v>
-      </c>
-      <c r="V12" s="34">
-        <f>U12*0.7+L12*5*0.3</f>
-        <v>4.138823622082179</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0.874106651948934</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0.78047722339159897</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0.93895921243070513</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="35">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="AC12" s="39">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="AD12" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE12" s="36">
-        <v>1.6</v>
-      </c>
-      <c r="AF12" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="AG12" s="36">
-        <v>3.5</v>
-      </c>
-      <c r="AH12" s="41">
-        <v>3.2</v>
-      </c>
-      <c r="AI12" s="43">
-        <v>3.2</v>
-      </c>
-      <c r="AJ12" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK12" s="61">
-        <v>0.26298788697633846</v>
-      </c>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="45">
-        <f>AVERAGE(L12,AC12,AK12)</f>
-        <v>0.57251232278815267</v>
-      </c>
-      <c r="AQ12" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR12" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>2</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="AX12" s="3">
-        <v>1980</v>
-      </c>
-      <c r="AY12" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ12" s="32">
-        <v>2.1</v>
-      </c>
-      <c r="BA12" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="BB12" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="BC12" s="32">
-        <v>2</v>
-      </c>
-      <c r="BD12" s="44">
-        <f>AVERAGE(AZ12:BC12)</f>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="BE12" s="34">
-        <f>AP12*5*0.3+BD12*0.7</f>
-        <v>2.4512684841822288</v>
-      </c>
-      <c r="BF12" s="54">
-        <f>AVERAGE(V12,AI12,BE12)</f>
-        <v>3.2633640354214695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58" ht="29.25" customHeight="1">
-      <c r="A13" s="7">
-        <v>2210261</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.65275177836225751</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I13" s="58">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <f>0.051053241/$J$1</f>
-        <v>0.89983680589618087</v>
-      </c>
-      <c r="K13" s="8">
-        <f>0.0312384259/$K$1</f>
-        <v>0.6069260169825651</v>
-      </c>
-      <c r="L13" s="45">
-        <f>AVERAGE(F13:K13)</f>
-        <v>0.81659470742939488</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">_xlfn.IFS(M13=1,Sheet1!$A$1,M13=2,Sheet1!$A$2,M13=3,Sheet1!$A$3,M13=4,Sheet1!$A$4,M13=5,Sheet1!$A$5,M13=6,Sheet1!$A$6,M13=7,Sheet1!$A$7,M13=8,Sheet1!$A$8,M13="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="32">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="32">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R13" s="32">
-        <v>4.8</v>
-      </c>
-      <c r="S13" s="32">
-        <v>5</v>
-      </c>
-      <c r="T13" s="32">
-        <v>5</v>
-      </c>
-      <c r="U13" s="33">
-        <f>AVERAGE(P13:T13)</f>
-        <v>4.84</v>
-      </c>
-      <c r="V13" s="34">
-        <f>U13*0.7+L13*5*0.3</f>
-        <v>4.612892061144092</v>
-      </c>
-      <c r="W13" s="8">
-        <v>1</v>
-      </c>
-      <c r="X13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="36">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AE13" s="36">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="36">
-        <v>4</v>
-      </c>
-      <c r="AG13" s="36">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH13" s="41">
-        <v>4.2</v>
-      </c>
-      <c r="AI13" s="43">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="45">
-        <f>AVERAGE(L13,AC13,AK13)</f>
-        <v>0.93886490247646492</v>
-      </c>
-      <c r="AQ13" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR13" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ13" s="32">
-        <v>1.3</v>
-      </c>
-      <c r="BA13" s="32">
-        <v>3.1</v>
-      </c>
-      <c r="BB13" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="BC13" s="32">
-        <v>3</v>
-      </c>
-      <c r="BD13" s="44">
-        <f>AVERAGE(AZ13:BC13)</f>
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="BE13" s="34">
-        <f>AP13*5*0.3+BD13*0.7</f>
-        <v>3.4557973537146971</v>
-      </c>
-      <c r="BF13" s="54">
-        <f>AVERAGE(V13,AI13,BE13)</f>
-        <v>4.1562298049529298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58" ht="29.25" customHeight="1">
-      <c r="A14" s="7">
-        <v>2200689</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.46593036325443599</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.62650871710347011</v>
-      </c>
-      <c r="I14" s="58">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <f>0.018946759/$J$1</f>
-        <v>0.33394532387561288</v>
-      </c>
-      <c r="K14" s="8">
-        <f>0.0009027778/$K$1</f>
-        <v>1.7539914979335842E-2</v>
-      </c>
-      <c r="L14" s="45">
-        <f>AVERAGE(F14:K14)</f>
-        <v>0.57398738653547587</v>
-      </c>
-      <c r="M14" s="3">
-        <v>6</v>
-      </c>
-      <c r="N14" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">_xlfn.IFS(M14=1,Sheet1!$A$1,M14=2,Sheet1!$A$2,M14=3,Sheet1!$A$3,M14=4,Sheet1!$A$4,M14=5,Sheet1!$A$5,M14=6,Sheet1!$A$6,M14=7,Sheet1!$A$7,M14=8,Sheet1!$A$8,M14="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" s="32">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>0</v>
-      </c>
-      <c r="R14" s="32">
-        <v>0</v>
-      </c>
-      <c r="S14" s="32">
-        <v>0</v>
-      </c>
-      <c r="T14" s="32">
-        <v>5</v>
-      </c>
-      <c r="U14" s="33">
-        <f>AVERAGE(P14:T14)</f>
-        <v>2</v>
-      </c>
-      <c r="V14" s="34">
-        <f>U14*0.7+L14*5*0.3</f>
-        <v>2.2609810798032139</v>
-      </c>
-      <c r="W14" s="8">
-        <v>1</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0.3002169198176699</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>0.53373015861507977</v>
-      </c>
-      <c r="AA14" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="39">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="AD14" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="41">
-        <v>1.3</v>
-      </c>
-      <c r="AI14" s="43">
-        <v>1.6</v>
-      </c>
-      <c r="AJ14" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK14" s="60">
-        <v>0.74751009409613423</v>
-      </c>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="45">
-        <f>AVERAGE(L14,AC14,AK14)</f>
-        <v>0.59783249354387002</v>
-      </c>
-      <c r="AQ14" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR14" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="47"/>
-      <c r="AV14" s="47"/>
-      <c r="AW14" s="47"/>
-      <c r="AX14" s="47"/>
-      <c r="AY14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ14" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="BA14" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="32">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="32">
-        <v>2</v>
-      </c>
-      <c r="BD14" s="44">
-        <f>AVERAGE(AZ14:BC14)</f>
-        <v>0.6</v>
-      </c>
-      <c r="BE14" s="34">
-        <f>AP14*5*0.3+BD14*0.7</f>
-        <v>1.3167487403158051</v>
-      </c>
-      <c r="BF14" s="54">
-        <f>AVERAGE(V14,AI14,BE14)</f>
-        <v>1.7259099400396731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58" ht="29.25" customHeight="1">
+    <row r="15" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>2206464</v>
+        <v>2210177</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>0.67877199547434519</v>
+        <v>0.69337326840732949</v>
       </c>
       <c r="H15" s="8">
-        <v>0.73938310241610217</v>
-      </c>
-      <c r="I15" s="58">
+        <v>0.73983012964877437</v>
+      </c>
+      <c r="I15" s="49">
         <v>1</v>
       </c>
       <c r="J15" s="8">
@@ -4087,791 +4081,825 @@
         <v>0.95858833001016097</v>
       </c>
       <c r="K15" s="8">
-        <f>0.0365972222/$K$1</f>
-        <v>0.71104115084338837</v>
-      </c>
-      <c r="L15" s="45">
+        <f>0.0379513889/$K$1</f>
+        <v>0.73735102331239211</v>
+      </c>
+      <c r="L15" s="37">
         <f>AVERAGE(F15:K15)</f>
-        <v>0.84796409645733284</v>
+        <v>0.85485712522977619</v>
       </c>
       <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" s="32">
+        <v>3</v>
+      </c>
+      <c r="N15" s="18" t="str" cm="1">
+        <f t="array" ref="N15">_xlfn.IFS(M15=1,Sheet1!$A$1,M15=2,Sheet1!$A$2,M15=3,Sheet1!$A$3,M15=4,Sheet1!$A$4,M15=5,Sheet1!$A$5,M15=6,Sheet1!$A$6,M15=7,Sheet1!$A$7,M15=8,Sheet1!$A$8,M15="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R15" s="24">
+        <v>5</v>
+      </c>
+      <c r="S15" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="T15" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="U15" s="25">
+        <f>AVERAGE(P15:T15)</f>
+        <v>4.24</v>
+      </c>
+      <c r="V15" s="26">
+        <f>U15*0.7+L15*5*0.3</f>
+        <v>4.2502856878446647</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1</v>
+      </c>
+      <c r="X15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="28">
         <v>3.9</v>
       </c>
-      <c r="R15" s="32">
-        <v>5</v>
-      </c>
-      <c r="S15" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="T15" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="U15" s="33">
-        <f>AVERAGE(P15:T15)</f>
-        <v>4</v>
-      </c>
-      <c r="V15" s="34">
-        <f>U15*0.7+L15*5*0.3</f>
-        <v>4.0719461446859988</v>
-      </c>
-      <c r="W15" s="8">
-        <v>1</v>
-      </c>
-      <c r="X15" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="36">
-        <v>3.1</v>
-      </c>
-      <c r="AF15" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="AG15" s="36">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH15" s="41">
-        <v>3.9</v>
-      </c>
-      <c r="AI15" s="43">
+      <c r="AF15" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="AG15" s="28">
+        <v>3.8</v>
+      </c>
+      <c r="AH15" s="33">
+        <v>3.8</v>
+      </c>
+      <c r="AI15" s="35">
         <v>4.2</v>
       </c>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="45">
+      <c r="AJ15" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK15" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="37">
         <f>AVERAGE(L15,AC15,AK15)</f>
-        <v>0.94932136548577761</v>
-      </c>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="46"/>
-      <c r="AS15" s="47"/>
-      <c r="AT15" s="47"/>
-      <c r="AU15" s="47"/>
-      <c r="AV15" s="47"/>
-      <c r="AW15" s="47"/>
-      <c r="AX15" s="47"/>
-      <c r="AY15" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ15" s="32">
+        <v>0.95161904174325873</v>
+      </c>
+      <c r="AQ15" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS15" s="39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AT15" s="39">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="39">
+        <v>1000</v>
+      </c>
+      <c r="AV15" s="39">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="39">
+        <v>2.35</v>
+      </c>
+      <c r="AX15" s="39">
+        <v>2000</v>
+      </c>
+      <c r="AY15" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ15" s="24">
+        <v>2.9</v>
+      </c>
+      <c r="BA15" s="24">
         <v>1.3</v>
       </c>
-      <c r="BA15" s="32">
-        <v>3.1</v>
-      </c>
-      <c r="BB15" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="BC15" s="32">
+      <c r="BB15" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="BC15" s="24">
         <v>3</v>
       </c>
-      <c r="BD15" s="44">
+      <c r="BD15" s="36">
         <f>AVERAGE(AZ15:BC15)</f>
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="BE15" s="34">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="BE15" s="26">
         <f>AP15*5*0.3+BD15*0.7</f>
-        <v>3.4714820482286664</v>
-      </c>
-      <c r="BF15" s="54">
+        <v>3.1249285626148877</v>
+      </c>
+      <c r="BF15" s="46">
         <f>AVERAGE(V15,AI15,BE15)</f>
-        <v>3.9144760643048877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58" ht="29.25" customHeight="1">
+        <v>3.8584047501531842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>2215280</v>
+        <v>2210955</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G16" s="8">
-        <v>0.68494945713152144</v>
+        <v>0.66248596035680685</v>
       </c>
       <c r="H16" s="8">
         <v>0.74005364333536561</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="49">
         <v>1</v>
       </c>
       <c r="J16" s="8">
+        <f>0.053993056/$J$1</f>
+        <v>0.95165239463668183</v>
+      </c>
+      <c r="K16" s="8">
+        <f>0.0346412037/$K$1</f>
+        <v>0.67303800301674921</v>
+      </c>
+      <c r="L16" s="37">
+        <f>AVERAGE(F16:K16)</f>
+        <v>0.78231611133537848</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
+      <c r="N16" s="18" t="str" cm="1">
+        <f t="array" ref="N16">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
+        <v>Gesto Correspondiente a la palabra "MUNDO" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="R16" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="S16" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="T16" s="24">
+        <v>5</v>
+      </c>
+      <c r="U16" s="25">
+        <f>AVERAGE(P16:T16)</f>
+        <v>4.46</v>
+      </c>
+      <c r="V16" s="26">
+        <f>U16*0.7+L16*5*0.3</f>
+        <v>4.2954741670030678</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1</v>
+      </c>
+      <c r="X16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="AF16" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="AG16" s="28">
+        <v>3.8</v>
+      </c>
+      <c r="AH16" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="AI16" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="AJ16" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK16" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="37">
+        <f>AVERAGE(L16,AC16,AK16)</f>
+        <v>0.92743870377845949</v>
+      </c>
+      <c r="AQ16" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR16" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="39"/>
+      <c r="AY16" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ16" s="24">
+        <v>2.9</v>
+      </c>
+      <c r="BA16" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="BB16" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="BC16" s="24">
+        <v>3</v>
+      </c>
+      <c r="BD16" s="36">
+        <f>AVERAGE(AZ16:BC16)</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="BE16" s="26">
+        <f>AP16*5*0.3+BD16*0.7</f>
+        <v>3.0886580556676888</v>
+      </c>
+      <c r="BF16" s="46">
+        <f>AVERAGE(V16,AI16,BE16)</f>
+        <v>3.8613774075569189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>2216295</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.60857356797981244</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.71881984802705978</v>
+      </c>
+      <c r="I17" s="49">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <f>0.04931713/$J$1</f>
+        <v>0.86923705265189177</v>
+      </c>
+      <c r="K17" s="8">
+        <f>0.0337384259/$K$1</f>
+        <v>0.65549808803741338</v>
+      </c>
+      <c r="L17" s="37">
+        <f>AVERAGE(F17:K17)</f>
+        <v>0.79202142611602966</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4</v>
+      </c>
+      <c r="N17" s="18" t="str" cm="1">
+        <f t="array" ref="N17">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R17" s="24">
+        <v>5</v>
+      </c>
+      <c r="S17" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="T17" s="24">
+        <v>5</v>
+      </c>
+      <c r="U17" s="25">
+        <f>AVERAGE(P17:T17)</f>
+        <v>4.58</v>
+      </c>
+      <c r="V17" s="26">
+        <f>U17*0.7+L17*5*0.3</f>
+        <v>4.394032139174044</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0.9145134689971629</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0.31496746201916759</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0.80196905770117399</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="27">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AC17" s="31">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AD17" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="28">
+        <v>4.7</v>
+      </c>
+      <c r="AF17" s="28">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="28">
+        <v>4.3</v>
+      </c>
+      <c r="AH17" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="AI17" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="AJ17" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK17" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="37">
+        <f>AVERAGE(L17,AC17,AK17)</f>
+        <v>0.87534047537200987</v>
+      </c>
+      <c r="AQ17" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR17" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS17" s="39">
+        <v>2.7</v>
+      </c>
+      <c r="AT17" s="39">
+        <v>3</v>
+      </c>
+      <c r="AU17" s="39">
+        <v>1120</v>
+      </c>
+      <c r="AV17" s="39">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="39">
+        <v>1.98</v>
+      </c>
+      <c r="AX17" s="39">
+        <v>2200</v>
+      </c>
+      <c r="AY17" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ17" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="BA17" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="BB17" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="BC17" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="BD17" s="36">
+        <f>AVERAGE(AZ17:BC17)</f>
+        <v>3.4749999999999996</v>
+      </c>
+      <c r="BE17" s="26">
+        <f>AP17*5*0.3+BD17*0.7</f>
+        <v>3.7455107130580148</v>
+      </c>
+      <c r="BF17" s="46">
+        <f>AVERAGE(V17,AI17,BE17)</f>
+        <v>4.1131809507440193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2215280</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.68494945713152144</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.74005364333536561</v>
+      </c>
+      <c r="I18" s="49">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
         <f>0.050578704/$J$1</f>
         <v>0.89147287346024495</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K18" s="8">
         <f>0.0334606481/$K$1</f>
         <v>0.65010119082178952</v>
       </c>
-      <c r="L16" s="45">
-        <f>AVERAGE(F16:K16)</f>
+      <c r="L18" s="37">
+        <f>AVERAGE(F18:K18)</f>
         <v>0.82776286079148698</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M18" s="3">
         <v>4</v>
       </c>
-      <c r="N16" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">_xlfn.IFS(M16=1,Sheet1!$A$1,M16=2,Sheet1!$A$2,M16=3,Sheet1!$A$3,M16=4,Sheet1!$A$4,M16=5,Sheet1!$A$5,M16=6,Sheet1!$A$6,M16=7,Sheet1!$A$7,M16=8,Sheet1!$A$8,M16="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O16" s="31" t="s">
+      <c r="N18" s="18" t="str" cm="1">
+        <f t="array" ref="N18">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P18" s="24">
         <v>5</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q18" s="24">
         <v>4</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R18" s="24">
         <v>4.3</v>
       </c>
-      <c r="S16" s="32">
+      <c r="S18" s="24">
         <v>3.3</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T18" s="24">
         <v>5</v>
       </c>
-      <c r="U16" s="33">
-        <f>AVERAGE(P16:T16)</f>
+      <c r="U18" s="25">
+        <f>AVERAGE(P18:T18)</f>
         <v>4.32</v>
       </c>
-      <c r="V16" s="34">
-        <f>U16*0.7+L16*5*0.3</f>
+      <c r="V18" s="26">
+        <f>U18*0.7+L18*5*0.3</f>
         <v>4.2656442911872308</v>
       </c>
-      <c r="W16" s="8">
-        <v>0</v>
-      </c>
-      <c r="X16" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="39">
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="31">
         <v>0.83299999999999996</v>
       </c>
-      <c r="AD16" s="36">
+      <c r="AD18" s="28">
         <v>5</v>
       </c>
-      <c r="AE16" s="36">
+      <c r="AE18" s="28">
         <v>3.5</v>
       </c>
-      <c r="AF16" s="36">
+      <c r="AF18" s="28">
         <v>4.2</v>
       </c>
-      <c r="AG16" s="36">
+      <c r="AG18" s="28">
         <v>4.3</v>
       </c>
-      <c r="AH16" s="41">
+      <c r="AH18" s="33">
         <v>4.3</v>
       </c>
-      <c r="AI16" s="43">
+      <c r="AI18" s="35">
         <v>4.2</v>
       </c>
-      <c r="AJ16" s="31" t="s">
+      <c r="AJ18" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AK16" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="45">
-        <f>AVERAGE(L16,AC16,AK16)</f>
+      <c r="AK18" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="37">
+        <f>AVERAGE(L18,AC18,AK18)</f>
         <v>0.88692095359716239</v>
       </c>
-      <c r="AQ16" s="31" t="s">
+      <c r="AQ18" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="AR16" s="50" t="s">
+      <c r="AR18" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AS16" s="47"/>
-      <c r="AT16" s="47"/>
-      <c r="AU16" s="47"/>
-      <c r="AV16" s="47"/>
-      <c r="AW16" s="47"/>
-      <c r="AX16" s="47"/>
-      <c r="AY16" s="47" t="s">
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="AZ16" s="32">
+      <c r="AZ18" s="24">
         <v>3.3</v>
       </c>
-      <c r="BA16" s="32">
+      <c r="BA18" s="24">
         <v>3.8</v>
       </c>
-      <c r="BB16" s="32">
+      <c r="BB18" s="24">
         <v>4.3</v>
       </c>
-      <c r="BC16" s="32">
+      <c r="BC18" s="24">
         <v>2.5</v>
       </c>
-      <c r="BD16" s="44">
-        <f>AVERAGE(AZ16:BC16)</f>
+      <c r="BD18" s="36">
+        <f>AVERAGE(AZ18:BC18)</f>
         <v>3.4749999999999996</v>
       </c>
-      <c r="BE16" s="34">
-        <f>AP16*5*0.3+BD16*0.7</f>
+      <c r="BE18" s="26">
+        <f>AP18*5*0.3+BD18*0.7</f>
         <v>3.7628814303957432</v>
       </c>
-      <c r="BF16" s="54">
-        <f>AVERAGE(V16,AI16,BE16)</f>
+      <c r="BF18" s="46">
+        <f>AVERAGE(V18,AI18,BE18)</f>
         <v>4.0761752405276583</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="29.25" customHeight="1">
-      <c r="A17" s="7">
+    <row r="19" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>2210166</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F19" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G19" s="8">
         <v>0.65293897421284319</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H19" s="8">
         <v>0.70183281192092528</v>
       </c>
-      <c r="I17" s="58">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="I19" s="49">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
         <f>0.049803241/$J$1</f>
         <v>0.87780498215025593</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K19" s="8">
         <f>0.0357291667/$K$1</f>
         <v>0.69417584947316768</v>
       </c>
-      <c r="L17" s="45">
-        <f>AVERAGE(F17:K17)</f>
+      <c r="L19" s="37">
+        <f>AVERAGE(F19:K19)</f>
         <v>0.80723654740397643</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M19" s="3">
         <v>4</v>
       </c>
-      <c r="N17" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">_xlfn.IFS(M17=1,Sheet1!$A$1,M17=2,Sheet1!$A$2,M17=3,Sheet1!$A$3,M17=4,Sheet1!$A$4,M17=5,Sheet1!$A$5,M17=6,Sheet1!$A$6,M17=7,Sheet1!$A$7,M17=8,Sheet1!$A$8,M17="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O17" s="31" t="s">
+      <c r="N19" s="18" t="str" cm="1">
+        <f t="array" ref="N19">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
+        <v>Gesto Correspondiente a la palabra "ECUADOR" según el lenguaje de señas colombiano</v>
+      </c>
+      <c r="O19" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P19" s="24">
         <v>5</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q19" s="24">
         <v>3.8</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R19" s="24">
         <v>4</v>
       </c>
-      <c r="S17" s="32">
+      <c r="S19" s="24">
         <v>3.3</v>
       </c>
-      <c r="T17" s="32">
+      <c r="T19" s="24">
         <v>5</v>
       </c>
-      <c r="U17" s="33">
-        <f>AVERAGE(P17:T17)</f>
+      <c r="U19" s="25">
+        <f>AVERAGE(P19:T19)</f>
         <v>4.2200000000000006</v>
       </c>
-      <c r="V17" s="34">
-        <f>U17*0.7+L17*5*0.3</f>
+      <c r="V19" s="26">
+        <f>U19*0.7+L19*5*0.3</f>
         <v>4.1648548211059646</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W19" s="8">
         <v>0.734469488684663</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X19" s="8">
         <v>0.60260303672111848</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y19" s="8">
         <v>0.82447257383130579</v>
       </c>
-      <c r="Z17" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="35">
+      <c r="Z19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="27">
         <v>0.91200000000000003</v>
       </c>
-      <c r="AC17" s="39">
+      <c r="AC19" s="31">
         <v>0.84599999999999997</v>
       </c>
-      <c r="AD17" s="36">
+      <c r="AD19" s="28">
         <v>5</v>
       </c>
-      <c r="AE17" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="36">
+      <c r="AE19" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="28">
         <v>3.8</v>
       </c>
-      <c r="AG17" s="36">
+      <c r="AG19" s="28">
         <v>4.3</v>
       </c>
-      <c r="AH17" s="41">
+      <c r="AH19" s="33">
         <v>3.3</v>
       </c>
-      <c r="AI17" s="43">
+      <c r="AI19" s="35">
         <v>3.6</v>
       </c>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="60"/>
-      <c r="AP17" s="45">
-        <f>AVERAGE(L17,AC17,AK17)</f>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="37">
+        <f>AVERAGE(L19,AC19,AK19)</f>
         <v>0.88441218246799214</v>
       </c>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="47"/>
-      <c r="AU17" s="47"/>
-      <c r="AV17" s="47"/>
-      <c r="AW17" s="47"/>
-      <c r="AX17" s="47"/>
-      <c r="AY17" s="47" t="s">
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="AZ17" s="32">
+      <c r="AZ19" s="24">
         <v>3.3</v>
       </c>
-      <c r="BA17" s="32">
+      <c r="BA19" s="24">
         <v>3.8</v>
       </c>
-      <c r="BB17" s="32">
+      <c r="BB19" s="24">
         <v>4.3</v>
       </c>
-      <c r="BC17" s="32">
+      <c r="BC19" s="24">
         <v>2.5</v>
       </c>
-      <c r="BD17" s="44">
-        <f>AVERAGE(AZ17:BC17)</f>
+      <c r="BD19" s="36">
+        <f>AVERAGE(AZ19:BC19)</f>
         <v>3.4749999999999996</v>
       </c>
-      <c r="BE17" s="34">
-        <f>AP17*5*0.3+BD17*0.7</f>
+      <c r="BE19" s="26">
+        <f>AP19*5*0.3+BD19*0.7</f>
         <v>3.7591182737019881</v>
       </c>
-      <c r="BF17" s="54">
-        <f>AVERAGE(V17,AI17,BE17)</f>
+      <c r="BF19" s="46">
+        <f>AVERAGE(V19,AI19,BE19)</f>
         <v>3.8413243649359843</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="29.25" customHeight="1">
-      <c r="A18" s="7">
-        <v>2211352</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.66585548484359414</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I18" s="58">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8">
-        <f>0.049791667/$J$1</f>
-        <v>0.87760098508782769</v>
-      </c>
-      <c r="K18" s="8">
-        <f>0.0328703704/$K$1</f>
-        <v>0.6386327866671927</v>
-      </c>
-      <c r="L18" s="45">
-        <f>AVERAGE(F18:K18)</f>
-        <v>0.80091270554455229</v>
-      </c>
-      <c r="M18" s="3">
-        <v>5</v>
-      </c>
-      <c r="N18" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">_xlfn.IFS(M18=1,Sheet1!$A$1,M18=2,Sheet1!$A$2,M18=3,Sheet1!$A$3,M18=4,Sheet1!$A$4,M18=5,Sheet1!$A$5,M18=6,Sheet1!$A$6,M18=7,Sheet1!$A$7,M18=8,Sheet1!$A$8,M18="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" s="32">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>3.8</v>
-      </c>
-      <c r="R18" s="32">
-        <v>2.9</v>
-      </c>
-      <c r="S18" s="32">
-        <v>5</v>
-      </c>
-      <c r="T18" s="32">
-        <v>2</v>
-      </c>
-      <c r="U18" s="33">
-        <f>AVERAGE(P18:T18)</f>
-        <v>3.7400000000000007</v>
-      </c>
-      <c r="V18" s="34">
-        <f>U18*0.7+L18*5*0.3</f>
-        <v>3.8193690583168287</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0.45959318321096959</v>
-      </c>
-      <c r="X18" s="8">
-        <v>0.9657266810264632</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>0.46638537263693858</v>
-      </c>
-      <c r="Z18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="35">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="AC18" s="39">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="AD18" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="36">
-        <v>3</v>
-      </c>
-      <c r="AF18" s="36">
-        <v>1.5</v>
-      </c>
-      <c r="AG18" s="36">
-        <v>3.5</v>
-      </c>
-      <c r="AH18" s="41">
-        <v>3.3</v>
-      </c>
-      <c r="AI18" s="43">
-        <v>3.4</v>
-      </c>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="60"/>
-      <c r="AM18" s="60"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="60"/>
-      <c r="AP18" s="45">
-        <f>AVERAGE(L18,AC18,AK18)</f>
-        <v>0.85663756851485073</v>
-      </c>
-      <c r="AQ18" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ18" s="32">
-        <v>2.1</v>
-      </c>
-      <c r="BA18" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="BB18" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="BC18" s="32">
-        <v>2</v>
-      </c>
-      <c r="BD18" s="44">
-        <f>AVERAGE(AZ18:BC18)</f>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="BE18" s="34">
-        <f>AP18*5*0.3+BD18*0.7</f>
-        <v>2.8774563527722758</v>
-      </c>
-      <c r="BF18" s="54">
-        <f>AVERAGE(V18,AI18,BE18)</f>
-        <v>3.3656084703630351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:58" ht="29.25" customHeight="1">
-      <c r="A19" s="7">
-        <v>2210955</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.66248596035680685</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.74005364333536561</v>
-      </c>
-      <c r="I19" s="58">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <f>0.053993056/$J$1</f>
-        <v>0.95165239463668183</v>
-      </c>
-      <c r="K19" s="8">
-        <f>0.0346412037/$K$1</f>
-        <v>0.67303800301674921</v>
-      </c>
-      <c r="L19" s="45">
-        <f>AVERAGE(F19:K19)</f>
-        <v>0.78231611133537848</v>
-      </c>
-      <c r="M19" s="3">
-        <v>3</v>
-      </c>
-      <c r="N19" s="18" t="e" cm="1">
-        <f t="array" aca="1" ref="N19" ca="1">_xlfn.IFS(M19=1,Sheet1!$A$1,M19=2,Sheet1!$A$2,M19=3,Sheet1!$A$3,M19=4,Sheet1!$A$4,M19=5,Sheet1!$A$5,M19=6,Sheet1!$A$6,M19=7,Sheet1!$A$7,M19=8,Sheet1!$A$8,M19="","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="32">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="R19" s="32">
-        <v>4.8</v>
-      </c>
-      <c r="S19" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="T19" s="32">
-        <v>5</v>
-      </c>
-      <c r="U19" s="33">
-        <f>AVERAGE(P19:T19)</f>
-        <v>4.46</v>
-      </c>
-      <c r="V19" s="34">
-        <f>U19*0.7+L19*5*0.3</f>
-        <v>4.2954741670030678</v>
-      </c>
-      <c r="W19" s="8">
-        <v>1</v>
-      </c>
-      <c r="X19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE19" s="36">
-        <v>3.6</v>
-      </c>
-      <c r="AF19" s="36">
-        <v>3.2</v>
-      </c>
-      <c r="AG19" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="AH19" s="41">
-        <v>3.9</v>
-      </c>
-      <c r="AI19" s="43">
-        <v>4.2</v>
-      </c>
-      <c r="AJ19" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK19" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="45">
-        <f>AVERAGE(L19,AC19,AK19)</f>
-        <v>0.92743870377845949</v>
-      </c>
-      <c r="AQ19" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR19" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
-      <c r="AX19" s="47"/>
-      <c r="AY19" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ19" s="32">
-        <v>2.9</v>
-      </c>
-      <c r="BA19" s="32">
-        <v>1.3</v>
-      </c>
-      <c r="BB19" s="32">
-        <v>2.5</v>
-      </c>
-      <c r="BC19" s="32">
-        <v>3</v>
-      </c>
-      <c r="BD19" s="44">
-        <f>AVERAGE(AZ19:BC19)</f>
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="BE19" s="34">
-        <f>AP19*5*0.3+BD19*0.7</f>
-        <v>3.0886580556676888</v>
-      </c>
-      <c r="BF19" s="54">
-        <f>AVERAGE(V19,AI19,BE19)</f>
-        <v>3.8613774075569189</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:BF3">
-    <sortState ref="A4:BF19">
-      <sortCondition ref="B3"/>
+  <autoFilter ref="A3:BF3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BF19">
+      <sortCondition ref="AZ3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="5">
@@ -4882,42 +4910,42 @@
     <mergeCell ref="AD2:AH2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O13" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O15" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="O4" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="O8" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="O19" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="O5" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O16" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O17" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="O11" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O12" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O18" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="O9" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="O14" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="AJ19" r:id="rId16"/>
-    <hyperlink ref="AJ7" r:id="rId17"/>
-    <hyperlink ref="AJ16" r:id="rId18"/>
-    <hyperlink ref="AJ14" r:id="rId19"/>
-    <hyperlink ref="AQ13" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI"/>
-    <hyperlink ref="AQ4" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ"/>
-    <hyperlink ref="AQ7" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB"/>
-    <hyperlink ref="AQ8" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL"/>
-    <hyperlink ref="AQ19" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI"/>
-    <hyperlink ref="AQ5" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS"/>
-    <hyperlink ref="AQ16" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq"/>
-    <hyperlink ref="AQ11" r:id="rId27"/>
-    <hyperlink ref="AQ12" r:id="rId28"/>
-    <hyperlink ref="AQ18" r:id="rId29"/>
-    <hyperlink ref="AQ9" r:id="rId30"/>
-    <hyperlink ref="AQ14" r:id="rId31"/>
-    <hyperlink ref="AR7" r:id="rId32"/>
-    <hyperlink ref="AR19" r:id="rId33"/>
-    <hyperlink ref="AR16" r:id="rId34"/>
-    <hyperlink ref="AR13" r:id="rId35"/>
-    <hyperlink ref="AR14" r:id="rId36"/>
+    <hyperlink ref="O10" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O11" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O9" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O8" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O7" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O15" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O16" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O17" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O18" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O19" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O14" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O12" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O5" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O6" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AJ16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AJ7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AJ18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AJ6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AQ11" r:id="rId20" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Eed0TIkaUk5IvMVMifyIMmABlTBqMJVj5t4EUAFyqmsPFQ?e=ff17eI" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AQ8" r:id="rId21" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ESY2n_QorO1Fr3VytFD-aL8B-H58jldDge1rN2nrEwFMng?e=5pckAJ" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AQ7" r:id="rId22" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/Ee-nDXCt4NNGoT6n15hp-40B34Eu83fSKyPVZuF01gRjew?e=wdnTFB" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AQ15" r:id="rId23" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbgkUjYK_VlCic523bHWXscBftqLbrqyMmZto_sPESuWkQ?e=rpdbnL" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AQ16" r:id="rId24" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EbcX9JlBrIpDjWKAQjFBTw8BBLRG1SH2gimMUl_-ddI-Hw?e=wPACqI" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AQ17" r:id="rId25" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/EWB8eA34xONJotZ4V5hFBkUBjXDGeYYu_TBhK9Pbk6JN4A?e=hq1NqS" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AQ18" r:id="rId26" display="https://uao-my.sharepoint.com/:b:/g/personal/oicampo_uao_edu_co/ETOncsIUuHpCtCA77aQlDosB910EAPAwzi1aGuLIJT8QnQ?e=wpQyMq" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AQ14" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AQ13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AQ12" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AQ5" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AQ6" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR7" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AR16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AR18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AR11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AR6" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
@@ -4925,61 +4953,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,14 +5018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -5005,7 +5033,7 @@
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>81</v>
       </c>
@@ -5019,7 +5047,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -5033,7 +5061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -5047,7 +5075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -5061,7 +5089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -5075,7 +5103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -5089,7 +5117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -5103,7 +5131,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -5117,7 +5145,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -5131,7 +5159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
@@ -5145,7 +5173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
@@ -5159,7 +5187,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -5173,7 +5201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -5187,7 +5215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -5201,7 +5229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -5215,7 +5243,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -5231,35 +5259,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=PclwRs" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="16.85546875" customWidth="1"/>
@@ -5269,24 +5297,24 @@
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>2200833</v>
       </c>
@@ -5315,7 +5343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2216295</v>
       </c>
@@ -5344,7 +5372,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2205127</v>
       </c>
@@ -5373,7 +5401,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2170311</v>
       </c>
@@ -5402,7 +5430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2210177</v>
       </c>
@@ -5431,7 +5459,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2201757</v>
       </c>
@@ -5460,7 +5488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2210005</v>
       </c>
@@ -5489,7 +5517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2211671</v>
       </c>
@@ -5518,7 +5546,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2210261</v>
       </c>
@@ -5547,7 +5575,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2200689</v>
       </c>
@@ -5576,7 +5604,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2206464</v>
       </c>
@@ -5605,7 +5633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2215280</v>
       </c>
@@ -5634,7 +5662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2210166</v>
       </c>
@@ -5663,7 +5691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2211352</v>
       </c>
@@ -5692,7 +5720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2210955</v>
       </c>
